--- a/right_hip_Data.xlsx
+++ b/right_hip_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>417.8333740234375</v>
+        <v>318.2956237792969</v>
       </c>
       <c r="C2" t="n">
-        <v>414.2261352539062</v>
+        <v>314.7120971679688</v>
       </c>
       <c r="D2" t="n">
-        <v>413.4721069335938</v>
+        <v>310.9631652832031</v>
       </c>
       <c r="E2" t="n">
-        <v>412.4598999023438</v>
+        <v>309.6856994628906</v>
       </c>
       <c r="F2" t="n">
-        <v>411.5904541015625</v>
+        <v>309.2885437011719</v>
       </c>
       <c r="G2" t="n">
-        <v>410.7545166015625</v>
+        <v>309.3256225585938</v>
       </c>
       <c r="H2" t="n">
-        <v>410.135009765625</v>
+        <v>309.7662353515625</v>
       </c>
       <c r="I2" t="n">
-        <v>409.1829833984375</v>
+        <v>310.1208190917969</v>
       </c>
       <c r="J2" t="n">
-        <v>407.2534790039062</v>
+        <v>310.3461303710938</v>
       </c>
       <c r="K2" t="n">
-        <v>404.8722839355469</v>
+        <v>311.2722473144531</v>
       </c>
       <c r="L2" t="n">
-        <v>403.2191162109375</v>
+        <v>312.1087036132812</v>
       </c>
       <c r="M2" t="n">
-        <v>400.8077697753906</v>
+        <v>312.8806457519531</v>
       </c>
       <c r="N2" t="n">
-        <v>398.5106811523438</v>
+        <v>313.4609069824219</v>
       </c>
       <c r="O2" t="n">
-        <v>396.5946960449219</v>
+        <v>313.8418273925781</v>
       </c>
       <c r="P2" t="n">
-        <v>395.6181030273438</v>
+        <v>314.2340698242188</v>
       </c>
       <c r="Q2" t="n">
-        <v>395.3359985351562</v>
+        <v>314.5717163085938</v>
       </c>
       <c r="R2" t="n">
-        <v>394.0920715332031</v>
+        <v>314.9267883300781</v>
       </c>
       <c r="S2" t="n">
-        <v>392.6806640625</v>
+        <v>315.245849609375</v>
       </c>
       <c r="T2" t="n">
-        <v>391.3180236816406</v>
+        <v>315.5145568847656</v>
       </c>
       <c r="U2" t="n">
-        <v>389.0169067382812</v>
+        <v>315.6436767578125</v>
       </c>
       <c r="V2" t="n">
-        <v>386.6595764160156</v>
+        <v>315.8979797363281</v>
       </c>
       <c r="W2" t="n">
-        <v>385.0131530761719</v>
+        <v>316.091064453125</v>
       </c>
       <c r="X2" t="n">
-        <v>383.1758422851562</v>
+        <v>316.2160339355469</v>
       </c>
       <c r="Y2" t="n">
-        <v>381.3180847167969</v>
+        <v>316.3802490234375</v>
       </c>
       <c r="Z2" t="n">
-        <v>380.3677978515625</v>
+        <v>316.4967041015625</v>
       </c>
       <c r="AA2" t="n">
-        <v>379.8120422363281</v>
+        <v>316.6373291015625</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.527099609375</v>
+        <v>316.8598327636719</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.1927185058594</v>
+        <v>316.9424438476562</v>
       </c>
       <c r="AD2" t="n">
-        <v>376.6815795898438</v>
+        <v>317.0526733398438</v>
       </c>
       <c r="AE2" t="n">
-        <v>373.6594848632812</v>
+        <v>317.2618408203125</v>
       </c>
       <c r="AF2" t="n">
-        <v>371.2637939453125</v>
+        <v>317.4257202148438</v>
       </c>
       <c r="AG2" t="n">
-        <v>370.7763977050781</v>
+        <v>317.564697265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>371.3677673339844</v>
+        <v>317.6920471191406</v>
       </c>
       <c r="AI2" t="n">
-        <v>372.0816650390625</v>
+        <v>317.8053283691406</v>
       </c>
       <c r="AJ2" t="n">
-        <v>371.9608154296875</v>
+        <v>317.9071960449219</v>
       </c>
       <c r="AK2" t="n">
-        <v>371.048828125</v>
+        <v>318.0108337402344</v>
       </c>
       <c r="AL2" t="n">
-        <v>370.958251953125</v>
+        <v>318.2331848144531</v>
       </c>
       <c r="AM2" t="n">
-        <v>371.6587524414062</v>
+        <v>318.4626159667969</v>
       </c>
       <c r="AN2" t="n">
-        <v>370.9400634765625</v>
+        <v>318.5639038085938</v>
       </c>
       <c r="AO2" t="n">
-        <v>370.215576171875</v>
+        <v>318.5889892578125</v>
       </c>
       <c r="AP2" t="n">
-        <v>369.5345764160156</v>
+        <v>318.7103881835938</v>
       </c>
       <c r="AQ2" t="n">
-        <v>369.2555541992188</v>
+        <v>319.8657531738281</v>
       </c>
       <c r="AR2" t="n">
-        <v>368.9078369140625</v>
+        <v>326.3714599609375</v>
       </c>
       <c r="AS2" t="n">
-        <v>367.75927734375</v>
+        <v>331.0724487304688</v>
       </c>
       <c r="AT2" t="n">
-        <v>366.4995727539062</v>
+        <v>340.6766052246094</v>
       </c>
       <c r="AU2" t="n">
-        <v>365.3558654785156</v>
+        <v>344.8748168945312</v>
       </c>
       <c r="AV2" t="n">
-        <v>364.635009765625</v>
+        <v>348.4122924804688</v>
       </c>
       <c r="AW2" t="n">
-        <v>363.8695068359375</v>
+        <v>352.3301696777344</v>
       </c>
       <c r="AX2" t="n">
-        <v>363.1486206054688</v>
+        <v>356.4754028320312</v>
       </c>
       <c r="AY2" t="n">
-        <v>362.5401611328125</v>
+        <v>362.408203125</v>
       </c>
       <c r="AZ2" t="n">
-        <v>362.0187072753906</v>
+        <v>370.6793212890625</v>
       </c>
       <c r="BA2" t="n">
-        <v>361.1500549316406</v>
+        <v>377.31787109375</v>
       </c>
       <c r="BB2" t="n">
-        <v>359.924072265625</v>
+        <v>382.3649597167969</v>
       </c>
       <c r="BC2" t="n">
-        <v>358.6563110351562</v>
+        <v>385.9882202148438</v>
       </c>
       <c r="BD2" t="n">
-        <v>357.426513671875</v>
+        <v>389.8659057617188</v>
       </c>
       <c r="BE2" t="n">
-        <v>356.6038208007812</v>
+        <v>394.6336059570312</v>
       </c>
       <c r="BF2" t="n">
-        <v>355.8044738769531</v>
+        <v>396.751708984375</v>
       </c>
       <c r="BG2" t="n">
-        <v>354.9426574707031</v>
+        <v>396.7981262207031</v>
       </c>
       <c r="BH2" t="n">
-        <v>353.9632873535156</v>
+        <v>395.2763366699219</v>
       </c>
       <c r="BI2" t="n">
-        <v>352.9869995117188</v>
+        <v>393.2039794921875</v>
       </c>
       <c r="BJ2" t="n">
-        <v>351.88134765625</v>
+        <v>379.7276306152344</v>
       </c>
       <c r="BK2" t="n">
-        <v>349.9873046875</v>
+        <v>368.1435546875</v>
       </c>
       <c r="BL2" t="n">
-        <v>347.7156982421875</v>
+        <v>360.3073120117188</v>
       </c>
       <c r="BM2" t="n">
-        <v>344.9120483398438</v>
+        <v>346.2337646484375</v>
       </c>
       <c r="BN2" t="n">
-        <v>341.4889526367188</v>
+        <v>340.1640625</v>
       </c>
       <c r="BO2" t="n">
-        <v>338.8128051757812</v>
+        <v>333.9874267578125</v>
       </c>
       <c r="BP2" t="n">
-        <v>335.8480224609375</v>
+        <v>326.8146362304688</v>
       </c>
       <c r="BQ2" t="n">
-        <v>334.391845703125</v>
+        <v>319.933837890625</v>
       </c>
       <c r="BR2" t="n">
-        <v>334.0046691894531</v>
+        <v>313.1555480957031</v>
       </c>
       <c r="BS2" t="n">
-        <v>332.7005615234375</v>
+        <v>306.0206604003906</v>
       </c>
       <c r="BT2" t="n">
-        <v>329.1498413085938</v>
+        <v>298.1781311035156</v>
       </c>
       <c r="BU2" t="n">
-        <v>325.218994140625</v>
+        <v>290.8759460449219</v>
       </c>
       <c r="BV2" t="n">
-        <v>320.955078125</v>
+        <v>283.7155151367188</v>
       </c>
       <c r="BW2" t="n">
-        <v>317.3246765136719</v>
+        <v>278.0809020996094</v>
       </c>
       <c r="BX2" t="n">
-        <v>314.0859985351562</v>
+        <v>272.2297668457031</v>
       </c>
       <c r="BY2" t="n">
-        <v>308.8214111328125</v>
+        <v>268.423583984375</v>
       </c>
       <c r="BZ2" t="n">
-        <v>301.5210266113281</v>
+        <v>264.5137634277344</v>
       </c>
       <c r="CA2" t="n">
-        <v>290.2820739746094</v>
+        <v>260.0104675292969</v>
       </c>
       <c r="CB2" t="n">
-        <v>281.7571105957031</v>
+        <v>254.9001770019531</v>
       </c>
       <c r="CC2" t="n">
-        <v>277.3460998535156</v>
+        <v>250.0319213867188</v>
       </c>
       <c r="CD2" t="n">
-        <v>272.933837890625</v>
+        <v>245.8272705078125</v>
       </c>
       <c r="CE2" t="n">
-        <v>267.8944091796875</v>
+        <v>242.0755157470703</v>
       </c>
       <c r="CF2" t="n">
-        <v>259.2316284179688</v>
+        <v>239.1006164550781</v>
       </c>
       <c r="CG2" t="n">
-        <v>256.2925720214844</v>
+        <v>236.1501159667969</v>
       </c>
       <c r="CH2" t="n">
-        <v>254.167236328125</v>
+        <v>234.1937103271484</v>
       </c>
       <c r="CI2" t="n">
-        <v>252.1393737792969</v>
+        <v>233.2542419433594</v>
       </c>
       <c r="CJ2" t="n">
-        <v>249.986083984375</v>
+        <v>233.3056640625</v>
       </c>
       <c r="CK2" t="n">
-        <v>248.0533599853516</v>
+        <v>234.2533874511719</v>
       </c>
       <c r="CL2" t="n">
-        <v>247.1387939453125</v>
+        <v>237.0567016601562</v>
       </c>
       <c r="CM2" t="n">
-        <v>247.3103637695312</v>
+        <v>241.4308929443359</v>
       </c>
       <c r="CN2" t="n">
-        <v>247.3337097167969</v>
+        <v>247.2772827148438</v>
       </c>
       <c r="CO2" t="n">
-        <v>247.4491577148438</v>
+        <v>253.2967224121094</v>
       </c>
       <c r="CP2" t="n">
-        <v>247.4465179443359</v>
+        <v>259.6285400390625</v>
       </c>
       <c r="CQ2" t="n">
-        <v>247.3760833740234</v>
+        <v>266.0997619628906</v>
       </c>
       <c r="CR2" t="n">
-        <v>247.3653411865234</v>
+        <v>277.7788391113281</v>
       </c>
       <c r="CS2" t="n">
-        <v>247.2838134765625</v>
+        <v>281.9830627441406</v>
       </c>
       <c r="CT2" t="n">
-        <v>245.5416564941406</v>
+        <v>287.0584716796875</v>
       </c>
       <c r="CU2" t="n">
-        <v>243.6737365722656</v>
+        <v>294.7801208496094</v>
       </c>
       <c r="CV2" t="n">
-        <v>241.7585906982422</v>
+        <v>304.4652709960938</v>
       </c>
       <c r="CW2" t="n">
-        <v>239.0910034179688</v>
+        <v>312.0108642578125</v>
       </c>
       <c r="CX2" t="n">
-        <v>238.3667144775391</v>
+        <v>317.0218505859375</v>
       </c>
       <c r="CY2" t="n">
-        <v>237.4411163330078</v>
+        <v>321.460693359375</v>
       </c>
       <c r="CZ2" t="n">
-        <v>237.1014099121094</v>
+        <v>325.0557250976562</v>
       </c>
       <c r="DA2" t="n">
-        <v>236.8272399902344</v>
+        <v>330.2163391113281</v>
       </c>
       <c r="DB2" t="n">
-        <v>236.690185546875</v>
+        <v>341.8209228515625</v>
       </c>
       <c r="DC2" t="n">
-        <v>240.3213195800781</v>
+        <v>347.29345703125</v>
       </c>
       <c r="DD2" t="n">
-        <v>242.8798217773438</v>
+        <v>351.8864440917969</v>
       </c>
       <c r="DE2" t="n">
-        <v>245.1688842773438</v>
+        <v>355.4301452636719</v>
       </c>
       <c r="DF2" t="n">
-        <v>246.2125854492188</v>
+        <v>359.2365112304688</v>
       </c>
       <c r="DG2" t="n">
-        <v>245.5779113769531</v>
+        <v>362.7068481445312</v>
       </c>
       <c r="DH2" t="n">
-        <v>245.3573303222656</v>
+        <v>365.2787780761719</v>
       </c>
       <c r="DI2" t="n">
-        <v>245.3462066650391</v>
+        <v>365.6190490722656</v>
       </c>
       <c r="DJ2" t="n">
-        <v>245.0794830322266</v>
+        <v>365.8612060546875</v>
       </c>
       <c r="DK2" t="n">
-        <v>244.8798828125</v>
+        <v>366.3014221191406</v>
       </c>
       <c r="DL2" t="n">
-        <v>244.8053741455078</v>
+        <v>366.9482727050781</v>
       </c>
       <c r="DM2" t="n">
-        <v>244.8890075683594</v>
+        <v>365.9071350097656</v>
       </c>
       <c r="DN2" t="n">
-        <v>247.1502685546875</v>
+        <v>362.9472045898438</v>
       </c>
       <c r="DO2" t="n">
-        <v>249.2756500244141</v>
+        <v>357.6035766601562</v>
       </c>
       <c r="DP2" t="n">
-        <v>251.7013244628906</v>
+        <v>354.0067749023438</v>
       </c>
       <c r="DQ2" t="n">
-        <v>253.7371520996094</v>
+        <v>349.0203247070312</v>
       </c>
       <c r="DR2" t="n">
-        <v>253.627685546875</v>
+        <v>345.7039184570312</v>
       </c>
       <c r="DS2" t="n">
-        <v>253.3312072753906</v>
+        <v>343.9818725585938</v>
       </c>
       <c r="DT2" t="n">
-        <v>251.6196899414062</v>
+        <v>340.7705688476562</v>
       </c>
       <c r="DU2" t="n">
-        <v>249.5006713867188</v>
+        <v>338.6724853515625</v>
       </c>
       <c r="DV2" t="n">
-        <v>243.5689392089844</v>
+        <v>335.3040771484375</v>
       </c>
       <c r="DW2" t="n">
-        <v>242.0331115722656</v>
+        <v>330.7103271484375</v>
       </c>
       <c r="DX2" t="n">
-        <v>241.1656494140625</v>
+        <v>328.9251098632812</v>
       </c>
       <c r="DY2" t="n">
-        <v>242.2729797363281</v>
+        <v>328.3834228515625</v>
       </c>
       <c r="DZ2" t="n">
-        <v>242.8201141357422</v>
+        <v>327.4422607421875</v>
       </c>
       <c r="EA2" t="n">
-        <v>242.3333587646484</v>
+        <v>324.4273071289062</v>
       </c>
       <c r="EB2" t="n">
-        <v>242.5043640136719</v>
+        <v>322.34130859375</v>
       </c>
       <c r="EC2" t="n">
-        <v>243.9328308105469</v>
+        <v>322.056640625</v>
       </c>
       <c r="ED2" t="n">
-        <v>244.5832824707031</v>
+        <v>318.0301208496094</v>
       </c>
       <c r="EE2" t="n">
-        <v>245.1020202636719</v>
+        <v>316.4417724609375</v>
       </c>
       <c r="EF2" t="n">
-        <v>246.0027770996094</v>
+        <v>316.0423583984375</v>
       </c>
       <c r="EG2" t="n">
-        <v>246.7264709472656</v>
+        <v>318.6517639160156</v>
       </c>
       <c r="EH2" t="n">
-        <v>247.4750061035156</v>
+        <v>326.0708312988281</v>
       </c>
       <c r="EI2" t="n">
-        <v>247.847412109375</v>
+        <v>327.2769165039062</v>
       </c>
       <c r="EJ2" t="n">
-        <v>248.1488647460938</v>
+        <v>327.2830505371094</v>
       </c>
       <c r="EK2" t="n">
-        <v>247.9069213867188</v>
+        <v>328.6405029296875</v>
       </c>
       <c r="EL2" t="n">
-        <v>247.2420043945312</v>
+        <v>330.7858276367188</v>
       </c>
       <c r="EM2" t="n">
-        <v>244.4521179199219</v>
+        <v>338.4297485351562</v>
       </c>
       <c r="EN2" t="n">
-        <v>242.616455078125</v>
+        <v>340.7684936523438</v>
       </c>
       <c r="EO2" t="n">
-        <v>242.6965942382812</v>
+        <v>343.60107421875</v>
       </c>
       <c r="EP2" t="n">
-        <v>241.2037963867188</v>
+        <v>345.5079956054688</v>
       </c>
       <c r="EQ2" t="n">
-        <v>239.5252380371094</v>
+        <v>349.1674194335938</v>
       </c>
       <c r="ER2" t="n">
-        <v>238.8043518066406</v>
+        <v>349.5509033203125</v>
       </c>
       <c r="ES2" t="n">
-        <v>237.6442108154297</v>
+        <v>349.504638671875</v>
       </c>
       <c r="ET2" t="n">
-        <v>237.2901153564453</v>
+        <v>342.529541015625</v>
       </c>
       <c r="EU2" t="n">
-        <v>237.4204406738281</v>
+        <v>335.9544067382812</v>
       </c>
       <c r="EV2" t="n">
-        <v>238.3960876464844</v>
+        <v>329.5058898925781</v>
       </c>
       <c r="EW2" t="n">
-        <v>239.0446319580078</v>
+        <v>322.9795837402344</v>
       </c>
       <c r="EX2" t="n">
-        <v>239.5013122558594</v>
+        <v>321.4818725585938</v>
       </c>
       <c r="EY2" t="n">
-        <v>239.3949279785156</v>
+        <v>318.7229919433594</v>
       </c>
       <c r="EZ2" t="n">
-        <v>238.9080505371094</v>
+        <v>314.9415588378906</v>
       </c>
       <c r="FA2" t="n">
-        <v>238.7918701171875</v>
+        <v>301.6016845703125</v>
       </c>
       <c r="FB2" t="n">
-        <v>238.8750305175781</v>
+        <v>295.0112915039062</v>
       </c>
       <c r="FC2" t="n">
-        <v>239.4143524169922</v>
+        <v>283.840576171875</v>
       </c>
       <c r="FD2" t="n">
-        <v>239.9146728515625</v>
+        <v>281.7951354980469</v>
       </c>
       <c r="FE2" t="n">
-        <v>240.7682952880859</v>
+        <v>279.9486083984375</v>
       </c>
       <c r="FF2" t="n">
-        <v>241.3147888183594</v>
+        <v>280.1014709472656</v>
       </c>
       <c r="FG2" t="n">
-        <v>241.6016845703125</v>
+        <v>278.2034912109375</v>
       </c>
       <c r="FH2" t="n">
-        <v>241.5649108886719</v>
+        <v>270.9680786132812</v>
       </c>
       <c r="FI2" t="n">
-        <v>240.7303466796875</v>
+        <v>269.4823608398438</v>
       </c>
       <c r="FJ2" t="n">
-        <v>240.5487365722656</v>
+        <v>273.9435424804688</v>
       </c>
       <c r="FK2" t="n">
-        <v>240.5592498779297</v>
+        <v>281.3585510253906</v>
       </c>
       <c r="FL2" t="n">
-        <v>240.2850036621094</v>
+        <v>283.9647216796875</v>
       </c>
       <c r="FM2" t="n">
-        <v>239.8898162841797</v>
+        <v>290.740234375</v>
       </c>
       <c r="FN2" t="n">
-        <v>237.9086151123047</v>
+        <v>299.3133239746094</v>
       </c>
       <c r="FO2" t="n">
-        <v>238.1217346191406</v>
+        <v>301.6331176757812</v>
       </c>
       <c r="FP2" t="n">
-        <v>239.5896606445312</v>
+        <v>304.7489318847656</v>
       </c>
       <c r="FQ2" t="n">
-        <v>243.2164001464844</v>
+        <v>315.2079467773438</v>
       </c>
       <c r="FR2" t="n">
-        <v>244.5490875244141</v>
+        <v>320.167236328125</v>
       </c>
       <c r="FS2" t="n">
-        <v>248.7543334960938</v>
+        <v>332.6401062011719</v>
       </c>
       <c r="FT2" t="n">
-        <v>259.1405334472656</v>
+        <v>334.3167724609375</v>
       </c>
       <c r="FU2" t="n">
-        <v>263.4881286621094</v>
+        <v>335.1078796386719</v>
       </c>
       <c r="FV2" t="n">
-        <v>275.0875244140625</v>
+        <v>333.286376953125</v>
       </c>
       <c r="FW2" t="n">
-        <v>285.5317687988281</v>
+        <v>325.5733642578125</v>
       </c>
       <c r="FX2" t="n">
-        <v>290.4736938476562</v>
+        <v>323.1163330078125</v>
       </c>
       <c r="FY2" t="n">
-        <v>293.3334350585938</v>
+        <v>345.4922180175781</v>
       </c>
       <c r="FZ2" t="n">
-        <v>295.7626342773438</v>
+        <v>350.7435607910156</v>
       </c>
       <c r="GA2" t="n">
-        <v>296.1000671386719</v>
+        <v>369.990478515625</v>
       </c>
       <c r="GB2" t="n">
-        <v>296.3381652832031</v>
+        <v>399.1604309082031</v>
       </c>
       <c r="GC2" t="n">
-        <v>296.5342407226562</v>
+        <v>371.6522521972656</v>
       </c>
       <c r="GD2" t="n">
-        <v>298.5690002441406</v>
+        <v>343.5346069335938</v>
       </c>
       <c r="GE2" t="n">
-        <v>298.7535400390625</v>
+        <v>328.6571960449219</v>
       </c>
       <c r="GF2" t="n">
-        <v>289.10205078125</v>
+        <v>300.425537109375</v>
       </c>
       <c r="GG2" t="n">
-        <v>274.8204345703125</v>
+        <v>284.4236145019531</v>
       </c>
       <c r="GH2" t="n">
-        <v>261.3020324707031</v>
+        <v>283.6394653320312</v>
       </c>
       <c r="GI2" t="n">
-        <v>252.0564117431641</v>
+        <v>273.7604370117188</v>
       </c>
       <c r="GJ2" t="n">
-        <v>237.7885284423828</v>
+        <v>273.115966796875</v>
       </c>
       <c r="GK2" t="n">
-        <v>231.9013977050781</v>
+        <v>263.7254028320312</v>
       </c>
       <c r="GL2" t="n">
-        <v>223.0063171386719</v>
+        <v>260.7037658691406</v>
       </c>
       <c r="GM2" t="n">
-        <v>207.2693481445312</v>
+        <v>253.5659637451172</v>
       </c>
       <c r="GN2" t="n">
-        <v>196.8063659667969</v>
+        <v>244.9905700683594</v>
       </c>
       <c r="GO2" t="n">
-        <v>194.3063659667969</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>193.4337158203125</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>192.3980865478516</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>191.9675903320312</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>191.2969665527344</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>216.8775787353516</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>242.9206085205078</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>267.3560180664062</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>286.4992980957031</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>296.62451171875</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>337.3594665527344</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>357.185791015625</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>379.2422485351562</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>383.6611328125</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>446.2035827636719</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>444.743896484375</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>459.2506713867188</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>459.0070190429688</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>457.7994079589844</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>456.64794921875</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>455.8222045898438</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>417.4019775390625</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>403.3450927734375</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>431.5399475097656</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>433.7851257324219</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>435.1445922851562</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>435.158935546875</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>433.9447631835938</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>433.311767578125</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>431.1167602539062</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>436.7036437988281</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>435.9244384765625</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>435.7796630859375</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>435.6871948242188</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>357.0218505859375</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>354.7501220703125</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>358.8351745605469</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>360.0938720703125</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>360.3142700195312</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>359.2406921386719</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>357.619873046875</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>356.5374755859375</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>355.11328125</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>355.56005859375</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>355.7420654296875</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>355.563232421875</v>
-      </c>
-      <c r="II2" t="n">
-        <v>354.06396484375</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>353.3234252929688</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>352.7887268066406</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>352.65966796875</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>352.5180053710938</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>352.28125</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>352.8199462890625</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>353.2344970703125</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>353.68408203125</v>
+        <v>255.2626190185547</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>431.3076171875</v>
+        <v>485.3033752441406</v>
       </c>
       <c r="C3" t="n">
-        <v>418.6365966796875</v>
+        <v>467.2408752441406</v>
       </c>
       <c r="D3" t="n">
-        <v>415.8038330078125</v>
+        <v>450.4342956542969</v>
       </c>
       <c r="E3" t="n">
-        <v>410.5578918457031</v>
+        <v>451.3768310546875</v>
       </c>
       <c r="F3" t="n">
-        <v>407.1999206542969</v>
+        <v>449.7394714355469</v>
       </c>
       <c r="G3" t="n">
-        <v>405.6436462402344</v>
+        <v>457.1405944824219</v>
       </c>
       <c r="H3" t="n">
-        <v>407.0352478027344</v>
+        <v>463.3762817382812</v>
       </c>
       <c r="I3" t="n">
-        <v>407.4634704589844</v>
+        <v>466.6327514648438</v>
       </c>
       <c r="J3" t="n">
-        <v>407.9553527832031</v>
+        <v>467.1277770996094</v>
       </c>
       <c r="K3" t="n">
-        <v>408.1752319335938</v>
+        <v>467.1759033203125</v>
       </c>
       <c r="L3" t="n">
-        <v>406.906982421875</v>
+        <v>466.9482421875</v>
       </c>
       <c r="M3" t="n">
-        <v>403.8897705078125</v>
+        <v>466.909423828125</v>
       </c>
       <c r="N3" t="n">
-        <v>400.4983215332031</v>
+        <v>466.8890380859375</v>
       </c>
       <c r="O3" t="n">
-        <v>398.4368591308594</v>
+        <v>466.4734191894531</v>
       </c>
       <c r="P3" t="n">
-        <v>396.3538818359375</v>
+        <v>466.461181640625</v>
       </c>
       <c r="Q3" t="n">
-        <v>396.0791931152344</v>
+        <v>466.4878234863281</v>
       </c>
       <c r="R3" t="n">
-        <v>395.6557006835938</v>
+        <v>466.76416015625</v>
       </c>
       <c r="S3" t="n">
-        <v>395.8988342285156</v>
+        <v>467.0093994140625</v>
       </c>
       <c r="T3" t="n">
-        <v>396.21923828125</v>
+        <v>467.0776672363281</v>
       </c>
       <c r="U3" t="n">
-        <v>396.9697570800781</v>
+        <v>466.5269470214844</v>
       </c>
       <c r="V3" t="n">
-        <v>397.0422058105469</v>
+        <v>466.7533569335938</v>
       </c>
       <c r="W3" t="n">
-        <v>396.7084045410156</v>
+        <v>466.6954956054688</v>
       </c>
       <c r="X3" t="n">
-        <v>394.8902587890625</v>
+        <v>466.3476257324219</v>
       </c>
       <c r="Y3" t="n">
-        <v>393.1442260742188</v>
+        <v>465.9852294921875</v>
       </c>
       <c r="Z3" t="n">
-        <v>392.6636962890625</v>
+        <v>465.0016479492188</v>
       </c>
       <c r="AA3" t="n">
-        <v>395.1759948730469</v>
+        <v>463.3827209472656</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.0586853027344</v>
+        <v>461.3641052246094</v>
       </c>
       <c r="AC3" t="n">
-        <v>398.3203125</v>
+        <v>458.3489685058594</v>
       </c>
       <c r="AD3" t="n">
-        <v>398.9796142578125</v>
+        <v>456.1930236816406</v>
       </c>
       <c r="AE3" t="n">
-        <v>398.9727478027344</v>
+        <v>456.1639709472656</v>
       </c>
       <c r="AF3" t="n">
-        <v>399.3360595703125</v>
+        <v>456.2561340332031</v>
       </c>
       <c r="AG3" t="n">
-        <v>399.7315063476562</v>
+        <v>456.4424438476562</v>
       </c>
       <c r="AH3" t="n">
-        <v>400.2073364257812</v>
+        <v>456.5718383789062</v>
       </c>
       <c r="AI3" t="n">
-        <v>401.0139465332031</v>
+        <v>456.6872253417969</v>
       </c>
       <c r="AJ3" t="n">
-        <v>400.4857177734375</v>
+        <v>456.7762145996094</v>
       </c>
       <c r="AK3" t="n">
-        <v>397.3094482421875</v>
+        <v>456.8898315429688</v>
       </c>
       <c r="AL3" t="n">
-        <v>395.5038146972656</v>
+        <v>457.3637390136719</v>
       </c>
       <c r="AM3" t="n">
-        <v>398.0379028320312</v>
+        <v>458.22265625</v>
       </c>
       <c r="AN3" t="n">
-        <v>396.6893310546875</v>
+        <v>458.6009826660156</v>
       </c>
       <c r="AO3" t="n">
-        <v>395.2158813476562</v>
+        <v>458.4465942382812</v>
       </c>
       <c r="AP3" t="n">
-        <v>395.2308959960938</v>
+        <v>458.7495422363281</v>
       </c>
       <c r="AQ3" t="n">
-        <v>395.0806274414062</v>
+        <v>458.5684204101562</v>
       </c>
       <c r="AR3" t="n">
-        <v>395.3816833496094</v>
+        <v>456.7215881347656</v>
       </c>
       <c r="AS3" t="n">
-        <v>395.9017639160156</v>
+        <v>455.8346557617188</v>
       </c>
       <c r="AT3" t="n">
-        <v>396.3314514160156</v>
+        <v>453.2219848632812</v>
       </c>
       <c r="AU3" t="n">
-        <v>396.227294921875</v>
+        <v>449.6981506347656</v>
       </c>
       <c r="AV3" t="n">
-        <v>396.438720703125</v>
+        <v>447.2592163085938</v>
       </c>
       <c r="AW3" t="n">
-        <v>396.4017944335938</v>
+        <v>446.7847900390625</v>
       </c>
       <c r="AX3" t="n">
-        <v>396.3937072753906</v>
+        <v>447.6901245117188</v>
       </c>
       <c r="AY3" t="n">
-        <v>396.3267211914062</v>
+        <v>448.9957885742188</v>
       </c>
       <c r="AZ3" t="n">
-        <v>396.42578125</v>
+        <v>449.5868835449219</v>
       </c>
       <c r="BA3" t="n">
-        <v>396.4536743164062</v>
+        <v>446.2647705078125</v>
       </c>
       <c r="BB3" t="n">
-        <v>396.4963684082031</v>
+        <v>443.1099853515625</v>
       </c>
       <c r="BC3" t="n">
-        <v>396.3939514160156</v>
+        <v>439.3444213867188</v>
       </c>
       <c r="BD3" t="n">
-        <v>396.4197692871094</v>
+        <v>436.81640625</v>
       </c>
       <c r="BE3" t="n">
-        <v>396.3338623046875</v>
+        <v>435.6585083007812</v>
       </c>
       <c r="BF3" t="n">
-        <v>396.2287902832031</v>
+        <v>435.276611328125</v>
       </c>
       <c r="BG3" t="n">
-        <v>396.0607604980469</v>
+        <v>434.8692321777344</v>
       </c>
       <c r="BH3" t="n">
-        <v>396.0054016113281</v>
+        <v>433.4759826660156</v>
       </c>
       <c r="BI3" t="n">
-        <v>396.3480529785156</v>
+        <v>432.7330627441406</v>
       </c>
       <c r="BJ3" t="n">
-        <v>396.6336669921875</v>
+        <v>433.2684020996094</v>
       </c>
       <c r="BK3" t="n">
-        <v>397.1588134765625</v>
+        <v>436.935791015625</v>
       </c>
       <c r="BL3" t="n">
-        <v>397.3395385742188</v>
+        <v>435.6875</v>
       </c>
       <c r="BM3" t="n">
-        <v>397.3734741210938</v>
+        <v>438.4848937988281</v>
       </c>
       <c r="BN3" t="n">
-        <v>397.7220764160156</v>
+        <v>438.005615234375</v>
       </c>
       <c r="BO3" t="n">
-        <v>397.6801452636719</v>
+        <v>436.9263305664062</v>
       </c>
       <c r="BP3" t="n">
-        <v>397.3805541992188</v>
+        <v>436.2929382324219</v>
       </c>
       <c r="BQ3" t="n">
-        <v>396.2963256835938</v>
+        <v>437.8127746582031</v>
       </c>
       <c r="BR3" t="n">
-        <v>395.7797546386719</v>
+        <v>439.79296875</v>
       </c>
       <c r="BS3" t="n">
-        <v>395.7613525390625</v>
+        <v>439.6440734863281</v>
       </c>
       <c r="BT3" t="n">
-        <v>395.4391174316406</v>
+        <v>439.6661376953125</v>
       </c>
       <c r="BU3" t="n">
-        <v>395.2689208984375</v>
+        <v>439.8272705078125</v>
       </c>
       <c r="BV3" t="n">
-        <v>395.2406616210938</v>
+        <v>439.6962890625</v>
       </c>
       <c r="BW3" t="n">
-        <v>395.2479553222656</v>
+        <v>440.4000549316406</v>
       </c>
       <c r="BX3" t="n">
-        <v>394.6416015625</v>
+        <v>441.655029296875</v>
       </c>
       <c r="BY3" t="n">
-        <v>394.9624633789062</v>
+        <v>442.2962646484375</v>
       </c>
       <c r="BZ3" t="n">
-        <v>396.8463134765625</v>
+        <v>442.0820617675781</v>
       </c>
       <c r="CA3" t="n">
-        <v>393.3780212402344</v>
+        <v>442.2640380859375</v>
       </c>
       <c r="CB3" t="n">
-        <v>391.888427734375</v>
+        <v>442.2952575683594</v>
       </c>
       <c r="CC3" t="n">
-        <v>391.9345703125</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="CD3" t="n">
-        <v>393.8271484375</v>
+        <v>442.8695373535156</v>
       </c>
       <c r="CE3" t="n">
-        <v>396.3072509765625</v>
+        <v>442.0586547851562</v>
       </c>
       <c r="CF3" t="n">
-        <v>399.2102355957031</v>
+        <v>440.6978454589844</v>
       </c>
       <c r="CG3" t="n">
-        <v>398.4582824707031</v>
+        <v>436.1083374023438</v>
       </c>
       <c r="CH3" t="n">
-        <v>397.8385620117188</v>
+        <v>430.8659057617188</v>
       </c>
       <c r="CI3" t="n">
-        <v>396.6101989746094</v>
+        <v>424.4345092773438</v>
       </c>
       <c r="CJ3" t="n">
-        <v>393.3865356445312</v>
+        <v>421.6474304199219</v>
       </c>
       <c r="CK3" t="n">
-        <v>389.8567199707031</v>
+        <v>419.3479919433594</v>
       </c>
       <c r="CL3" t="n">
-        <v>386.4555053710938</v>
+        <v>418.0250854492188</v>
       </c>
       <c r="CM3" t="n">
-        <v>386.4888916015625</v>
+        <v>418.1134643554688</v>
       </c>
       <c r="CN3" t="n">
-        <v>386.0634460449219</v>
+        <v>419.245849609375</v>
       </c>
       <c r="CO3" t="n">
-        <v>385.8621215820312</v>
+        <v>424.290771484375</v>
       </c>
       <c r="CP3" t="n">
-        <v>385.5101013183594</v>
+        <v>428.6838073730469</v>
       </c>
       <c r="CQ3" t="n">
-        <v>385.0384826660156</v>
+        <v>430.2512817382812</v>
       </c>
       <c r="CR3" t="n">
-        <v>384.9452514648438</v>
+        <v>428.6452941894531</v>
       </c>
       <c r="CS3" t="n">
-        <v>384.8302917480469</v>
+        <v>428.6225891113281</v>
       </c>
       <c r="CT3" t="n">
-        <v>384.8295593261719</v>
+        <v>429.0028381347656</v>
       </c>
       <c r="CU3" t="n">
-        <v>384.7670288085938</v>
+        <v>428.9929809570312</v>
       </c>
       <c r="CV3" t="n">
-        <v>384.2270812988281</v>
+        <v>429.0180969238281</v>
       </c>
       <c r="CW3" t="n">
-        <v>382.4559326171875</v>
+        <v>428.7414245605469</v>
       </c>
       <c r="CX3" t="n">
-        <v>382.4049072265625</v>
+        <v>428.8057556152344</v>
       </c>
       <c r="CY3" t="n">
-        <v>382.8092346191406</v>
+        <v>429.1183776855469</v>
       </c>
       <c r="CZ3" t="n">
-        <v>383.1382751464844</v>
+        <v>428.9700622558594</v>
       </c>
       <c r="DA3" t="n">
-        <v>383.4776306152344</v>
+        <v>428.914306640625</v>
       </c>
       <c r="DB3" t="n">
-        <v>383.788818359375</v>
+        <v>428.9366760253906</v>
       </c>
       <c r="DC3" t="n">
-        <v>383.1664428710938</v>
+        <v>428.7236633300781</v>
       </c>
       <c r="DD3" t="n">
-        <v>382.6354370117188</v>
+        <v>429.00439453125</v>
       </c>
       <c r="DE3" t="n">
-        <v>382.2320861816406</v>
+        <v>428.9291687011719</v>
       </c>
       <c r="DF3" t="n">
-        <v>382.2874450683594</v>
+        <v>428.9733276367188</v>
       </c>
       <c r="DG3" t="n">
-        <v>384.5087890625</v>
+        <v>428.7654724121094</v>
       </c>
       <c r="DH3" t="n">
-        <v>386.1395874023438</v>
+        <v>428.4412231445312</v>
       </c>
       <c r="DI3" t="n">
-        <v>389.7051696777344</v>
+        <v>428.4368591308594</v>
       </c>
       <c r="DJ3" t="n">
-        <v>389.5055541992188</v>
+        <v>428.6236267089844</v>
       </c>
       <c r="DK3" t="n">
-        <v>389.2340393066406</v>
+        <v>429.2783508300781</v>
       </c>
       <c r="DL3" t="n">
-        <v>388.8775024414062</v>
+        <v>430.7996215820312</v>
       </c>
       <c r="DM3" t="n">
-        <v>388.6669616699219</v>
+        <v>432.9247436523438</v>
       </c>
       <c r="DN3" t="n">
-        <v>387.6181030273438</v>
+        <v>433.4923400878906</v>
       </c>
       <c r="DO3" t="n">
-        <v>385.4218444824219</v>
+        <v>436.7810974121094</v>
       </c>
       <c r="DP3" t="n">
-        <v>383.201904296875</v>
+        <v>438.1045532226562</v>
       </c>
       <c r="DQ3" t="n">
-        <v>382.8493041992188</v>
+        <v>433.0747985839844</v>
       </c>
       <c r="DR3" t="n">
-        <v>382.8463439941406</v>
+        <v>423.7601013183594</v>
       </c>
       <c r="DS3" t="n">
-        <v>383.0290222167969</v>
+        <v>416.0022277832031</v>
       </c>
       <c r="DT3" t="n">
-        <v>383.2413635253906</v>
+        <v>397.5700073242188</v>
       </c>
       <c r="DU3" t="n">
-        <v>383.2320861816406</v>
+        <v>392.073486328125</v>
       </c>
       <c r="DV3" t="n">
-        <v>383.6231079101562</v>
+        <v>385.5870666503906</v>
       </c>
       <c r="DW3" t="n">
-        <v>383.4658508300781</v>
+        <v>374.653076171875</v>
       </c>
       <c r="DX3" t="n">
-        <v>383.26806640625</v>
+        <v>368.3231201171875</v>
       </c>
       <c r="DY3" t="n">
-        <v>382.8792419433594</v>
+        <v>365.1367797851562</v>
       </c>
       <c r="DZ3" t="n">
-        <v>382.8550415039062</v>
+        <v>364.3417358398438</v>
       </c>
       <c r="EA3" t="n">
-        <v>383.1953735351562</v>
+        <v>364.5217895507812</v>
       </c>
       <c r="EB3" t="n">
-        <v>383.5712280273438</v>
+        <v>376.4709167480469</v>
       </c>
       <c r="EC3" t="n">
-        <v>383.6780090332031</v>
+        <v>385.3253479003906</v>
       </c>
       <c r="ED3" t="n">
-        <v>383.647705078125</v>
+        <v>397.1638488769531</v>
       </c>
       <c r="EE3" t="n">
-        <v>383.4720764160156</v>
+        <v>411.5680847167969</v>
       </c>
       <c r="EF3" t="n">
-        <v>383.2356567382812</v>
+        <v>415.2095031738281</v>
       </c>
       <c r="EG3" t="n">
-        <v>383.885498046875</v>
+        <v>427.8324584960938</v>
       </c>
       <c r="EH3" t="n">
-        <v>386.1065063476562</v>
+        <v>438.6251220703125</v>
       </c>
       <c r="EI3" t="n">
-        <v>388.2672424316406</v>
+        <v>437.959716796875</v>
       </c>
       <c r="EJ3" t="n">
-        <v>392.0783081054688</v>
+        <v>438.2586669921875</v>
       </c>
       <c r="EK3" t="n">
-        <v>393.8912658691406</v>
+        <v>439.4889831542969</v>
       </c>
       <c r="EL3" t="n">
-        <v>397.924072265625</v>
+        <v>441.2709655761719</v>
       </c>
       <c r="EM3" t="n">
-        <v>396.9046630859375</v>
+        <v>436.5007629394531</v>
       </c>
       <c r="EN3" t="n">
-        <v>399.5760498046875</v>
+        <v>433.8136596679688</v>
       </c>
       <c r="EO3" t="n">
-        <v>403.0130004882812</v>
+        <v>430.7442932128906</v>
       </c>
       <c r="EP3" t="n">
-        <v>400.8565063476562</v>
+        <v>429.6315612792969</v>
       </c>
       <c r="EQ3" t="n">
-        <v>399.3904724121094</v>
+        <v>429.8114929199219</v>
       </c>
       <c r="ER3" t="n">
-        <v>399.9669799804688</v>
+        <v>429.8953857421875</v>
       </c>
       <c r="ES3" t="n">
-        <v>401.1378784179688</v>
+        <v>430.7826843261719</v>
       </c>
       <c r="ET3" t="n">
-        <v>401.75244140625</v>
+        <v>446.182861328125</v>
       </c>
       <c r="EU3" t="n">
-        <v>401.5096740722656</v>
+        <v>459.8391723632812</v>
       </c>
       <c r="EV3" t="n">
-        <v>401.2242431640625</v>
+        <v>466.5251770019531</v>
       </c>
       <c r="EW3" t="n">
-        <v>401.1137084960938</v>
+        <v>479.5596923828125</v>
       </c>
       <c r="EX3" t="n">
-        <v>401.4358825683594</v>
+        <v>485.9512023925781</v>
       </c>
       <c r="EY3" t="n">
-        <v>401.7769165039062</v>
+        <v>487.4997253417969</v>
       </c>
       <c r="EZ3" t="n">
-        <v>402.9490661621094</v>
+        <v>490.532470703125</v>
       </c>
       <c r="FA3" t="n">
-        <v>404.2286682128906</v>
+        <v>487.5866394042969</v>
       </c>
       <c r="FB3" t="n">
-        <v>405.8133239746094</v>
+        <v>487.5455932617188</v>
       </c>
       <c r="FC3" t="n">
-        <v>407.7931518554688</v>
+        <v>478.1411437988281</v>
       </c>
       <c r="FD3" t="n">
-        <v>407.6336975097656</v>
+        <v>475.9739685058594</v>
       </c>
       <c r="FE3" t="n">
-        <v>407.2771606445312</v>
+        <v>461.7045593261719</v>
       </c>
       <c r="FF3" t="n">
-        <v>406.8909606933594</v>
+        <v>455.6930236816406</v>
       </c>
       <c r="FG3" t="n">
-        <v>406.4583435058594</v>
+        <v>455.5195007324219</v>
       </c>
       <c r="FH3" t="n">
-        <v>405.8088684082031</v>
+        <v>455.1869506835938</v>
       </c>
       <c r="FI3" t="n">
-        <v>402.9347839355469</v>
+        <v>457.4216613769531</v>
       </c>
       <c r="FJ3" t="n">
-        <v>402.4498291015625</v>
+        <v>454.4693908691406</v>
       </c>
       <c r="FK3" t="n">
-        <v>403.1962280273438</v>
+        <v>455.8263549804688</v>
       </c>
       <c r="FL3" t="n">
-        <v>403.5025634765625</v>
+        <v>459.9886474609375</v>
       </c>
       <c r="FM3" t="n">
-        <v>402.4774169921875</v>
+        <v>463.09228515625</v>
       </c>
       <c r="FN3" t="n">
-        <v>393.485595703125</v>
+        <v>465.6194763183594</v>
       </c>
       <c r="FO3" t="n">
-        <v>393.72705078125</v>
+        <v>471.1995544433594</v>
       </c>
       <c r="FP3" t="n">
-        <v>395.6931457519531</v>
+        <v>484.470703125</v>
       </c>
       <c r="FQ3" t="n">
-        <v>398.9804077148438</v>
+        <v>496.1767883300781</v>
       </c>
       <c r="FR3" t="n">
-        <v>400.0546569824219</v>
+        <v>500.3621826171875</v>
       </c>
       <c r="FS3" t="n">
-        <v>403.7753295898438</v>
+        <v>509.85693359375</v>
       </c>
       <c r="FT3" t="n">
-        <v>416.0791015625</v>
+        <v>504.4829711914062</v>
       </c>
       <c r="FU3" t="n">
-        <v>420.41455078125</v>
+        <v>501.9472045898438</v>
       </c>
       <c r="FV3" t="n">
-        <v>429.1496887207031</v>
+        <v>499.4030151367188</v>
       </c>
       <c r="FW3" t="n">
-        <v>435.0898132324219</v>
+        <v>494.5101318359375</v>
       </c>
       <c r="FX3" t="n">
-        <v>422.9792175292969</v>
+        <v>487.0463562011719</v>
       </c>
       <c r="FY3" t="n">
-        <v>416.9298095703125</v>
+        <v>519.5836791992188</v>
       </c>
       <c r="FZ3" t="n">
-        <v>415.4220275878906</v>
+        <v>509.9649658203125</v>
       </c>
       <c r="GA3" t="n">
-        <v>413.8565673828125</v>
+        <v>499.6103210449219</v>
       </c>
       <c r="GB3" t="n">
-        <v>409.7278442382812</v>
+        <v>546.6754150390625</v>
       </c>
       <c r="GC3" t="n">
-        <v>405.4298706054688</v>
+        <v>570.8314819335938</v>
       </c>
       <c r="GD3" t="n">
-        <v>402.0791320800781</v>
+        <v>576.5596313476562</v>
       </c>
       <c r="GE3" t="n">
-        <v>403.3839111328125</v>
+        <v>585.3236083984375</v>
       </c>
       <c r="GF3" t="n">
-        <v>409.6631469726562</v>
+        <v>535.3937377929688</v>
       </c>
       <c r="GG3" t="n">
-        <v>410.5807800292969</v>
+        <v>521.7960815429688</v>
       </c>
       <c r="GH3" t="n">
-        <v>415.66162109375</v>
+        <v>525.8182983398438</v>
       </c>
       <c r="GI3" t="n">
-        <v>423.0025634765625</v>
+        <v>527.1770629882812</v>
       </c>
       <c r="GJ3" t="n">
-        <v>429.6366271972656</v>
+        <v>521.5402221679688</v>
       </c>
       <c r="GK3" t="n">
-        <v>438.6785583496094</v>
+        <v>513.8092041015625</v>
       </c>
       <c r="GL3" t="n">
-        <v>443.4244384765625</v>
+        <v>518.2390747070312</v>
       </c>
       <c r="GM3" t="n">
-        <v>443.79150390625</v>
+        <v>526.8224487304688</v>
       </c>
       <c r="GN3" t="n">
-        <v>445.8097839355469</v>
+        <v>553.2454833984375</v>
       </c>
       <c r="GO3" t="n">
-        <v>445.5282897949219</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>445.7138671875</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>445.6893615722656</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>445.6334838867188</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>447.7982177734375</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>473.0855407714844</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>477.7752685546875</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>480.3940734863281</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>496.9141845703125</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>511.8885498046875</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>572.7482299804688</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>592.6897583007812</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>702.513916015625</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>644.5784301757812</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>676.0701904296875</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>652.2906494140625</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>627.7034301757812</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>629.525390625</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>632.6861572265625</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>634.2667236328125</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>635.19677734375</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>567.069091796875</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>558.7039794921875</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>680.8252563476562</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>692.8353881835938</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>690.9763793945312</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>691.9266967773438</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>689.7577514648438</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>688.6806640625</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>684.6336059570312</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>657.6336059570312</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>656.8556518554688</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>656.7216796875</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>656.6392822265625</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>638.8662109375</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>638.5757446289062</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>648.5227661132812</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>650.3012084960938</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>650.2694702148438</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>650.5677490234375</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>651.2366333007812</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>651.7904052734375</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>652.6203002929688</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>652.3577270507812</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>652.25537109375</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>652.3548583984375</v>
-      </c>
-      <c r="II3" t="n">
-        <v>653.208984375</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>653.6419677734375</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>653.95849609375</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>654.0322875976562</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>654.109375</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>654.23486328125</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>653.9614868164062</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>653.7606201171875</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>653.5489501953125</v>
+        <v>576.9424438476562</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1340.576293945312</v>
+        <v>1023.832275390625</v>
       </c>
       <c r="C4" t="n">
-        <v>1338.5224609375</v>
+        <v>1041.595947265625</v>
       </c>
       <c r="D4" t="n">
-        <v>1336.0234375</v>
+        <v>1044.570068359375</v>
       </c>
       <c r="E4" t="n">
-        <v>1331.851806640625</v>
+        <v>1046.512329101562</v>
       </c>
       <c r="F4" t="n">
-        <v>1329.065063476562</v>
+        <v>1051.342651367188</v>
       </c>
       <c r="G4" t="n">
-        <v>1327.632202148438</v>
+        <v>1049.892822265625</v>
       </c>
       <c r="H4" t="n">
-        <v>1323.419555664062</v>
+        <v>1049.391235351562</v>
       </c>
       <c r="I4" t="n">
-        <v>1318.26318359375</v>
+        <v>1048.409790039062</v>
       </c>
       <c r="J4" t="n">
-        <v>1308.718383789062</v>
+        <v>1048.948364257812</v>
       </c>
       <c r="K4" t="n">
-        <v>1302.633666992188</v>
+        <v>1048.49853515625</v>
       </c>
       <c r="L4" t="n">
-        <v>1298.086547851562</v>
+        <v>1048.289794921875</v>
       </c>
       <c r="M4" t="n">
-        <v>1290.856567382812</v>
+        <v>1048.074584960938</v>
       </c>
       <c r="N4" t="n">
-        <v>1282.006103515625</v>
+        <v>1047.860229492188</v>
       </c>
       <c r="O4" t="n">
-        <v>1275.160522460938</v>
+        <v>1047.698608398438</v>
       </c>
       <c r="P4" t="n">
-        <v>1274.504760742188</v>
+        <v>1047.486694335938</v>
       </c>
       <c r="Q4" t="n">
-        <v>1273.892578125</v>
+        <v>1047.286254882812</v>
       </c>
       <c r="R4" t="n">
-        <v>1273.071899414062</v>
+        <v>1047.130737304688</v>
       </c>
       <c r="S4" t="n">
-        <v>1270.593627929688</v>
+        <v>1047.031494140625</v>
       </c>
       <c r="T4" t="n">
-        <v>1266.477294921875</v>
+        <v>1047.050537109375</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.937744140625</v>
+        <v>1047.127197265625</v>
       </c>
       <c r="V4" t="n">
-        <v>1256.31494140625</v>
+        <v>1047.006713867188</v>
       </c>
       <c r="W4" t="n">
-        <v>1251.864624023438</v>
+        <v>1046.89453125</v>
       </c>
       <c r="X4" t="n">
-        <v>1246.613403320312</v>
+        <v>1046.8408203125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1242.531982421875</v>
+        <v>1046.8466796875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1230.871459960938</v>
+        <v>1046.896606445312</v>
       </c>
       <c r="AA4" t="n">
-        <v>1219.083374023438</v>
+        <v>1046.976928710938</v>
       </c>
       <c r="AB4" t="n">
-        <v>1207.424560546875</v>
+        <v>1047.236206054688</v>
       </c>
       <c r="AC4" t="n">
-        <v>1203.217163085938</v>
+        <v>1047.205810546875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1196.493286132812</v>
+        <v>1047.22314453125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1194.93310546875</v>
+        <v>1047.209716796875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1191.851684570312</v>
+        <v>1047.201416015625</v>
       </c>
       <c r="AG4" t="n">
-        <v>1187.544555664062</v>
+        <v>1047.067993164062</v>
       </c>
       <c r="AH4" t="n">
-        <v>1177.902587890625</v>
+        <v>1047.004150390625</v>
       </c>
       <c r="AI4" t="n">
-        <v>1164.584106445312</v>
+        <v>1046.939819335938</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1155.764526367188</v>
+        <v>1046.889404296875</v>
       </c>
       <c r="AK4" t="n">
-        <v>1149.625122070312</v>
+        <v>1046.866088867188</v>
       </c>
       <c r="AL4" t="n">
-        <v>1137.919799804688</v>
+        <v>1046.826904296875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1127.810180664062</v>
+        <v>1046.74365234375</v>
       </c>
       <c r="AN4" t="n">
-        <v>1124.701416015625</v>
+        <v>1046.7099609375</v>
       </c>
       <c r="AO4" t="n">
-        <v>1121.44189453125</v>
+        <v>1046.69921875</v>
       </c>
       <c r="AP4" t="n">
-        <v>1117.330078125</v>
+        <v>1046.657348632812</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1113.658325195312</v>
+        <v>1046.271606445312</v>
       </c>
       <c r="AR4" t="n">
-        <v>1112.928833007812</v>
+        <v>1046.310913085938</v>
       </c>
       <c r="AS4" t="n">
-        <v>1111.401245117188</v>
+        <v>1046.789428710938</v>
       </c>
       <c r="AT4" t="n">
-        <v>1110.552856445312</v>
+        <v>1050.34326171875</v>
       </c>
       <c r="AU4" t="n">
-        <v>1109.957763671875</v>
+        <v>1055.361206054688</v>
       </c>
       <c r="AV4" t="n">
-        <v>1108.560180664062</v>
+        <v>1062.821899414062</v>
       </c>
       <c r="AW4" t="n">
-        <v>1108.390014648438</v>
+        <v>1065.462768554688</v>
       </c>
       <c r="AX4" t="n">
-        <v>1108.210815429688</v>
+        <v>1065.164916992188</v>
       </c>
       <c r="AY4" t="n">
-        <v>1108.1962890625</v>
+        <v>1065.20947265625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1107.92431640625</v>
+        <v>1064.863525390625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1107.781127929688</v>
+        <v>1065.51708984375</v>
       </c>
       <c r="BB4" t="n">
-        <v>1107.642700195312</v>
+        <v>1065.267211914062</v>
       </c>
       <c r="BC4" t="n">
-        <v>1107.66796875</v>
+        <v>1066.321899414062</v>
       </c>
       <c r="BD4" t="n">
-        <v>1107.51513671875</v>
+        <v>1067.581665039062</v>
       </c>
       <c r="BE4" t="n">
-        <v>1107.49169921875</v>
+        <v>1068.334106445312</v>
       </c>
       <c r="BF4" t="n">
-        <v>1107.46923828125</v>
+        <v>1071.448852539062</v>
       </c>
       <c r="BG4" t="n">
-        <v>1107.470825195312</v>
+        <v>1074.343627929688</v>
       </c>
       <c r="BH4" t="n">
-        <v>1107.279052734375</v>
+        <v>1086.005249023438</v>
       </c>
       <c r="BI4" t="n">
-        <v>1106.596435546875</v>
+        <v>1091.185668945312</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1105.484741210938</v>
+        <v>1095.849731445312</v>
       </c>
       <c r="BK4" t="n">
-        <v>1102.994873046875</v>
+        <v>1099.311889648438</v>
       </c>
       <c r="BL4" t="n">
-        <v>1099.19287109375</v>
+        <v>1101.557250976562</v>
       </c>
       <c r="BM4" t="n">
-        <v>1095.15869140625</v>
+        <v>1110.564697265625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1089.582275390625</v>
+        <v>1110.5068359375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1084.82470703125</v>
+        <v>1110.65478515625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1080.964721679688</v>
+        <v>1112.69873046875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1077.631958007812</v>
+        <v>1115.46826171875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1073.641357421875</v>
+        <v>1119.092529296875</v>
       </c>
       <c r="BS4" t="n">
-        <v>1072.2880859375</v>
+        <v>1118.805541992188</v>
       </c>
       <c r="BT4" t="n">
-        <v>1072.377319335938</v>
+        <v>1117.366943359375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1072.164916992188</v>
+        <v>1115.296020507812</v>
       </c>
       <c r="BV4" t="n">
-        <v>1071.54541015625</v>
+        <v>1112.749755859375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1070.289916992188</v>
+        <v>1109.9560546875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1068.448486328125</v>
+        <v>1107.358764648438</v>
       </c>
       <c r="BY4" t="n">
-        <v>1065.352294921875</v>
+        <v>1107.96142578125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1042.326049804688</v>
+        <v>1109.153442382812</v>
       </c>
       <c r="CA4" t="n">
-        <v>1040.670166015625</v>
+        <v>1110.171264648438</v>
       </c>
       <c r="CB4" t="n">
-        <v>1033.618286132812</v>
+        <v>1111.336791992188</v>
       </c>
       <c r="CC4" t="n">
-        <v>1023.064086914062</v>
+        <v>1111.89697265625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1011.445556640625</v>
+        <v>1111.590942382812</v>
       </c>
       <c r="CE4" t="n">
-        <v>998.349365234375</v>
+        <v>1111.943969726562</v>
       </c>
       <c r="CF4" t="n">
-        <v>987.1154174804688</v>
+        <v>1111.98388671875</v>
       </c>
       <c r="CG4" t="n">
-        <v>991.7866821289062</v>
+        <v>1112.448120117188</v>
       </c>
       <c r="CH4" t="n">
-        <v>995.9948120117188</v>
+        <v>1112.717529296875</v>
       </c>
       <c r="CI4" t="n">
-        <v>995.1522827148438</v>
+        <v>1113.364990234375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>993.7586669921875</v>
+        <v>1114.572509765625</v>
       </c>
       <c r="CK4" t="n">
-        <v>992.8037109375</v>
+        <v>1117.493408203125</v>
       </c>
       <c r="CL4" t="n">
-        <v>994.6610107421875</v>
+        <v>1121.728271484375</v>
       </c>
       <c r="CM4" t="n">
-        <v>995.4048461914062</v>
+        <v>1128.392333984375</v>
       </c>
       <c r="CN4" t="n">
-        <v>996.1807861328125</v>
+        <v>1133.623413085938</v>
       </c>
       <c r="CO4" t="n">
-        <v>996.7225952148438</v>
+        <v>1131.8798828125</v>
       </c>
       <c r="CP4" t="n">
-        <v>996.852294921875</v>
+        <v>1130.06201171875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>997.1981811523438</v>
+        <v>1130.069946289062</v>
       </c>
       <c r="CR4" t="n">
-        <v>997.568603515625</v>
+        <v>1131.08544921875</v>
       </c>
       <c r="CS4" t="n">
-        <v>998.1498413085938</v>
+        <v>1131.579711914062</v>
       </c>
       <c r="CT4" t="n">
-        <v>999.6038818359375</v>
+        <v>1129.464233398438</v>
       </c>
       <c r="CU4" t="n">
-        <v>1001.664794921875</v>
+        <v>1129.192993164062</v>
       </c>
       <c r="CV4" t="n">
-        <v>1007.378662109375</v>
+        <v>1128.96435546875</v>
       </c>
       <c r="CW4" t="n">
-        <v>1023.8671875</v>
+        <v>1130.027709960938</v>
       </c>
       <c r="CX4" t="n">
-        <v>1024.908081054688</v>
+        <v>1129.709838867188</v>
       </c>
       <c r="CY4" t="n">
-        <v>1023.705810546875</v>
+        <v>1128.277709960938</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1022.0341796875</v>
+        <v>1128.836181640625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1020.158386230469</v>
+        <v>1129.066528320312</v>
       </c>
       <c r="DB4" t="n">
-        <v>1018.078308105469</v>
+        <v>1129.025024414062</v>
       </c>
       <c r="DC4" t="n">
-        <v>1016.06689453125</v>
+        <v>1129.969360351562</v>
       </c>
       <c r="DD4" t="n">
-        <v>1015.8720703125</v>
+        <v>1128.740478515625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1016.153747558594</v>
+        <v>1129.046875</v>
       </c>
       <c r="DF4" t="n">
-        <v>1018.966491699219</v>
+        <v>1128.7353515625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1021.190307617188</v>
+        <v>1129.513061523438</v>
       </c>
       <c r="DH4" t="n">
-        <v>1024.187377929688</v>
+        <v>1129.82958984375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1029.332763671875</v>
+        <v>1128.720458984375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1029.023559570312</v>
+        <v>1126.06884765625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1029.158081054688</v>
+        <v>1121.025024414062</v>
       </c>
       <c r="DL4" t="n">
-        <v>1028.145141601562</v>
+        <v>1110.813110351562</v>
       </c>
       <c r="DM4" t="n">
-        <v>1026.52099609375</v>
+        <v>1098.927001953125</v>
       </c>
       <c r="DN4" t="n">
-        <v>1019.159606933594</v>
+        <v>1096.315795898438</v>
       </c>
       <c r="DO4" t="n">
-        <v>1014.789672851562</v>
+        <v>1081.43994140625</v>
       </c>
       <c r="DP4" t="n">
-        <v>1013.414611816406</v>
+        <v>1074.76123046875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1012.227416992188</v>
+        <v>1074.496215820312</v>
       </c>
       <c r="DR4" t="n">
-        <v>1013.059814453125</v>
+        <v>1075.757690429688</v>
       </c>
       <c r="DS4" t="n">
-        <v>1014.771850585938</v>
+        <v>1077.797729492188</v>
       </c>
       <c r="DT4" t="n">
-        <v>1019.059753417969</v>
+        <v>1087.973999023438</v>
       </c>
       <c r="DU4" t="n">
-        <v>1022.886291503906</v>
+        <v>1099.856323242188</v>
       </c>
       <c r="DV4" t="n">
-        <v>1028.876586914062</v>
+        <v>1111.4501953125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1030.278442382812</v>
+        <v>1129.671264648438</v>
       </c>
       <c r="DX4" t="n">
-        <v>1029.810180664062</v>
+        <v>1136.318359375</v>
       </c>
       <c r="DY4" t="n">
-        <v>1029.0390625</v>
+        <v>1152.183227539062</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1028.503173828125</v>
+        <v>1159.601684570312</v>
       </c>
       <c r="EA4" t="n">
-        <v>1027.22802734375</v>
+        <v>1170.672729492188</v>
       </c>
       <c r="EB4" t="n">
-        <v>1024.154541015625</v>
+        <v>1181.517944335938</v>
       </c>
       <c r="EC4" t="n">
-        <v>1020.301208496094</v>
+        <v>1188.022583007812</v>
       </c>
       <c r="ED4" t="n">
-        <v>1019.101745605469</v>
+        <v>1198.212890625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1019.516235351562</v>
+        <v>1219.34765625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1020.061218261719</v>
+        <v>1220.7451171875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1020.632995605469</v>
+        <v>1232.842651367188</v>
       </c>
       <c r="EH4" t="n">
-        <v>1021.150756835938</v>
+        <v>1265.388305664062</v>
       </c>
       <c r="EI4" t="n">
-        <v>1021.393005371094</v>
+        <v>1283.628784179688</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1021.560119628906</v>
+        <v>1296.4189453125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1021.411743164062</v>
+        <v>1314.06689453125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1021.044494628906</v>
+        <v>1315.404663085938</v>
       </c>
       <c r="EM4" t="n">
-        <v>1020.095336914062</v>
+        <v>1316.22412109375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1020.391418457031</v>
+        <v>1316.730712890625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1020.767517089844</v>
+        <v>1318.462646484375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1020.635864257812</v>
+        <v>1320.25341796875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1020.154907226562</v>
+        <v>1327.003051757812</v>
       </c>
       <c r="ER4" t="n">
-        <v>1019.815063476562</v>
+        <v>1329.0263671875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1019.644958496094</v>
+        <v>1330.823974609375</v>
       </c>
       <c r="ET4" t="n">
-        <v>1019.804748535156</v>
+        <v>1329.191162109375</v>
       </c>
       <c r="EU4" t="n">
-        <v>1019.398071289062</v>
+        <v>1320.2734375</v>
       </c>
       <c r="EV4" t="n">
-        <v>1019.017639160156</v>
+        <v>1312.795654296875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1018.341003417969</v>
+        <v>1286.690063476562</v>
       </c>
       <c r="EX4" t="n">
-        <v>1017.276733398438</v>
+        <v>1270.494262695312</v>
       </c>
       <c r="EY4" t="n">
-        <v>1016.726989746094</v>
+        <v>1258.062866210938</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1015.368957519531</v>
+        <v>1251.150024414062</v>
       </c>
       <c r="FA4" t="n">
-        <v>1015.967956542969</v>
+        <v>1253.550659179688</v>
       </c>
       <c r="FB4" t="n">
-        <v>1015.889465332031</v>
+        <v>1249.241821289062</v>
       </c>
       <c r="FC4" t="n">
-        <v>1015.815124511719</v>
+        <v>1242.71337890625</v>
       </c>
       <c r="FD4" t="n">
-        <v>1016.319396972656</v>
+        <v>1239.541259765625</v>
       </c>
       <c r="FE4" t="n">
-        <v>1017.017395019531</v>
+        <v>1235.85986328125</v>
       </c>
       <c r="FF4" t="n">
-        <v>1017.370666503906</v>
+        <v>1230.28857421875</v>
       </c>
       <c r="FG4" t="n">
-        <v>1017.157409667969</v>
+        <v>1201.365112304688</v>
       </c>
       <c r="FH4" t="n">
-        <v>1016.753540039062</v>
+        <v>1164.852172851562</v>
       </c>
       <c r="FI4" t="n">
-        <v>1015.4755859375</v>
+        <v>1154.715209960938</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1014.121276855469</v>
+        <v>1157.184936523438</v>
       </c>
       <c r="FK4" t="n">
-        <v>1009.643005371094</v>
+        <v>1129.175903320312</v>
       </c>
       <c r="FL4" t="n">
-        <v>1000.529968261719</v>
+        <v>1112.559448242188</v>
       </c>
       <c r="FM4" t="n">
-        <v>997.1732788085938</v>
+        <v>1081.41455078125</v>
       </c>
       <c r="FN4" t="n">
-        <v>973.3538818359375</v>
+        <v>1054.09814453125</v>
       </c>
       <c r="FO4" t="n">
-        <v>964.6945190429688</v>
+        <v>1025.036865234375</v>
       </c>
       <c r="FP4" t="n">
-        <v>949.4640502929688</v>
+        <v>993.591796875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>929.0938110351562</v>
+        <v>976.2861328125</v>
       </c>
       <c r="FR4" t="n">
-        <v>922.74462890625</v>
+        <v>958.1756591796875</v>
       </c>
       <c r="FS4" t="n">
-        <v>902.2593383789062</v>
+        <v>929.6990966796875</v>
       </c>
       <c r="FT4" t="n">
-        <v>858.2947387695312</v>
+        <v>920.1168212890625</v>
       </c>
       <c r="FU4" t="n">
-        <v>848.7421875</v>
+        <v>901.09423828125</v>
       </c>
       <c r="FV4" t="n">
-        <v>829.4969482421875</v>
+        <v>892.8178100585938</v>
       </c>
       <c r="FW4" t="n">
-        <v>826.3236083984375</v>
+        <v>861.3438110351562</v>
       </c>
       <c r="FX4" t="n">
-        <v>825.7706909179688</v>
+        <v>863.9671020507812</v>
       </c>
       <c r="FY4" t="n">
-        <v>824.845703125</v>
+        <v>819.9566040039062</v>
       </c>
       <c r="FZ4" t="n">
-        <v>820.953125</v>
+        <v>812.8408813476562</v>
       </c>
       <c r="GA4" t="n">
-        <v>816.1318359375</v>
+        <v>774.051025390625</v>
       </c>
       <c r="GB4" t="n">
-        <v>811.761474609375</v>
+        <v>662.1259765625</v>
       </c>
       <c r="GC4" t="n">
-        <v>810.07275390625</v>
+        <v>663.3267211914062</v>
       </c>
       <c r="GD4" t="n">
-        <v>799.8697509765625</v>
+        <v>684.3049926757812</v>
       </c>
       <c r="GE4" t="n">
-        <v>793.15869140625</v>
+        <v>680.3878173828125</v>
       </c>
       <c r="GF4" t="n">
-        <v>758.0579833984375</v>
+        <v>775.8128662109375</v>
       </c>
       <c r="GG4" t="n">
-        <v>741.9321899414062</v>
+        <v>770.7910766601562</v>
       </c>
       <c r="GH4" t="n">
-        <v>710.1903686523438</v>
+        <v>759.8543090820312</v>
       </c>
       <c r="GI4" t="n">
-        <v>691.930908203125</v>
+        <v>749.0179443359375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>669.79345703125</v>
+        <v>755.6292724609375</v>
       </c>
       <c r="GK4" t="n">
-        <v>639.385986328125</v>
+        <v>747.4549560546875</v>
       </c>
       <c r="GL4" t="n">
-        <v>622.0218505859375</v>
+        <v>736.277587890625</v>
       </c>
       <c r="GM4" t="n">
-        <v>625.0576171875</v>
+        <v>709.7222900390625</v>
       </c>
       <c r="GN4" t="n">
-        <v>625.6883544921875</v>
+        <v>658.1006469726562</v>
       </c>
       <c r="GO4" t="n">
-        <v>621.9386596679688</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>620.1033325195312</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>620.7145385742188</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>622.1240234375</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>615.8623657226562</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>596.5462036132812</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>606.52587890625</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>617.98828125</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>618.6122436523438</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>617.7686767578125</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>596.891845703125</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>580.003662109375</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>486.1871337890625</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>569.1187133789062</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>603.4288330078125</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>633.3450927734375</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>665.1390380859375</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>666.9908447265625</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>670.5084838867188</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>672.6195678710938</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>674.009521484375</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>710.0938720703125</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>720.9490966796875</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>614.901611328125</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>591.6172485351562</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>591.6431274414062</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>591.8790283203125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>591.2822875976562</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>590.6030883789062</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>586.775146484375</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>588.4722290039062</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>586.8576049804688</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>586.5337524414062</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>586.3199462890625</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>599.429443359375</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>603.5768432617188</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>600.4794921875</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>599.521728515625</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>599.15380859375</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>600.8101806640625</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>603.0424194335938</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>604.3737182617188</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>605.908203125</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>605.5420532226562</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>605.4024047851562</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>605.5384521484375</v>
-      </c>
-      <c r="II4" t="n">
-        <v>606.7874755859375</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>607.492919921875</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>608.0357055664062</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>608.1705932617188</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>608.3216552734375</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>608.5744018554688</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>608.0189819335938</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>607.6087036132812</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>607.1790771484375</v>
+        <v>635.9301147460938</v>
       </c>
     </row>
   </sheetData>

--- a/right_hip_Data.xlsx
+++ b/right_hip_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>161.3495635986328</v>
       </c>
       <c r="B2" t="n">
-        <v>318.2956237792969</v>
+        <v>161.6215209960938</v>
       </c>
       <c r="C2" t="n">
-        <v>314.7120971679688</v>
+        <v>161.6303100585938</v>
       </c>
       <c r="D2" t="n">
-        <v>310.9631652832031</v>
+        <v>161.6546630859375</v>
       </c>
       <c r="E2" t="n">
-        <v>309.6856994628906</v>
+        <v>161.6773681640625</v>
       </c>
       <c r="F2" t="n">
-        <v>309.2885437011719</v>
+        <v>161.671142578125</v>
       </c>
       <c r="G2" t="n">
-        <v>309.3256225585938</v>
+        <v>161.6661224365234</v>
       </c>
       <c r="H2" t="n">
-        <v>309.7662353515625</v>
+        <v>161.6852722167969</v>
       </c>
       <c r="I2" t="n">
-        <v>310.1208190917969</v>
+        <v>161.7301177978516</v>
       </c>
       <c r="J2" t="n">
-        <v>310.3461303710938</v>
+        <v>161.7665710449219</v>
       </c>
       <c r="K2" t="n">
-        <v>311.2722473144531</v>
+        <v>161.7931365966797</v>
       </c>
       <c r="L2" t="n">
-        <v>312.1087036132812</v>
+        <v>161.8647613525391</v>
       </c>
       <c r="M2" t="n">
-        <v>312.8806457519531</v>
+        <v>161.9561767578125</v>
       </c>
       <c r="N2" t="n">
-        <v>313.4609069824219</v>
+        <v>162.0392456054688</v>
       </c>
       <c r="O2" t="n">
-        <v>313.8418273925781</v>
+        <v>162.0687713623047</v>
       </c>
       <c r="P2" t="n">
-        <v>314.2340698242188</v>
+        <v>162.0044708251953</v>
       </c>
       <c r="Q2" t="n">
-        <v>314.5717163085938</v>
+        <v>161.7895812988281</v>
       </c>
       <c r="R2" t="n">
-        <v>314.9267883300781</v>
+        <v>160.6919097900391</v>
       </c>
       <c r="S2" t="n">
-        <v>315.245849609375</v>
+        <v>159.2850952148438</v>
       </c>
       <c r="T2" t="n">
-        <v>315.5145568847656</v>
+        <v>160.0207366943359</v>
       </c>
       <c r="U2" t="n">
-        <v>315.6436767578125</v>
+        <v>160.6338653564453</v>
       </c>
       <c r="V2" t="n">
-        <v>315.8979797363281</v>
+        <v>160.6963806152344</v>
       </c>
       <c r="W2" t="n">
-        <v>316.091064453125</v>
+        <v>162.5937194824219</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2160339355469</v>
+        <v>163.3037567138672</v>
       </c>
       <c r="Y2" t="n">
-        <v>316.3802490234375</v>
+        <v>164.2163696289062</v>
       </c>
       <c r="Z2" t="n">
-        <v>316.4967041015625</v>
+        <v>164.9013977050781</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.6373291015625</v>
+        <v>167.9378509521484</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.8598327636719</v>
+        <v>171.7958831787109</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.9424438476562</v>
+        <v>176.0960540771484</v>
       </c>
       <c r="AD2" t="n">
-        <v>317.0526733398438</v>
+        <v>182.1072692871094</v>
       </c>
       <c r="AE2" t="n">
-        <v>317.2618408203125</v>
+        <v>187.1747589111328</v>
       </c>
       <c r="AF2" t="n">
-        <v>317.4257202148438</v>
+        <v>189.2311248779297</v>
       </c>
       <c r="AG2" t="n">
-        <v>317.564697265625</v>
+        <v>192.6735229492188</v>
       </c>
       <c r="AH2" t="n">
-        <v>317.6920471191406</v>
+        <v>195.1772155761719</v>
       </c>
       <c r="AI2" t="n">
-        <v>317.8053283691406</v>
+        <v>203.0623168945312</v>
       </c>
       <c r="AJ2" t="n">
-        <v>317.9071960449219</v>
+        <v>203.1183471679688</v>
       </c>
       <c r="AK2" t="n">
-        <v>318.0108337402344</v>
+        <v>203.7068481445312</v>
       </c>
       <c r="AL2" t="n">
-        <v>318.2331848144531</v>
+        <v>205.6177520751953</v>
       </c>
       <c r="AM2" t="n">
-        <v>318.4626159667969</v>
+        <v>207.4431610107422</v>
       </c>
       <c r="AN2" t="n">
-        <v>318.5639038085938</v>
+        <v>209.5864715576172</v>
       </c>
       <c r="AO2" t="n">
-        <v>318.5889892578125</v>
+        <v>212.5792236328125</v>
       </c>
       <c r="AP2" t="n">
-        <v>318.7103881835938</v>
+        <v>210.1599884033203</v>
       </c>
       <c r="AQ2" t="n">
-        <v>319.8657531738281</v>
+        <v>219.8455200195312</v>
       </c>
       <c r="AR2" t="n">
-        <v>326.3714599609375</v>
+        <v>227.3420104980469</v>
       </c>
       <c r="AS2" t="n">
-        <v>331.0724487304688</v>
+        <v>231.4188842773438</v>
       </c>
       <c r="AT2" t="n">
-        <v>340.6766052246094</v>
+        <v>233.1183624267578</v>
       </c>
       <c r="AU2" t="n">
-        <v>344.8748168945312</v>
+        <v>234.1072692871094</v>
       </c>
       <c r="AV2" t="n">
-        <v>348.4122924804688</v>
+        <v>236.6026306152344</v>
       </c>
       <c r="AW2" t="n">
-        <v>352.3301696777344</v>
+        <v>241.0646820068359</v>
       </c>
       <c r="AX2" t="n">
-        <v>356.4754028320312</v>
+        <v>248.1720581054688</v>
       </c>
       <c r="AY2" t="n">
-        <v>362.408203125</v>
+        <v>254.1970977783203</v>
       </c>
       <c r="AZ2" t="n">
-        <v>370.6793212890625</v>
+        <v>258.0844421386719</v>
       </c>
       <c r="BA2" t="n">
-        <v>377.31787109375</v>
+        <v>259.5010986328125</v>
       </c>
       <c r="BB2" t="n">
-        <v>382.3649597167969</v>
+        <v>260.9970397949219</v>
       </c>
       <c r="BC2" t="n">
-        <v>385.9882202148438</v>
+        <v>263.7188720703125</v>
       </c>
       <c r="BD2" t="n">
-        <v>389.8659057617188</v>
+        <v>265.6237487792969</v>
       </c>
       <c r="BE2" t="n">
-        <v>394.6336059570312</v>
+        <v>268.1910400390625</v>
       </c>
       <c r="BF2" t="n">
-        <v>396.751708984375</v>
+        <v>271.2568664550781</v>
       </c>
       <c r="BG2" t="n">
-        <v>396.7981262207031</v>
+        <v>275.0361633300781</v>
       </c>
       <c r="BH2" t="n">
-        <v>395.2763366699219</v>
+        <v>279.4405212402344</v>
       </c>
       <c r="BI2" t="n">
-        <v>393.2039794921875</v>
+        <v>288.0990905761719</v>
       </c>
       <c r="BJ2" t="n">
-        <v>379.7276306152344</v>
+        <v>292.4411926269531</v>
       </c>
       <c r="BK2" t="n">
-        <v>368.1435546875</v>
+        <v>295.8296508789062</v>
       </c>
       <c r="BL2" t="n">
-        <v>360.3073120117188</v>
+        <v>297.767822265625</v>
       </c>
       <c r="BM2" t="n">
-        <v>346.2337646484375</v>
+        <v>299.3179626464844</v>
       </c>
       <c r="BN2" t="n">
-        <v>340.1640625</v>
+        <v>300.9923400878906</v>
       </c>
       <c r="BO2" t="n">
-        <v>333.9874267578125</v>
+        <v>302.8967590332031</v>
       </c>
       <c r="BP2" t="n">
-        <v>326.8146362304688</v>
+        <v>304.6771240234375</v>
       </c>
       <c r="BQ2" t="n">
-        <v>319.933837890625</v>
+        <v>305.3464965820312</v>
       </c>
       <c r="BR2" t="n">
-        <v>313.1555480957031</v>
+        <v>307.406494140625</v>
       </c>
       <c r="BS2" t="n">
-        <v>306.0206604003906</v>
+        <v>311.8800048828125</v>
       </c>
       <c r="BT2" t="n">
-        <v>298.1781311035156</v>
+        <v>317.2027893066406</v>
       </c>
       <c r="BU2" t="n">
-        <v>290.8759460449219</v>
+        <v>321.7565307617188</v>
       </c>
       <c r="BV2" t="n">
-        <v>283.7155151367188</v>
+        <v>325.2376708984375</v>
       </c>
       <c r="BW2" t="n">
-        <v>278.0809020996094</v>
+        <v>329.4894409179688</v>
       </c>
       <c r="BX2" t="n">
-        <v>272.2297668457031</v>
+        <v>332.8815307617188</v>
       </c>
       <c r="BY2" t="n">
-        <v>268.423583984375</v>
+        <v>334.22021484375</v>
       </c>
       <c r="BZ2" t="n">
-        <v>264.5137634277344</v>
+        <v>334.5218505859375</v>
       </c>
       <c r="CA2" t="n">
-        <v>260.0104675292969</v>
+        <v>335.1495971679688</v>
       </c>
       <c r="CB2" t="n">
-        <v>254.9001770019531</v>
+        <v>335.8152465820312</v>
       </c>
       <c r="CC2" t="n">
-        <v>250.0319213867188</v>
+        <v>336.5668029785156</v>
       </c>
       <c r="CD2" t="n">
-        <v>245.8272705078125</v>
+        <v>337.5251770019531</v>
       </c>
       <c r="CE2" t="n">
-        <v>242.0755157470703</v>
+        <v>338.3536376953125</v>
       </c>
       <c r="CF2" t="n">
-        <v>239.1006164550781</v>
+        <v>339.081298828125</v>
       </c>
       <c r="CG2" t="n">
-        <v>236.1501159667969</v>
+        <v>339.3836669921875</v>
       </c>
       <c r="CH2" t="n">
-        <v>234.1937103271484</v>
+        <v>339.457763671875</v>
       </c>
       <c r="CI2" t="n">
-        <v>233.2542419433594</v>
+        <v>339.6184997558594</v>
       </c>
       <c r="CJ2" t="n">
-        <v>233.3056640625</v>
+        <v>339.4752197265625</v>
       </c>
       <c r="CK2" t="n">
-        <v>234.2533874511719</v>
+        <v>339.450439453125</v>
       </c>
       <c r="CL2" t="n">
-        <v>237.0567016601562</v>
+        <v>340.3274536132812</v>
       </c>
       <c r="CM2" t="n">
-        <v>241.4308929443359</v>
+        <v>340.3907470703125</v>
       </c>
       <c r="CN2" t="n">
-        <v>247.2772827148438</v>
+        <v>340.2574157714844</v>
       </c>
       <c r="CO2" t="n">
-        <v>253.2967224121094</v>
+        <v>340.2078857421875</v>
       </c>
       <c r="CP2" t="n">
-        <v>259.6285400390625</v>
+        <v>339.2533569335938</v>
       </c>
       <c r="CQ2" t="n">
-        <v>266.0997619628906</v>
+        <v>337.9293823242188</v>
       </c>
       <c r="CR2" t="n">
-        <v>277.7788391113281</v>
+        <v>335.8986206054688</v>
       </c>
       <c r="CS2" t="n">
-        <v>281.9830627441406</v>
+        <v>334.912353515625</v>
       </c>
       <c r="CT2" t="n">
-        <v>287.0584716796875</v>
+        <v>334.0673828125</v>
       </c>
       <c r="CU2" t="n">
-        <v>294.7801208496094</v>
+        <v>332.1968078613281</v>
       </c>
       <c r="CV2" t="n">
-        <v>304.4652709960938</v>
+        <v>329.7882080078125</v>
       </c>
       <c r="CW2" t="n">
-        <v>312.0108642578125</v>
+        <v>326.8872375488281</v>
       </c>
       <c r="CX2" t="n">
-        <v>317.0218505859375</v>
+        <v>325.7321472167969</v>
       </c>
       <c r="CY2" t="n">
-        <v>321.460693359375</v>
+        <v>323.165771484375</v>
       </c>
       <c r="CZ2" t="n">
-        <v>325.0557250976562</v>
+        <v>321.7359008789062</v>
       </c>
       <c r="DA2" t="n">
-        <v>330.2163391113281</v>
+        <v>319.5415954589844</v>
       </c>
       <c r="DB2" t="n">
-        <v>341.8209228515625</v>
+        <v>319.2332763671875</v>
       </c>
       <c r="DC2" t="n">
-        <v>347.29345703125</v>
+        <v>319.0233764648438</v>
       </c>
       <c r="DD2" t="n">
-        <v>351.8864440917969</v>
+        <v>318.6917724609375</v>
       </c>
       <c r="DE2" t="n">
-        <v>355.4301452636719</v>
+        <v>318.3319396972656</v>
       </c>
       <c r="DF2" t="n">
-        <v>359.2365112304688</v>
+        <v>318.1010131835938</v>
       </c>
       <c r="DG2" t="n">
-        <v>362.7068481445312</v>
+        <v>317.8482360839844</v>
       </c>
       <c r="DH2" t="n">
-        <v>365.2787780761719</v>
+        <v>317.4261779785156</v>
       </c>
       <c r="DI2" t="n">
-        <v>365.6190490722656</v>
+        <v>317.2597045898438</v>
       </c>
       <c r="DJ2" t="n">
-        <v>365.8612060546875</v>
+        <v>317.3598022460938</v>
       </c>
       <c r="DK2" t="n">
-        <v>366.3014221191406</v>
+        <v>317.4670715332031</v>
       </c>
       <c r="DL2" t="n">
-        <v>366.9482727050781</v>
+        <v>317.533203125</v>
       </c>
       <c r="DM2" t="n">
-        <v>365.9071350097656</v>
+        <v>317.6268615722656</v>
       </c>
       <c r="DN2" t="n">
-        <v>362.9472045898438</v>
+        <v>317.5403442382812</v>
       </c>
       <c r="DO2" t="n">
-        <v>357.6035766601562</v>
+        <v>317.3991394042969</v>
       </c>
       <c r="DP2" t="n">
-        <v>354.0067749023438</v>
+        <v>317.2560424804688</v>
       </c>
       <c r="DQ2" t="n">
-        <v>349.0203247070312</v>
+        <v>317.1094970703125</v>
       </c>
       <c r="DR2" t="n">
-        <v>345.7039184570312</v>
+        <v>317.0312805175781</v>
       </c>
       <c r="DS2" t="n">
-        <v>343.9818725585938</v>
+        <v>316.9874267578125</v>
       </c>
       <c r="DT2" t="n">
-        <v>340.7705688476562</v>
+        <v>316.6743774414062</v>
       </c>
       <c r="DU2" t="n">
-        <v>338.6724853515625</v>
+        <v>316.609619140625</v>
       </c>
       <c r="DV2" t="n">
-        <v>335.3040771484375</v>
+        <v>316.5924987792969</v>
       </c>
       <c r="DW2" t="n">
-        <v>330.7103271484375</v>
+        <v>316.552001953125</v>
       </c>
       <c r="DX2" t="n">
-        <v>328.9251098632812</v>
+        <v>316.6979370117188</v>
       </c>
       <c r="DY2" t="n">
-        <v>328.3834228515625</v>
+        <v>316.8302307128906</v>
       </c>
       <c r="DZ2" t="n">
-        <v>327.4422607421875</v>
+        <v>317.4107055664062</v>
       </c>
       <c r="EA2" t="n">
-        <v>324.4273071289062</v>
+        <v>318.0144348144531</v>
       </c>
       <c r="EB2" t="n">
-        <v>322.34130859375</v>
+        <v>318.4974365234375</v>
       </c>
       <c r="EC2" t="n">
-        <v>322.056640625</v>
+        <v>319.4321899414062</v>
       </c>
       <c r="ED2" t="n">
-        <v>318.0301208496094</v>
+        <v>319.7732238769531</v>
       </c>
       <c r="EE2" t="n">
-        <v>316.4417724609375</v>
+        <v>320.4026794433594</v>
       </c>
       <c r="EF2" t="n">
-        <v>316.0423583984375</v>
+        <v>320.8007202148438</v>
       </c>
       <c r="EG2" t="n">
-        <v>318.6517639160156</v>
+        <v>320.826171875</v>
       </c>
       <c r="EH2" t="n">
-        <v>326.0708312988281</v>
+        <v>320.6770324707031</v>
       </c>
       <c r="EI2" t="n">
-        <v>327.2769165039062</v>
+        <v>320.4846801757812</v>
       </c>
       <c r="EJ2" t="n">
-        <v>327.2830505371094</v>
+        <v>320.3978881835938</v>
       </c>
       <c r="EK2" t="n">
-        <v>328.6405029296875</v>
+        <v>320.2918090820312</v>
       </c>
       <c r="EL2" t="n">
-        <v>330.7858276367188</v>
+        <v>320.3058166503906</v>
       </c>
       <c r="EM2" t="n">
-        <v>338.4297485351562</v>
+        <v>320.3371887207031</v>
       </c>
       <c r="EN2" t="n">
-        <v>340.7684936523438</v>
+        <v>321.5796508789062</v>
       </c>
       <c r="EO2" t="n">
-        <v>343.60107421875</v>
+        <v>323.173583984375</v>
       </c>
       <c r="EP2" t="n">
-        <v>345.5079956054688</v>
+        <v>325.0324096679688</v>
       </c>
       <c r="EQ2" t="n">
-        <v>349.1674194335938</v>
+        <v>325.625244140625</v>
       </c>
       <c r="ER2" t="n">
-        <v>349.5509033203125</v>
+        <v>326.1692810058594</v>
       </c>
       <c r="ES2" t="n">
-        <v>349.504638671875</v>
+        <v>326.256103515625</v>
       </c>
       <c r="ET2" t="n">
-        <v>342.529541015625</v>
+        <v>326.5600280761719</v>
       </c>
       <c r="EU2" t="n">
-        <v>335.9544067382812</v>
+        <v>326.73974609375</v>
       </c>
       <c r="EV2" t="n">
-        <v>329.5058898925781</v>
+        <v>326.658935546875</v>
       </c>
       <c r="EW2" t="n">
-        <v>322.9795837402344</v>
+        <v>326.48095703125</v>
       </c>
       <c r="EX2" t="n">
-        <v>321.4818725585938</v>
+        <v>326.3272705078125</v>
       </c>
       <c r="EY2" t="n">
-        <v>318.7229919433594</v>
+        <v>326.2207336425781</v>
       </c>
       <c r="EZ2" t="n">
-        <v>314.9415588378906</v>
+        <v>326.0884399414062</v>
       </c>
       <c r="FA2" t="n">
-        <v>301.6016845703125</v>
+        <v>325.8705444335938</v>
       </c>
       <c r="FB2" t="n">
-        <v>295.0112915039062</v>
+        <v>325.7280883789062</v>
       </c>
       <c r="FC2" t="n">
-        <v>283.840576171875</v>
+        <v>325.5803833007812</v>
       </c>
       <c r="FD2" t="n">
-        <v>281.7951354980469</v>
+        <v>325.387939453125</v>
       </c>
       <c r="FE2" t="n">
-        <v>279.9486083984375</v>
+        <v>325.2238464355469</v>
       </c>
       <c r="FF2" t="n">
-        <v>280.1014709472656</v>
+        <v>325.0750122070312</v>
       </c>
       <c r="FG2" t="n">
-        <v>278.2034912109375</v>
+        <v>325.0190734863281</v>
       </c>
       <c r="FH2" t="n">
-        <v>270.9680786132812</v>
+        <v>324.951171875</v>
       </c>
       <c r="FI2" t="n">
-        <v>269.4823608398438</v>
+        <v>324.8442993164062</v>
       </c>
       <c r="FJ2" t="n">
-        <v>273.9435424804688</v>
+        <v>324.7348327636719</v>
       </c>
       <c r="FK2" t="n">
-        <v>281.3585510253906</v>
+        <v>324.6624145507812</v>
       </c>
       <c r="FL2" t="n">
-        <v>283.9647216796875</v>
+        <v>324.6048278808594</v>
       </c>
       <c r="FM2" t="n">
-        <v>290.740234375</v>
+        <v>324.5716857910156</v>
       </c>
       <c r="FN2" t="n">
-        <v>299.3133239746094</v>
+        <v>324.5543823242188</v>
       </c>
       <c r="FO2" t="n">
-        <v>301.6331176757812</v>
+        <v>324.5364074707031</v>
       </c>
       <c r="FP2" t="n">
-        <v>304.7489318847656</v>
+        <v>324.5123901367188</v>
       </c>
       <c r="FQ2" t="n">
-        <v>315.2079467773438</v>
+        <v>324.5627136230469</v>
       </c>
       <c r="FR2" t="n">
-        <v>320.167236328125</v>
+        <v>324.6277160644531</v>
       </c>
       <c r="FS2" t="n">
-        <v>332.6401062011719</v>
+        <v>324.7979125976562</v>
       </c>
       <c r="FT2" t="n">
-        <v>334.3167724609375</v>
+        <v>324.5788879394531</v>
       </c>
       <c r="FU2" t="n">
-        <v>335.1078796386719</v>
+        <v>324.441162109375</v>
       </c>
       <c r="FV2" t="n">
-        <v>333.286376953125</v>
+        <v>324.4296569824219</v>
       </c>
       <c r="FW2" t="n">
-        <v>325.5733642578125</v>
+        <v>324.6036071777344</v>
       </c>
       <c r="FX2" t="n">
-        <v>323.1163330078125</v>
+        <v>324.7945556640625</v>
       </c>
       <c r="FY2" t="n">
-        <v>345.4922180175781</v>
+        <v>324.8616943359375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>350.7435607910156</v>
+        <v>324.7642211914062</v>
       </c>
       <c r="GA2" t="n">
-        <v>369.990478515625</v>
+        <v>324.5839233398438</v>
       </c>
       <c r="GB2" t="n">
-        <v>399.1604309082031</v>
+        <v>324.4964294433594</v>
       </c>
       <c r="GC2" t="n">
-        <v>371.6522521972656</v>
+        <v>323.901123046875</v>
       </c>
       <c r="GD2" t="n">
-        <v>343.5346069335938</v>
+        <v>323.945068359375</v>
       </c>
       <c r="GE2" t="n">
-        <v>328.6571960449219</v>
+        <v>323.80615234375</v>
       </c>
       <c r="GF2" t="n">
-        <v>300.425537109375</v>
+        <v>323.11181640625</v>
       </c>
       <c r="GG2" t="n">
-        <v>284.4236145019531</v>
+        <v>322.3501892089844</v>
       </c>
       <c r="GH2" t="n">
-        <v>283.6394653320312</v>
+        <v>321.654296875</v>
       </c>
       <c r="GI2" t="n">
-        <v>273.7604370117188</v>
+        <v>321.6170959472656</v>
       </c>
       <c r="GJ2" t="n">
-        <v>273.115966796875</v>
+        <v>321.7747497558594</v>
       </c>
       <c r="GK2" t="n">
-        <v>263.7254028320312</v>
+        <v>321.9094848632812</v>
       </c>
       <c r="GL2" t="n">
-        <v>260.7037658691406</v>
+        <v>321.6776123046875</v>
       </c>
       <c r="GM2" t="n">
-        <v>253.5659637451172</v>
+        <v>321.5710144042969</v>
       </c>
       <c r="GN2" t="n">
-        <v>244.9905700683594</v>
+        <v>321.5031127929688</v>
       </c>
       <c r="GO2" t="n">
-        <v>255.2626190185547</v>
+        <v>321.4892883300781</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>321.2936401367188</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>321.1495361328125</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>320.910888671875</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>320.8293151855469</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>320.7139892578125</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>320.9363403320312</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>319.4823608398438</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>317.2938842773438</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>316.5279846191406</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>315.9272766113281</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>315.9487915039062</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>315.3510437011719</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>310.3453063964844</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>307.432861328125</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>306.5241088867188</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>304.3091735839844</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>304.1947937011719</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>303.6380004882812</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>303.2242736816406</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>303.3338012695312</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>301.782958984375</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>297.7751770019531</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>296.6478576660156</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>293.9353942871094</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>291.3733825683594</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>288.3854675292969</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>286.7582702636719</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>285.4928283691406</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>284.4877014160156</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>283.1901550292969</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>280.9106750488281</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>275.8921813964844</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>272.4762573242188</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>265.9016723632812</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>256.9476928710938</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>249.043701171875</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>242.3770446777344</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>236.9889831542969</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>231.3818054199219</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>229.4815063476562</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>230.9845275878906</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>232.83740234375</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>233.0711975097656</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>233.7048034667969</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>237.4889526367188</v>
+      </c>
+      <c r="II2" t="n">
+        <v>235.6151123046875</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>228.7535400390625</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>231.0664520263672</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>217.2464599609375</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>227.8876342773438</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>257.7684326171875</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>239.6607360839844</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>212.8090209960938</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>187.53369140625</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>200.0272216796875</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>182.732421875</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>135.6365203857422</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>110.5942230224609</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>121.9113616943359</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>99.71086120605469</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>85.74001312255859</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>94.74345397949219</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>132.6155700683594</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>145.2100067138672</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>183.5854187011719</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>165.1992492675781</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>205.3426818847656</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>229.7915802001953</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>228.9914245605469</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>244.9381713867188</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>248.0627593994141</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>230.2381591796875</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>227.6608428955078</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>205.0775451660156</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>192.5207672119141</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>191.3050537109375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>379.6483459472656</v>
       </c>
       <c r="B3" t="n">
-        <v>485.3033752441406</v>
+        <v>379.7479248046875</v>
       </c>
       <c r="C3" t="n">
-        <v>467.2408752441406</v>
+        <v>379.7349548339844</v>
       </c>
       <c r="D3" t="n">
-        <v>450.4342956542969</v>
+        <v>379.7483215332031</v>
       </c>
       <c r="E3" t="n">
-        <v>451.3768310546875</v>
+        <v>379.7442016601562</v>
       </c>
       <c r="F3" t="n">
-        <v>449.7394714355469</v>
+        <v>379.7521057128906</v>
       </c>
       <c r="G3" t="n">
-        <v>457.1405944824219</v>
+        <v>379.7582092285156</v>
       </c>
       <c r="H3" t="n">
-        <v>463.3762817382812</v>
+        <v>379.7607116699219</v>
       </c>
       <c r="I3" t="n">
-        <v>466.6327514648438</v>
+        <v>379.754638671875</v>
       </c>
       <c r="J3" t="n">
-        <v>467.1277770996094</v>
+        <v>379.75341796875</v>
       </c>
       <c r="K3" t="n">
-        <v>467.1759033203125</v>
+        <v>379.7635498046875</v>
       </c>
       <c r="L3" t="n">
-        <v>466.9482421875</v>
+        <v>379.7696228027344</v>
       </c>
       <c r="M3" t="n">
-        <v>466.909423828125</v>
+        <v>379.7696228027344</v>
       </c>
       <c r="N3" t="n">
-        <v>466.8890380859375</v>
+        <v>379.7789916992188</v>
       </c>
       <c r="O3" t="n">
-        <v>466.4734191894531</v>
+        <v>379.7659606933594</v>
       </c>
       <c r="P3" t="n">
-        <v>466.461181640625</v>
+        <v>379.44580078125</v>
       </c>
       <c r="Q3" t="n">
-        <v>466.4878234863281</v>
+        <v>378.7801208496094</v>
       </c>
       <c r="R3" t="n">
-        <v>466.76416015625</v>
+        <v>375.2813415527344</v>
       </c>
       <c r="S3" t="n">
-        <v>467.0093994140625</v>
+        <v>368.5527648925781</v>
       </c>
       <c r="T3" t="n">
-        <v>467.0776672363281</v>
+        <v>375.9636840820312</v>
       </c>
       <c r="U3" t="n">
-        <v>466.5269470214844</v>
+        <v>385.5780334472656</v>
       </c>
       <c r="V3" t="n">
-        <v>466.7533569335938</v>
+        <v>390.7671813964844</v>
       </c>
       <c r="W3" t="n">
-        <v>466.6954956054688</v>
+        <v>400.9178161621094</v>
       </c>
       <c r="X3" t="n">
-        <v>466.3476257324219</v>
+        <v>407.4980163574219</v>
       </c>
       <c r="Y3" t="n">
-        <v>465.9852294921875</v>
+        <v>411.799072265625</v>
       </c>
       <c r="Z3" t="n">
-        <v>465.0016479492188</v>
+        <v>409.7323913574219</v>
       </c>
       <c r="AA3" t="n">
-        <v>463.3827209472656</v>
+        <v>409.6327209472656</v>
       </c>
       <c r="AB3" t="n">
-        <v>461.3641052246094</v>
+        <v>410.0459899902344</v>
       </c>
       <c r="AC3" t="n">
-        <v>458.3489685058594</v>
+        <v>409.3209228515625</v>
       </c>
       <c r="AD3" t="n">
-        <v>456.1930236816406</v>
+        <v>405.2781066894531</v>
       </c>
       <c r="AE3" t="n">
-        <v>456.1639709472656</v>
+        <v>402.5423278808594</v>
       </c>
       <c r="AF3" t="n">
-        <v>456.2561340332031</v>
+        <v>402.5505065917969</v>
       </c>
       <c r="AG3" t="n">
-        <v>456.4424438476562</v>
+        <v>401.3722534179688</v>
       </c>
       <c r="AH3" t="n">
-        <v>456.5718383789062</v>
+        <v>400.1419677734375</v>
       </c>
       <c r="AI3" t="n">
-        <v>456.6872253417969</v>
+        <v>394.2854309082031</v>
       </c>
       <c r="AJ3" t="n">
-        <v>456.7762145996094</v>
+        <v>395.6221923828125</v>
       </c>
       <c r="AK3" t="n">
-        <v>456.8898315429688</v>
+        <v>395.9605102539062</v>
       </c>
       <c r="AL3" t="n">
-        <v>457.3637390136719</v>
+        <v>396.5104370117188</v>
       </c>
       <c r="AM3" t="n">
-        <v>458.22265625</v>
+        <v>396.1163330078125</v>
       </c>
       <c r="AN3" t="n">
-        <v>458.6009826660156</v>
+        <v>396.3088989257812</v>
       </c>
       <c r="AO3" t="n">
-        <v>458.4465942382812</v>
+        <v>393.4070739746094</v>
       </c>
       <c r="AP3" t="n">
-        <v>458.7495422363281</v>
+        <v>355.479248046875</v>
       </c>
       <c r="AQ3" t="n">
-        <v>458.5684204101562</v>
+        <v>336.0802917480469</v>
       </c>
       <c r="AR3" t="n">
-        <v>456.7215881347656</v>
+        <v>331.58544921875</v>
       </c>
       <c r="AS3" t="n">
-        <v>455.8346557617188</v>
+        <v>341.1694946289062</v>
       </c>
       <c r="AT3" t="n">
-        <v>453.2219848632812</v>
+        <v>357.164794921875</v>
       </c>
       <c r="AU3" t="n">
-        <v>449.6981506347656</v>
+        <v>371.2649230957031</v>
       </c>
       <c r="AV3" t="n">
-        <v>447.2592163085938</v>
+        <v>380.335693359375</v>
       </c>
       <c r="AW3" t="n">
-        <v>446.7847900390625</v>
+        <v>381.0744934082031</v>
       </c>
       <c r="AX3" t="n">
-        <v>447.6901245117188</v>
+        <v>382.5677795410156</v>
       </c>
       <c r="AY3" t="n">
-        <v>448.9957885742188</v>
+        <v>382.4537963867188</v>
       </c>
       <c r="AZ3" t="n">
-        <v>449.5868835449219</v>
+        <v>380.9258422851562</v>
       </c>
       <c r="BA3" t="n">
-        <v>446.2647705078125</v>
+        <v>375.0724487304688</v>
       </c>
       <c r="BB3" t="n">
-        <v>443.1099853515625</v>
+        <v>369.3609313964844</v>
       </c>
       <c r="BC3" t="n">
-        <v>439.3444213867188</v>
+        <v>369.3472290039062</v>
       </c>
       <c r="BD3" t="n">
-        <v>436.81640625</v>
+        <v>365.5093383789062</v>
       </c>
       <c r="BE3" t="n">
-        <v>435.6585083007812</v>
+        <v>362.1127319335938</v>
       </c>
       <c r="BF3" t="n">
-        <v>435.276611328125</v>
+        <v>357.9796752929688</v>
       </c>
       <c r="BG3" t="n">
-        <v>434.8692321777344</v>
+        <v>359.0062866210938</v>
       </c>
       <c r="BH3" t="n">
-        <v>433.4759826660156</v>
+        <v>360.41943359375</v>
       </c>
       <c r="BI3" t="n">
-        <v>432.7330627441406</v>
+        <v>362.6651306152344</v>
       </c>
       <c r="BJ3" t="n">
-        <v>433.2684020996094</v>
+        <v>361.1905822753906</v>
       </c>
       <c r="BK3" t="n">
-        <v>436.935791015625</v>
+        <v>359.6591796875</v>
       </c>
       <c r="BL3" t="n">
-        <v>435.6875</v>
+        <v>358.8100891113281</v>
       </c>
       <c r="BM3" t="n">
-        <v>438.4848937988281</v>
+        <v>359.451904296875</v>
       </c>
       <c r="BN3" t="n">
-        <v>438.005615234375</v>
+        <v>360.4150085449219</v>
       </c>
       <c r="BO3" t="n">
-        <v>436.9263305664062</v>
+        <v>363.4710388183594</v>
       </c>
       <c r="BP3" t="n">
-        <v>436.2929382324219</v>
+        <v>364.2398681640625</v>
       </c>
       <c r="BQ3" t="n">
-        <v>437.8127746582031</v>
+        <v>361.4582214355469</v>
       </c>
       <c r="BR3" t="n">
-        <v>439.79296875</v>
+        <v>359.5195007324219</v>
       </c>
       <c r="BS3" t="n">
-        <v>439.6440734863281</v>
+        <v>360.3124389648438</v>
       </c>
       <c r="BT3" t="n">
-        <v>439.6661376953125</v>
+        <v>363.8587036132812</v>
       </c>
       <c r="BU3" t="n">
-        <v>439.8272705078125</v>
+        <v>363.0138854980469</v>
       </c>
       <c r="BV3" t="n">
-        <v>439.6962890625</v>
+        <v>360.2101745605469</v>
       </c>
       <c r="BW3" t="n">
-        <v>440.4000549316406</v>
+        <v>357.0761413574219</v>
       </c>
       <c r="BX3" t="n">
-        <v>441.655029296875</v>
+        <v>356.8539428710938</v>
       </c>
       <c r="BY3" t="n">
-        <v>442.2962646484375</v>
+        <v>355.2075805664062</v>
       </c>
       <c r="BZ3" t="n">
-        <v>442.0820617675781</v>
+        <v>353.2151794433594</v>
       </c>
       <c r="CA3" t="n">
-        <v>442.2640380859375</v>
+        <v>351.2269897460938</v>
       </c>
       <c r="CB3" t="n">
-        <v>442.2952575683594</v>
+        <v>350.1628723144531</v>
       </c>
       <c r="CC3" t="n">
-        <v>442.7868347167969</v>
+        <v>349.1805114746094</v>
       </c>
       <c r="CD3" t="n">
-        <v>442.8695373535156</v>
+        <v>348.0863037109375</v>
       </c>
       <c r="CE3" t="n">
-        <v>442.0586547851562</v>
+        <v>347.1258239746094</v>
       </c>
       <c r="CF3" t="n">
-        <v>440.6978454589844</v>
+        <v>346.3176879882812</v>
       </c>
       <c r="CG3" t="n">
-        <v>436.1083374023438</v>
+        <v>345.3598937988281</v>
       </c>
       <c r="CH3" t="n">
-        <v>430.8659057617188</v>
+        <v>344.5958557128906</v>
       </c>
       <c r="CI3" t="n">
-        <v>424.4345092773438</v>
+        <v>344.4800720214844</v>
       </c>
       <c r="CJ3" t="n">
-        <v>421.6474304199219</v>
+        <v>344.3150329589844</v>
       </c>
       <c r="CK3" t="n">
-        <v>419.3479919433594</v>
+        <v>344.7708435058594</v>
       </c>
       <c r="CL3" t="n">
-        <v>418.0250854492188</v>
+        <v>347.99658203125</v>
       </c>
       <c r="CM3" t="n">
-        <v>418.1134643554688</v>
+        <v>349.59130859375</v>
       </c>
       <c r="CN3" t="n">
-        <v>419.245849609375</v>
+        <v>351.6258239746094</v>
       </c>
       <c r="CO3" t="n">
-        <v>424.290771484375</v>
+        <v>353.8408813476562</v>
       </c>
       <c r="CP3" t="n">
-        <v>428.6838073730469</v>
+        <v>355.5169067382812</v>
       </c>
       <c r="CQ3" t="n">
-        <v>430.2512817382812</v>
+        <v>356.4805603027344</v>
       </c>
       <c r="CR3" t="n">
-        <v>428.6452941894531</v>
+        <v>356.3143005371094</v>
       </c>
       <c r="CS3" t="n">
-        <v>428.6225891113281</v>
+        <v>356.6424865722656</v>
       </c>
       <c r="CT3" t="n">
-        <v>429.0028381347656</v>
+        <v>356.8984680175781</v>
       </c>
       <c r="CU3" t="n">
-        <v>428.9929809570312</v>
+        <v>357.048583984375</v>
       </c>
       <c r="CV3" t="n">
-        <v>429.0180969238281</v>
+        <v>355.5182800292969</v>
       </c>
       <c r="CW3" t="n">
-        <v>428.7414245605469</v>
+        <v>353.6403198242188</v>
       </c>
       <c r="CX3" t="n">
-        <v>428.8057556152344</v>
+        <v>353.5915832519531</v>
       </c>
       <c r="CY3" t="n">
-        <v>429.1183776855469</v>
+        <v>352.3352966308594</v>
       </c>
       <c r="CZ3" t="n">
-        <v>428.9700622558594</v>
+        <v>352.0100402832031</v>
       </c>
       <c r="DA3" t="n">
-        <v>428.914306640625</v>
+        <v>352.2822875976562</v>
       </c>
       <c r="DB3" t="n">
-        <v>428.9366760253906</v>
+        <v>352.8404846191406</v>
       </c>
       <c r="DC3" t="n">
-        <v>428.7236633300781</v>
+        <v>353.1553649902344</v>
       </c>
       <c r="DD3" t="n">
-        <v>429.00439453125</v>
+        <v>353.1505737304688</v>
       </c>
       <c r="DE3" t="n">
-        <v>428.9291687011719</v>
+        <v>353.0321044921875</v>
       </c>
       <c r="DF3" t="n">
-        <v>428.9733276367188</v>
+        <v>352.8725280761719</v>
       </c>
       <c r="DG3" t="n">
-        <v>428.7654724121094</v>
+        <v>352.6430358886719</v>
       </c>
       <c r="DH3" t="n">
-        <v>428.4412231445312</v>
+        <v>352.0948486328125</v>
       </c>
       <c r="DI3" t="n">
-        <v>428.4368591308594</v>
+        <v>351.6845703125</v>
       </c>
       <c r="DJ3" t="n">
-        <v>428.6236267089844</v>
+        <v>351.7265625</v>
       </c>
       <c r="DK3" t="n">
-        <v>429.2783508300781</v>
+        <v>351.8106689453125</v>
       </c>
       <c r="DL3" t="n">
-        <v>430.7996215820312</v>
+        <v>351.8611755371094</v>
       </c>
       <c r="DM3" t="n">
-        <v>432.9247436523438</v>
+        <v>351.9520874023438</v>
       </c>
       <c r="DN3" t="n">
-        <v>433.4923400878906</v>
+        <v>351.7031860351562</v>
       </c>
       <c r="DO3" t="n">
-        <v>436.7810974121094</v>
+        <v>351.2179565429688</v>
       </c>
       <c r="DP3" t="n">
-        <v>438.1045532226562</v>
+        <v>350.8591613769531</v>
       </c>
       <c r="DQ3" t="n">
-        <v>433.0747985839844</v>
+        <v>350.403564453125</v>
       </c>
       <c r="DR3" t="n">
-        <v>423.7601013183594</v>
+        <v>350.2406005859375</v>
       </c>
       <c r="DS3" t="n">
-        <v>416.0022277832031</v>
+        <v>350.2176818847656</v>
       </c>
       <c r="DT3" t="n">
-        <v>397.5700073242188</v>
+        <v>350.3515930175781</v>
       </c>
       <c r="DU3" t="n">
-        <v>392.073486328125</v>
+        <v>350.6382446289062</v>
       </c>
       <c r="DV3" t="n">
-        <v>385.5870666503906</v>
+        <v>350.9889526367188</v>
       </c>
       <c r="DW3" t="n">
-        <v>374.653076171875</v>
+        <v>351.4877319335938</v>
       </c>
       <c r="DX3" t="n">
-        <v>368.3231201171875</v>
+        <v>351.8242492675781</v>
       </c>
       <c r="DY3" t="n">
-        <v>365.1367797851562</v>
+        <v>351.991455078125</v>
       </c>
       <c r="DZ3" t="n">
-        <v>364.3417358398438</v>
+        <v>352.6612854003906</v>
       </c>
       <c r="EA3" t="n">
-        <v>364.5217895507812</v>
+        <v>352.89111328125</v>
       </c>
       <c r="EB3" t="n">
-        <v>376.4709167480469</v>
+        <v>352.9014282226562</v>
       </c>
       <c r="EC3" t="n">
-        <v>385.3253479003906</v>
+        <v>352.7978820800781</v>
       </c>
       <c r="ED3" t="n">
-        <v>397.1638488769531</v>
+        <v>352.7686767578125</v>
       </c>
       <c r="EE3" t="n">
-        <v>411.5680847167969</v>
+        <v>353.2627258300781</v>
       </c>
       <c r="EF3" t="n">
-        <v>415.2095031738281</v>
+        <v>353.8898010253906</v>
       </c>
       <c r="EG3" t="n">
-        <v>427.8324584960938</v>
+        <v>354.36669921875</v>
       </c>
       <c r="EH3" t="n">
-        <v>438.6251220703125</v>
+        <v>354.4653930664062</v>
       </c>
       <c r="EI3" t="n">
-        <v>437.959716796875</v>
+        <v>354.662109375</v>
       </c>
       <c r="EJ3" t="n">
-        <v>438.2586669921875</v>
+        <v>354.7632446289062</v>
       </c>
       <c r="EK3" t="n">
-        <v>439.4889831542969</v>
+        <v>355.0696411132812</v>
       </c>
       <c r="EL3" t="n">
-        <v>441.2709655761719</v>
+        <v>355.1762084960938</v>
       </c>
       <c r="EM3" t="n">
-        <v>436.5007629394531</v>
+        <v>355.3143920898438</v>
       </c>
       <c r="EN3" t="n">
-        <v>433.8136596679688</v>
+        <v>355.4078369140625</v>
       </c>
       <c r="EO3" t="n">
-        <v>430.7442932128906</v>
+        <v>355.2234497070312</v>
       </c>
       <c r="EP3" t="n">
-        <v>429.6315612792969</v>
+        <v>354.5756225585938</v>
       </c>
       <c r="EQ3" t="n">
-        <v>429.8114929199219</v>
+        <v>353.9999389648438</v>
       </c>
       <c r="ER3" t="n">
-        <v>429.8953857421875</v>
+        <v>353.0390930175781</v>
       </c>
       <c r="ES3" t="n">
-        <v>430.7826843261719</v>
+        <v>353.2195434570312</v>
       </c>
       <c r="ET3" t="n">
-        <v>446.182861328125</v>
+        <v>353.3138427734375</v>
       </c>
       <c r="EU3" t="n">
-        <v>459.8391723632812</v>
+        <v>353.4671020507812</v>
       </c>
       <c r="EV3" t="n">
-        <v>466.5251770019531</v>
+        <v>353.385009765625</v>
       </c>
       <c r="EW3" t="n">
-        <v>479.5596923828125</v>
+        <v>353.257080078125</v>
       </c>
       <c r="EX3" t="n">
-        <v>485.9512023925781</v>
+        <v>353.1643371582031</v>
       </c>
       <c r="EY3" t="n">
-        <v>487.4997253417969</v>
+        <v>353.1266174316406</v>
       </c>
       <c r="EZ3" t="n">
-        <v>490.532470703125</v>
+        <v>353.1283569335938</v>
       </c>
       <c r="FA3" t="n">
-        <v>487.5866394042969</v>
+        <v>353.1418151855469</v>
       </c>
       <c r="FB3" t="n">
-        <v>487.5455932617188</v>
+        <v>353.1382141113281</v>
       </c>
       <c r="FC3" t="n">
-        <v>478.1411437988281</v>
+        <v>353.1325073242188</v>
       </c>
       <c r="FD3" t="n">
-        <v>475.9739685058594</v>
+        <v>353.1910400390625</v>
       </c>
       <c r="FE3" t="n">
-        <v>461.7045593261719</v>
+        <v>353.2875061035156</v>
       </c>
       <c r="FF3" t="n">
-        <v>455.6930236816406</v>
+        <v>353.3628845214844</v>
       </c>
       <c r="FG3" t="n">
-        <v>455.5195007324219</v>
+        <v>353.3835754394531</v>
       </c>
       <c r="FH3" t="n">
-        <v>455.1869506835938</v>
+        <v>353.3597717285156</v>
       </c>
       <c r="FI3" t="n">
-        <v>457.4216613769531</v>
+        <v>353.279541015625</v>
       </c>
       <c r="FJ3" t="n">
-        <v>454.4693908691406</v>
+        <v>353.3798828125</v>
       </c>
       <c r="FK3" t="n">
-        <v>455.8263549804688</v>
+        <v>353.5160522460938</v>
       </c>
       <c r="FL3" t="n">
-        <v>459.9886474609375</v>
+        <v>353.432861328125</v>
       </c>
       <c r="FM3" t="n">
-        <v>463.09228515625</v>
+        <v>353.4458312988281</v>
       </c>
       <c r="FN3" t="n">
-        <v>465.6194763183594</v>
+        <v>353.4620971679688</v>
       </c>
       <c r="FO3" t="n">
-        <v>471.1995544433594</v>
+        <v>353.4718322753906</v>
       </c>
       <c r="FP3" t="n">
-        <v>484.470703125</v>
+        <v>353.5200500488281</v>
       </c>
       <c r="FQ3" t="n">
-        <v>496.1767883300781</v>
+        <v>353.6996154785156</v>
       </c>
       <c r="FR3" t="n">
-        <v>500.3621826171875</v>
+        <v>353.8742065429688</v>
       </c>
       <c r="FS3" t="n">
-        <v>509.85693359375</v>
+        <v>354.9999084472656</v>
       </c>
       <c r="FT3" t="n">
-        <v>504.4829711914062</v>
+        <v>355.4584350585938</v>
       </c>
       <c r="FU3" t="n">
-        <v>501.9472045898438</v>
+        <v>356.0229187011719</v>
       </c>
       <c r="FV3" t="n">
-        <v>499.4030151367188</v>
+        <v>356.0094299316406</v>
       </c>
       <c r="FW3" t="n">
-        <v>494.5101318359375</v>
+        <v>355.9226684570312</v>
       </c>
       <c r="FX3" t="n">
-        <v>487.0463562011719</v>
+        <v>355.8863220214844</v>
       </c>
       <c r="FY3" t="n">
-        <v>519.5836791992188</v>
+        <v>355.8897705078125</v>
       </c>
       <c r="FZ3" t="n">
-        <v>509.9649658203125</v>
+        <v>355.9222106933594</v>
       </c>
       <c r="GA3" t="n">
-        <v>499.6103210449219</v>
+        <v>356.32666015625</v>
       </c>
       <c r="GB3" t="n">
-        <v>546.6754150390625</v>
+        <v>356.6618957519531</v>
       </c>
       <c r="GC3" t="n">
-        <v>570.8314819335938</v>
+        <v>356.835693359375</v>
       </c>
       <c r="GD3" t="n">
-        <v>576.5596313476562</v>
+        <v>357.885009765625</v>
       </c>
       <c r="GE3" t="n">
-        <v>585.3236083984375</v>
+        <v>358.0444946289062</v>
       </c>
       <c r="GF3" t="n">
-        <v>535.3937377929688</v>
+        <v>357.7095336914062</v>
       </c>
       <c r="GG3" t="n">
-        <v>521.7960815429688</v>
+        <v>357.0069580078125</v>
       </c>
       <c r="GH3" t="n">
-        <v>525.8182983398438</v>
+        <v>357.0366516113281</v>
       </c>
       <c r="GI3" t="n">
-        <v>527.1770629882812</v>
+        <v>356.6795043945312</v>
       </c>
       <c r="GJ3" t="n">
-        <v>521.5402221679688</v>
+        <v>356.4835815429688</v>
       </c>
       <c r="GK3" t="n">
-        <v>513.8092041015625</v>
+        <v>355.4210510253906</v>
       </c>
       <c r="GL3" t="n">
-        <v>518.2390747070312</v>
+        <v>354.9990539550781</v>
       </c>
       <c r="GM3" t="n">
-        <v>526.8224487304688</v>
+        <v>355.3116149902344</v>
       </c>
       <c r="GN3" t="n">
-        <v>553.2454833984375</v>
+        <v>355.5775146484375</v>
       </c>
       <c r="GO3" t="n">
-        <v>576.9424438476562</v>
+        <v>355.7950744628906</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>355.6522216796875</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>355.6316528320312</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>355.5684509277344</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>355.6321411132812</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>355.9905700683594</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>356.6781921386719</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>356.11328125</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>356.6007080078125</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>356.632080078125</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>356.664306640625</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>355.5414123535156</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>353.6490478515625</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>350.3965759277344</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>351.7001647949219</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>352.3207702636719</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>351.0445556640625</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>351.8126220703125</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>354.9160461425781</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>357.6023864746094</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>355.6832580566406</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>353.0726013183594</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>348.9059753417969</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>348.6476135253906</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>350.9139099121094</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>352.5919799804688</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>356.1933898925781</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>356.8030395507812</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>358.1504516601562</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>359.1922607421875</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>359.9743957519531</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>362.1298522949219</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>366.55322265625</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>367.7620239257812</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>369.11474609375</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>364.5871887207031</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>365.2890625</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>367.9291687011719</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>370.8685913085938</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>368.7116088867188</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>364.2092895507812</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>364.4482116699219</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>369.6133422851562</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>374.5358276367188</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>381.4107666015625</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>388.4148559570312</v>
+      </c>
+      <c r="II3" t="n">
+        <v>382.2366027832031</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>396.1540222167969</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>452.1787719726562</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>462.6103820800781</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>551.5701293945312</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>728.5420532226562</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>690.35546875</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>674.7650756835938</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>675.7830810546875</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>649.8925170898438</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>658.6911010742188</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>540.455810546875</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>523.52001953125</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>499.2902221679688</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>507.1624450683594</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>455.0574951171875</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>448.1825866699219</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>532.708740234375</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>587.240478515625</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>584.0813598632812</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>570.6007690429688</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>555.4092407226562</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>537.8514404296875</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>544.5140991210938</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>550.3209228515625</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>555.5839233398438</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>538.2296752929688</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>556.3237915039062</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>565.6383056640625</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>569.3212890625</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>577.8464965820312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>854.8055419921875</v>
       </c>
       <c r="B4" t="n">
-        <v>1023.832275390625</v>
+        <v>854.2422485351562</v>
       </c>
       <c r="C4" t="n">
-        <v>1041.595947265625</v>
+        <v>854.158447265625</v>
       </c>
       <c r="D4" t="n">
-        <v>1044.570068359375</v>
+        <v>854.1737060546875</v>
       </c>
       <c r="E4" t="n">
-        <v>1046.512329101562</v>
+        <v>854.1723022460938</v>
       </c>
       <c r="F4" t="n">
-        <v>1051.342651367188</v>
+        <v>854.1680297851562</v>
       </c>
       <c r="G4" t="n">
-        <v>1049.892822265625</v>
+        <v>854.1641845703125</v>
       </c>
       <c r="H4" t="n">
-        <v>1049.391235351562</v>
+        <v>854.14990234375</v>
       </c>
       <c r="I4" t="n">
-        <v>1048.409790039062</v>
+        <v>854.1000366210938</v>
       </c>
       <c r="J4" t="n">
-        <v>1048.948364257812</v>
+        <v>854.0321044921875</v>
       </c>
       <c r="K4" t="n">
-        <v>1048.49853515625</v>
+        <v>853.899169921875</v>
       </c>
       <c r="L4" t="n">
-        <v>1048.289794921875</v>
+        <v>853.7228393554688</v>
       </c>
       <c r="M4" t="n">
-        <v>1048.074584960938</v>
+        <v>853.5350341796875</v>
       </c>
       <c r="N4" t="n">
-        <v>1047.860229492188</v>
+        <v>853.3018188476562</v>
       </c>
       <c r="O4" t="n">
-        <v>1047.698608398438</v>
+        <v>852.97802734375</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.486694335938</v>
+        <v>852.7084350585938</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.286254882812</v>
+        <v>852.2870483398438</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.130737304688</v>
+        <v>851.6790771484375</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.031494140625</v>
+        <v>850.692138671875</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.050537109375</v>
+        <v>846.050537109375</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.127197265625</v>
+        <v>833.31689453125</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.006713867188</v>
+        <v>829.7238159179688</v>
       </c>
       <c r="W4" t="n">
-        <v>1046.89453125</v>
+        <v>829.3683471679688</v>
       </c>
       <c r="X4" t="n">
-        <v>1046.8408203125</v>
+        <v>828.6441650390625</v>
       </c>
       <c r="Y4" t="n">
-        <v>1046.8466796875</v>
+        <v>828.4370727539062</v>
       </c>
       <c r="Z4" t="n">
-        <v>1046.896606445312</v>
+        <v>828.2603149414062</v>
       </c>
       <c r="AA4" t="n">
-        <v>1046.976928710938</v>
+        <v>828.4827880859375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1047.236206054688</v>
+        <v>831.2947998046875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1047.205810546875</v>
+        <v>842.3536987304688</v>
       </c>
       <c r="AD4" t="n">
-        <v>1047.22314453125</v>
+        <v>863.3139038085938</v>
       </c>
       <c r="AE4" t="n">
-        <v>1047.209716796875</v>
+        <v>879.0713500976562</v>
       </c>
       <c r="AF4" t="n">
-        <v>1047.201416015625</v>
+        <v>881.567138671875</v>
       </c>
       <c r="AG4" t="n">
-        <v>1047.067993164062</v>
+        <v>888.2206420898438</v>
       </c>
       <c r="AH4" t="n">
-        <v>1047.004150390625</v>
+        <v>896.59423828125</v>
       </c>
       <c r="AI4" t="n">
-        <v>1046.939819335938</v>
+        <v>928.4517822265625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1046.889404296875</v>
+        <v>925.0067749023438</v>
       </c>
       <c r="AK4" t="n">
-        <v>1046.866088867188</v>
+        <v>925.7655029296875</v>
       </c>
       <c r="AL4" t="n">
-        <v>1046.826904296875</v>
+        <v>929.705810546875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1046.74365234375</v>
+        <v>934.3324584960938</v>
       </c>
       <c r="AN4" t="n">
-        <v>1046.7099609375</v>
+        <v>933.3633422851562</v>
       </c>
       <c r="AO4" t="n">
-        <v>1046.69921875</v>
+        <v>932.2726440429688</v>
       </c>
       <c r="AP4" t="n">
-        <v>1046.657348632812</v>
+        <v>946.3424682617188</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1046.271606445312</v>
+        <v>992.9906616210938</v>
       </c>
       <c r="AR4" t="n">
-        <v>1046.310913085938</v>
+        <v>1031.905639648438</v>
       </c>
       <c r="AS4" t="n">
-        <v>1046.789428710938</v>
+        <v>1057.197509765625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1050.34326171875</v>
+        <v>1073.431884765625</v>
       </c>
       <c r="AU4" t="n">
-        <v>1055.361206054688</v>
+        <v>1087.518676757812</v>
       </c>
       <c r="AV4" t="n">
-        <v>1062.821899414062</v>
+        <v>1107.964477539062</v>
       </c>
       <c r="AW4" t="n">
-        <v>1065.462768554688</v>
+        <v>1128.136352539062</v>
       </c>
       <c r="AX4" t="n">
-        <v>1065.164916992188</v>
+        <v>1147.105712890625</v>
       </c>
       <c r="AY4" t="n">
-        <v>1065.20947265625</v>
+        <v>1175.668701171875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1064.863525390625</v>
+        <v>1204.733276367188</v>
       </c>
       <c r="BA4" t="n">
-        <v>1065.51708984375</v>
+        <v>1232.597534179688</v>
       </c>
       <c r="BB4" t="n">
-        <v>1065.267211914062</v>
+        <v>1258.81201171875</v>
       </c>
       <c r="BC4" t="n">
-        <v>1066.321899414062</v>
+        <v>1279.133544921875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1067.581665039062</v>
+        <v>1299.72119140625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1068.334106445312</v>
+        <v>1321.4609375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1071.448852539062</v>
+        <v>1349.533813476562</v>
       </c>
       <c r="BG4" t="n">
-        <v>1074.343627929688</v>
+        <v>1366.025756835938</v>
       </c>
       <c r="BH4" t="n">
-        <v>1086.005249023438</v>
+        <v>1382.8603515625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1091.185668945312</v>
+        <v>1421.9013671875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1095.849731445312</v>
+        <v>1443.212158203125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1099.311889648438</v>
+        <v>1464.813232421875</v>
       </c>
       <c r="BL4" t="n">
-        <v>1101.557250976562</v>
+        <v>1481.364624023438</v>
       </c>
       <c r="BM4" t="n">
-        <v>1110.564697265625</v>
+        <v>1491.385131835938</v>
       </c>
       <c r="BN4" t="n">
-        <v>1110.5068359375</v>
+        <v>1510.35546875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1110.65478515625</v>
+        <v>1523.191284179688</v>
       </c>
       <c r="BP4" t="n">
-        <v>1112.69873046875</v>
+        <v>1545.060546875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1115.46826171875</v>
+        <v>1565.704956054688</v>
       </c>
       <c r="BR4" t="n">
-        <v>1119.092529296875</v>
+        <v>1582.250366210938</v>
       </c>
       <c r="BS4" t="n">
-        <v>1118.805541992188</v>
+        <v>1600.648681640625</v>
       </c>
       <c r="BT4" t="n">
-        <v>1117.366943359375</v>
+        <v>1620.396240234375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1115.296020507812</v>
+        <v>1635.64794921875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1112.749755859375</v>
+        <v>1658.06298828125</v>
       </c>
       <c r="BW4" t="n">
-        <v>1109.9560546875</v>
+        <v>1669.771850585938</v>
       </c>
       <c r="BX4" t="n">
-        <v>1107.358764648438</v>
+        <v>1691.54052734375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1107.96142578125</v>
+        <v>1712.135375976562</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1109.153442382812</v>
+        <v>1732.516967773438</v>
       </c>
       <c r="CA4" t="n">
-        <v>1110.171264648438</v>
+        <v>1754.735107421875</v>
       </c>
       <c r="CB4" t="n">
-        <v>1111.336791992188</v>
+        <v>1772.582885742188</v>
       </c>
       <c r="CC4" t="n">
-        <v>1111.89697265625</v>
+        <v>1791.317016601562</v>
       </c>
       <c r="CD4" t="n">
-        <v>1111.590942382812</v>
+        <v>1808.725219726562</v>
       </c>
       <c r="CE4" t="n">
-        <v>1111.943969726562</v>
+        <v>1827.413208007812</v>
       </c>
       <c r="CF4" t="n">
-        <v>1111.98388671875</v>
+        <v>1845.341552734375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1112.448120117188</v>
+        <v>1860.858642578125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1112.717529296875</v>
+        <v>1876.054443359375</v>
       </c>
       <c r="CI4" t="n">
-        <v>1113.364990234375</v>
+        <v>1882.748291015625</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1114.572509765625</v>
+        <v>1895.276977539062</v>
       </c>
       <c r="CK4" t="n">
-        <v>1117.493408203125</v>
+        <v>1912.80029296875</v>
       </c>
       <c r="CL4" t="n">
-        <v>1121.728271484375</v>
+        <v>1922.52734375</v>
       </c>
       <c r="CM4" t="n">
-        <v>1128.392333984375</v>
+        <v>1934.97412109375</v>
       </c>
       <c r="CN4" t="n">
-        <v>1133.623413085938</v>
+        <v>1940.134033203125</v>
       </c>
       <c r="CO4" t="n">
-        <v>1131.8798828125</v>
+        <v>1950.121704101562</v>
       </c>
       <c r="CP4" t="n">
-        <v>1130.06201171875</v>
+        <v>1959.441772460938</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1130.069946289062</v>
+        <v>1967.124267578125</v>
       </c>
       <c r="CR4" t="n">
-        <v>1131.08544921875</v>
+        <v>1973.894653320312</v>
       </c>
       <c r="CS4" t="n">
-        <v>1131.579711914062</v>
+        <v>1976.861938476562</v>
       </c>
       <c r="CT4" t="n">
-        <v>1129.464233398438</v>
+        <v>1980.685180664062</v>
       </c>
       <c r="CU4" t="n">
-        <v>1129.192993164062</v>
+        <v>1988.789428710938</v>
       </c>
       <c r="CV4" t="n">
-        <v>1128.96435546875</v>
+        <v>2018.277465820312</v>
       </c>
       <c r="CW4" t="n">
-        <v>1130.027709960938</v>
+        <v>2040.835205078125</v>
       </c>
       <c r="CX4" t="n">
-        <v>1129.709838867188</v>
+        <v>2051.4443359375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1128.277709960938</v>
+        <v>2059.072509765625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1128.836181640625</v>
+        <v>2063.608642578125</v>
       </c>
       <c r="DA4" t="n">
-        <v>1129.066528320312</v>
+        <v>2067.734619140625</v>
       </c>
       <c r="DB4" t="n">
-        <v>1129.025024414062</v>
+        <v>2069.893310546875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1129.969360351562</v>
+        <v>2069.428466796875</v>
       </c>
       <c r="DD4" t="n">
-        <v>1128.740478515625</v>
+        <v>2069.576904296875</v>
       </c>
       <c r="DE4" t="n">
-        <v>1129.046875</v>
+        <v>2069.704345703125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1128.7353515625</v>
+        <v>2069.918212890625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1129.513061523438</v>
+        <v>2070.169189453125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1129.82958984375</v>
+        <v>2070.58349609375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1128.720458984375</v>
+        <v>2070.776611328125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1126.06884765625</v>
+        <v>2071.048095703125</v>
       </c>
       <c r="DK4" t="n">
-        <v>1121.025024414062</v>
+        <v>2071.2666015625</v>
       </c>
       <c r="DL4" t="n">
-        <v>1110.813110351562</v>
+        <v>2071.711181640625</v>
       </c>
       <c r="DM4" t="n">
-        <v>1098.927001953125</v>
+        <v>2072.074462890625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1096.315795898438</v>
+        <v>2072.04931640625</v>
       </c>
       <c r="DO4" t="n">
-        <v>1081.43994140625</v>
+        <v>2072.21875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1074.76123046875</v>
+        <v>2072.21728515625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1074.496215820312</v>
+        <v>2072.289306640625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1075.757690429688</v>
+        <v>2072.346923828125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1077.797729492188</v>
+        <v>2072.42333984375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1087.973999023438</v>
+        <v>2072.54931640625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1099.856323242188</v>
+        <v>2072.50927734375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1111.4501953125</v>
+        <v>2072.476806640625</v>
       </c>
       <c r="DW4" t="n">
-        <v>1129.671264648438</v>
+        <v>2072.3447265625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1136.318359375</v>
+        <v>2071.75439453125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1152.183227539062</v>
+        <v>2071.114990234375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1159.601684570312</v>
+        <v>2068.37353515625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1170.672729492188</v>
+        <v>2066.029052734375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1181.517944335938</v>
+        <v>2063.237060546875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1188.022583007812</v>
+        <v>2053.71484375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1198.212890625</v>
+        <v>2054.107666015625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1219.34765625</v>
+        <v>2053.491943359375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1220.7451171875</v>
+        <v>2052.924560546875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1232.842651367188</v>
+        <v>2052.558349609375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1265.388305664062</v>
+        <v>2052.2744140625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1283.628784179688</v>
+        <v>2052.7744140625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1296.4189453125</v>
+        <v>2052.720947265625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1314.06689453125</v>
+        <v>2052.71826171875</v>
       </c>
       <c r="EL4" t="n">
-        <v>1315.404663085938</v>
+        <v>2052.6826171875</v>
       </c>
       <c r="EM4" t="n">
-        <v>1316.22412109375</v>
+        <v>2052.345947265625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1316.730712890625</v>
+        <v>2051.513916015625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1318.462646484375</v>
+        <v>2051.111328125</v>
       </c>
       <c r="EP4" t="n">
-        <v>1320.25341796875</v>
+        <v>2049.541015625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1327.003051757812</v>
+        <v>2048.45458984375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1329.0263671875</v>
+        <v>2045.922119140625</v>
       </c>
       <c r="ES4" t="n">
-        <v>1330.823974609375</v>
+        <v>2044.419067382812</v>
       </c>
       <c r="ET4" t="n">
-        <v>1329.191162109375</v>
+        <v>2041.708251953125</v>
       </c>
       <c r="EU4" t="n">
-        <v>1320.2734375</v>
+        <v>2040.275268554688</v>
       </c>
       <c r="EV4" t="n">
-        <v>1312.795654296875</v>
+        <v>2040.539794921875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1286.690063476562</v>
+        <v>2041.014526367188</v>
       </c>
       <c r="EX4" t="n">
-        <v>1270.494262695312</v>
+        <v>2041.796875</v>
       </c>
       <c r="EY4" t="n">
-        <v>1258.062866210938</v>
+        <v>2041.705078125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1251.150024414062</v>
+        <v>2041.6630859375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1253.550659179688</v>
+        <v>2041.625366210938</v>
       </c>
       <c r="FB4" t="n">
-        <v>1249.241821289062</v>
+        <v>2041.63720703125</v>
       </c>
       <c r="FC4" t="n">
-        <v>1242.71337890625</v>
+        <v>2041.643188476562</v>
       </c>
       <c r="FD4" t="n">
-        <v>1239.541259765625</v>
+        <v>2041.809326171875</v>
       </c>
       <c r="FE4" t="n">
-        <v>1235.85986328125</v>
+        <v>2042.001708984375</v>
       </c>
       <c r="FF4" t="n">
-        <v>1230.28857421875</v>
+        <v>2042.434448242188</v>
       </c>
       <c r="FG4" t="n">
-        <v>1201.365112304688</v>
+        <v>2042.68994140625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1164.852172851562</v>
+        <v>2043.233276367188</v>
       </c>
       <c r="FI4" t="n">
-        <v>1154.715209960938</v>
+        <v>2045.622436523438</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1157.184936523438</v>
+        <v>2044.715087890625</v>
       </c>
       <c r="FK4" t="n">
-        <v>1129.175903320312</v>
+        <v>2042.716918945312</v>
       </c>
       <c r="FL4" t="n">
-        <v>1112.559448242188</v>
+        <v>2042.857543945312</v>
       </c>
       <c r="FM4" t="n">
-        <v>1081.41455078125</v>
+        <v>2042.831787109375</v>
       </c>
       <c r="FN4" t="n">
-        <v>1054.09814453125</v>
+        <v>2042.787231445312</v>
       </c>
       <c r="FO4" t="n">
-        <v>1025.036865234375</v>
+        <v>2042.74951171875</v>
       </c>
       <c r="FP4" t="n">
-        <v>993.591796875</v>
+        <v>2042.206176757812</v>
       </c>
       <c r="FQ4" t="n">
-        <v>976.2861328125</v>
+        <v>2041.611083984375</v>
       </c>
       <c r="FR4" t="n">
-        <v>958.1756591796875</v>
+        <v>2041.2568359375</v>
       </c>
       <c r="FS4" t="n">
-        <v>929.6990966796875</v>
+        <v>2039.6591796875</v>
       </c>
       <c r="FT4" t="n">
-        <v>920.1168212890625</v>
+        <v>2038.314575195312</v>
       </c>
       <c r="FU4" t="n">
-        <v>901.09423828125</v>
+        <v>2037.024291992188</v>
       </c>
       <c r="FV4" t="n">
-        <v>892.8178100585938</v>
+        <v>2036.907836914062</v>
       </c>
       <c r="FW4" t="n">
-        <v>861.3438110351562</v>
+        <v>2036.45361328125</v>
       </c>
       <c r="FX4" t="n">
-        <v>863.9671020507812</v>
+        <v>2036.449340820312</v>
       </c>
       <c r="FY4" t="n">
-        <v>819.9566040039062</v>
+        <v>2036.530883789062</v>
       </c>
       <c r="FZ4" t="n">
-        <v>812.8408813476562</v>
+        <v>2036.605712890625</v>
       </c>
       <c r="GA4" t="n">
-        <v>774.051025390625</v>
+        <v>2037.513793945312</v>
       </c>
       <c r="GB4" t="n">
-        <v>662.1259765625</v>
+        <v>2038.353759765625</v>
       </c>
       <c r="GC4" t="n">
-        <v>663.3267211914062</v>
+        <v>2040.580200195312</v>
       </c>
       <c r="GD4" t="n">
-        <v>684.3049926757812</v>
+        <v>2042.027099609375</v>
       </c>
       <c r="GE4" t="n">
-        <v>680.3878173828125</v>
+        <v>2041.915771484375</v>
       </c>
       <c r="GF4" t="n">
-        <v>775.8128662109375</v>
+        <v>2040.907958984375</v>
       </c>
       <c r="GG4" t="n">
-        <v>770.7910766601562</v>
+        <v>2038.81884765625</v>
       </c>
       <c r="GH4" t="n">
-        <v>759.8543090820312</v>
+        <v>2030.826782226562</v>
       </c>
       <c r="GI4" t="n">
-        <v>749.0179443359375</v>
+        <v>2030.735107421875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>755.6292724609375</v>
+        <v>2030.534790039062</v>
       </c>
       <c r="GK4" t="n">
-        <v>747.4549560546875</v>
+        <v>2029.758544921875</v>
       </c>
       <c r="GL4" t="n">
-        <v>736.277587890625</v>
+        <v>2028.862915039062</v>
       </c>
       <c r="GM4" t="n">
-        <v>709.7222900390625</v>
+        <v>2027.969848632812</v>
       </c>
       <c r="GN4" t="n">
-        <v>658.1006469726562</v>
+        <v>2028.606567382812</v>
       </c>
       <c r="GO4" t="n">
-        <v>635.9301147460938</v>
+        <v>2027.579833984375</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>2026.802978515625</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>2026.698974609375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2026.745239257812</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2026.752685546875</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2028.209838867188</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2029.800903320312</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2037.487915039062</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2051.052978515625</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2061.1015625</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2065.478515625</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2062.5927734375</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2058.820556640625</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2018.099365234375</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1987.940551757812</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1969.89697265625</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1932.84814453125</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1920.76318359375</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1870.261474609375</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1823.69091796875</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1796.888427734375</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1771.828247070312</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1700.287109375</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1661.184692382812</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1616.954833984375</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1598.944946289062</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1573.450561523438</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1544.332763671875</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1509.314331054688</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1479.698608398438</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1437.572875976562</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1399.369140625</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1357.919311523438</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1339.268310546875</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1298.904052734375</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1258.25439453125</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1215.933715820312</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1195.738159179688</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1170.900390625</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1111.109619140625</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1091.159057617188</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1051.929931640625</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1017.850830078125</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>983.6778564453125</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>937.6162719726562</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>882.644287109375</v>
+      </c>
+      <c r="II4" t="n">
+        <v>833.959228515625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>769.7086791992188</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>597.893798828125</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>520.7352905273438</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>565.1251831054688</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>486.41455078125</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>502.0058898925781</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>501.4640808105469</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>491.5459594726562</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>519.9317626953125</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>456.1888732910156</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>461.3390502929688</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>530.8687133789062</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>634.6582641601562</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>605.511474609375</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>698.5472412109375</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>757.0565185546875</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>716.0637817382812</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>673.1995849609375</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>719.3346557617188</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>765.0374755859375</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>776.066650390625</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>831.2508544921875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>834.1659545898438</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>869.4838256835938</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>856.4119873046875</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>896.5618286132812</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>830.4537963867188</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>784.90478515625</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>742.695556640625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>771.5106811523438</v>
       </c>
     </row>
   </sheetData>

--- a/right_hip_Data.xlsx
+++ b/right_hip_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>161.3495635986328</v>
+        <v>378.8675231933594</v>
       </c>
       <c r="B2" t="n">
-        <v>161.6215209960938</v>
+        <v>381.5474853515625</v>
       </c>
       <c r="C2" t="n">
-        <v>161.6303100585938</v>
+        <v>382.8384399414062</v>
       </c>
       <c r="D2" t="n">
-        <v>161.6546630859375</v>
+        <v>384.0971374511719</v>
       </c>
       <c r="E2" t="n">
-        <v>161.6773681640625</v>
+        <v>385.0166320800781</v>
       </c>
       <c r="F2" t="n">
-        <v>161.671142578125</v>
+        <v>385.9952392578125</v>
       </c>
       <c r="G2" t="n">
-        <v>161.6661224365234</v>
+        <v>387.4478759765625</v>
       </c>
       <c r="H2" t="n">
-        <v>161.6852722167969</v>
+        <v>388.7813110351562</v>
       </c>
       <c r="I2" t="n">
-        <v>161.7301177978516</v>
+        <v>389.6377868652344</v>
       </c>
       <c r="J2" t="n">
-        <v>161.7665710449219</v>
+        <v>390.31494140625</v>
       </c>
       <c r="K2" t="n">
-        <v>161.7931365966797</v>
+        <v>390.3227233886719</v>
       </c>
       <c r="L2" t="n">
-        <v>161.8647613525391</v>
+        <v>389.73828125</v>
       </c>
       <c r="M2" t="n">
-        <v>161.9561767578125</v>
+        <v>385.1681213378906</v>
       </c>
       <c r="N2" t="n">
-        <v>162.0392456054688</v>
+        <v>376.7803955078125</v>
       </c>
       <c r="O2" t="n">
-        <v>162.0687713623047</v>
+        <v>369.8812866210938</v>
       </c>
       <c r="P2" t="n">
-        <v>162.0044708251953</v>
+        <v>367.4986572265625</v>
       </c>
       <c r="Q2" t="n">
-        <v>161.7895812988281</v>
+        <v>366.7404479980469</v>
       </c>
       <c r="R2" t="n">
-        <v>160.6919097900391</v>
+        <v>364.7130737304688</v>
       </c>
       <c r="S2" t="n">
-        <v>159.2850952148438</v>
+        <v>362.8386840820312</v>
       </c>
       <c r="T2" t="n">
-        <v>160.0207366943359</v>
+        <v>362.0198364257812</v>
       </c>
       <c r="U2" t="n">
-        <v>160.6338653564453</v>
+        <v>360.576416015625</v>
       </c>
       <c r="V2" t="n">
-        <v>160.6963806152344</v>
+        <v>357.8338623046875</v>
       </c>
       <c r="W2" t="n">
-        <v>162.5937194824219</v>
+        <v>355.1725769042969</v>
       </c>
       <c r="X2" t="n">
-        <v>163.3037567138672</v>
+        <v>352.2048645019531</v>
       </c>
       <c r="Y2" t="n">
-        <v>164.2163696289062</v>
+        <v>349.7473449707031</v>
       </c>
       <c r="Z2" t="n">
-        <v>164.9013977050781</v>
+        <v>347.801025390625</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.9378509521484</v>
+        <v>345.2578430175781</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.7958831787109</v>
+        <v>343.7918090820312</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.0960540771484</v>
+        <v>345.124755859375</v>
       </c>
       <c r="AD2" t="n">
-        <v>182.1072692871094</v>
+        <v>345.5377807617188</v>
       </c>
       <c r="AE2" t="n">
-        <v>187.1747589111328</v>
+        <v>345.2203979492188</v>
       </c>
       <c r="AF2" t="n">
-        <v>189.2311248779297</v>
+        <v>344.6199035644531</v>
       </c>
       <c r="AG2" t="n">
-        <v>192.6735229492188</v>
+        <v>343.9102783203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>195.1772155761719</v>
+        <v>342.8762512207031</v>
       </c>
       <c r="AI2" t="n">
-        <v>203.0623168945312</v>
+        <v>342.5528564453125</v>
       </c>
       <c r="AJ2" t="n">
-        <v>203.1183471679688</v>
+        <v>342.7664794921875</v>
       </c>
       <c r="AK2" t="n">
-        <v>203.7068481445312</v>
+        <v>342.4075317382812</v>
       </c>
       <c r="AL2" t="n">
-        <v>205.6177520751953</v>
+        <v>341.0667724609375</v>
       </c>
       <c r="AM2" t="n">
-        <v>207.4431610107422</v>
+        <v>339.4506225585938</v>
       </c>
       <c r="AN2" t="n">
-        <v>209.5864715576172</v>
+        <v>337.3616027832031</v>
       </c>
       <c r="AO2" t="n">
-        <v>212.5792236328125</v>
+        <v>335.1617126464844</v>
       </c>
       <c r="AP2" t="n">
-        <v>210.1599884033203</v>
+        <v>333.0664367675781</v>
       </c>
       <c r="AQ2" t="n">
-        <v>219.8455200195312</v>
+        <v>332.2544555664062</v>
       </c>
       <c r="AR2" t="n">
-        <v>227.3420104980469</v>
+        <v>331.4803466796875</v>
       </c>
       <c r="AS2" t="n">
-        <v>231.4188842773438</v>
+        <v>330.5188598632812</v>
       </c>
       <c r="AT2" t="n">
-        <v>233.1183624267578</v>
+        <v>329.3388061523438</v>
       </c>
       <c r="AU2" t="n">
-        <v>234.1072692871094</v>
+        <v>324.4175415039062</v>
       </c>
       <c r="AV2" t="n">
-        <v>236.6026306152344</v>
+        <v>316.2744140625</v>
       </c>
       <c r="AW2" t="n">
-        <v>241.0646820068359</v>
+        <v>309.9025268554688</v>
       </c>
       <c r="AX2" t="n">
-        <v>248.1720581054688</v>
+        <v>304.5796203613281</v>
       </c>
       <c r="AY2" t="n">
-        <v>254.1970977783203</v>
+        <v>300.2720947265625</v>
       </c>
       <c r="AZ2" t="n">
-        <v>258.0844421386719</v>
+        <v>293.1831970214844</v>
       </c>
       <c r="BA2" t="n">
-        <v>259.5010986328125</v>
+        <v>285.4062805175781</v>
       </c>
       <c r="BB2" t="n">
-        <v>260.9970397949219</v>
+        <v>276.1669006347656</v>
       </c>
       <c r="BC2" t="n">
-        <v>263.7188720703125</v>
+        <v>267.3543395996094</v>
       </c>
       <c r="BD2" t="n">
-        <v>265.6237487792969</v>
+        <v>260.9283447265625</v>
       </c>
       <c r="BE2" t="n">
-        <v>268.1910400390625</v>
+        <v>254.9216613769531</v>
       </c>
       <c r="BF2" t="n">
-        <v>271.2568664550781</v>
+        <v>248.8700103759766</v>
       </c>
       <c r="BG2" t="n">
-        <v>275.0361633300781</v>
+        <v>244.5874633789062</v>
       </c>
       <c r="BH2" t="n">
-        <v>279.4405212402344</v>
+        <v>240.7324066162109</v>
       </c>
       <c r="BI2" t="n">
-        <v>288.0990905761719</v>
+        <v>237.2759704589844</v>
       </c>
       <c r="BJ2" t="n">
-        <v>292.4411926269531</v>
+        <v>235.1024475097656</v>
       </c>
       <c r="BK2" t="n">
-        <v>295.8296508789062</v>
+        <v>233.7511901855469</v>
       </c>
       <c r="BL2" t="n">
-        <v>297.767822265625</v>
+        <v>232.2728729248047</v>
       </c>
       <c r="BM2" t="n">
-        <v>299.3179626464844</v>
+        <v>229.3779144287109</v>
       </c>
       <c r="BN2" t="n">
-        <v>300.9923400878906</v>
+        <v>224.6777648925781</v>
       </c>
       <c r="BO2" t="n">
-        <v>302.8967590332031</v>
+        <v>218.7346496582031</v>
       </c>
       <c r="BP2" t="n">
-        <v>304.6771240234375</v>
+        <v>215.4552001953125</v>
       </c>
       <c r="BQ2" t="n">
-        <v>305.3464965820312</v>
+        <v>213.2396087646484</v>
       </c>
       <c r="BR2" t="n">
-        <v>307.406494140625</v>
+        <v>210.8038635253906</v>
       </c>
       <c r="BS2" t="n">
-        <v>311.8800048828125</v>
+        <v>208.6524810791016</v>
       </c>
       <c r="BT2" t="n">
-        <v>317.2027893066406</v>
+        <v>206.4927368164062</v>
       </c>
       <c r="BU2" t="n">
-        <v>321.7565307617188</v>
+        <v>204.8894958496094</v>
       </c>
       <c r="BV2" t="n">
-        <v>325.2376708984375</v>
+        <v>204.1382446289062</v>
       </c>
       <c r="BW2" t="n">
-        <v>329.4894409179688</v>
+        <v>203.6869659423828</v>
       </c>
       <c r="BX2" t="n">
-        <v>332.8815307617188</v>
+        <v>203.4126129150391</v>
       </c>
       <c r="BY2" t="n">
-        <v>334.22021484375</v>
+        <v>203.082763671875</v>
       </c>
       <c r="BZ2" t="n">
-        <v>334.5218505859375</v>
+        <v>203.119384765625</v>
       </c>
       <c r="CA2" t="n">
-        <v>335.1495971679688</v>
+        <v>203.2502593994141</v>
       </c>
       <c r="CB2" t="n">
-        <v>335.8152465820312</v>
+        <v>203.4233856201172</v>
       </c>
       <c r="CC2" t="n">
-        <v>336.5668029785156</v>
+        <v>203.56396484375</v>
       </c>
       <c r="CD2" t="n">
-        <v>337.5251770019531</v>
+        <v>203.6393737792969</v>
       </c>
       <c r="CE2" t="n">
-        <v>338.3536376953125</v>
+        <v>203.72509765625</v>
       </c>
       <c r="CF2" t="n">
-        <v>339.081298828125</v>
+        <v>203.8854675292969</v>
       </c>
       <c r="CG2" t="n">
-        <v>339.3836669921875</v>
+        <v>204.7693176269531</v>
       </c>
       <c r="CH2" t="n">
-        <v>339.457763671875</v>
+        <v>206.1600494384766</v>
       </c>
       <c r="CI2" t="n">
-        <v>339.6184997558594</v>
+        <v>207.7449340820312</v>
       </c>
       <c r="CJ2" t="n">
-        <v>339.4752197265625</v>
+        <v>208.7564239501953</v>
       </c>
       <c r="CK2" t="n">
-        <v>339.450439453125</v>
+        <v>209.317138671875</v>
       </c>
       <c r="CL2" t="n">
-        <v>340.3274536132812</v>
+        <v>209.9288787841797</v>
       </c>
       <c r="CM2" t="n">
-        <v>340.3907470703125</v>
+        <v>209.9020080566406</v>
       </c>
       <c r="CN2" t="n">
-        <v>340.2574157714844</v>
+        <v>209.8676910400391</v>
       </c>
       <c r="CO2" t="n">
-        <v>340.2078857421875</v>
+        <v>209.8069763183594</v>
       </c>
       <c r="CP2" t="n">
-        <v>339.2533569335938</v>
+        <v>209.7465667724609</v>
       </c>
       <c r="CQ2" t="n">
-        <v>337.9293823242188</v>
+        <v>209.7310791015625</v>
       </c>
       <c r="CR2" t="n">
-        <v>335.8986206054688</v>
+        <v>209.6926574707031</v>
       </c>
       <c r="CS2" t="n">
-        <v>334.912353515625</v>
+        <v>209.6186218261719</v>
       </c>
       <c r="CT2" t="n">
-        <v>334.0673828125</v>
+        <v>209.1406097412109</v>
       </c>
       <c r="CU2" t="n">
-        <v>332.1968078613281</v>
+        <v>208.1238403320312</v>
       </c>
       <c r="CV2" t="n">
-        <v>329.7882080078125</v>
+        <v>206.7906951904297</v>
       </c>
       <c r="CW2" t="n">
-        <v>326.8872375488281</v>
+        <v>205.9790344238281</v>
       </c>
       <c r="CX2" t="n">
-        <v>325.7321472167969</v>
+        <v>206.1161499023438</v>
       </c>
       <c r="CY2" t="n">
-        <v>323.165771484375</v>
+        <v>206.435546875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>321.7359008789062</v>
+        <v>206.7924499511719</v>
       </c>
       <c r="DA2" t="n">
-        <v>319.5415954589844</v>
+        <v>207.1194305419922</v>
       </c>
       <c r="DB2" t="n">
-        <v>319.2332763671875</v>
+        <v>207.4680938720703</v>
       </c>
       <c r="DC2" t="n">
-        <v>319.0233764648438</v>
+        <v>207.8337860107422</v>
       </c>
       <c r="DD2" t="n">
-        <v>318.6917724609375</v>
+        <v>208.4995727539062</v>
       </c>
       <c r="DE2" t="n">
-        <v>318.3319396972656</v>
+        <v>210.3660888671875</v>
       </c>
       <c r="DF2" t="n">
-        <v>318.1010131835938</v>
+        <v>213.6175689697266</v>
       </c>
       <c r="DG2" t="n">
-        <v>317.8482360839844</v>
+        <v>218.2782287597656</v>
       </c>
       <c r="DH2" t="n">
-        <v>317.4261779785156</v>
+        <v>223.0297088623047</v>
       </c>
       <c r="DI2" t="n">
-        <v>317.2597045898438</v>
+        <v>228.0489349365234</v>
       </c>
       <c r="DJ2" t="n">
-        <v>317.3598022460938</v>
+        <v>232.4317321777344</v>
       </c>
       <c r="DK2" t="n">
-        <v>317.4670715332031</v>
+        <v>238.562255859375</v>
       </c>
       <c r="DL2" t="n">
-        <v>317.533203125</v>
+        <v>252.0834350585938</v>
       </c>
       <c r="DM2" t="n">
-        <v>317.6268615722656</v>
+        <v>258.3711853027344</v>
       </c>
       <c r="DN2" t="n">
-        <v>317.5403442382812</v>
+        <v>265.3186340332031</v>
       </c>
       <c r="DO2" t="n">
-        <v>317.3991394042969</v>
+        <v>272.0618286132812</v>
       </c>
       <c r="DP2" t="n">
-        <v>317.2560424804688</v>
+        <v>289.5776672363281</v>
       </c>
       <c r="DQ2" t="n">
-        <v>317.1094970703125</v>
+        <v>299.3517456054688</v>
       </c>
       <c r="DR2" t="n">
-        <v>317.0312805175781</v>
+        <v>307.8858642578125</v>
       </c>
       <c r="DS2" t="n">
-        <v>316.9874267578125</v>
+        <v>321.1701049804688</v>
       </c>
       <c r="DT2" t="n">
-        <v>316.6743774414062</v>
+        <v>326.9513244628906</v>
       </c>
       <c r="DU2" t="n">
-        <v>316.609619140625</v>
+        <v>329.821533203125</v>
       </c>
       <c r="DV2" t="n">
-        <v>316.5924987792969</v>
+        <v>331.0186157226562</v>
       </c>
       <c r="DW2" t="n">
-        <v>316.552001953125</v>
+        <v>331.7738647460938</v>
       </c>
       <c r="DX2" t="n">
-        <v>316.6979370117188</v>
+        <v>333.7532958984375</v>
       </c>
       <c r="DY2" t="n">
-        <v>316.8302307128906</v>
+        <v>336.2708129882812</v>
       </c>
       <c r="DZ2" t="n">
-        <v>317.4107055664062</v>
+        <v>338.9190063476562</v>
       </c>
       <c r="EA2" t="n">
-        <v>318.0144348144531</v>
+        <v>339.6429748535156</v>
       </c>
       <c r="EB2" t="n">
-        <v>318.4974365234375</v>
+        <v>341.8670654296875</v>
       </c>
       <c r="EC2" t="n">
-        <v>319.4321899414062</v>
+        <v>342.3504333496094</v>
       </c>
       <c r="ED2" t="n">
-        <v>319.7732238769531</v>
+        <v>342.6741943359375</v>
       </c>
       <c r="EE2" t="n">
-        <v>320.4026794433594</v>
+        <v>341.78271484375</v>
       </c>
       <c r="EF2" t="n">
-        <v>320.8007202148438</v>
+        <v>339.586181640625</v>
       </c>
       <c r="EG2" t="n">
-        <v>320.826171875</v>
+        <v>332.6082153320312</v>
       </c>
       <c r="EH2" t="n">
-        <v>320.6770324707031</v>
+        <v>330.1874389648438</v>
       </c>
       <c r="EI2" t="n">
-        <v>320.4846801757812</v>
+        <v>327.3114318847656</v>
       </c>
       <c r="EJ2" t="n">
-        <v>320.3978881835938</v>
+        <v>325.8999328613281</v>
       </c>
       <c r="EK2" t="n">
-        <v>320.2918090820312</v>
+        <v>321.6406860351562</v>
       </c>
       <c r="EL2" t="n">
-        <v>320.3058166503906</v>
+        <v>317.0045471191406</v>
       </c>
       <c r="EM2" t="n">
-        <v>320.3371887207031</v>
+        <v>305.9729309082031</v>
       </c>
       <c r="EN2" t="n">
-        <v>321.5796508789062</v>
+        <v>299.2291870117188</v>
       </c>
       <c r="EO2" t="n">
-        <v>323.173583984375</v>
+        <v>285.9688110351562</v>
       </c>
       <c r="EP2" t="n">
-        <v>325.0324096679688</v>
+        <v>280.8151245117188</v>
       </c>
       <c r="EQ2" t="n">
-        <v>325.625244140625</v>
+        <v>271.766845703125</v>
       </c>
       <c r="ER2" t="n">
-        <v>326.1692810058594</v>
+        <v>266.44287109375</v>
       </c>
       <c r="ES2" t="n">
-        <v>326.256103515625</v>
+        <v>262.7284545898438</v>
       </c>
       <c r="ET2" t="n">
-        <v>326.5600280761719</v>
+        <v>261.841552734375</v>
       </c>
       <c r="EU2" t="n">
-        <v>326.73974609375</v>
+        <v>261.5196228027344</v>
       </c>
       <c r="EV2" t="n">
-        <v>326.658935546875</v>
+        <v>261.5349731445312</v>
       </c>
       <c r="EW2" t="n">
-        <v>326.48095703125</v>
+        <v>255.6461181640625</v>
       </c>
       <c r="EX2" t="n">
-        <v>326.3272705078125</v>
+        <v>252.6893310546875</v>
       </c>
       <c r="EY2" t="n">
-        <v>326.2207336425781</v>
+        <v>247.9910583496094</v>
       </c>
       <c r="EZ2" t="n">
-        <v>326.0884399414062</v>
+        <v>248.5368499755859</v>
       </c>
       <c r="FA2" t="n">
-        <v>325.8705444335938</v>
+        <v>253.5825805664062</v>
       </c>
       <c r="FB2" t="n">
-        <v>325.7280883789062</v>
+        <v>258.4305114746094</v>
       </c>
       <c r="FC2" t="n">
-        <v>325.5803833007812</v>
+        <v>262.824462890625</v>
       </c>
       <c r="FD2" t="n">
-        <v>325.387939453125</v>
+        <v>266.9179382324219</v>
       </c>
       <c r="FE2" t="n">
-        <v>325.2238464355469</v>
+        <v>268.5350646972656</v>
       </c>
       <c r="FF2" t="n">
-        <v>325.0750122070312</v>
+        <v>276.4449768066406</v>
       </c>
       <c r="FG2" t="n">
-        <v>325.0190734863281</v>
+        <v>281.7203063964844</v>
       </c>
       <c r="FH2" t="n">
-        <v>324.951171875</v>
+        <v>295.6757507324219</v>
       </c>
       <c r="FI2" t="n">
-        <v>324.8442993164062</v>
+        <v>302.7451171875</v>
       </c>
       <c r="FJ2" t="n">
-        <v>324.7348327636719</v>
+        <v>315.5784606933594</v>
       </c>
       <c r="FK2" t="n">
-        <v>324.6624145507812</v>
+        <v>320.7476806640625</v>
       </c>
       <c r="FL2" t="n">
-        <v>324.6048278808594</v>
+        <v>340.95849609375</v>
       </c>
       <c r="FM2" t="n">
-        <v>324.5716857910156</v>
+        <v>351.4649658203125</v>
       </c>
       <c r="FN2" t="n">
-        <v>324.5543823242188</v>
+        <v>365.8363037109375</v>
       </c>
       <c r="FO2" t="n">
-        <v>324.5364074707031</v>
+        <v>383.2920837402344</v>
       </c>
       <c r="FP2" t="n">
-        <v>324.5123901367188</v>
+        <v>401.334228515625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>324.5627136230469</v>
+        <v>405.5311279296875</v>
       </c>
       <c r="FR2" t="n">
-        <v>324.6277160644531</v>
+        <v>409.5791320800781</v>
       </c>
       <c r="FS2" t="n">
-        <v>324.7979125976562</v>
+        <v>403.0620727539062</v>
       </c>
       <c r="FT2" t="n">
-        <v>324.5788879394531</v>
+        <v>400.7916564941406</v>
       </c>
       <c r="FU2" t="n">
-        <v>324.441162109375</v>
+        <v>398.1140441894531</v>
       </c>
       <c r="FV2" t="n">
-        <v>324.4296569824219</v>
+        <v>401.798583984375</v>
       </c>
       <c r="FW2" t="n">
-        <v>324.6036071777344</v>
+        <v>412.568603515625</v>
       </c>
       <c r="FX2" t="n">
-        <v>324.7945556640625</v>
+        <v>414.7138977050781</v>
       </c>
       <c r="FY2" t="n">
-        <v>324.8616943359375</v>
+        <v>414.5818786621094</v>
       </c>
       <c r="FZ2" t="n">
-        <v>324.7642211914062</v>
+        <v>414.5822143554688</v>
       </c>
       <c r="GA2" t="n">
-        <v>324.5839233398438</v>
+        <v>415.6851806640625</v>
       </c>
       <c r="GB2" t="n">
-        <v>324.4964294433594</v>
+        <v>419.889892578125</v>
       </c>
       <c r="GC2" t="n">
-        <v>323.901123046875</v>
+        <v>428.96630859375</v>
       </c>
       <c r="GD2" t="n">
-        <v>323.945068359375</v>
+        <v>426.673583984375</v>
       </c>
       <c r="GE2" t="n">
-        <v>323.80615234375</v>
+        <v>427.07373046875</v>
       </c>
       <c r="GF2" t="n">
-        <v>323.11181640625</v>
+        <v>422.0521850585938</v>
       </c>
       <c r="GG2" t="n">
-        <v>322.3501892089844</v>
+        <v>395.8658142089844</v>
       </c>
       <c r="GH2" t="n">
-        <v>321.654296875</v>
+        <v>408.3590698242188</v>
       </c>
       <c r="GI2" t="n">
-        <v>321.6170959472656</v>
+        <v>371.5261535644531</v>
       </c>
       <c r="GJ2" t="n">
-        <v>321.7747497558594</v>
+        <v>381.8150634765625</v>
       </c>
       <c r="GK2" t="n">
-        <v>321.9094848632812</v>
+        <v>369.3554992675781</v>
       </c>
       <c r="GL2" t="n">
-        <v>321.6776123046875</v>
+        <v>356.8250122070312</v>
       </c>
       <c r="GM2" t="n">
-        <v>321.5710144042969</v>
+        <v>334.1193237304688</v>
       </c>
       <c r="GN2" t="n">
-        <v>321.5031127929688</v>
+        <v>295.4503173828125</v>
       </c>
       <c r="GO2" t="n">
-        <v>321.4892883300781</v>
+        <v>311.8379516601562</v>
       </c>
       <c r="GP2" t="n">
-        <v>321.2936401367188</v>
+        <v>299.68017578125</v>
       </c>
       <c r="GQ2" t="n">
-        <v>321.1495361328125</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>320.910888671875</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>320.8293151855469</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>320.7139892578125</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>320.9363403320312</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>319.4823608398438</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>317.2938842773438</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>316.5279846191406</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>315.9272766113281</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>315.9487915039062</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>315.3510437011719</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>310.3453063964844</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>307.432861328125</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>306.5241088867188</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>304.3091735839844</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>304.1947937011719</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>303.6380004882812</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>303.2242736816406</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>303.3338012695312</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>301.782958984375</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>297.7751770019531</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>296.6478576660156</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>293.9353942871094</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>291.3733825683594</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>288.3854675292969</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>286.7582702636719</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>285.4928283691406</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>284.4877014160156</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>283.1901550292969</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>280.9106750488281</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>275.8921813964844</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>272.4762573242188</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>265.9016723632812</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>256.9476928710938</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>249.043701171875</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>242.3770446777344</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>236.9889831542969</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>231.3818054199219</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>229.4815063476562</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>230.9845275878906</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>232.83740234375</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>233.0711975097656</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>233.7048034667969</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>237.4889526367188</v>
-      </c>
-      <c r="II2" t="n">
-        <v>235.6151123046875</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>228.7535400390625</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>231.0664520263672</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>217.2464599609375</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>227.8876342773438</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>257.7684326171875</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>239.6607360839844</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>212.8090209960938</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>187.53369140625</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>200.0272216796875</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>182.732421875</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>135.6365203857422</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>110.5942230224609</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>121.9113616943359</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>99.71086120605469</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>85.74001312255859</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>94.74345397949219</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>132.6155700683594</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>145.2100067138672</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>183.5854187011719</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>165.1992492675781</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>205.3426818847656</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>229.7915802001953</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>228.9914245605469</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>244.9381713867188</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>248.0627593994141</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>230.2381591796875</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>227.6608428955078</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>205.0775451660156</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>192.5207672119141</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>191.3050537109375</v>
+        <v>292.1475219726562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>379.6483459472656</v>
+        <v>417.1353149414062</v>
       </c>
       <c r="B3" t="n">
-        <v>379.7479248046875</v>
+        <v>408.5386962890625</v>
       </c>
       <c r="C3" t="n">
-        <v>379.7349548339844</v>
+        <v>406.9680786132812</v>
       </c>
       <c r="D3" t="n">
-        <v>379.7483215332031</v>
+        <v>405.6277770996094</v>
       </c>
       <c r="E3" t="n">
-        <v>379.7442016601562</v>
+        <v>405.1434631347656</v>
       </c>
       <c r="F3" t="n">
-        <v>379.7521057128906</v>
+        <v>403.9905700683594</v>
       </c>
       <c r="G3" t="n">
-        <v>379.7582092285156</v>
+        <v>403.0532531738281</v>
       </c>
       <c r="H3" t="n">
-        <v>379.7607116699219</v>
+        <v>401.9425354003906</v>
       </c>
       <c r="I3" t="n">
-        <v>379.754638671875</v>
+        <v>399.1455993652344</v>
       </c>
       <c r="J3" t="n">
-        <v>379.75341796875</v>
+        <v>395.9732971191406</v>
       </c>
       <c r="K3" t="n">
-        <v>379.7635498046875</v>
+        <v>391.4279479980469</v>
       </c>
       <c r="L3" t="n">
-        <v>379.7696228027344</v>
+        <v>386.8227233886719</v>
       </c>
       <c r="M3" t="n">
-        <v>379.7696228027344</v>
+        <v>379.4280090332031</v>
       </c>
       <c r="N3" t="n">
-        <v>379.7789916992188</v>
+        <v>373.0362243652344</v>
       </c>
       <c r="O3" t="n">
-        <v>379.7659606933594</v>
+        <v>366.0674438476562</v>
       </c>
       <c r="P3" t="n">
-        <v>379.44580078125</v>
+        <v>359.7601013183594</v>
       </c>
       <c r="Q3" t="n">
-        <v>378.7801208496094</v>
+        <v>355.9877014160156</v>
       </c>
       <c r="R3" t="n">
-        <v>375.2813415527344</v>
+        <v>348.3284301757812</v>
       </c>
       <c r="S3" t="n">
-        <v>368.5527648925781</v>
+        <v>341.177734375</v>
       </c>
       <c r="T3" t="n">
-        <v>375.9636840820312</v>
+        <v>336.2114562988281</v>
       </c>
       <c r="U3" t="n">
-        <v>385.5780334472656</v>
+        <v>332.4601745605469</v>
       </c>
       <c r="V3" t="n">
-        <v>390.7671813964844</v>
+        <v>328.7112121582031</v>
       </c>
       <c r="W3" t="n">
-        <v>400.9178161621094</v>
+        <v>326.6925659179688</v>
       </c>
       <c r="X3" t="n">
-        <v>407.4980163574219</v>
+        <v>323.5252990722656</v>
       </c>
       <c r="Y3" t="n">
-        <v>411.799072265625</v>
+        <v>320.9067687988281</v>
       </c>
       <c r="Z3" t="n">
-        <v>409.7323913574219</v>
+        <v>319.7316284179688</v>
       </c>
       <c r="AA3" t="n">
-        <v>409.6327209472656</v>
+        <v>319.1124877929688</v>
       </c>
       <c r="AB3" t="n">
-        <v>410.0459899902344</v>
+        <v>320.7510070800781</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.3209228515625</v>
+        <v>326.6300048828125</v>
       </c>
       <c r="AD3" t="n">
-        <v>405.2781066894531</v>
+        <v>328.9920654296875</v>
       </c>
       <c r="AE3" t="n">
-        <v>402.5423278808594</v>
+        <v>329.300048828125</v>
       </c>
       <c r="AF3" t="n">
-        <v>402.5505065917969</v>
+        <v>329.0040893554688</v>
       </c>
       <c r="AG3" t="n">
-        <v>401.3722534179688</v>
+        <v>328.3118896484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>400.1419677734375</v>
+        <v>326.6513061523438</v>
       </c>
       <c r="AI3" t="n">
-        <v>394.2854309082031</v>
+        <v>326.1068420410156</v>
       </c>
       <c r="AJ3" t="n">
-        <v>395.6221923828125</v>
+        <v>326.4411315917969</v>
       </c>
       <c r="AK3" t="n">
-        <v>395.9605102539062</v>
+        <v>326.0482482910156</v>
       </c>
       <c r="AL3" t="n">
-        <v>396.5104370117188</v>
+        <v>325.3977355957031</v>
       </c>
       <c r="AM3" t="n">
-        <v>396.1163330078125</v>
+        <v>325.6914978027344</v>
       </c>
       <c r="AN3" t="n">
-        <v>396.3088989257812</v>
+        <v>325.0756225585938</v>
       </c>
       <c r="AO3" t="n">
-        <v>393.4070739746094</v>
+        <v>322.398681640625</v>
       </c>
       <c r="AP3" t="n">
-        <v>355.479248046875</v>
+        <v>318.5766296386719</v>
       </c>
       <c r="AQ3" t="n">
-        <v>336.0802917480469</v>
+        <v>316.9703979492188</v>
       </c>
       <c r="AR3" t="n">
-        <v>331.58544921875</v>
+        <v>315.4435119628906</v>
       </c>
       <c r="AS3" t="n">
-        <v>341.1694946289062</v>
+        <v>315.5869140625</v>
       </c>
       <c r="AT3" t="n">
-        <v>357.164794921875</v>
+        <v>316.0923461914062</v>
       </c>
       <c r="AU3" t="n">
-        <v>371.2649230957031</v>
+        <v>317.6695251464844</v>
       </c>
       <c r="AV3" t="n">
-        <v>380.335693359375</v>
+        <v>319.9026794433594</v>
       </c>
       <c r="AW3" t="n">
-        <v>381.0744934082031</v>
+        <v>321.9763488769531</v>
       </c>
       <c r="AX3" t="n">
-        <v>382.5677795410156</v>
+        <v>323.1904296875</v>
       </c>
       <c r="AY3" t="n">
-        <v>382.4537963867188</v>
+        <v>326.7049255371094</v>
       </c>
       <c r="AZ3" t="n">
-        <v>380.9258422851562</v>
+        <v>327.4297180175781</v>
       </c>
       <c r="BA3" t="n">
-        <v>375.0724487304688</v>
+        <v>326.5849914550781</v>
       </c>
       <c r="BB3" t="n">
-        <v>369.3609313964844</v>
+        <v>326.5179748535156</v>
       </c>
       <c r="BC3" t="n">
-        <v>369.3472290039062</v>
+        <v>328.3817138671875</v>
       </c>
       <c r="BD3" t="n">
-        <v>365.5093383789062</v>
+        <v>329.9052429199219</v>
       </c>
       <c r="BE3" t="n">
-        <v>362.1127319335938</v>
+        <v>330.8635559082031</v>
       </c>
       <c r="BF3" t="n">
-        <v>357.9796752929688</v>
+        <v>330.237548828125</v>
       </c>
       <c r="BG3" t="n">
-        <v>359.0062866210938</v>
+        <v>328.4009399414062</v>
       </c>
       <c r="BH3" t="n">
-        <v>360.41943359375</v>
+        <v>327.1745300292969</v>
       </c>
       <c r="BI3" t="n">
-        <v>362.6651306152344</v>
+        <v>327.2054748535156</v>
       </c>
       <c r="BJ3" t="n">
-        <v>361.1905822753906</v>
+        <v>327.9908447265625</v>
       </c>
       <c r="BK3" t="n">
-        <v>359.6591796875</v>
+        <v>328.9853210449219</v>
       </c>
       <c r="BL3" t="n">
-        <v>358.8100891113281</v>
+        <v>330.0405578613281</v>
       </c>
       <c r="BM3" t="n">
-        <v>359.451904296875</v>
+        <v>331.4769897460938</v>
       </c>
       <c r="BN3" t="n">
-        <v>360.4150085449219</v>
+        <v>332.2718505859375</v>
       </c>
       <c r="BO3" t="n">
-        <v>363.4710388183594</v>
+        <v>330.7923583984375</v>
       </c>
       <c r="BP3" t="n">
-        <v>364.2398681640625</v>
+        <v>330.3464660644531</v>
       </c>
       <c r="BQ3" t="n">
-        <v>361.4582214355469</v>
+        <v>330.0018615722656</v>
       </c>
       <c r="BR3" t="n">
-        <v>359.5195007324219</v>
+        <v>329.6342163085938</v>
       </c>
       <c r="BS3" t="n">
-        <v>360.3124389648438</v>
+        <v>329.4739990234375</v>
       </c>
       <c r="BT3" t="n">
-        <v>363.8587036132812</v>
+        <v>329.2462768554688</v>
       </c>
       <c r="BU3" t="n">
-        <v>363.0138854980469</v>
+        <v>329.3931579589844</v>
       </c>
       <c r="BV3" t="n">
-        <v>360.2101745605469</v>
+        <v>329.6328430175781</v>
       </c>
       <c r="BW3" t="n">
-        <v>357.0761413574219</v>
+        <v>329.6607971191406</v>
       </c>
       <c r="BX3" t="n">
-        <v>356.8539428710938</v>
+        <v>329.5556335449219</v>
       </c>
       <c r="BY3" t="n">
-        <v>355.2075805664062</v>
+        <v>329.4513244628906</v>
       </c>
       <c r="BZ3" t="n">
-        <v>353.2151794433594</v>
+        <v>329.4167175292969</v>
       </c>
       <c r="CA3" t="n">
-        <v>351.2269897460938</v>
+        <v>329.3391723632812</v>
       </c>
       <c r="CB3" t="n">
-        <v>350.1628723144531</v>
+        <v>329.2501220703125</v>
       </c>
       <c r="CC3" t="n">
-        <v>349.1805114746094</v>
+        <v>329.1969909667969</v>
       </c>
       <c r="CD3" t="n">
-        <v>348.0863037109375</v>
+        <v>329.2464294433594</v>
       </c>
       <c r="CE3" t="n">
-        <v>347.1258239746094</v>
+        <v>329.29931640625</v>
       </c>
       <c r="CF3" t="n">
-        <v>346.3176879882812</v>
+        <v>329.3695678710938</v>
       </c>
       <c r="CG3" t="n">
-        <v>345.3598937988281</v>
+        <v>329.0817565917969</v>
       </c>
       <c r="CH3" t="n">
-        <v>344.5958557128906</v>
+        <v>328.7169189453125</v>
       </c>
       <c r="CI3" t="n">
-        <v>344.4800720214844</v>
+        <v>328.3308410644531</v>
       </c>
       <c r="CJ3" t="n">
-        <v>344.3150329589844</v>
+        <v>328.4022216796875</v>
       </c>
       <c r="CK3" t="n">
-        <v>344.7708435058594</v>
+        <v>328.7343139648438</v>
       </c>
       <c r="CL3" t="n">
-        <v>347.99658203125</v>
+        <v>329.3590087890625</v>
       </c>
       <c r="CM3" t="n">
-        <v>349.59130859375</v>
+        <v>329.3348999023438</v>
       </c>
       <c r="CN3" t="n">
-        <v>351.6258239746094</v>
+        <v>329.3081359863281</v>
       </c>
       <c r="CO3" t="n">
-        <v>353.8408813476562</v>
+        <v>329.3073120117188</v>
       </c>
       <c r="CP3" t="n">
-        <v>355.5169067382812</v>
+        <v>329.3300170898438</v>
       </c>
       <c r="CQ3" t="n">
-        <v>356.4805603027344</v>
+        <v>329.415771484375</v>
       </c>
       <c r="CR3" t="n">
-        <v>356.3143005371094</v>
+        <v>329.4773254394531</v>
       </c>
       <c r="CS3" t="n">
-        <v>356.6424865722656</v>
+        <v>329.4590148925781</v>
       </c>
       <c r="CT3" t="n">
-        <v>356.8984680175781</v>
+        <v>329.5923767089844</v>
       </c>
       <c r="CU3" t="n">
-        <v>357.048583984375</v>
+        <v>329.9564819335938</v>
       </c>
       <c r="CV3" t="n">
-        <v>355.5182800292969</v>
+        <v>330.4986877441406</v>
       </c>
       <c r="CW3" t="n">
-        <v>353.6403198242188</v>
+        <v>330.917724609375</v>
       </c>
       <c r="CX3" t="n">
-        <v>353.5915832519531</v>
+        <v>330.9425048828125</v>
       </c>
       <c r="CY3" t="n">
-        <v>352.3352966308594</v>
+        <v>330.8594360351562</v>
       </c>
       <c r="CZ3" t="n">
-        <v>352.0100402832031</v>
+        <v>330.9685668945312</v>
       </c>
       <c r="DA3" t="n">
-        <v>352.2822875976562</v>
+        <v>331.0879821777344</v>
       </c>
       <c r="DB3" t="n">
-        <v>352.8404846191406</v>
+        <v>331.1705017089844</v>
       </c>
       <c r="DC3" t="n">
-        <v>353.1553649902344</v>
+        <v>331.2355346679688</v>
       </c>
       <c r="DD3" t="n">
-        <v>353.1505737304688</v>
+        <v>331.4823608398438</v>
       </c>
       <c r="DE3" t="n">
-        <v>353.0321044921875</v>
+        <v>331.2289123535156</v>
       </c>
       <c r="DF3" t="n">
-        <v>352.8725280761719</v>
+        <v>330.4854431152344</v>
       </c>
       <c r="DG3" t="n">
-        <v>352.6430358886719</v>
+        <v>330.2246704101562</v>
       </c>
       <c r="DH3" t="n">
-        <v>352.0948486328125</v>
+        <v>329.5819396972656</v>
       </c>
       <c r="DI3" t="n">
-        <v>351.6845703125</v>
+        <v>330.1394348144531</v>
       </c>
       <c r="DJ3" t="n">
-        <v>351.7265625</v>
+        <v>330.8727416992188</v>
       </c>
       <c r="DK3" t="n">
-        <v>351.8106689453125</v>
+        <v>333.2877807617188</v>
       </c>
       <c r="DL3" t="n">
-        <v>351.8611755371094</v>
+        <v>340.1889038085938</v>
       </c>
       <c r="DM3" t="n">
-        <v>351.9520874023438</v>
+        <v>340.3054809570312</v>
       </c>
       <c r="DN3" t="n">
-        <v>351.7031860351562</v>
+        <v>340.3144836425781</v>
       </c>
       <c r="DO3" t="n">
-        <v>351.2179565429688</v>
+        <v>340.3354187011719</v>
       </c>
       <c r="DP3" t="n">
-        <v>350.8591613769531</v>
+        <v>338.3369140625</v>
       </c>
       <c r="DQ3" t="n">
-        <v>350.403564453125</v>
+        <v>338.2861328125</v>
       </c>
       <c r="DR3" t="n">
-        <v>350.2406005859375</v>
+        <v>338.0348510742188</v>
       </c>
       <c r="DS3" t="n">
-        <v>350.2176818847656</v>
+        <v>337.7491455078125</v>
       </c>
       <c r="DT3" t="n">
-        <v>350.3515930175781</v>
+        <v>336.8748168945312</v>
       </c>
       <c r="DU3" t="n">
-        <v>350.6382446289062</v>
+        <v>334.9841613769531</v>
       </c>
       <c r="DV3" t="n">
-        <v>350.9889526367188</v>
+        <v>328.6421508789062</v>
       </c>
       <c r="DW3" t="n">
-        <v>351.4877319335938</v>
+        <v>322.2062072753906</v>
       </c>
       <c r="DX3" t="n">
-        <v>351.8242492675781</v>
+        <v>322.2633972167969</v>
       </c>
       <c r="DY3" t="n">
-        <v>351.991455078125</v>
+        <v>322.9027099609375</v>
       </c>
       <c r="DZ3" t="n">
-        <v>352.6612854003906</v>
+        <v>322.0824279785156</v>
       </c>
       <c r="EA3" t="n">
-        <v>352.89111328125</v>
+        <v>321.4558715820312</v>
       </c>
       <c r="EB3" t="n">
-        <v>352.9014282226562</v>
+        <v>321.7557067871094</v>
       </c>
       <c r="EC3" t="n">
-        <v>352.7978820800781</v>
+        <v>321.8117065429688</v>
       </c>
       <c r="ED3" t="n">
-        <v>352.7686767578125</v>
+        <v>321.7604675292969</v>
       </c>
       <c r="EE3" t="n">
-        <v>353.2627258300781</v>
+        <v>322.0047607421875</v>
       </c>
       <c r="EF3" t="n">
-        <v>353.8898010253906</v>
+        <v>322.5057067871094</v>
       </c>
       <c r="EG3" t="n">
-        <v>354.36669921875</v>
+        <v>322.8104858398438</v>
       </c>
       <c r="EH3" t="n">
-        <v>354.4653930664062</v>
+        <v>322.4598388671875</v>
       </c>
       <c r="EI3" t="n">
-        <v>354.662109375</v>
+        <v>321.8077087402344</v>
       </c>
       <c r="EJ3" t="n">
-        <v>354.7632446289062</v>
+        <v>321.7656860351562</v>
       </c>
       <c r="EK3" t="n">
-        <v>355.0696411132812</v>
+        <v>323.73974609375</v>
       </c>
       <c r="EL3" t="n">
-        <v>355.1762084960938</v>
+        <v>325.860595703125</v>
       </c>
       <c r="EM3" t="n">
-        <v>355.3143920898438</v>
+        <v>331.4052734375</v>
       </c>
       <c r="EN3" t="n">
-        <v>355.4078369140625</v>
+        <v>331.8799438476562</v>
       </c>
       <c r="EO3" t="n">
-        <v>355.2234497070312</v>
+        <v>335.7755737304688</v>
       </c>
       <c r="EP3" t="n">
-        <v>354.5756225585938</v>
+        <v>338.1209411621094</v>
       </c>
       <c r="EQ3" t="n">
-        <v>353.9999389648438</v>
+        <v>341.9286499023438</v>
       </c>
       <c r="ER3" t="n">
-        <v>353.0390930175781</v>
+        <v>342.2880249023438</v>
       </c>
       <c r="ES3" t="n">
-        <v>353.2195434570312</v>
+        <v>343.5563049316406</v>
       </c>
       <c r="ET3" t="n">
-        <v>353.3138427734375</v>
+        <v>344.2882995605469</v>
       </c>
       <c r="EU3" t="n">
-        <v>353.4671020507812</v>
+        <v>343.1401672363281</v>
       </c>
       <c r="EV3" t="n">
-        <v>353.385009765625</v>
+        <v>337.6020202636719</v>
       </c>
       <c r="EW3" t="n">
-        <v>353.257080078125</v>
+        <v>341.748779296875</v>
       </c>
       <c r="EX3" t="n">
-        <v>353.1643371582031</v>
+        <v>343.7242126464844</v>
       </c>
       <c r="EY3" t="n">
-        <v>353.1266174316406</v>
+        <v>347.2938537597656</v>
       </c>
       <c r="EZ3" t="n">
-        <v>353.1283569335938</v>
+        <v>359.0722045898438</v>
       </c>
       <c r="FA3" t="n">
-        <v>353.1418151855469</v>
+        <v>365.2649230957031</v>
       </c>
       <c r="FB3" t="n">
-        <v>353.1382141113281</v>
+        <v>367.2311706542969</v>
       </c>
       <c r="FC3" t="n">
-        <v>353.1325073242188</v>
+        <v>365.5127868652344</v>
       </c>
       <c r="FD3" t="n">
-        <v>353.1910400390625</v>
+        <v>370.646240234375</v>
       </c>
       <c r="FE3" t="n">
-        <v>353.2875061035156</v>
+        <v>373.482421875</v>
       </c>
       <c r="FF3" t="n">
-        <v>353.3628845214844</v>
+        <v>375.4058227539062</v>
       </c>
       <c r="FG3" t="n">
-        <v>353.3835754394531</v>
+        <v>377.3240051269531</v>
       </c>
       <c r="FH3" t="n">
-        <v>353.3597717285156</v>
+        <v>384.0130920410156</v>
       </c>
       <c r="FI3" t="n">
-        <v>353.279541015625</v>
+        <v>387.3953552246094</v>
       </c>
       <c r="FJ3" t="n">
-        <v>353.3798828125</v>
+        <v>395.8400268554688</v>
       </c>
       <c r="FK3" t="n">
-        <v>353.5160522460938</v>
+        <v>409.620849609375</v>
       </c>
       <c r="FL3" t="n">
-        <v>353.432861328125</v>
+        <v>436.5745544433594</v>
       </c>
       <c r="FM3" t="n">
-        <v>353.4458312988281</v>
+        <v>432.0335693359375</v>
       </c>
       <c r="FN3" t="n">
-        <v>353.4620971679688</v>
+        <v>438.8408813476562</v>
       </c>
       <c r="FO3" t="n">
-        <v>353.4718322753906</v>
+        <v>456.7513427734375</v>
       </c>
       <c r="FP3" t="n">
-        <v>353.5200500488281</v>
+        <v>485.3490295410156</v>
       </c>
       <c r="FQ3" t="n">
-        <v>353.6996154785156</v>
+        <v>493.7500305175781</v>
       </c>
       <c r="FR3" t="n">
-        <v>353.8742065429688</v>
+        <v>498.1305847167969</v>
       </c>
       <c r="FS3" t="n">
-        <v>354.9999084472656</v>
+        <v>474.9354248046875</v>
       </c>
       <c r="FT3" t="n">
-        <v>355.4584350585938</v>
+        <v>458.1615295410156</v>
       </c>
       <c r="FU3" t="n">
-        <v>356.0229187011719</v>
+        <v>451.453125</v>
       </c>
       <c r="FV3" t="n">
-        <v>356.0094299316406</v>
+        <v>456.5492553710938</v>
       </c>
       <c r="FW3" t="n">
-        <v>355.9226684570312</v>
+        <v>457.76708984375</v>
       </c>
       <c r="FX3" t="n">
-        <v>355.8863220214844</v>
+        <v>464.3801574707031</v>
       </c>
       <c r="FY3" t="n">
-        <v>355.8897705078125</v>
+        <v>466.8281555175781</v>
       </c>
       <c r="FZ3" t="n">
-        <v>355.9222106933594</v>
+        <v>468.4442443847656</v>
       </c>
       <c r="GA3" t="n">
-        <v>356.32666015625</v>
+        <v>476.7200622558594</v>
       </c>
       <c r="GB3" t="n">
-        <v>356.6618957519531</v>
+        <v>470.8982849121094</v>
       </c>
       <c r="GC3" t="n">
-        <v>356.835693359375</v>
+        <v>476.9492492675781</v>
       </c>
       <c r="GD3" t="n">
-        <v>357.885009765625</v>
+        <v>454.4599609375</v>
       </c>
       <c r="GE3" t="n">
-        <v>358.0444946289062</v>
+        <v>473.7034912109375</v>
       </c>
       <c r="GF3" t="n">
-        <v>357.7095336914062</v>
+        <v>486.8897399902344</v>
       </c>
       <c r="GG3" t="n">
-        <v>357.0069580078125</v>
+        <v>498.2684936523438</v>
       </c>
       <c r="GH3" t="n">
-        <v>357.0366516113281</v>
+        <v>563.8665771484375</v>
       </c>
       <c r="GI3" t="n">
-        <v>356.6795043945312</v>
+        <v>538.6661987304688</v>
       </c>
       <c r="GJ3" t="n">
-        <v>356.4835815429688</v>
+        <v>542.6525268554688</v>
       </c>
       <c r="GK3" t="n">
-        <v>355.4210510253906</v>
+        <v>575.1843872070312</v>
       </c>
       <c r="GL3" t="n">
-        <v>354.9990539550781</v>
+        <v>574.4688110351562</v>
       </c>
       <c r="GM3" t="n">
-        <v>355.3116149902344</v>
+        <v>578.2525024414062</v>
       </c>
       <c r="GN3" t="n">
-        <v>355.5775146484375</v>
+        <v>570.71923828125</v>
       </c>
       <c r="GO3" t="n">
-        <v>355.7950744628906</v>
+        <v>571.7447509765625</v>
       </c>
       <c r="GP3" t="n">
-        <v>355.6522216796875</v>
+        <v>596.036376953125</v>
       </c>
       <c r="GQ3" t="n">
-        <v>355.6316528320312</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>355.5684509277344</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>355.6321411132812</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>355.9905700683594</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>356.6781921386719</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>356.11328125</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>356.6007080078125</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>356.632080078125</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>356.664306640625</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>355.5414123535156</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>353.6490478515625</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>350.3965759277344</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>351.7001647949219</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>352.3207702636719</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>351.0445556640625</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>351.8126220703125</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>354.9160461425781</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>357.6023864746094</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>355.6832580566406</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>353.0726013183594</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>348.9059753417969</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>348.6476135253906</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>350.9139099121094</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>352.5919799804688</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>356.1933898925781</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>356.8030395507812</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>358.1504516601562</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>359.1922607421875</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>359.9743957519531</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>362.1298522949219</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>366.55322265625</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>367.7620239257812</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>369.11474609375</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>364.5871887207031</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>365.2890625</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>367.9291687011719</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>370.8685913085938</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>368.7116088867188</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>364.2092895507812</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>364.4482116699219</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>369.6133422851562</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>374.5358276367188</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>381.4107666015625</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>388.4148559570312</v>
-      </c>
-      <c r="II3" t="n">
-        <v>382.2366027832031</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>396.1540222167969</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>452.1787719726562</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>462.6103820800781</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>551.5701293945312</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>728.5420532226562</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>690.35546875</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>674.7650756835938</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>675.7830810546875</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>649.8925170898438</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>658.6911010742188</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>540.455810546875</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>523.52001953125</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>499.2902221679688</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>507.1624450683594</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>455.0574951171875</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>448.1825866699219</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>532.708740234375</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>587.240478515625</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>584.0813598632812</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>570.6007690429688</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>555.4092407226562</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>537.8514404296875</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>544.5140991210938</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>550.3209228515625</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>555.5839233398438</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>538.2296752929688</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>556.3237915039062</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>565.6383056640625</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>569.3212890625</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>577.8464965820312</v>
+        <v>586.1904907226562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>854.8055419921875</v>
+        <v>1181.891967773438</v>
       </c>
       <c r="B4" t="n">
-        <v>854.2422485351562</v>
+        <v>1190.514770507812</v>
       </c>
       <c r="C4" t="n">
-        <v>854.158447265625</v>
+        <v>1201.87841796875</v>
       </c>
       <c r="D4" t="n">
-        <v>854.1737060546875</v>
+        <v>1209.5673828125</v>
       </c>
       <c r="E4" t="n">
-        <v>854.1723022460938</v>
+        <v>1214.3017578125</v>
       </c>
       <c r="F4" t="n">
-        <v>854.1680297851562</v>
+        <v>1221.083740234375</v>
       </c>
       <c r="G4" t="n">
-        <v>854.1641845703125</v>
+        <v>1221.199340820312</v>
       </c>
       <c r="H4" t="n">
-        <v>854.14990234375</v>
+        <v>1221.575317382812</v>
       </c>
       <c r="I4" t="n">
-        <v>854.1000366210938</v>
+        <v>1220.666748046875</v>
       </c>
       <c r="J4" t="n">
-        <v>854.0321044921875</v>
+        <v>1220.57421875</v>
       </c>
       <c r="K4" t="n">
-        <v>853.899169921875</v>
+        <v>1221.8017578125</v>
       </c>
       <c r="L4" t="n">
-        <v>853.7228393554688</v>
+        <v>1226.209228515625</v>
       </c>
       <c r="M4" t="n">
-        <v>853.5350341796875</v>
+        <v>1244.287109375</v>
       </c>
       <c r="N4" t="n">
-        <v>853.3018188476562</v>
+        <v>1264.763916015625</v>
       </c>
       <c r="O4" t="n">
-        <v>852.97802734375</v>
+        <v>1281.216186523438</v>
       </c>
       <c r="P4" t="n">
-        <v>852.7084350585938</v>
+        <v>1294.372314453125</v>
       </c>
       <c r="Q4" t="n">
-        <v>852.2870483398438</v>
+        <v>1303.100708007812</v>
       </c>
       <c r="R4" t="n">
-        <v>851.6790771484375</v>
+        <v>1314.431884765625</v>
       </c>
       <c r="S4" t="n">
-        <v>850.692138671875</v>
+        <v>1314.113891601562</v>
       </c>
       <c r="T4" t="n">
-        <v>846.050537109375</v>
+        <v>1315.7646484375</v>
       </c>
       <c r="U4" t="n">
-        <v>833.31689453125</v>
+        <v>1317.512329101562</v>
       </c>
       <c r="V4" t="n">
-        <v>829.7238159179688</v>
+        <v>1319.939331054688</v>
       </c>
       <c r="W4" t="n">
-        <v>829.3683471679688</v>
+        <v>1324.1669921875</v>
       </c>
       <c r="X4" t="n">
-        <v>828.6441650390625</v>
+        <v>1335.727172851562</v>
       </c>
       <c r="Y4" t="n">
-        <v>828.4370727539062</v>
+        <v>1350.0888671875</v>
       </c>
       <c r="Z4" t="n">
-        <v>828.2603149414062</v>
+        <v>1362.977661132812</v>
       </c>
       <c r="AA4" t="n">
-        <v>828.4827880859375</v>
+        <v>1375.032592773438</v>
       </c>
       <c r="AB4" t="n">
-        <v>831.2947998046875</v>
+        <v>1381.048828125</v>
       </c>
       <c r="AC4" t="n">
-        <v>842.3536987304688</v>
+        <v>1361.907104492188</v>
       </c>
       <c r="AD4" t="n">
-        <v>863.3139038085938</v>
+        <v>1340.829467773438</v>
       </c>
       <c r="AE4" t="n">
-        <v>879.0713500976562</v>
+        <v>1332.93896484375</v>
       </c>
       <c r="AF4" t="n">
-        <v>881.567138671875</v>
+        <v>1324.651245117188</v>
       </c>
       <c r="AG4" t="n">
-        <v>888.2206420898438</v>
+        <v>1317.11328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>896.59423828125</v>
+        <v>1315.56201171875</v>
       </c>
       <c r="AI4" t="n">
-        <v>928.4517822265625</v>
+        <v>1312.90869140625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>925.0067749023438</v>
+        <v>1309.55029296875</v>
       </c>
       <c r="AK4" t="n">
-        <v>925.7655029296875</v>
+        <v>1304.44384765625</v>
       </c>
       <c r="AL4" t="n">
-        <v>929.705810546875</v>
+        <v>1299.617797851562</v>
       </c>
       <c r="AM4" t="n">
-        <v>934.3324584960938</v>
+        <v>1293.191650390625</v>
       </c>
       <c r="AN4" t="n">
-        <v>933.3633422851562</v>
+        <v>1288.18359375</v>
       </c>
       <c r="AO4" t="n">
-        <v>932.2726440429688</v>
+        <v>1288.322998046875</v>
       </c>
       <c r="AP4" t="n">
-        <v>946.3424682617188</v>
+        <v>1288.176635742188</v>
       </c>
       <c r="AQ4" t="n">
-        <v>992.9906616210938</v>
+        <v>1287.782836914062</v>
       </c>
       <c r="AR4" t="n">
-        <v>1031.905639648438</v>
+        <v>1286.6953125</v>
       </c>
       <c r="AS4" t="n">
-        <v>1057.197509765625</v>
+        <v>1285.785766601562</v>
       </c>
       <c r="AT4" t="n">
-        <v>1073.431884765625</v>
+        <v>1281.715087890625</v>
       </c>
       <c r="AU4" t="n">
-        <v>1087.518676757812</v>
+        <v>1269.93115234375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1107.964477539062</v>
+        <v>1253.399536132812</v>
       </c>
       <c r="AW4" t="n">
-        <v>1128.136352539062</v>
+        <v>1246.228637695312</v>
       </c>
       <c r="AX4" t="n">
-        <v>1147.105712890625</v>
+        <v>1246.014526367188</v>
       </c>
       <c r="AY4" t="n">
-        <v>1175.668701171875</v>
+        <v>1247.885131835938</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1204.733276367188</v>
+        <v>1252.69677734375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1232.597534179688</v>
+        <v>1262.174926757812</v>
       </c>
       <c r="BB4" t="n">
-        <v>1258.81201171875</v>
+        <v>1265.13330078125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1279.133544921875</v>
+        <v>1266.336791992188</v>
       </c>
       <c r="BD4" t="n">
-        <v>1299.72119140625</v>
+        <v>1266.637451171875</v>
       </c>
       <c r="BE4" t="n">
-        <v>1321.4609375</v>
+        <v>1267.716064453125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1349.533813476562</v>
+        <v>1273.667358398438</v>
       </c>
       <c r="BG4" t="n">
-        <v>1366.025756835938</v>
+        <v>1290.781982421875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1382.8603515625</v>
+        <v>1301.227905273438</v>
       </c>
       <c r="BI4" t="n">
-        <v>1421.9013671875</v>
+        <v>1302.346923828125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1443.212158203125</v>
+        <v>1300.5087890625</v>
       </c>
       <c r="BK4" t="n">
-        <v>1464.813232421875</v>
+        <v>1296.869995117188</v>
       </c>
       <c r="BL4" t="n">
-        <v>1481.364624023438</v>
+        <v>1292.60302734375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1491.385131835938</v>
+        <v>1287.373657226562</v>
       </c>
       <c r="BN4" t="n">
-        <v>1510.35546875</v>
+        <v>1285.724609375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1523.191284179688</v>
+        <v>1283.976318359375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1545.060546875</v>
+        <v>1283.92138671875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1565.704956054688</v>
+        <v>1283.9296875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1582.250366210938</v>
+        <v>1283.935180664062</v>
       </c>
       <c r="BS4" t="n">
-        <v>1600.648681640625</v>
+        <v>1283.858764648438</v>
       </c>
       <c r="BT4" t="n">
-        <v>1620.396240234375</v>
+        <v>1283.97314453125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1635.64794921875</v>
+        <v>1284.005126953125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1658.06298828125</v>
+        <v>1284.08740234375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1669.771850585938</v>
+        <v>1284.256469726562</v>
       </c>
       <c r="BX4" t="n">
-        <v>1691.54052734375</v>
+        <v>1284.897705078125</v>
       </c>
       <c r="BY4" t="n">
-        <v>1712.135375976562</v>
+        <v>1285.627807617188</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1732.516967773438</v>
+        <v>1286.701171875</v>
       </c>
       <c r="CA4" t="n">
-        <v>1754.735107421875</v>
+        <v>1287.846923828125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1772.582885742188</v>
+        <v>1289.061157226562</v>
       </c>
       <c r="CC4" t="n">
-        <v>1791.317016601562</v>
+        <v>1289.783447265625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1808.725219726562</v>
+        <v>1289.66015625</v>
       </c>
       <c r="CE4" t="n">
-        <v>1827.413208007812</v>
+        <v>1289.551025390625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1845.341552734375</v>
+        <v>1289.384521484375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1860.858642578125</v>
+        <v>1289.143676757812</v>
       </c>
       <c r="CH4" t="n">
-        <v>1876.054443359375</v>
+        <v>1289.001708984375</v>
       </c>
       <c r="CI4" t="n">
-        <v>1882.748291015625</v>
+        <v>1288.677734375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1895.276977539062</v>
+        <v>1288.501708984375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1912.80029296875</v>
+        <v>1288.259521484375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1922.52734375</v>
+        <v>1287.166748046875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1934.97412109375</v>
+        <v>1286.759887695312</v>
       </c>
       <c r="CN4" t="n">
-        <v>1940.134033203125</v>
+        <v>1286.905883789062</v>
       </c>
       <c r="CO4" t="n">
-        <v>1950.121704101562</v>
+        <v>1286.83544921875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1959.441772460938</v>
+        <v>1286.756103515625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1967.124267578125</v>
+        <v>1286.685302734375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1973.894653320312</v>
+        <v>1286.603393554688</v>
       </c>
       <c r="CS4" t="n">
-        <v>1976.861938476562</v>
+        <v>1286.561767578125</v>
       </c>
       <c r="CT4" t="n">
-        <v>1980.685180664062</v>
+        <v>1286.335815429688</v>
       </c>
       <c r="CU4" t="n">
-        <v>1988.789428710938</v>
+        <v>1285.8193359375</v>
       </c>
       <c r="CV4" t="n">
-        <v>2018.277465820312</v>
+        <v>1285.08984375</v>
       </c>
       <c r="CW4" t="n">
-        <v>2040.835205078125</v>
+        <v>1284.509765625</v>
       </c>
       <c r="CX4" t="n">
-        <v>2051.4443359375</v>
+        <v>1284.353393554688</v>
       </c>
       <c r="CY4" t="n">
-        <v>2059.072509765625</v>
+        <v>1284.579345703125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2063.608642578125</v>
+        <v>1285.023681640625</v>
       </c>
       <c r="DA4" t="n">
-        <v>2067.734619140625</v>
+        <v>1285.96484375</v>
       </c>
       <c r="DB4" t="n">
-        <v>2069.893310546875</v>
+        <v>1288.058227539062</v>
       </c>
       <c r="DC4" t="n">
-        <v>2069.428466796875</v>
+        <v>1290.743774414062</v>
       </c>
       <c r="DD4" t="n">
-        <v>2069.576904296875</v>
+        <v>1293.973754882812</v>
       </c>
       <c r="DE4" t="n">
-        <v>2069.704345703125</v>
+        <v>1296.603271484375</v>
       </c>
       <c r="DF4" t="n">
-        <v>2069.918212890625</v>
+        <v>1300.43408203125</v>
       </c>
       <c r="DG4" t="n">
-        <v>2070.169189453125</v>
+        <v>1302.102783203125</v>
       </c>
       <c r="DH4" t="n">
-        <v>2070.58349609375</v>
+        <v>1302.7548828125</v>
       </c>
       <c r="DI4" t="n">
-        <v>2070.776611328125</v>
+        <v>1301.28125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2071.048095703125</v>
+        <v>1298.907348632812</v>
       </c>
       <c r="DK4" t="n">
-        <v>2071.2666015625</v>
+        <v>1293.837158203125</v>
       </c>
       <c r="DL4" t="n">
-        <v>2071.711181640625</v>
+        <v>1277.173095703125</v>
       </c>
       <c r="DM4" t="n">
-        <v>2072.074462890625</v>
+        <v>1270.164428710938</v>
       </c>
       <c r="DN4" t="n">
-        <v>2072.04931640625</v>
+        <v>1265.590209960938</v>
       </c>
       <c r="DO4" t="n">
-        <v>2072.21875</v>
+        <v>1263.916748046875</v>
       </c>
       <c r="DP4" t="n">
-        <v>2072.21728515625</v>
+        <v>1266.319946289062</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2072.289306640625</v>
+        <v>1267.208129882812</v>
       </c>
       <c r="DR4" t="n">
-        <v>2072.346923828125</v>
+        <v>1266.703735351562</v>
       </c>
       <c r="DS4" t="n">
-        <v>2072.42333984375</v>
+        <v>1267.494750976562</v>
       </c>
       <c r="DT4" t="n">
-        <v>2072.54931640625</v>
+        <v>1268.395751953125</v>
       </c>
       <c r="DU4" t="n">
-        <v>2072.50927734375</v>
+        <v>1270.43115234375</v>
       </c>
       <c r="DV4" t="n">
-        <v>2072.476806640625</v>
+        <v>1286.14013671875</v>
       </c>
       <c r="DW4" t="n">
-        <v>2072.3447265625</v>
+        <v>1288.133178710938</v>
       </c>
       <c r="DX4" t="n">
-        <v>2071.75439453125</v>
+        <v>1286.684692382812</v>
       </c>
       <c r="DY4" t="n">
-        <v>2071.114990234375</v>
+        <v>1284.380493164062</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2068.37353515625</v>
+        <v>1275.588256835938</v>
       </c>
       <c r="EA4" t="n">
-        <v>2066.029052734375</v>
+        <v>1269.016357421875</v>
       </c>
       <c r="EB4" t="n">
-        <v>2063.237060546875</v>
+        <v>1261.323974609375</v>
       </c>
       <c r="EC4" t="n">
-        <v>2053.71484375</v>
+        <v>1257.459106445312</v>
       </c>
       <c r="ED4" t="n">
-        <v>2054.107666015625</v>
+        <v>1253.817993164062</v>
       </c>
       <c r="EE4" t="n">
-        <v>2053.491943359375</v>
+        <v>1251.832641601562</v>
       </c>
       <c r="EF4" t="n">
-        <v>2052.924560546875</v>
+        <v>1248.793334960938</v>
       </c>
       <c r="EG4" t="n">
-        <v>2052.558349609375</v>
+        <v>1240.973754882812</v>
       </c>
       <c r="EH4" t="n">
-        <v>2052.2744140625</v>
+        <v>1240.46923828125</v>
       </c>
       <c r="EI4" t="n">
-        <v>2052.7744140625</v>
+        <v>1240.277099609375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2052.720947265625</v>
+        <v>1239.29443359375</v>
       </c>
       <c r="EK4" t="n">
-        <v>2052.71826171875</v>
+        <v>1235.520629882812</v>
       </c>
       <c r="EL4" t="n">
-        <v>2052.6826171875</v>
+        <v>1231.83544921875</v>
       </c>
       <c r="EM4" t="n">
-        <v>2052.345947265625</v>
+        <v>1211.583984375</v>
       </c>
       <c r="EN4" t="n">
-        <v>2051.513916015625</v>
+        <v>1194.362915039062</v>
       </c>
       <c r="EO4" t="n">
-        <v>2051.111328125</v>
+        <v>1163.870727539062</v>
       </c>
       <c r="EP4" t="n">
-        <v>2049.541015625</v>
+        <v>1150.1279296875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2048.45458984375</v>
+        <v>1132.207641601562</v>
       </c>
       <c r="ER4" t="n">
-        <v>2045.922119140625</v>
+        <v>1131.436767578125</v>
       </c>
       <c r="ES4" t="n">
-        <v>2044.419067382812</v>
+        <v>1123.629516601562</v>
       </c>
       <c r="ET4" t="n">
-        <v>2041.708251953125</v>
+        <v>1112.66650390625</v>
       </c>
       <c r="EU4" t="n">
-        <v>2040.275268554688</v>
+        <v>1104.288452148438</v>
       </c>
       <c r="EV4" t="n">
-        <v>2040.539794921875</v>
+        <v>1098.069458007812</v>
       </c>
       <c r="EW4" t="n">
-        <v>2041.014526367188</v>
+        <v>1084.758666992188</v>
       </c>
       <c r="EX4" t="n">
-        <v>2041.796875</v>
+        <v>1076.395751953125</v>
       </c>
       <c r="EY4" t="n">
-        <v>2041.705078125</v>
+        <v>1050.149536132812</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2041.6630859375</v>
+        <v>1003.911865234375</v>
       </c>
       <c r="FA4" t="n">
-        <v>2041.625366210938</v>
+        <v>976.7182006835938</v>
       </c>
       <c r="FB4" t="n">
-        <v>2041.63720703125</v>
+        <v>958.6126098632812</v>
       </c>
       <c r="FC4" t="n">
-        <v>2041.643188476562</v>
+        <v>933.604248046875</v>
       </c>
       <c r="FD4" t="n">
-        <v>2041.809326171875</v>
+        <v>916.0487060546875</v>
       </c>
       <c r="FE4" t="n">
-        <v>2042.001708984375</v>
+        <v>900.9074096679688</v>
       </c>
       <c r="FF4" t="n">
-        <v>2042.434448242188</v>
+        <v>895.2750244140625</v>
       </c>
       <c r="FG4" t="n">
-        <v>2042.68994140625</v>
+        <v>892.9979248046875</v>
       </c>
       <c r="FH4" t="n">
-        <v>2043.233276367188</v>
+        <v>903.6600952148438</v>
       </c>
       <c r="FI4" t="n">
-        <v>2045.622436523438</v>
+        <v>908.0089721679688</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2044.715087890625</v>
+        <v>912.9945678710938</v>
       </c>
       <c r="FK4" t="n">
-        <v>2042.716918945312</v>
+        <v>907.6928100585938</v>
       </c>
       <c r="FL4" t="n">
-        <v>2042.857543945312</v>
+        <v>878.40625</v>
       </c>
       <c r="FM4" t="n">
-        <v>2042.831787109375</v>
+        <v>870.605712890625</v>
       </c>
       <c r="FN4" t="n">
-        <v>2042.787231445312</v>
+        <v>869.5809326171875</v>
       </c>
       <c r="FO4" t="n">
-        <v>2042.74951171875</v>
+        <v>866.7398681640625</v>
       </c>
       <c r="FP4" t="n">
-        <v>2042.206176757812</v>
+        <v>866.4505004882812</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2041.611083984375</v>
+        <v>858.4464721679688</v>
       </c>
       <c r="FR4" t="n">
-        <v>2041.2568359375</v>
+        <v>864.7928466796875</v>
       </c>
       <c r="FS4" t="n">
-        <v>2039.6591796875</v>
+        <v>884.5813598632812</v>
       </c>
       <c r="FT4" t="n">
-        <v>2038.314575195312</v>
+        <v>902.71240234375</v>
       </c>
       <c r="FU4" t="n">
-        <v>2037.024291992188</v>
+        <v>891.7111206054688</v>
       </c>
       <c r="FV4" t="n">
-        <v>2036.907836914062</v>
+        <v>870.4273681640625</v>
       </c>
       <c r="FW4" t="n">
-        <v>2036.45361328125</v>
+        <v>865.1555786132812</v>
       </c>
       <c r="FX4" t="n">
-        <v>2036.449340820312</v>
+        <v>869.537109375</v>
       </c>
       <c r="FY4" t="n">
-        <v>2036.530883789062</v>
+        <v>870.8694458007812</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2036.605712890625</v>
+        <v>874.3450927734375</v>
       </c>
       <c r="GA4" t="n">
-        <v>2037.513793945312</v>
+        <v>884.3967895507812</v>
       </c>
       <c r="GB4" t="n">
-        <v>2038.353759765625</v>
+        <v>871.875244140625</v>
       </c>
       <c r="GC4" t="n">
-        <v>2040.580200195312</v>
+        <v>809.582763671875</v>
       </c>
       <c r="GD4" t="n">
-        <v>2042.027099609375</v>
+        <v>838.2713623046875</v>
       </c>
       <c r="GE4" t="n">
-        <v>2041.915771484375</v>
+        <v>824.1638793945312</v>
       </c>
       <c r="GF4" t="n">
-        <v>2040.907958984375</v>
+        <v>817.7162475585938</v>
       </c>
       <c r="GG4" t="n">
-        <v>2038.81884765625</v>
+        <v>833.0916137695312</v>
       </c>
       <c r="GH4" t="n">
-        <v>2030.826782226562</v>
+        <v>744.7943725585938</v>
       </c>
       <c r="GI4" t="n">
-        <v>2030.735107421875</v>
+        <v>714.414794921875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2030.534790039062</v>
+        <v>779.4696655273438</v>
       </c>
       <c r="GK4" t="n">
-        <v>2029.758544921875</v>
+        <v>665.2694091796875</v>
       </c>
       <c r="GL4" t="n">
-        <v>2028.862915039062</v>
+        <v>686.2300415039062</v>
       </c>
       <c r="GM4" t="n">
-        <v>2027.969848632812</v>
+        <v>650.1651000976562</v>
       </c>
       <c r="GN4" t="n">
-        <v>2028.606567382812</v>
+        <v>700.0565185546875</v>
       </c>
       <c r="GO4" t="n">
-        <v>2027.579833984375</v>
+        <v>735.93115234375</v>
       </c>
       <c r="GP4" t="n">
-        <v>2026.802978515625</v>
+        <v>651.7312622070312</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2026.698974609375</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>2026.745239257812</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>2026.752685546875</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>2028.209838867188</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>2029.800903320312</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>2037.487915039062</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>2051.052978515625</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>2061.1015625</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>2065.478515625</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>2062.5927734375</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>2058.820556640625</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>2018.099365234375</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>1987.940551757812</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>1969.89697265625</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1932.84814453125</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1920.76318359375</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1870.261474609375</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1823.69091796875</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1796.888427734375</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1771.828247070312</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1700.287109375</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1661.184692382812</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1616.954833984375</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1598.944946289062</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1573.450561523438</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1544.332763671875</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1509.314331054688</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1479.698608398438</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1437.572875976562</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1399.369140625</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1357.919311523438</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1339.268310546875</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1298.904052734375</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1258.25439453125</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1215.933715820312</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1195.738159179688</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1170.900390625</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>1111.109619140625</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>1091.159057617188</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>1051.929931640625</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>1017.850830078125</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>983.6778564453125</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>937.6162719726562</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>882.644287109375</v>
-      </c>
-      <c r="II4" t="n">
-        <v>833.959228515625</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>769.7086791992188</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>597.893798828125</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>520.7352905273438</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>565.1251831054688</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>486.41455078125</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>502.0058898925781</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>501.4640808105469</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>491.5459594726562</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>519.9317626953125</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>456.1888732910156</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>461.3390502929688</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>530.8687133789062</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>634.6582641601562</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>605.511474609375</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>698.5472412109375</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>757.0565185546875</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>716.0637817382812</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>673.1995849609375</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>719.3346557617188</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>765.0374755859375</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>776.066650390625</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>831.2508544921875</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>834.1659545898438</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>869.4838256835938</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>856.4119873046875</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>896.5618286132812</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>830.4537963867188</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>784.90478515625</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>742.695556640625</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>771.5106811523438</v>
+        <v>656.8370971679688</v>
       </c>
     </row>
   </sheetData>

--- a/right_hip_Data.xlsx
+++ b/right_hip_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>378.8675231933594</v>
+        <v>305.3699951171875</v>
       </c>
       <c r="B2" t="n">
-        <v>381.5474853515625</v>
+        <v>271.8698120117188</v>
       </c>
       <c r="C2" t="n">
-        <v>382.8384399414062</v>
+        <v>278.2648315429688</v>
       </c>
       <c r="D2" t="n">
-        <v>384.0971374511719</v>
+        <v>285.5160217285156</v>
       </c>
       <c r="E2" t="n">
-        <v>385.0166320800781</v>
+        <v>281.4942932128906</v>
       </c>
       <c r="F2" t="n">
-        <v>385.9952392578125</v>
+        <v>279.0200500488281</v>
       </c>
       <c r="G2" t="n">
-        <v>387.4478759765625</v>
+        <v>280.0264587402344</v>
       </c>
       <c r="H2" t="n">
-        <v>388.7813110351562</v>
+        <v>281.4436950683594</v>
       </c>
       <c r="I2" t="n">
-        <v>389.6377868652344</v>
+        <v>284.0674133300781</v>
       </c>
       <c r="J2" t="n">
-        <v>390.31494140625</v>
+        <v>283.0942077636719</v>
       </c>
       <c r="K2" t="n">
-        <v>390.3227233886719</v>
+        <v>284.5621948242188</v>
       </c>
       <c r="L2" t="n">
-        <v>389.73828125</v>
+        <v>288.3085021972656</v>
       </c>
       <c r="M2" t="n">
-        <v>385.1681213378906</v>
+        <v>291.4244384765625</v>
       </c>
       <c r="N2" t="n">
-        <v>376.7803955078125</v>
+        <v>292.8991394042969</v>
       </c>
       <c r="O2" t="n">
-        <v>369.8812866210938</v>
+        <v>294.5858154296875</v>
       </c>
       <c r="P2" t="n">
-        <v>367.4986572265625</v>
+        <v>295.9119873046875</v>
       </c>
       <c r="Q2" t="n">
-        <v>366.7404479980469</v>
+        <v>296.4253845214844</v>
       </c>
       <c r="R2" t="n">
-        <v>364.7130737304688</v>
+        <v>296.8006591796875</v>
       </c>
       <c r="S2" t="n">
-        <v>362.8386840820312</v>
+        <v>296.2208251953125</v>
       </c>
       <c r="T2" t="n">
-        <v>362.0198364257812</v>
+        <v>295.8474426269531</v>
       </c>
       <c r="U2" t="n">
-        <v>360.576416015625</v>
+        <v>295.4543762207031</v>
       </c>
       <c r="V2" t="n">
-        <v>357.8338623046875</v>
+        <v>295.0813903808594</v>
       </c>
       <c r="W2" t="n">
-        <v>355.1725769042969</v>
+        <v>295.1487121582031</v>
       </c>
       <c r="X2" t="n">
-        <v>352.2048645019531</v>
+        <v>294.8191528320312</v>
       </c>
       <c r="Y2" t="n">
-        <v>349.7473449707031</v>
+        <v>293.9251708984375</v>
       </c>
       <c r="Z2" t="n">
-        <v>347.801025390625</v>
+        <v>293.6051940917969</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.2578430175781</v>
+        <v>293.874267578125</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.7918090820312</v>
+        <v>292.6802673339844</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.124755859375</v>
+        <v>292.2462463378906</v>
       </c>
       <c r="AD2" t="n">
-        <v>345.5377807617188</v>
+        <v>292.5642395019531</v>
       </c>
       <c r="AE2" t="n">
-        <v>345.2203979492188</v>
+        <v>292.2122497558594</v>
       </c>
       <c r="AF2" t="n">
-        <v>344.6199035644531</v>
+        <v>292.4495544433594</v>
       </c>
       <c r="AG2" t="n">
-        <v>343.9102783203125</v>
+        <v>292.7607421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>342.8762512207031</v>
+        <v>294.1013488769531</v>
       </c>
       <c r="AI2" t="n">
-        <v>342.5528564453125</v>
+        <v>293.3421020507812</v>
       </c>
       <c r="AJ2" t="n">
-        <v>342.7664794921875</v>
+        <v>293.3069763183594</v>
       </c>
       <c r="AK2" t="n">
-        <v>342.4075317382812</v>
+        <v>293.4164733886719</v>
       </c>
       <c r="AL2" t="n">
-        <v>341.0667724609375</v>
+        <v>293.60400390625</v>
       </c>
       <c r="AM2" t="n">
-        <v>339.4506225585938</v>
+        <v>293.8449096679688</v>
       </c>
       <c r="AN2" t="n">
-        <v>337.3616027832031</v>
+        <v>294.0524291992188</v>
       </c>
       <c r="AO2" t="n">
-        <v>335.1617126464844</v>
+        <v>293.9945678710938</v>
       </c>
       <c r="AP2" t="n">
-        <v>333.0664367675781</v>
+        <v>293.9228820800781</v>
       </c>
       <c r="AQ2" t="n">
-        <v>332.2544555664062</v>
+        <v>295.0041809082031</v>
       </c>
       <c r="AR2" t="n">
-        <v>331.4803466796875</v>
+        <v>296.978759765625</v>
       </c>
       <c r="AS2" t="n">
-        <v>330.5188598632812</v>
+        <v>298.9006958007812</v>
       </c>
       <c r="AT2" t="n">
-        <v>329.3388061523438</v>
+        <v>300.4784851074219</v>
       </c>
       <c r="AU2" t="n">
-        <v>324.4175415039062</v>
+        <v>301.4361572265625</v>
       </c>
       <c r="AV2" t="n">
-        <v>316.2744140625</v>
+        <v>301.9656372070312</v>
       </c>
       <c r="AW2" t="n">
-        <v>309.9025268554688</v>
+        <v>302.3814697265625</v>
       </c>
       <c r="AX2" t="n">
-        <v>304.5796203613281</v>
+        <v>302.6437683105469</v>
       </c>
       <c r="AY2" t="n">
-        <v>300.2720947265625</v>
+        <v>302.7476806640625</v>
       </c>
       <c r="AZ2" t="n">
-        <v>293.1831970214844</v>
+        <v>302.8110961914062</v>
       </c>
       <c r="BA2" t="n">
-        <v>285.4062805175781</v>
+        <v>303.0262451171875</v>
       </c>
       <c r="BB2" t="n">
-        <v>276.1669006347656</v>
+        <v>303.4159545898438</v>
       </c>
       <c r="BC2" t="n">
-        <v>267.3543395996094</v>
+        <v>302.9712524414062</v>
       </c>
       <c r="BD2" t="n">
-        <v>260.9283447265625</v>
+        <v>303.2676391601562</v>
       </c>
       <c r="BE2" t="n">
-        <v>254.9216613769531</v>
+        <v>303.3371887207031</v>
       </c>
       <c r="BF2" t="n">
-        <v>248.8700103759766</v>
+        <v>303.3753051757812</v>
       </c>
       <c r="BG2" t="n">
-        <v>244.5874633789062</v>
+        <v>303.441650390625</v>
       </c>
       <c r="BH2" t="n">
-        <v>240.7324066162109</v>
+        <v>303.5079650878906</v>
       </c>
       <c r="BI2" t="n">
-        <v>237.2759704589844</v>
+        <v>303.7817687988281</v>
       </c>
       <c r="BJ2" t="n">
-        <v>235.1024475097656</v>
+        <v>304.0156555175781</v>
       </c>
       <c r="BK2" t="n">
-        <v>233.7511901855469</v>
+        <v>304.0438537597656</v>
       </c>
       <c r="BL2" t="n">
-        <v>232.2728729248047</v>
+        <v>303.7735290527344</v>
       </c>
       <c r="BM2" t="n">
-        <v>229.3779144287109</v>
+        <v>303.1695251464844</v>
       </c>
       <c r="BN2" t="n">
-        <v>224.6777648925781</v>
+        <v>302.5471496582031</v>
       </c>
       <c r="BO2" t="n">
-        <v>218.7346496582031</v>
+        <v>301.9658508300781</v>
       </c>
       <c r="BP2" t="n">
-        <v>215.4552001953125</v>
+        <v>301.5702819824219</v>
       </c>
       <c r="BQ2" t="n">
-        <v>213.2396087646484</v>
+        <v>301.4625549316406</v>
       </c>
       <c r="BR2" t="n">
-        <v>210.8038635253906</v>
+        <v>301.3818054199219</v>
       </c>
       <c r="BS2" t="n">
-        <v>208.6524810791016</v>
+        <v>301.3356323242188</v>
       </c>
       <c r="BT2" t="n">
-        <v>206.4927368164062</v>
+        <v>301.1775207519531</v>
       </c>
       <c r="BU2" t="n">
-        <v>204.8894958496094</v>
+        <v>301.0481567382812</v>
       </c>
       <c r="BV2" t="n">
-        <v>204.1382446289062</v>
+        <v>300.9954833984375</v>
       </c>
       <c r="BW2" t="n">
-        <v>203.6869659423828</v>
+        <v>301.0224914550781</v>
       </c>
       <c r="BX2" t="n">
-        <v>203.4126129150391</v>
+        <v>301.0608215332031</v>
       </c>
       <c r="BY2" t="n">
-        <v>203.082763671875</v>
+        <v>301.101806640625</v>
       </c>
       <c r="BZ2" t="n">
-        <v>203.119384765625</v>
+        <v>301.1168823242188</v>
       </c>
       <c r="CA2" t="n">
-        <v>203.2502593994141</v>
+        <v>300.7715759277344</v>
       </c>
       <c r="CB2" t="n">
-        <v>203.4233856201172</v>
+        <v>300.5924682617188</v>
       </c>
       <c r="CC2" t="n">
-        <v>203.56396484375</v>
+        <v>300.5143127441406</v>
       </c>
       <c r="CD2" t="n">
-        <v>203.6393737792969</v>
+        <v>300.3973083496094</v>
       </c>
       <c r="CE2" t="n">
-        <v>203.72509765625</v>
+        <v>300.3102111816406</v>
       </c>
       <c r="CF2" t="n">
-        <v>203.8854675292969</v>
+        <v>300.2481384277344</v>
       </c>
       <c r="CG2" t="n">
-        <v>204.7693176269531</v>
+        <v>300.1863403320312</v>
       </c>
       <c r="CH2" t="n">
-        <v>206.1600494384766</v>
+        <v>300.1235046386719</v>
       </c>
       <c r="CI2" t="n">
-        <v>207.7449340820312</v>
+        <v>300.070068359375</v>
       </c>
       <c r="CJ2" t="n">
-        <v>208.7564239501953</v>
+        <v>299.9793395996094</v>
       </c>
       <c r="CK2" t="n">
-        <v>209.317138671875</v>
+        <v>299.9390258789062</v>
       </c>
       <c r="CL2" t="n">
-        <v>209.9288787841797</v>
+        <v>299.90869140625</v>
       </c>
       <c r="CM2" t="n">
-        <v>209.9020080566406</v>
+        <v>299.6881713867188</v>
       </c>
       <c r="CN2" t="n">
-        <v>209.8676910400391</v>
+        <v>299.537353515625</v>
       </c>
       <c r="CO2" t="n">
-        <v>209.8069763183594</v>
+        <v>299.437255859375</v>
       </c>
       <c r="CP2" t="n">
-        <v>209.7465667724609</v>
+        <v>299.56982421875</v>
       </c>
       <c r="CQ2" t="n">
-        <v>209.7310791015625</v>
+        <v>299.5221557617188</v>
       </c>
       <c r="CR2" t="n">
-        <v>209.6926574707031</v>
+        <v>299.5168762207031</v>
       </c>
       <c r="CS2" t="n">
-        <v>209.6186218261719</v>
+        <v>299.4902038574219</v>
       </c>
       <c r="CT2" t="n">
-        <v>209.1406097412109</v>
+        <v>299.4190979003906</v>
       </c>
       <c r="CU2" t="n">
-        <v>208.1238403320312</v>
+        <v>299.3381958007812</v>
       </c>
       <c r="CV2" t="n">
-        <v>206.7906951904297</v>
+        <v>299.2445678710938</v>
       </c>
       <c r="CW2" t="n">
-        <v>205.9790344238281</v>
+        <v>299.1543273925781</v>
       </c>
       <c r="CX2" t="n">
-        <v>206.1161499023438</v>
+        <v>299.0588989257812</v>
       </c>
       <c r="CY2" t="n">
-        <v>206.435546875</v>
+        <v>298.9642639160156</v>
       </c>
       <c r="CZ2" t="n">
-        <v>206.7924499511719</v>
+        <v>298.8469848632812</v>
       </c>
       <c r="DA2" t="n">
-        <v>207.1194305419922</v>
+        <v>298.7518615722656</v>
       </c>
       <c r="DB2" t="n">
-        <v>207.4680938720703</v>
+        <v>298.7395935058594</v>
       </c>
       <c r="DC2" t="n">
-        <v>207.8337860107422</v>
+        <v>298.7585754394531</v>
       </c>
       <c r="DD2" t="n">
-        <v>208.4995727539062</v>
+        <v>298.7837524414062</v>
       </c>
       <c r="DE2" t="n">
-        <v>210.3660888671875</v>
+        <v>298.8081359863281</v>
       </c>
       <c r="DF2" t="n">
-        <v>213.6175689697266</v>
+        <v>298.8740539550781</v>
       </c>
       <c r="DG2" t="n">
-        <v>218.2782287597656</v>
+        <v>298.9021301269531</v>
       </c>
       <c r="DH2" t="n">
-        <v>223.0297088623047</v>
+        <v>298.88818359375</v>
       </c>
       <c r="DI2" t="n">
-        <v>228.0489349365234</v>
+        <v>298.8836059570312</v>
       </c>
       <c r="DJ2" t="n">
-        <v>232.4317321777344</v>
+        <v>298.8908386230469</v>
       </c>
       <c r="DK2" t="n">
-        <v>238.562255859375</v>
+        <v>298.8677978515625</v>
       </c>
       <c r="DL2" t="n">
-        <v>252.0834350585938</v>
+        <v>298.7876281738281</v>
       </c>
       <c r="DM2" t="n">
-        <v>258.3711853027344</v>
+        <v>298.6824035644531</v>
       </c>
       <c r="DN2" t="n">
-        <v>265.3186340332031</v>
+        <v>298.3591918945312</v>
       </c>
       <c r="DO2" t="n">
-        <v>272.0618286132812</v>
+        <v>298.1839599609375</v>
       </c>
       <c r="DP2" t="n">
-        <v>289.5776672363281</v>
+        <v>298.1937255859375</v>
       </c>
       <c r="DQ2" t="n">
-        <v>299.3517456054688</v>
+        <v>298.2962951660156</v>
       </c>
       <c r="DR2" t="n">
-        <v>307.8858642578125</v>
+        <v>298.3999633789062</v>
       </c>
       <c r="DS2" t="n">
-        <v>321.1701049804688</v>
+        <v>298.1739196777344</v>
       </c>
       <c r="DT2" t="n">
-        <v>326.9513244628906</v>
+        <v>297.7129211425781</v>
       </c>
       <c r="DU2" t="n">
-        <v>329.821533203125</v>
+        <v>297.5212097167969</v>
       </c>
       <c r="DV2" t="n">
-        <v>331.0186157226562</v>
+        <v>297.1746215820312</v>
       </c>
       <c r="DW2" t="n">
-        <v>331.7738647460938</v>
+        <v>297.010986328125</v>
       </c>
       <c r="DX2" t="n">
-        <v>333.7532958984375</v>
+        <v>296.8091735839844</v>
       </c>
       <c r="DY2" t="n">
-        <v>336.2708129882812</v>
+        <v>296.4547119140625</v>
       </c>
       <c r="DZ2" t="n">
-        <v>338.9190063476562</v>
+        <v>296.2365417480469</v>
       </c>
       <c r="EA2" t="n">
-        <v>339.6429748535156</v>
+        <v>295.7928466796875</v>
       </c>
       <c r="EB2" t="n">
-        <v>341.8670654296875</v>
+        <v>295.7491760253906</v>
       </c>
       <c r="EC2" t="n">
-        <v>342.3504333496094</v>
+        <v>295.6925964355469</v>
       </c>
       <c r="ED2" t="n">
-        <v>342.6741943359375</v>
+        <v>295.7023620605469</v>
       </c>
       <c r="EE2" t="n">
-        <v>341.78271484375</v>
+        <v>295.6839904785156</v>
       </c>
       <c r="EF2" t="n">
-        <v>339.586181640625</v>
+        <v>295.6580810546875</v>
       </c>
       <c r="EG2" t="n">
-        <v>332.6082153320312</v>
+        <v>295.6330871582031</v>
       </c>
       <c r="EH2" t="n">
-        <v>330.1874389648438</v>
+        <v>295.6051940917969</v>
       </c>
       <c r="EI2" t="n">
-        <v>327.3114318847656</v>
+        <v>295.5925903320312</v>
       </c>
       <c r="EJ2" t="n">
-        <v>325.8999328613281</v>
+        <v>295.5949096679688</v>
       </c>
       <c r="EK2" t="n">
-        <v>321.6406860351562</v>
+        <v>295.3464050292969</v>
       </c>
       <c r="EL2" t="n">
-        <v>317.0045471191406</v>
+        <v>295.4169616699219</v>
       </c>
       <c r="EM2" t="n">
-        <v>305.9729309082031</v>
+        <v>295.3213806152344</v>
       </c>
       <c r="EN2" t="n">
-        <v>299.2291870117188</v>
+        <v>295.3393249511719</v>
       </c>
       <c r="EO2" t="n">
-        <v>285.9688110351562</v>
+        <v>295.3056030273438</v>
       </c>
       <c r="EP2" t="n">
-        <v>280.8151245117188</v>
+        <v>295.089599609375</v>
       </c>
       <c r="EQ2" t="n">
-        <v>271.766845703125</v>
+        <v>294.7086486816406</v>
       </c>
       <c r="ER2" t="n">
-        <v>266.44287109375</v>
+        <v>294.6694030761719</v>
       </c>
       <c r="ES2" t="n">
-        <v>262.7284545898438</v>
+        <v>294.6938171386719</v>
       </c>
       <c r="ET2" t="n">
-        <v>261.841552734375</v>
+        <v>294.7737426757812</v>
       </c>
       <c r="EU2" t="n">
-        <v>261.5196228027344</v>
+        <v>294.8125610351562</v>
       </c>
       <c r="EV2" t="n">
-        <v>261.5349731445312</v>
+        <v>294.846435546875</v>
       </c>
       <c r="EW2" t="n">
-        <v>255.6461181640625</v>
+        <v>294.9383850097656</v>
       </c>
       <c r="EX2" t="n">
-        <v>252.6893310546875</v>
+        <v>295.0415344238281</v>
       </c>
       <c r="EY2" t="n">
-        <v>247.9910583496094</v>
+        <v>295.0601806640625</v>
       </c>
       <c r="EZ2" t="n">
-        <v>248.5368499755859</v>
+        <v>295.1770324707031</v>
       </c>
       <c r="FA2" t="n">
-        <v>253.5825805664062</v>
+        <v>295.4563598632812</v>
       </c>
       <c r="FB2" t="n">
-        <v>258.4305114746094</v>
+        <v>295.6655883789062</v>
       </c>
       <c r="FC2" t="n">
-        <v>262.824462890625</v>
+        <v>295.7802124023438</v>
       </c>
       <c r="FD2" t="n">
-        <v>266.9179382324219</v>
+        <v>295.7611389160156</v>
       </c>
       <c r="FE2" t="n">
-        <v>268.5350646972656</v>
+        <v>295.7438049316406</v>
       </c>
       <c r="FF2" t="n">
-        <v>276.4449768066406</v>
+        <v>295.7081909179688</v>
       </c>
       <c r="FG2" t="n">
-        <v>281.7203063964844</v>
+        <v>295.6214294433594</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.6757507324219</v>
+        <v>295.5687255859375</v>
       </c>
       <c r="FI2" t="n">
-        <v>302.7451171875</v>
+        <v>295.4275207519531</v>
       </c>
       <c r="FJ2" t="n">
-        <v>315.5784606933594</v>
+        <v>295.3087463378906</v>
       </c>
       <c r="FK2" t="n">
-        <v>320.7476806640625</v>
+        <v>295.2562561035156</v>
       </c>
       <c r="FL2" t="n">
-        <v>340.95849609375</v>
+        <v>295.1543884277344</v>
       </c>
       <c r="FM2" t="n">
-        <v>351.4649658203125</v>
+        <v>295.0873107910156</v>
       </c>
       <c r="FN2" t="n">
-        <v>365.8363037109375</v>
+        <v>295.0331420898438</v>
       </c>
       <c r="FO2" t="n">
-        <v>383.2920837402344</v>
+        <v>295.0598449707031</v>
       </c>
       <c r="FP2" t="n">
-        <v>401.334228515625</v>
+        <v>295.0849304199219</v>
       </c>
       <c r="FQ2" t="n">
-        <v>405.5311279296875</v>
+        <v>295.088134765625</v>
       </c>
       <c r="FR2" t="n">
-        <v>409.5791320800781</v>
+        <v>295.1704711914062</v>
       </c>
       <c r="FS2" t="n">
-        <v>403.0620727539062</v>
+        <v>295.2117919921875</v>
       </c>
       <c r="FT2" t="n">
-        <v>400.7916564941406</v>
+        <v>295.2449951171875</v>
       </c>
       <c r="FU2" t="n">
-        <v>398.1140441894531</v>
+        <v>295.287841796875</v>
       </c>
       <c r="FV2" t="n">
-        <v>401.798583984375</v>
+        <v>295.3099365234375</v>
       </c>
       <c r="FW2" t="n">
-        <v>412.568603515625</v>
+        <v>295.3512268066406</v>
       </c>
       <c r="FX2" t="n">
-        <v>414.7138977050781</v>
+        <v>295.3861999511719</v>
       </c>
       <c r="FY2" t="n">
-        <v>414.5818786621094</v>
+        <v>295.1979370117188</v>
       </c>
       <c r="FZ2" t="n">
-        <v>414.5822143554688</v>
+        <v>294.9542846679688</v>
       </c>
       <c r="GA2" t="n">
-        <v>415.6851806640625</v>
+        <v>295.00634765625</v>
       </c>
       <c r="GB2" t="n">
-        <v>419.889892578125</v>
+        <v>295.1566772460938</v>
       </c>
       <c r="GC2" t="n">
-        <v>428.96630859375</v>
+        <v>295.5475769042969</v>
       </c>
       <c r="GD2" t="n">
-        <v>426.673583984375</v>
+        <v>295.7532958984375</v>
       </c>
       <c r="GE2" t="n">
-        <v>427.07373046875</v>
+        <v>295.8246765136719</v>
       </c>
       <c r="GF2" t="n">
-        <v>422.0521850585938</v>
+        <v>295.7232666015625</v>
       </c>
       <c r="GG2" t="n">
-        <v>395.8658142089844</v>
+        <v>295.3616638183594</v>
       </c>
       <c r="GH2" t="n">
-        <v>408.3590698242188</v>
+        <v>294.550537109375</v>
       </c>
       <c r="GI2" t="n">
-        <v>371.5261535644531</v>
+        <v>293.8473815917969</v>
       </c>
       <c r="GJ2" t="n">
-        <v>381.8150634765625</v>
+        <v>293.4384155273438</v>
       </c>
       <c r="GK2" t="n">
-        <v>369.3554992675781</v>
+        <v>293.4114685058594</v>
       </c>
       <c r="GL2" t="n">
-        <v>356.8250122070312</v>
+        <v>293.4757995605469</v>
       </c>
       <c r="GM2" t="n">
-        <v>334.1193237304688</v>
+        <v>293.7867126464844</v>
       </c>
       <c r="GN2" t="n">
-        <v>295.4503173828125</v>
+        <v>293.8822937011719</v>
       </c>
       <c r="GO2" t="n">
-        <v>311.8379516601562</v>
+        <v>293.9182434082031</v>
       </c>
       <c r="GP2" t="n">
-        <v>299.68017578125</v>
+        <v>293.89013671875</v>
       </c>
       <c r="GQ2" t="n">
-        <v>292.1475219726562</v>
+        <v>293.9176025390625</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>293.9282836914062</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>294.1527099609375</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>294.1168212890625</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>293.9880981445312</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>293.8272705078125</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>293.7162475585938</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>293.5789489746094</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>293.4275817871094</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>293.4102783203125</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>293.4049682617188</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>293.3217468261719</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>293.1858215332031</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>293.0777282714844</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>293.0066833496094</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>292.7254333496094</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>291.9642028808594</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>291.8151550292969</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>292.2920837402344</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>292.6760864257812</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>292.8190307617188</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>292.8579406738281</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>292.8711853027344</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>292.8414001464844</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>292.9107971191406</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>293.0736083984375</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>293.2425842285156</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>293.1921691894531</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>293.2678527832031</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>293.4879455566406</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>293.6601867675781</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>293.59912109375</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>293.4223022460938</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>293.3135375976562</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>293.1951293945312</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>293.0624389648438</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>292.8328857421875</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>292.7531433105469</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>292.6487731933594</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>292.6323547363281</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>292.5916748046875</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>292.5455017089844</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>292.5109558105469</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>292.491943359375</v>
+      </c>
+      <c r="II2" t="n">
+        <v>292.4730529785156</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>292.4466552734375</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>292.4329833984375</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>292.3977661132812</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>292.2798767089844</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>292.1198120117188</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>291.8234252929688</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>291.7490539550781</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>291.8119201660156</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>291.8826904296875</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>292.0049743652344</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>292.0594787597656</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>292.0868225097656</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>292.4109191894531</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>292.5238952636719</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>292.51513671875</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>293.0351257324219</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>293.31640625</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>293.43310546875</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>293.5321044921875</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>293.6216735839844</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>293.6933288574219</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>293.7162475585938</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>293.6319580078125</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>293.5312805175781</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>293.3751220703125</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>293.1614074707031</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>292.8791809082031</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>292.5473022460938</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>292.2563781738281</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>291.9743957519531</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>291.6904296875</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>291.4818115234375</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>291.276611328125</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>291.1958618164062</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>291.0115661621094</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>290.6735534667969</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>290.2613830566406</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>290.4738159179688</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>290.6410827636719</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>290.6799011230469</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>290.3632202148438</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>290.3354187011719</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>290.4165649414062</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>289.0009765625</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>287.8799438476562</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>287.4122924804688</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>287.1276245117188</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>287.0723571777344</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>285.5875549316406</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>279.3463745117188</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>278.6513061523438</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>278.8137817382812</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>281.5957641601562</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>281.5464782714844</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>282.4081726074219</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>281.7797546386719</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>282.055908203125</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>288.4223937988281</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>288.8306274414062</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>287.8971862792969</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>286.7327880859375</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>286.074951171875</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>284.6455688476562</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>282.724853515625</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>279.9765625</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>275.7536315917969</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>264.0252380371094</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>260.5419006347656</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>259.0625305175781</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>256.6521606445312</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>255.2221374511719</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>252.1347961425781</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>250.7671966552734</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>417.1353149414062</v>
+        <v>452.8317565917969</v>
       </c>
       <c r="B3" t="n">
-        <v>408.5386962890625</v>
+        <v>390.67529296875</v>
       </c>
       <c r="C3" t="n">
-        <v>406.9680786132812</v>
+        <v>381.3238220214844</v>
       </c>
       <c r="D3" t="n">
-        <v>405.6277770996094</v>
+        <v>383.8865661621094</v>
       </c>
       <c r="E3" t="n">
-        <v>405.1434631347656</v>
+        <v>386.0821228027344</v>
       </c>
       <c r="F3" t="n">
-        <v>403.9905700683594</v>
+        <v>385.2073364257812</v>
       </c>
       <c r="G3" t="n">
-        <v>403.0532531738281</v>
+        <v>390.1441650390625</v>
       </c>
       <c r="H3" t="n">
-        <v>401.9425354003906</v>
+        <v>392.196533203125</v>
       </c>
       <c r="I3" t="n">
-        <v>399.1455993652344</v>
+        <v>396.8871765136719</v>
       </c>
       <c r="J3" t="n">
-        <v>395.9732971191406</v>
+        <v>389.1491394042969</v>
       </c>
       <c r="K3" t="n">
-        <v>391.4279479980469</v>
+        <v>384.8861999511719</v>
       </c>
       <c r="L3" t="n">
-        <v>386.8227233886719</v>
+        <v>382.9533996582031</v>
       </c>
       <c r="M3" t="n">
-        <v>379.4280090332031</v>
+        <v>385.3002624511719</v>
       </c>
       <c r="N3" t="n">
-        <v>373.0362243652344</v>
+        <v>382.6386108398438</v>
       </c>
       <c r="O3" t="n">
-        <v>366.0674438476562</v>
+        <v>381.5186157226562</v>
       </c>
       <c r="P3" t="n">
-        <v>359.7601013183594</v>
+        <v>380.2329711914062</v>
       </c>
       <c r="Q3" t="n">
-        <v>355.9877014160156</v>
+        <v>375.4827880859375</v>
       </c>
       <c r="R3" t="n">
-        <v>348.3284301757812</v>
+        <v>369.4612731933594</v>
       </c>
       <c r="S3" t="n">
-        <v>341.177734375</v>
+        <v>365.1817321777344</v>
       </c>
       <c r="T3" t="n">
-        <v>336.2114562988281</v>
+        <v>362.9678955078125</v>
       </c>
       <c r="U3" t="n">
-        <v>332.4601745605469</v>
+        <v>361.8207092285156</v>
       </c>
       <c r="V3" t="n">
-        <v>328.7112121582031</v>
+        <v>362.1061401367188</v>
       </c>
       <c r="W3" t="n">
-        <v>326.6925659179688</v>
+        <v>366.4015808105469</v>
       </c>
       <c r="X3" t="n">
-        <v>323.5252990722656</v>
+        <v>368.0589294433594</v>
       </c>
       <c r="Y3" t="n">
-        <v>320.9067687988281</v>
+        <v>367.0712585449219</v>
       </c>
       <c r="Z3" t="n">
-        <v>319.7316284179688</v>
+        <v>369.1605529785156</v>
       </c>
       <c r="AA3" t="n">
-        <v>319.1124877929688</v>
+        <v>371.3559875488281</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.7510070800781</v>
+        <v>369.4161071777344</v>
       </c>
       <c r="AC3" t="n">
-        <v>326.6300048828125</v>
+        <v>369.3744201660156</v>
       </c>
       <c r="AD3" t="n">
-        <v>328.9920654296875</v>
+        <v>369.4945678710938</v>
       </c>
       <c r="AE3" t="n">
-        <v>329.300048828125</v>
+        <v>368.7088928222656</v>
       </c>
       <c r="AF3" t="n">
-        <v>329.0040893554688</v>
+        <v>369.3431701660156</v>
       </c>
       <c r="AG3" t="n">
-        <v>328.3118896484375</v>
+        <v>369.3789367675781</v>
       </c>
       <c r="AH3" t="n">
-        <v>326.6513061523438</v>
+        <v>371.8685913085938</v>
       </c>
       <c r="AI3" t="n">
-        <v>326.1068420410156</v>
+        <v>370.2575988769531</v>
       </c>
       <c r="AJ3" t="n">
-        <v>326.4411315917969</v>
+        <v>368.6573791503906</v>
       </c>
       <c r="AK3" t="n">
-        <v>326.0482482910156</v>
+        <v>367.8565063476562</v>
       </c>
       <c r="AL3" t="n">
-        <v>325.3977355957031</v>
+        <v>367.1769409179688</v>
       </c>
       <c r="AM3" t="n">
-        <v>325.6914978027344</v>
+        <v>366.8110046386719</v>
       </c>
       <c r="AN3" t="n">
-        <v>325.0756225585938</v>
+        <v>366.4276123046875</v>
       </c>
       <c r="AO3" t="n">
-        <v>322.398681640625</v>
+        <v>366.5031127929688</v>
       </c>
       <c r="AP3" t="n">
-        <v>318.5766296386719</v>
+        <v>367.6979064941406</v>
       </c>
       <c r="AQ3" t="n">
-        <v>316.9703979492188</v>
+        <v>369.7218017578125</v>
       </c>
       <c r="AR3" t="n">
-        <v>315.4435119628906</v>
+        <v>371.1887817382812</v>
       </c>
       <c r="AS3" t="n">
-        <v>315.5869140625</v>
+        <v>370.9328002929688</v>
       </c>
       <c r="AT3" t="n">
-        <v>316.0923461914062</v>
+        <v>370.4649353027344</v>
       </c>
       <c r="AU3" t="n">
-        <v>317.6695251464844</v>
+        <v>369.981201171875</v>
       </c>
       <c r="AV3" t="n">
-        <v>319.9026794433594</v>
+        <v>369.4697265625</v>
       </c>
       <c r="AW3" t="n">
-        <v>321.9763488769531</v>
+        <v>369.0775756835938</v>
       </c>
       <c r="AX3" t="n">
-        <v>323.1904296875</v>
+        <v>369.1176147460938</v>
       </c>
       <c r="AY3" t="n">
-        <v>326.7049255371094</v>
+        <v>369.2516479492188</v>
       </c>
       <c r="AZ3" t="n">
-        <v>327.4297180175781</v>
+        <v>369.0914001464844</v>
       </c>
       <c r="BA3" t="n">
-        <v>326.5849914550781</v>
+        <v>369.4225463867188</v>
       </c>
       <c r="BB3" t="n">
-        <v>326.5179748535156</v>
+        <v>370.1456298828125</v>
       </c>
       <c r="BC3" t="n">
-        <v>328.3817138671875</v>
+        <v>368.6253967285156</v>
       </c>
       <c r="BD3" t="n">
-        <v>329.9052429199219</v>
+        <v>369.1477966308594</v>
       </c>
       <c r="BE3" t="n">
-        <v>330.8635559082031</v>
+        <v>369.0299377441406</v>
       </c>
       <c r="BF3" t="n">
-        <v>330.237548828125</v>
+        <v>368.8874816894531</v>
       </c>
       <c r="BG3" t="n">
-        <v>328.4009399414062</v>
+        <v>368.8592529296875</v>
       </c>
       <c r="BH3" t="n">
-        <v>327.1745300292969</v>
+        <v>368.8202514648438</v>
       </c>
       <c r="BI3" t="n">
-        <v>327.2054748535156</v>
+        <v>369.4055786132812</v>
       </c>
       <c r="BJ3" t="n">
-        <v>327.9908447265625</v>
+        <v>369.8360900878906</v>
       </c>
       <c r="BK3" t="n">
-        <v>328.9853210449219</v>
+        <v>369.808349609375</v>
       </c>
       <c r="BL3" t="n">
-        <v>330.0405578613281</v>
+        <v>370.1841430664062</v>
       </c>
       <c r="BM3" t="n">
-        <v>331.4769897460938</v>
+        <v>370.3821105957031</v>
       </c>
       <c r="BN3" t="n">
-        <v>332.2718505859375</v>
+        <v>370.6640014648438</v>
       </c>
       <c r="BO3" t="n">
-        <v>330.7923583984375</v>
+        <v>370.6886901855469</v>
       </c>
       <c r="BP3" t="n">
-        <v>330.3464660644531</v>
+        <v>370.5118713378906</v>
       </c>
       <c r="BQ3" t="n">
-        <v>330.0018615722656</v>
+        <v>370.75634765625</v>
       </c>
       <c r="BR3" t="n">
-        <v>329.6342163085938</v>
+        <v>370.785888671875</v>
       </c>
       <c r="BS3" t="n">
-        <v>329.4739990234375</v>
+        <v>370.90283203125</v>
       </c>
       <c r="BT3" t="n">
-        <v>329.2462768554688</v>
+        <v>370.8252868652344</v>
       </c>
       <c r="BU3" t="n">
-        <v>329.3931579589844</v>
+        <v>370.8128051757812</v>
       </c>
       <c r="BV3" t="n">
-        <v>329.6328430175781</v>
+        <v>370.9519653320312</v>
       </c>
       <c r="BW3" t="n">
-        <v>329.6607971191406</v>
+        <v>371.19287109375</v>
       </c>
       <c r="BX3" t="n">
-        <v>329.5556335449219</v>
+        <v>371.5248107910156</v>
       </c>
       <c r="BY3" t="n">
-        <v>329.4513244628906</v>
+        <v>371.94775390625</v>
       </c>
       <c r="BZ3" t="n">
-        <v>329.4167175292969</v>
+        <v>372.3717041015625</v>
       </c>
       <c r="CA3" t="n">
-        <v>329.3391723632812</v>
+        <v>372.9856567382812</v>
       </c>
       <c r="CB3" t="n">
-        <v>329.2501220703125</v>
+        <v>373.0010070800781</v>
       </c>
       <c r="CC3" t="n">
-        <v>329.1969909667969</v>
+        <v>373.0653076171875</v>
       </c>
       <c r="CD3" t="n">
-        <v>329.2464294433594</v>
+        <v>373.1218872070312</v>
       </c>
       <c r="CE3" t="n">
-        <v>329.29931640625</v>
+        <v>373.1596984863281</v>
       </c>
       <c r="CF3" t="n">
-        <v>329.3695678710938</v>
+        <v>373.1904907226562</v>
       </c>
       <c r="CG3" t="n">
-        <v>329.0817565917969</v>
+        <v>373.19580078125</v>
       </c>
       <c r="CH3" t="n">
-        <v>328.7169189453125</v>
+        <v>373.1860046386719</v>
       </c>
       <c r="CI3" t="n">
-        <v>328.3308410644531</v>
+        <v>373.1592102050781</v>
       </c>
       <c r="CJ3" t="n">
-        <v>328.4022216796875</v>
+        <v>373.0444641113281</v>
       </c>
       <c r="CK3" t="n">
-        <v>328.7343139648438</v>
+        <v>373.0153503417969</v>
       </c>
       <c r="CL3" t="n">
-        <v>329.3590087890625</v>
+        <v>372.9811096191406</v>
       </c>
       <c r="CM3" t="n">
-        <v>329.3348999023438</v>
+        <v>372.5324401855469</v>
       </c>
       <c r="CN3" t="n">
-        <v>329.3081359863281</v>
+        <v>372.1651916503906</v>
       </c>
       <c r="CO3" t="n">
-        <v>329.3073120117188</v>
+        <v>371.8601379394531</v>
       </c>
       <c r="CP3" t="n">
-        <v>329.3300170898438</v>
+        <v>372.1103210449219</v>
       </c>
       <c r="CQ3" t="n">
-        <v>329.415771484375</v>
+        <v>371.9903259277344</v>
       </c>
       <c r="CR3" t="n">
-        <v>329.4773254394531</v>
+        <v>371.9819946289062</v>
       </c>
       <c r="CS3" t="n">
-        <v>329.4590148925781</v>
+        <v>372.0043334960938</v>
       </c>
       <c r="CT3" t="n">
-        <v>329.5923767089844</v>
+        <v>372.0433349609375</v>
       </c>
       <c r="CU3" t="n">
-        <v>329.9564819335938</v>
+        <v>372.0859069824219</v>
       </c>
       <c r="CV3" t="n">
-        <v>330.4986877441406</v>
+        <v>372.196533203125</v>
       </c>
       <c r="CW3" t="n">
-        <v>330.917724609375</v>
+        <v>372.3128051757812</v>
       </c>
       <c r="CX3" t="n">
-        <v>330.9425048828125</v>
+        <v>372.4267272949219</v>
       </c>
       <c r="CY3" t="n">
-        <v>330.8594360351562</v>
+        <v>372.4070129394531</v>
       </c>
       <c r="CZ3" t="n">
-        <v>330.9685668945312</v>
+        <v>372.5091247558594</v>
       </c>
       <c r="DA3" t="n">
-        <v>331.0879821777344</v>
+        <v>372.5784301757812</v>
       </c>
       <c r="DB3" t="n">
-        <v>331.1705017089844</v>
+        <v>372.4759521484375</v>
       </c>
       <c r="DC3" t="n">
-        <v>331.2355346679688</v>
+        <v>372.4411926269531</v>
       </c>
       <c r="DD3" t="n">
-        <v>331.4823608398438</v>
+        <v>372.5555725097656</v>
       </c>
       <c r="DE3" t="n">
-        <v>331.2289123535156</v>
+        <v>372.648681640625</v>
       </c>
       <c r="DF3" t="n">
-        <v>330.4854431152344</v>
+        <v>372.7241516113281</v>
       </c>
       <c r="DG3" t="n">
-        <v>330.2246704101562</v>
+        <v>372.6134643554688</v>
       </c>
       <c r="DH3" t="n">
-        <v>329.5819396972656</v>
+        <v>372.5299682617188</v>
       </c>
       <c r="DI3" t="n">
-        <v>330.1394348144531</v>
+        <v>372.4738159179688</v>
       </c>
       <c r="DJ3" t="n">
-        <v>330.8727416992188</v>
+        <v>372.4851989746094</v>
       </c>
       <c r="DK3" t="n">
-        <v>333.2877807617188</v>
+        <v>372.6509094238281</v>
       </c>
       <c r="DL3" t="n">
-        <v>340.1889038085938</v>
+        <v>372.9676208496094</v>
       </c>
       <c r="DM3" t="n">
-        <v>340.3054809570312</v>
+        <v>373.1747741699219</v>
       </c>
       <c r="DN3" t="n">
-        <v>340.3144836425781</v>
+        <v>373.5317993164062</v>
       </c>
       <c r="DO3" t="n">
-        <v>340.3354187011719</v>
+        <v>373.5707092285156</v>
       </c>
       <c r="DP3" t="n">
-        <v>338.3369140625</v>
+        <v>373.3327026367188</v>
       </c>
       <c r="DQ3" t="n">
-        <v>338.2861328125</v>
+        <v>373.2489013671875</v>
       </c>
       <c r="DR3" t="n">
-        <v>338.0348510742188</v>
+        <v>373.1465759277344</v>
       </c>
       <c r="DS3" t="n">
-        <v>337.7491455078125</v>
+        <v>373.380126953125</v>
       </c>
       <c r="DT3" t="n">
-        <v>336.8748168945312</v>
+        <v>373.8325500488281</v>
       </c>
       <c r="DU3" t="n">
-        <v>334.9841613769531</v>
+        <v>374.040771484375</v>
       </c>
       <c r="DV3" t="n">
-        <v>328.6421508789062</v>
+        <v>373.9628601074219</v>
       </c>
       <c r="DW3" t="n">
-        <v>322.2062072753906</v>
+        <v>373.9847412109375</v>
       </c>
       <c r="DX3" t="n">
-        <v>322.2633972167969</v>
+        <v>374.0429077148438</v>
       </c>
       <c r="DY3" t="n">
-        <v>322.9027099609375</v>
+        <v>373.9505004882812</v>
       </c>
       <c r="DZ3" t="n">
-        <v>322.0824279785156</v>
+        <v>373.9125366210938</v>
       </c>
       <c r="EA3" t="n">
-        <v>321.4558715820312</v>
+        <v>373.8490295410156</v>
       </c>
       <c r="EB3" t="n">
-        <v>321.7557067871094</v>
+        <v>373.9085998535156</v>
       </c>
       <c r="EC3" t="n">
-        <v>321.8117065429688</v>
+        <v>373.9224243164062</v>
       </c>
       <c r="ED3" t="n">
-        <v>321.7604675292969</v>
+        <v>373.8932495117188</v>
       </c>
       <c r="EE3" t="n">
-        <v>322.0047607421875</v>
+        <v>373.8882141113281</v>
       </c>
       <c r="EF3" t="n">
-        <v>322.5057067871094</v>
+        <v>373.9052429199219</v>
       </c>
       <c r="EG3" t="n">
-        <v>322.8104858398438</v>
+        <v>373.9130554199219</v>
       </c>
       <c r="EH3" t="n">
-        <v>322.4598388671875</v>
+        <v>373.9255676269531</v>
       </c>
       <c r="EI3" t="n">
-        <v>321.8077087402344</v>
+        <v>374.0291442871094</v>
       </c>
       <c r="EJ3" t="n">
-        <v>321.7656860351562</v>
+        <v>374.1008605957031</v>
       </c>
       <c r="EK3" t="n">
-        <v>323.73974609375</v>
+        <v>373.6696166992188</v>
       </c>
       <c r="EL3" t="n">
-        <v>325.860595703125</v>
+        <v>373.8481750488281</v>
       </c>
       <c r="EM3" t="n">
-        <v>331.4052734375</v>
+        <v>373.7222900390625</v>
       </c>
       <c r="EN3" t="n">
-        <v>331.8799438476562</v>
+        <v>373.7974243164062</v>
       </c>
       <c r="EO3" t="n">
-        <v>335.7755737304688</v>
+        <v>373.8407897949219</v>
       </c>
       <c r="EP3" t="n">
-        <v>338.1209411621094</v>
+        <v>374.0194702148438</v>
       </c>
       <c r="EQ3" t="n">
-        <v>341.9286499023438</v>
+        <v>374.3385009765625</v>
       </c>
       <c r="ER3" t="n">
-        <v>342.2880249023438</v>
+        <v>374.4805908203125</v>
       </c>
       <c r="ES3" t="n">
-        <v>343.5563049316406</v>
+        <v>374.4307250976562</v>
       </c>
       <c r="ET3" t="n">
-        <v>344.2882995605469</v>
+        <v>374.4424133300781</v>
       </c>
       <c r="EU3" t="n">
-        <v>343.1401672363281</v>
+        <v>374.4835815429688</v>
       </c>
       <c r="EV3" t="n">
-        <v>337.6020202636719</v>
+        <v>374.5201721191406</v>
       </c>
       <c r="EW3" t="n">
-        <v>341.748779296875</v>
+        <v>374.7363891601562</v>
       </c>
       <c r="EX3" t="n">
-        <v>343.7242126464844</v>
+        <v>375.0332641601562</v>
       </c>
       <c r="EY3" t="n">
-        <v>347.2938537597656</v>
+        <v>374.9579772949219</v>
       </c>
       <c r="EZ3" t="n">
-        <v>359.0722045898438</v>
+        <v>374.7958984375</v>
       </c>
       <c r="FA3" t="n">
-        <v>365.2649230957031</v>
+        <v>374.60791015625</v>
       </c>
       <c r="FB3" t="n">
-        <v>367.2311706542969</v>
+        <v>374.3851318359375</v>
       </c>
       <c r="FC3" t="n">
-        <v>365.5127868652344</v>
+        <v>374.3229675292969</v>
       </c>
       <c r="FD3" t="n">
-        <v>370.646240234375</v>
+        <v>374.3464050292969</v>
       </c>
       <c r="FE3" t="n">
-        <v>373.482421875</v>
+        <v>374.3615417480469</v>
       </c>
       <c r="FF3" t="n">
-        <v>375.4058227539062</v>
+        <v>374.3883361816406</v>
       </c>
       <c r="FG3" t="n">
-        <v>377.3240051269531</v>
+        <v>374.4331665039062</v>
       </c>
       <c r="FH3" t="n">
-        <v>384.0130920410156</v>
+        <v>374.4488220214844</v>
       </c>
       <c r="FI3" t="n">
-        <v>387.3953552246094</v>
+        <v>374.403076171875</v>
       </c>
       <c r="FJ3" t="n">
-        <v>395.8400268554688</v>
+        <v>374.3777465820312</v>
       </c>
       <c r="FK3" t="n">
-        <v>409.620849609375</v>
+        <v>374.3373718261719</v>
       </c>
       <c r="FL3" t="n">
-        <v>436.5745544433594</v>
+        <v>374.1777954101562</v>
       </c>
       <c r="FM3" t="n">
-        <v>432.0335693359375</v>
+        <v>374.0250244140625</v>
       </c>
       <c r="FN3" t="n">
-        <v>438.8408813476562</v>
+        <v>373.8125</v>
       </c>
       <c r="FO3" t="n">
-        <v>456.7513427734375</v>
+        <v>373.7994995117188</v>
       </c>
       <c r="FP3" t="n">
-        <v>485.3490295410156</v>
+        <v>373.7415771484375</v>
       </c>
       <c r="FQ3" t="n">
-        <v>493.7500305175781</v>
+        <v>373.6878967285156</v>
       </c>
       <c r="FR3" t="n">
-        <v>498.1305847167969</v>
+        <v>373.7145690917969</v>
       </c>
       <c r="FS3" t="n">
-        <v>474.9354248046875</v>
+        <v>373.7499694824219</v>
       </c>
       <c r="FT3" t="n">
-        <v>458.1615295410156</v>
+        <v>373.6846008300781</v>
       </c>
       <c r="FU3" t="n">
-        <v>451.453125</v>
+        <v>373.5877685546875</v>
       </c>
       <c r="FV3" t="n">
-        <v>456.5492553710938</v>
+        <v>373.5486755371094</v>
       </c>
       <c r="FW3" t="n">
-        <v>457.76708984375</v>
+        <v>373.4740600585938</v>
       </c>
       <c r="FX3" t="n">
-        <v>464.3801574707031</v>
+        <v>373.4915161132812</v>
       </c>
       <c r="FY3" t="n">
-        <v>466.8281555175781</v>
+        <v>374.3488159179688</v>
       </c>
       <c r="FZ3" t="n">
-        <v>468.4442443847656</v>
+        <v>374.5639343261719</v>
       </c>
       <c r="GA3" t="n">
-        <v>476.7200622558594</v>
+        <v>375.1112976074219</v>
       </c>
       <c r="GB3" t="n">
-        <v>470.8982849121094</v>
+        <v>374.866943359375</v>
       </c>
       <c r="GC3" t="n">
-        <v>476.9492492675781</v>
+        <v>374.2198486328125</v>
       </c>
       <c r="GD3" t="n">
-        <v>454.4599609375</v>
+        <v>373.7861938476562</v>
       </c>
       <c r="GE3" t="n">
-        <v>473.7034912109375</v>
+        <v>373.7430725097656</v>
       </c>
       <c r="GF3" t="n">
-        <v>486.8897399902344</v>
+        <v>373.7699584960938</v>
       </c>
       <c r="GG3" t="n">
-        <v>498.2684936523438</v>
+        <v>373.9642639160156</v>
       </c>
       <c r="GH3" t="n">
-        <v>563.8665771484375</v>
+        <v>374.4151306152344</v>
       </c>
       <c r="GI3" t="n">
-        <v>538.6661987304688</v>
+        <v>374.8159790039062</v>
       </c>
       <c r="GJ3" t="n">
-        <v>542.6525268554688</v>
+        <v>375.1515502929688</v>
       </c>
       <c r="GK3" t="n">
-        <v>575.1843872070312</v>
+        <v>375.2307434082031</v>
       </c>
       <c r="GL3" t="n">
-        <v>574.4688110351562</v>
+        <v>375.1713256835938</v>
       </c>
       <c r="GM3" t="n">
-        <v>578.2525024414062</v>
+        <v>374.9490051269531</v>
       </c>
       <c r="GN3" t="n">
-        <v>570.71923828125</v>
+        <v>374.9013671875</v>
       </c>
       <c r="GO3" t="n">
-        <v>571.7447509765625</v>
+        <v>374.8690490722656</v>
       </c>
       <c r="GP3" t="n">
-        <v>596.036376953125</v>
+        <v>374.8652954101562</v>
       </c>
       <c r="GQ3" t="n">
-        <v>586.1904907226562</v>
+        <v>374.8298034667969</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>374.8198852539062</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>374.5686645507812</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>374.5563049316406</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>374.5313110351562</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>374.4014892578125</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>374.478759765625</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>374.4927978515625</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>374.4680480957031</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>374.6865234375</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>374.9406127929688</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>374.9200744628906</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>374.9100646972656</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>374.8939514160156</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>374.9747314453125</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>375.2687377929688</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>375.7331848144531</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>375.9467163085938</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>375.6998901367188</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>375.465087890625</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>375.4065246582031</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>375.3770141601562</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>375.3857116699219</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>375.2326354980469</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>375.2872619628906</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>375.5543212890625</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>375.8564758300781</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>375.68896484375</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>375.5622253417969</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>375.3683776855469</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>375.2303466796875</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>375.2196350097656</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>375.0208435058594</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>374.9401550292969</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>374.7263488769531</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>374.789306640625</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>374.794921875</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>374.7910766601562</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>374.8401794433594</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>374.8113403320312</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>374.7514953613281</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>374.693115234375</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>374.6777038574219</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>374.6683349609375</v>
+      </c>
+      <c r="II3" t="n">
+        <v>374.6639404296875</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>374.6595764160156</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>374.6721801757812</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>374.6321105957031</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>374.7464904785156</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>375.0177001953125</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>374.9131164550781</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>374.9871520996094</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>374.9913940429688</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>374.9487609863281</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>375.1015625</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>375.0498657226562</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>374.9732666015625</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>375.3681030273438</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>375.002197265625</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>374.2705993652344</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>374.3021240234375</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>374.4072265625</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>374.3329772949219</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>374.2882995605469</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>374.2651672363281</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>374.2440185546875</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>374.2580261230469</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>374.2610778808594</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>374.2521362304688</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>374.2133483886719</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>374.1838684082031</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>374.1718444824219</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>374.1483764648438</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>374.2078247070312</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>374.2538452148438</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>374.27001953125</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>374.4166870117188</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>374.5652465820312</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>374.7286682128906</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>375.2492370605469</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>375.6848449707031</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>375.9416198730469</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>375.642578125</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>375.68017578125</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>375.5361022949219</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>374.9066467285156</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>373.52783203125</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>374.5195617675781</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>375.4514770507812</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>376.0530090332031</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>375.9150390625</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>375.1270751953125</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>374.3279724121094</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>372.7924499511719</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>372.6173400878906</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>372.0176696777344</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>372.8526000976562</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>371.7327270507812</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>369.4551086425781</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>373.5631713867188</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>377.4891662597656</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>379.67041015625</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>378.3692016601562</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>374.3525390625</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>373.4867248535156</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>370.2842712402344</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>366.1957397460938</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>370.0058288574219</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>378.3469543457031</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>384.9522705078125</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>392.1821594238281</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>405.6301879882812</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>405.9707336425781</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>407.176025390625</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>410.8465576171875</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>412.343017578125</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>413.2907104492188</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>414.3946228027344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1181.891967773438</v>
+        <v>871.674560546875</v>
       </c>
       <c r="B4" t="n">
-        <v>1190.514770507812</v>
+        <v>940.9132690429688</v>
       </c>
       <c r="C4" t="n">
-        <v>1201.87841796875</v>
+        <v>969.0177001953125</v>
       </c>
       <c r="D4" t="n">
-        <v>1209.5673828125</v>
+        <v>1004.855285644531</v>
       </c>
       <c r="E4" t="n">
-        <v>1214.3017578125</v>
+        <v>1029.936889648438</v>
       </c>
       <c r="F4" t="n">
-        <v>1221.083740234375</v>
+        <v>1056.289184570312</v>
       </c>
       <c r="G4" t="n">
-        <v>1221.199340820312</v>
+        <v>1066.0546875</v>
       </c>
       <c r="H4" t="n">
-        <v>1221.575317382812</v>
+        <v>1089.650268554688</v>
       </c>
       <c r="I4" t="n">
-        <v>1220.666748046875</v>
+        <v>1117.8818359375</v>
       </c>
       <c r="J4" t="n">
-        <v>1220.57421875</v>
+        <v>1145.07861328125</v>
       </c>
       <c r="K4" t="n">
-        <v>1221.8017578125</v>
+        <v>1183.6416015625</v>
       </c>
       <c r="L4" t="n">
-        <v>1226.209228515625</v>
+        <v>1213.175537109375</v>
       </c>
       <c r="M4" t="n">
-        <v>1244.287109375</v>
+        <v>1244.601440429688</v>
       </c>
       <c r="N4" t="n">
-        <v>1264.763916015625</v>
+        <v>1278.817260742188</v>
       </c>
       <c r="O4" t="n">
-        <v>1281.216186523438</v>
+        <v>1309.19873046875</v>
       </c>
       <c r="P4" t="n">
-        <v>1294.372314453125</v>
+        <v>1335.474975585938</v>
       </c>
       <c r="Q4" t="n">
-        <v>1303.100708007812</v>
+        <v>1360.213012695312</v>
       </c>
       <c r="R4" t="n">
-        <v>1314.431884765625</v>
+        <v>1387.16845703125</v>
       </c>
       <c r="S4" t="n">
-        <v>1314.113891601562</v>
+        <v>1420.667724609375</v>
       </c>
       <c r="T4" t="n">
-        <v>1315.7646484375</v>
+        <v>1444.585327148438</v>
       </c>
       <c r="U4" t="n">
-        <v>1317.512329101562</v>
+        <v>1471.259887695312</v>
       </c>
       <c r="V4" t="n">
-        <v>1319.939331054688</v>
+        <v>1497.60888671875</v>
       </c>
       <c r="W4" t="n">
-        <v>1324.1669921875</v>
+        <v>1525.967163085938</v>
       </c>
       <c r="X4" t="n">
-        <v>1335.727172851562</v>
+        <v>1556.013061523438</v>
       </c>
       <c r="Y4" t="n">
-        <v>1350.0888671875</v>
+        <v>1587.954956054688</v>
       </c>
       <c r="Z4" t="n">
-        <v>1362.977661132812</v>
+        <v>1617.484497070312</v>
       </c>
       <c r="AA4" t="n">
-        <v>1375.032592773438</v>
+        <v>1654.842529296875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1381.048828125</v>
+        <v>1683.541259765625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1361.907104492188</v>
+        <v>1706.646606445312</v>
       </c>
       <c r="AD4" t="n">
-        <v>1340.829467773438</v>
+        <v>1747.598754882812</v>
       </c>
       <c r="AE4" t="n">
-        <v>1332.93896484375</v>
+        <v>1779.59423828125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1324.651245117188</v>
+        <v>1796.276611328125</v>
       </c>
       <c r="AG4" t="n">
-        <v>1317.11328125</v>
+        <v>1813.505737304688</v>
       </c>
       <c r="AH4" t="n">
-        <v>1315.56201171875</v>
+        <v>1831.178955078125</v>
       </c>
       <c r="AI4" t="n">
-        <v>1312.90869140625</v>
+        <v>1847.82080078125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1309.55029296875</v>
+        <v>1876.956665039062</v>
       </c>
       <c r="AK4" t="n">
-        <v>1304.44384765625</v>
+        <v>1889.697143554688</v>
       </c>
       <c r="AL4" t="n">
-        <v>1299.617797851562</v>
+        <v>1901.971435546875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1293.191650390625</v>
+        <v>1911.241455078125</v>
       </c>
       <c r="AN4" t="n">
-        <v>1288.18359375</v>
+        <v>1921.217529296875</v>
       </c>
       <c r="AO4" t="n">
-        <v>1288.322998046875</v>
+        <v>1930.529174804688</v>
       </c>
       <c r="AP4" t="n">
-        <v>1288.176635742188</v>
+        <v>1932.893310546875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1287.782836914062</v>
+        <v>1935.433349609375</v>
       </c>
       <c r="AR4" t="n">
-        <v>1286.6953125</v>
+        <v>1937.488403320312</v>
       </c>
       <c r="AS4" t="n">
-        <v>1285.785766601562</v>
+        <v>1941.267456054688</v>
       </c>
       <c r="AT4" t="n">
-        <v>1281.715087890625</v>
+        <v>1944.747680664062</v>
       </c>
       <c r="AU4" t="n">
-        <v>1269.93115234375</v>
+        <v>1949.2333984375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1253.399536132812</v>
+        <v>1955.480834960938</v>
       </c>
       <c r="AW4" t="n">
-        <v>1246.228637695312</v>
+        <v>1961.4306640625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1246.014526367188</v>
+        <v>1962.1787109375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1247.885131835938</v>
+        <v>1964.444458007812</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1252.69677734375</v>
+        <v>1968.501831054688</v>
       </c>
       <c r="BA4" t="n">
-        <v>1262.174926757812</v>
+        <v>1973.334838867188</v>
       </c>
       <c r="BB4" t="n">
-        <v>1265.13330078125</v>
+        <v>1980.300659179688</v>
       </c>
       <c r="BC4" t="n">
-        <v>1266.336791992188</v>
+        <v>1987.583251953125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1266.637451171875</v>
+        <v>1988.235717773438</v>
       </c>
       <c r="BE4" t="n">
-        <v>1267.716064453125</v>
+        <v>1989.109375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1273.667358398438</v>
+        <v>1990.380493164062</v>
       </c>
       <c r="BG4" t="n">
-        <v>1290.781982421875</v>
+        <v>1991.881713867188</v>
       </c>
       <c r="BH4" t="n">
-        <v>1301.227905273438</v>
+        <v>1993.139770507812</v>
       </c>
       <c r="BI4" t="n">
-        <v>1302.346923828125</v>
+        <v>1994.360595703125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1300.5087890625</v>
+        <v>1995.958740234375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1296.869995117188</v>
+        <v>1997.363037109375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1292.60302734375</v>
+        <v>1996.7294921875</v>
       </c>
       <c r="BM4" t="n">
-        <v>1287.373657226562</v>
+        <v>1995.951293945312</v>
       </c>
       <c r="BN4" t="n">
-        <v>1285.724609375</v>
+        <v>1994.634887695312</v>
       </c>
       <c r="BO4" t="n">
-        <v>1283.976318359375</v>
+        <v>1994.193725585938</v>
       </c>
       <c r="BP4" t="n">
-        <v>1283.92138671875</v>
+        <v>1993.646118164062</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1283.9296875</v>
+        <v>1992.935180664062</v>
       </c>
       <c r="BR4" t="n">
-        <v>1283.935180664062</v>
+        <v>1992.196655273438</v>
       </c>
       <c r="BS4" t="n">
-        <v>1283.858764648438</v>
+        <v>1991.503784179688</v>
       </c>
       <c r="BT4" t="n">
-        <v>1283.97314453125</v>
+        <v>1990.625366210938</v>
       </c>
       <c r="BU4" t="n">
-        <v>1284.005126953125</v>
+        <v>1989.267456054688</v>
       </c>
       <c r="BV4" t="n">
-        <v>1284.08740234375</v>
+        <v>1987.609497070312</v>
       </c>
       <c r="BW4" t="n">
-        <v>1284.256469726562</v>
+        <v>1985.578247070312</v>
       </c>
       <c r="BX4" t="n">
-        <v>1284.897705078125</v>
+        <v>1983.193725585938</v>
       </c>
       <c r="BY4" t="n">
-        <v>1285.627807617188</v>
+        <v>1980.194091796875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1286.701171875</v>
+        <v>1976.94873046875</v>
       </c>
       <c r="CA4" t="n">
-        <v>1287.846923828125</v>
+        <v>1974.580444335938</v>
       </c>
       <c r="CB4" t="n">
-        <v>1289.061157226562</v>
+        <v>1974.597290039062</v>
       </c>
       <c r="CC4" t="n">
-        <v>1289.783447265625</v>
+        <v>1974.4150390625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1289.66015625</v>
+        <v>1974.181030273438</v>
       </c>
       <c r="CE4" t="n">
-        <v>1289.551025390625</v>
+        <v>1973.990234375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1289.384521484375</v>
+        <v>1973.761352539062</v>
       </c>
       <c r="CG4" t="n">
-        <v>1289.143676757812</v>
+        <v>1973.512573242188</v>
       </c>
       <c r="CH4" t="n">
-        <v>1289.001708984375</v>
+        <v>1973.313110351562</v>
       </c>
       <c r="CI4" t="n">
-        <v>1288.677734375</v>
+        <v>1973.294799804688</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1288.501708984375</v>
+        <v>1973.215698242188</v>
       </c>
       <c r="CK4" t="n">
-        <v>1288.259521484375</v>
+        <v>1973.2021484375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1287.166748046875</v>
+        <v>1973.197021484375</v>
       </c>
       <c r="CM4" t="n">
-        <v>1286.759887695312</v>
+        <v>1972.991455078125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1286.905883789062</v>
+        <v>1972.86181640625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1286.83544921875</v>
+        <v>1972.812133789062</v>
       </c>
       <c r="CP4" t="n">
-        <v>1286.756103515625</v>
+        <v>1972.970947265625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1286.685302734375</v>
+        <v>1972.95068359375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1286.603393554688</v>
+        <v>1972.975830078125</v>
       </c>
       <c r="CS4" t="n">
-        <v>1286.561767578125</v>
+        <v>1972.81494140625</v>
       </c>
       <c r="CT4" t="n">
-        <v>1286.335815429688</v>
+        <v>1972.639892578125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1285.8193359375</v>
+        <v>1972.635864257812</v>
       </c>
       <c r="CV4" t="n">
-        <v>1285.08984375</v>
+        <v>1972.583862304688</v>
       </c>
       <c r="CW4" t="n">
-        <v>1284.509765625</v>
+        <v>1972.55859375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1284.353393554688</v>
+        <v>1972.540649414062</v>
       </c>
       <c r="CY4" t="n">
-        <v>1284.579345703125</v>
+        <v>1972.542724609375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1285.023681640625</v>
+        <v>1972.529663085938</v>
       </c>
       <c r="DA4" t="n">
-        <v>1285.96484375</v>
+        <v>1972.565063476562</v>
       </c>
       <c r="DB4" t="n">
-        <v>1288.058227539062</v>
+        <v>1972.842895507812</v>
       </c>
       <c r="DC4" t="n">
-        <v>1290.743774414062</v>
+        <v>1973.005615234375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1293.973754882812</v>
+        <v>1973.162353515625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1296.603271484375</v>
+        <v>1973.312133789062</v>
       </c>
       <c r="DF4" t="n">
-        <v>1300.43408203125</v>
+        <v>1973.443969726562</v>
       </c>
       <c r="DG4" t="n">
-        <v>1302.102783203125</v>
+        <v>1973.613891601562</v>
       </c>
       <c r="DH4" t="n">
-        <v>1302.7548828125</v>
+        <v>1973.818603515625</v>
       </c>
       <c r="DI4" t="n">
-        <v>1301.28125</v>
+        <v>1973.972412109375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1298.907348632812</v>
+        <v>1973.998291015625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1293.837158203125</v>
+        <v>1973.91552734375</v>
       </c>
       <c r="DL4" t="n">
-        <v>1277.173095703125</v>
+        <v>1973.853637695312</v>
       </c>
       <c r="DM4" t="n">
-        <v>1270.164428710938</v>
+        <v>1973.765625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1265.590209960938</v>
+        <v>1973.441162109375</v>
       </c>
       <c r="DO4" t="n">
-        <v>1263.916748046875</v>
+        <v>1973.291625976562</v>
       </c>
       <c r="DP4" t="n">
-        <v>1266.319946289062</v>
+        <v>1973.316772460938</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1267.208129882812</v>
+        <v>1973.430297851562</v>
       </c>
       <c r="DR4" t="n">
-        <v>1266.703735351562</v>
+        <v>1973.527465820312</v>
       </c>
       <c r="DS4" t="n">
-        <v>1267.494750976562</v>
+        <v>1973.3486328125</v>
       </c>
       <c r="DT4" t="n">
-        <v>1268.395751953125</v>
+        <v>1972.99853515625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1270.43115234375</v>
+        <v>1972.771728515625</v>
       </c>
       <c r="DV4" t="n">
-        <v>1286.14013671875</v>
+        <v>1972.458740234375</v>
       </c>
       <c r="DW4" t="n">
-        <v>1288.133178710938</v>
+        <v>1972.480590820312</v>
       </c>
       <c r="DX4" t="n">
-        <v>1286.684692382812</v>
+        <v>1972.508544921875</v>
       </c>
       <c r="DY4" t="n">
-        <v>1284.380493164062</v>
+        <v>1972.584106445312</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1275.588256835938</v>
+        <v>1972.646728515625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1269.016357421875</v>
+        <v>1972.766235351562</v>
       </c>
       <c r="EB4" t="n">
-        <v>1261.323974609375</v>
+        <v>1972.666015625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1257.459106445312</v>
+        <v>1972.6396484375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1253.817993164062</v>
+        <v>1972.727783203125</v>
       </c>
       <c r="EE4" t="n">
-        <v>1251.832641601562</v>
+        <v>1972.762573242188</v>
       </c>
       <c r="EF4" t="n">
-        <v>1248.793334960938</v>
+        <v>1972.797607421875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1240.973754882812</v>
+        <v>1972.8271484375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1240.46923828125</v>
+        <v>1972.85791015625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1240.277099609375</v>
+        <v>1972.876342773438</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1239.29443359375</v>
+        <v>1972.903198242188</v>
       </c>
       <c r="EK4" t="n">
-        <v>1235.520629882812</v>
+        <v>1972.785766601562</v>
       </c>
       <c r="EL4" t="n">
-        <v>1231.83544921875</v>
+        <v>1972.905029296875</v>
       </c>
       <c r="EM4" t="n">
-        <v>1211.583984375</v>
+        <v>1972.939453125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1194.362915039062</v>
+        <v>1972.879638671875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1163.870727539062</v>
+        <v>1972.848876953125</v>
       </c>
       <c r="EP4" t="n">
-        <v>1150.1279296875</v>
+        <v>1972.649169921875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1132.207641601562</v>
+        <v>1972.224731445312</v>
       </c>
       <c r="ER4" t="n">
-        <v>1131.436767578125</v>
+        <v>1972.244506835938</v>
       </c>
       <c r="ES4" t="n">
-        <v>1123.629516601562</v>
+        <v>1972.263793945312</v>
       </c>
       <c r="ET4" t="n">
-        <v>1112.66650390625</v>
+        <v>1972.045288085938</v>
       </c>
       <c r="EU4" t="n">
-        <v>1104.288452148438</v>
+        <v>1971.673828125</v>
       </c>
       <c r="EV4" t="n">
-        <v>1098.069458007812</v>
+        <v>1971.302490234375</v>
       </c>
       <c r="EW4" t="n">
-        <v>1084.758666992188</v>
+        <v>1970.10400390625</v>
       </c>
       <c r="EX4" t="n">
-        <v>1076.395751953125</v>
+        <v>1968.726318359375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1050.149536132812</v>
+        <v>1967.849853515625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1003.911865234375</v>
+        <v>1967.666381835938</v>
       </c>
       <c r="FA4" t="n">
-        <v>976.7182006835938</v>
+        <v>1967.111328125</v>
       </c>
       <c r="FB4" t="n">
-        <v>958.6126098632812</v>
+        <v>1968.2216796875</v>
       </c>
       <c r="FC4" t="n">
-        <v>933.604248046875</v>
+        <v>1968.305053710938</v>
       </c>
       <c r="FD4" t="n">
-        <v>916.0487060546875</v>
+        <v>1968.338256835938</v>
       </c>
       <c r="FE4" t="n">
-        <v>900.9074096679688</v>
+        <v>1968.352416992188</v>
       </c>
       <c r="FF4" t="n">
-        <v>895.2750244140625</v>
+        <v>1968.33349609375</v>
       </c>
       <c r="FG4" t="n">
-        <v>892.9979248046875</v>
+        <v>1968.310180664062</v>
       </c>
       <c r="FH4" t="n">
-        <v>903.6600952148438</v>
+        <v>1968.285888671875</v>
       </c>
       <c r="FI4" t="n">
-        <v>908.0089721679688</v>
+        <v>1968.263549804688</v>
       </c>
       <c r="FJ4" t="n">
-        <v>912.9945678710938</v>
+        <v>1968.302612304688</v>
       </c>
       <c r="FK4" t="n">
-        <v>907.6928100585938</v>
+        <v>1968.351928710938</v>
       </c>
       <c r="FL4" t="n">
-        <v>878.40625</v>
+        <v>1968.455444335938</v>
       </c>
       <c r="FM4" t="n">
-        <v>870.605712890625</v>
+        <v>1968.474853515625</v>
       </c>
       <c r="FN4" t="n">
-        <v>869.5809326171875</v>
+        <v>1968.660522460938</v>
       </c>
       <c r="FO4" t="n">
-        <v>866.7398681640625</v>
+        <v>1968.82666015625</v>
       </c>
       <c r="FP4" t="n">
-        <v>866.4505004882812</v>
+        <v>1969.06103515625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>858.4464721679688</v>
+        <v>1969.169067382812</v>
       </c>
       <c r="FR4" t="n">
-        <v>864.7928466796875</v>
+        <v>1969.173461914062</v>
       </c>
       <c r="FS4" t="n">
-        <v>884.5813598632812</v>
+        <v>1969.13232421875</v>
       </c>
       <c r="FT4" t="n">
-        <v>902.71240234375</v>
+        <v>1969.458374023438</v>
       </c>
       <c r="FU4" t="n">
-        <v>891.7111206054688</v>
+        <v>1970.408447265625</v>
       </c>
       <c r="FV4" t="n">
-        <v>870.4273681640625</v>
+        <v>1970.811279296875</v>
       </c>
       <c r="FW4" t="n">
-        <v>865.1555786132812</v>
+        <v>1971.508666992188</v>
       </c>
       <c r="FX4" t="n">
-        <v>869.537109375</v>
+        <v>1971.154541015625</v>
       </c>
       <c r="FY4" t="n">
-        <v>870.8694458007812</v>
+        <v>1970.36328125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>874.3450927734375</v>
+        <v>1970.263427734375</v>
       </c>
       <c r="GA4" t="n">
-        <v>884.3967895507812</v>
+        <v>1970.418212890625</v>
       </c>
       <c r="GB4" t="n">
-        <v>871.875244140625</v>
+        <v>1970.564208984375</v>
       </c>
       <c r="GC4" t="n">
-        <v>809.582763671875</v>
+        <v>1970.907836914062</v>
       </c>
       <c r="GD4" t="n">
-        <v>838.2713623046875</v>
+        <v>1971.087036132812</v>
       </c>
       <c r="GE4" t="n">
-        <v>824.1638793945312</v>
+        <v>1970.841186523438</v>
       </c>
       <c r="GF4" t="n">
-        <v>817.7162475585938</v>
+        <v>1970.373657226562</v>
       </c>
       <c r="GG4" t="n">
-        <v>833.0916137695312</v>
+        <v>1969.747314453125</v>
       </c>
       <c r="GH4" t="n">
-        <v>744.7943725585938</v>
+        <v>1968.392944335938</v>
       </c>
       <c r="GI4" t="n">
-        <v>714.414794921875</v>
+        <v>1967.24951171875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>779.4696655273438</v>
+        <v>1966.22998046875</v>
       </c>
       <c r="GK4" t="n">
-        <v>665.2694091796875</v>
+        <v>1965.2802734375</v>
       </c>
       <c r="GL4" t="n">
-        <v>686.2300415039062</v>
+        <v>1965.626098632812</v>
       </c>
       <c r="GM4" t="n">
-        <v>650.1651000976562</v>
+        <v>1966.557373046875</v>
       </c>
       <c r="GN4" t="n">
-        <v>700.0565185546875</v>
+        <v>1966.690551757812</v>
       </c>
       <c r="GO4" t="n">
-        <v>735.93115234375</v>
+        <v>1966.837768554688</v>
       </c>
       <c r="GP4" t="n">
-        <v>651.7312622070312</v>
+        <v>1966.9501953125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>656.8370971679688</v>
+        <v>1967.076293945312</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1967.0966796875</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1967.369262695312</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1967.265625</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1967.0810546875</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1966.8505859375</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1966.784790039062</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1966.762084960938</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1966.674072265625</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1966.76806640625</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1966.816162109375</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1966.793701171875</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1966.879150390625</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1966.89453125</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1966.792236328125</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1966.504638671875</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1965.8154296875</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1965.671630859375</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1966.079345703125</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1966.265380859375</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1966.185791015625</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1965.881103515625</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1965.706787109375</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1965.2119140625</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1964.66357421875</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1964.345703125</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1963.653930664062</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1963.76025390625</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1964.161499023438</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1964.985473632812</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1965.819702148438</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1966.3251953125</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1966.755981445312</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1966.596801757812</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1966.4462890625</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1966.268188476562</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1966.014404296875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1965.948852539062</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1965.837890625</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1965.868774414062</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1965.93896484375</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1965.986572265625</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1965.997680664062</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1965.988647460938</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1965.9775390625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1965.925903320312</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1965.86279296875</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1965.6953125</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1965.159301757812</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1964.721557617188</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1964.344970703125</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1964.406982421875</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1964.330444335938</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1964.345336914062</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1964.4267578125</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1964.480102539062</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1964.332641601562</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1964.393920898438</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1964.408325195312</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1964.387451171875</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>1964.540649414062</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1964.723510742188</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>1964.568969726562</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1964.139282226562</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1963.453491210938</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1962.7734375</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1961.767211914062</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1961.962036132812</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1961.948120117188</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1962.06591796875</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1962.227783203125</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1962.46484375</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1962.798950195312</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1963.257690429688</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1963.878173828125</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1963.891967773438</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1963.676391601562</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1963.419311523438</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1963.234252929688</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1962.75830078125</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1962.4228515625</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1962.224243164062</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1961.994506835938</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1961.450439453125</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1960.59814453125</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1957.25732421875</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1948.262939453125</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1935.7255859375</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1929.090209960938</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1924.891723632812</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1919.550415039062</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1906.980224609375</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1908.397216796875</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1913.263549804688</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1914.934326171875</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1907.691528320312</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1864.500854492188</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1834.99658203125</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1802.226440429688</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1756.13818359375</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1702.890014648438</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1652.849731445312</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1547.316650390625</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1480.156982421875</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1426.308349609375</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1374.71826171875</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1312.780639648438</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1268.422485351562</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1193.815307617188</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1142.239379882812</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1090.921630859375</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>1039.281982421875</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>1018.265563964844</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>997.4293823242188</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>958.8837890625</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>952.72509765625</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>939.7288818359375</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>933.9094848632812</v>
       </c>
     </row>
   </sheetData>

--- a/right_hip_Data.xlsx
+++ b/right_hip_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>305.3699951171875</v>
+        <v>233.1322631835938</v>
       </c>
       <c r="B2" t="n">
-        <v>271.8698120117188</v>
+        <v>236.4584655761719</v>
       </c>
       <c r="C2" t="n">
-        <v>278.2648315429688</v>
+        <v>239.9947509765625</v>
       </c>
       <c r="D2" t="n">
-        <v>285.5160217285156</v>
+        <v>242.9183197021484</v>
       </c>
       <c r="E2" t="n">
-        <v>281.4942932128906</v>
+        <v>245.7327423095703</v>
       </c>
       <c r="F2" t="n">
-        <v>279.0200500488281</v>
+        <v>248.4462280273438</v>
       </c>
       <c r="G2" t="n">
-        <v>280.0264587402344</v>
+        <v>250.4050598144531</v>
       </c>
       <c r="H2" t="n">
-        <v>281.4436950683594</v>
+        <v>253.5424041748047</v>
       </c>
       <c r="I2" t="n">
-        <v>284.0674133300781</v>
+        <v>256.0462036132812</v>
       </c>
       <c r="J2" t="n">
-        <v>283.0942077636719</v>
+        <v>257.8853149414062</v>
       </c>
       <c r="K2" t="n">
-        <v>284.5621948242188</v>
+        <v>258.6502990722656</v>
       </c>
       <c r="L2" t="n">
-        <v>288.3085021972656</v>
+        <v>258.5497131347656</v>
       </c>
       <c r="M2" t="n">
-        <v>291.4244384765625</v>
+        <v>255.9114074707031</v>
       </c>
       <c r="N2" t="n">
-        <v>292.8991394042969</v>
+        <v>254.5875549316406</v>
       </c>
       <c r="O2" t="n">
-        <v>294.5858154296875</v>
+        <v>254.3948669433594</v>
       </c>
       <c r="P2" t="n">
-        <v>295.9119873046875</v>
+        <v>255.3536071777344</v>
       </c>
       <c r="Q2" t="n">
-        <v>296.4253845214844</v>
+        <v>256.338134765625</v>
       </c>
       <c r="R2" t="n">
-        <v>296.8006591796875</v>
+        <v>257.5943603515625</v>
       </c>
       <c r="S2" t="n">
-        <v>296.2208251953125</v>
+        <v>259.5267333984375</v>
       </c>
       <c r="T2" t="n">
-        <v>295.8474426269531</v>
+        <v>261.5538024902344</v>
       </c>
       <c r="U2" t="n">
-        <v>295.4543762207031</v>
+        <v>263.4330749511719</v>
       </c>
       <c r="V2" t="n">
-        <v>295.0813903808594</v>
+        <v>264.2422485351562</v>
       </c>
       <c r="W2" t="n">
-        <v>295.1487121582031</v>
+        <v>264.8612060546875</v>
       </c>
       <c r="X2" t="n">
-        <v>294.8191528320312</v>
+        <v>266.1418151855469</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.9251708984375</v>
+        <v>268.7007141113281</v>
       </c>
       <c r="Z2" t="n">
-        <v>293.6051940917969</v>
+        <v>270.7382202148438</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.874267578125</v>
+        <v>272.45703125</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.6802673339844</v>
+        <v>275.5137329101562</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.2462463378906</v>
+        <v>280.1077270507812</v>
       </c>
       <c r="AD2" t="n">
-        <v>292.5642395019531</v>
+        <v>284.3885803222656</v>
       </c>
       <c r="AE2" t="n">
-        <v>292.2122497558594</v>
+        <v>286.0331115722656</v>
       </c>
       <c r="AF2" t="n">
-        <v>292.4495544433594</v>
+        <v>286.7160034179688</v>
       </c>
       <c r="AG2" t="n">
-        <v>292.7607421875</v>
+        <v>287.4454956054688</v>
       </c>
       <c r="AH2" t="n">
-        <v>294.1013488769531</v>
+        <v>288.3624267578125</v>
       </c>
       <c r="AI2" t="n">
-        <v>293.3421020507812</v>
+        <v>288.4235229492188</v>
       </c>
       <c r="AJ2" t="n">
-        <v>293.3069763183594</v>
+        <v>288.6922607421875</v>
       </c>
       <c r="AK2" t="n">
-        <v>293.4164733886719</v>
+        <v>288.3299865722656</v>
       </c>
       <c r="AL2" t="n">
-        <v>293.60400390625</v>
+        <v>288.2208862304688</v>
       </c>
       <c r="AM2" t="n">
-        <v>293.8449096679688</v>
+        <v>287.7885131835938</v>
       </c>
       <c r="AN2" t="n">
-        <v>294.0524291992188</v>
+        <v>287.3917236328125</v>
       </c>
       <c r="AO2" t="n">
-        <v>293.9945678710938</v>
+        <v>287.0949401855469</v>
       </c>
       <c r="AP2" t="n">
-        <v>293.9228820800781</v>
+        <v>286.8791809082031</v>
       </c>
       <c r="AQ2" t="n">
-        <v>295.0041809082031</v>
+        <v>286.6126098632812</v>
       </c>
       <c r="AR2" t="n">
-        <v>296.978759765625</v>
+        <v>287.13623046875</v>
       </c>
       <c r="AS2" t="n">
-        <v>298.9006958007812</v>
+        <v>286.5562133789062</v>
       </c>
       <c r="AT2" t="n">
-        <v>300.4784851074219</v>
+        <v>286.1190490722656</v>
       </c>
       <c r="AU2" t="n">
-        <v>301.4361572265625</v>
+        <v>285.9366455078125</v>
       </c>
       <c r="AV2" t="n">
-        <v>301.9656372070312</v>
+        <v>284.0599670410156</v>
       </c>
       <c r="AW2" t="n">
-        <v>302.3814697265625</v>
+        <v>284.2027282714844</v>
       </c>
       <c r="AX2" t="n">
-        <v>302.6437683105469</v>
+        <v>284.0338745117188</v>
       </c>
       <c r="AY2" t="n">
-        <v>302.7476806640625</v>
+        <v>283.1288452148438</v>
       </c>
       <c r="AZ2" t="n">
-        <v>302.8110961914062</v>
+        <v>282.6034545898438</v>
       </c>
       <c r="BA2" t="n">
-        <v>303.0262451171875</v>
+        <v>281.6372680664062</v>
       </c>
       <c r="BB2" t="n">
-        <v>303.4159545898438</v>
+        <v>282.0656433105469</v>
       </c>
       <c r="BC2" t="n">
-        <v>302.9712524414062</v>
+        <v>282.0347595214844</v>
       </c>
       <c r="BD2" t="n">
-        <v>303.2676391601562</v>
+        <v>282.3286437988281</v>
       </c>
       <c r="BE2" t="n">
-        <v>303.3371887207031</v>
+        <v>282.4197387695312</v>
       </c>
       <c r="BF2" t="n">
-        <v>303.3753051757812</v>
+        <v>282.3205871582031</v>
       </c>
       <c r="BG2" t="n">
-        <v>303.441650390625</v>
+        <v>282.5711059570312</v>
       </c>
       <c r="BH2" t="n">
-        <v>303.5079650878906</v>
+        <v>282.9855651855469</v>
       </c>
       <c r="BI2" t="n">
-        <v>303.7817687988281</v>
+        <v>283.5465698242188</v>
       </c>
       <c r="BJ2" t="n">
-        <v>304.0156555175781</v>
+        <v>284.7002258300781</v>
       </c>
       <c r="BK2" t="n">
-        <v>304.0438537597656</v>
+        <v>286.2740783691406</v>
       </c>
       <c r="BL2" t="n">
-        <v>303.7735290527344</v>
+        <v>288.0400085449219</v>
       </c>
       <c r="BM2" t="n">
-        <v>303.1695251464844</v>
+        <v>289.8014831542969</v>
       </c>
       <c r="BN2" t="n">
-        <v>302.5471496582031</v>
+        <v>291.1407775878906</v>
       </c>
       <c r="BO2" t="n">
-        <v>301.9658508300781</v>
+        <v>291.852783203125</v>
       </c>
       <c r="BP2" t="n">
-        <v>301.5702819824219</v>
+        <v>292.5419311523438</v>
       </c>
       <c r="BQ2" t="n">
-        <v>301.4625549316406</v>
+        <v>292.9437561035156</v>
       </c>
       <c r="BR2" t="n">
-        <v>301.3818054199219</v>
+        <v>292.141845703125</v>
       </c>
       <c r="BS2" t="n">
-        <v>301.3356323242188</v>
+        <v>292.6900329589844</v>
       </c>
       <c r="BT2" t="n">
-        <v>301.1775207519531</v>
+        <v>293.1922302246094</v>
       </c>
       <c r="BU2" t="n">
-        <v>301.0481567382812</v>
+        <v>293.6469116210938</v>
       </c>
       <c r="BV2" t="n">
-        <v>300.9954833984375</v>
+        <v>293.4072265625</v>
       </c>
       <c r="BW2" t="n">
-        <v>301.0224914550781</v>
+        <v>293.0352783203125</v>
       </c>
       <c r="BX2" t="n">
-        <v>301.0608215332031</v>
+        <v>292.4570617675781</v>
       </c>
       <c r="BY2" t="n">
-        <v>301.101806640625</v>
+        <v>292.5008544921875</v>
       </c>
       <c r="BZ2" t="n">
-        <v>301.1168823242188</v>
+        <v>292.4530334472656</v>
       </c>
       <c r="CA2" t="n">
-        <v>300.7715759277344</v>
+        <v>291.4072570800781</v>
       </c>
       <c r="CB2" t="n">
-        <v>300.5924682617188</v>
+        <v>290.4443054199219</v>
       </c>
       <c r="CC2" t="n">
-        <v>300.5143127441406</v>
+        <v>289.6525268554688</v>
       </c>
       <c r="CD2" t="n">
-        <v>300.3973083496094</v>
+        <v>288.6179504394531</v>
       </c>
       <c r="CE2" t="n">
-        <v>300.3102111816406</v>
+        <v>288.2451782226562</v>
       </c>
       <c r="CF2" t="n">
-        <v>300.2481384277344</v>
+        <v>287.8026733398438</v>
       </c>
       <c r="CG2" t="n">
-        <v>300.1863403320312</v>
+        <v>287.8456420898438</v>
       </c>
       <c r="CH2" t="n">
-        <v>300.1235046386719</v>
+        <v>287.6783447265625</v>
       </c>
       <c r="CI2" t="n">
-        <v>300.070068359375</v>
+        <v>287.5764465332031</v>
       </c>
       <c r="CJ2" t="n">
-        <v>299.9793395996094</v>
+        <v>287.4524536132812</v>
       </c>
       <c r="CK2" t="n">
-        <v>299.9390258789062</v>
+        <v>287.2015380859375</v>
       </c>
       <c r="CL2" t="n">
-        <v>299.90869140625</v>
+        <v>287.0758056640625</v>
       </c>
       <c r="CM2" t="n">
-        <v>299.6881713867188</v>
+        <v>286.9066772460938</v>
       </c>
       <c r="CN2" t="n">
-        <v>299.537353515625</v>
+        <v>286.7469177246094</v>
       </c>
       <c r="CO2" t="n">
-        <v>299.437255859375</v>
+        <v>286.5534057617188</v>
       </c>
       <c r="CP2" t="n">
-        <v>299.56982421875</v>
+        <v>286.2113037109375</v>
       </c>
       <c r="CQ2" t="n">
-        <v>299.5221557617188</v>
+        <v>286.1528015136719</v>
       </c>
       <c r="CR2" t="n">
-        <v>299.5168762207031</v>
+        <v>286.1003723144531</v>
       </c>
       <c r="CS2" t="n">
-        <v>299.4902038574219</v>
+        <v>285.9818115234375</v>
       </c>
       <c r="CT2" t="n">
-        <v>299.4190979003906</v>
+        <v>286.0178527832031</v>
       </c>
       <c r="CU2" t="n">
-        <v>299.3381958007812</v>
+        <v>285.9576110839844</v>
       </c>
       <c r="CV2" t="n">
-        <v>299.2445678710938</v>
+        <v>285.9358825683594</v>
       </c>
       <c r="CW2" t="n">
-        <v>299.1543273925781</v>
+        <v>285.8482971191406</v>
       </c>
       <c r="CX2" t="n">
-        <v>299.0588989257812</v>
+        <v>285.8008422851562</v>
       </c>
       <c r="CY2" t="n">
-        <v>298.9642639160156</v>
+        <v>285.7968139648438</v>
       </c>
       <c r="CZ2" t="n">
-        <v>298.8469848632812</v>
+        <v>285.8023071289062</v>
       </c>
       <c r="DA2" t="n">
-        <v>298.7518615722656</v>
+        <v>285.8090515136719</v>
       </c>
       <c r="DB2" t="n">
-        <v>298.7395935058594</v>
+        <v>285.6506042480469</v>
       </c>
       <c r="DC2" t="n">
-        <v>298.7585754394531</v>
+        <v>285.6581726074219</v>
       </c>
       <c r="DD2" t="n">
-        <v>298.7837524414062</v>
+        <v>285.6719970703125</v>
       </c>
       <c r="DE2" t="n">
-        <v>298.8081359863281</v>
+        <v>285.7411804199219</v>
       </c>
       <c r="DF2" t="n">
-        <v>298.8740539550781</v>
+        <v>285.7243041992188</v>
       </c>
       <c r="DG2" t="n">
-        <v>298.9021301269531</v>
+        <v>285.6796875</v>
       </c>
       <c r="DH2" t="n">
-        <v>298.88818359375</v>
+        <v>285.6550903320312</v>
       </c>
       <c r="DI2" t="n">
-        <v>298.8836059570312</v>
+        <v>285.6391906738281</v>
       </c>
       <c r="DJ2" t="n">
-        <v>298.8908386230469</v>
+        <v>285.6199951171875</v>
       </c>
       <c r="DK2" t="n">
-        <v>298.8677978515625</v>
+        <v>285.6184692382812</v>
       </c>
       <c r="DL2" t="n">
-        <v>298.7876281738281</v>
+        <v>285.6322326660156</v>
       </c>
       <c r="DM2" t="n">
-        <v>298.6824035644531</v>
+        <v>285.64208984375</v>
       </c>
       <c r="DN2" t="n">
-        <v>298.3591918945312</v>
+        <v>285.6313781738281</v>
       </c>
       <c r="DO2" t="n">
-        <v>298.1839599609375</v>
+        <v>285.6244201660156</v>
       </c>
       <c r="DP2" t="n">
-        <v>298.1937255859375</v>
+        <v>285.618896484375</v>
       </c>
       <c r="DQ2" t="n">
-        <v>298.2962951660156</v>
+        <v>285.6203002929688</v>
       </c>
       <c r="DR2" t="n">
-        <v>298.3999633789062</v>
+        <v>285.6266479492188</v>
       </c>
       <c r="DS2" t="n">
-        <v>298.1739196777344</v>
+        <v>285.6743469238281</v>
       </c>
       <c r="DT2" t="n">
-        <v>297.7129211425781</v>
+        <v>285.6889343261719</v>
       </c>
       <c r="DU2" t="n">
-        <v>297.5212097167969</v>
+        <v>285.6917114257812</v>
       </c>
       <c r="DV2" t="n">
-        <v>297.1746215820312</v>
+        <v>285.6176452636719</v>
       </c>
       <c r="DW2" t="n">
-        <v>297.010986328125</v>
+        <v>285.5924072265625</v>
       </c>
       <c r="DX2" t="n">
-        <v>296.8091735839844</v>
+        <v>285.582275390625</v>
       </c>
       <c r="DY2" t="n">
-        <v>296.4547119140625</v>
+        <v>285.5725708007812</v>
       </c>
       <c r="DZ2" t="n">
-        <v>296.2365417480469</v>
+        <v>285.5576171875</v>
       </c>
       <c r="EA2" t="n">
-        <v>295.7928466796875</v>
+        <v>285.5715942382812</v>
       </c>
       <c r="EB2" t="n">
-        <v>295.7491760253906</v>
+        <v>285.4850769042969</v>
       </c>
       <c r="EC2" t="n">
-        <v>295.6925964355469</v>
+        <v>285.4516296386719</v>
       </c>
       <c r="ED2" t="n">
-        <v>295.7023620605469</v>
+        <v>285.4672241210938</v>
       </c>
       <c r="EE2" t="n">
-        <v>295.6839904785156</v>
+        <v>285.5806579589844</v>
       </c>
       <c r="EF2" t="n">
-        <v>295.6580810546875</v>
+        <v>285.6318664550781</v>
       </c>
       <c r="EG2" t="n">
-        <v>295.6330871582031</v>
+        <v>285.6913146972656</v>
       </c>
       <c r="EH2" t="n">
-        <v>295.6051940917969</v>
+        <v>285.6121215820312</v>
       </c>
       <c r="EI2" t="n">
-        <v>295.5925903320312</v>
+        <v>285.6215515136719</v>
       </c>
       <c r="EJ2" t="n">
-        <v>295.5949096679688</v>
+        <v>285.5420837402344</v>
       </c>
       <c r="EK2" t="n">
-        <v>295.3464050292969</v>
+        <v>285.5099182128906</v>
       </c>
       <c r="EL2" t="n">
-        <v>295.4169616699219</v>
+        <v>285.5032653808594</v>
       </c>
       <c r="EM2" t="n">
-        <v>295.3213806152344</v>
+        <v>285.4943237304688</v>
       </c>
       <c r="EN2" t="n">
-        <v>295.3393249511719</v>
+        <v>285.4732971191406</v>
       </c>
       <c r="EO2" t="n">
-        <v>295.3056030273438</v>
+        <v>285.4539794921875</v>
       </c>
       <c r="EP2" t="n">
-        <v>295.089599609375</v>
+        <v>285.4395751953125</v>
       </c>
       <c r="EQ2" t="n">
-        <v>294.7086486816406</v>
+        <v>285.46484375</v>
       </c>
       <c r="ER2" t="n">
-        <v>294.6694030761719</v>
+        <v>285.4541320800781</v>
       </c>
       <c r="ES2" t="n">
-        <v>294.6938171386719</v>
+        <v>285.4448547363281</v>
       </c>
       <c r="ET2" t="n">
-        <v>294.7737426757812</v>
+        <v>285.4302062988281</v>
       </c>
       <c r="EU2" t="n">
-        <v>294.8125610351562</v>
+        <v>285.4151611328125</v>
       </c>
       <c r="EV2" t="n">
-        <v>294.846435546875</v>
+        <v>285.4366149902344</v>
       </c>
       <c r="EW2" t="n">
-        <v>294.9383850097656</v>
+        <v>285.4621887207031</v>
       </c>
       <c r="EX2" t="n">
-        <v>295.0415344238281</v>
+        <v>285.5369567871094</v>
       </c>
       <c r="EY2" t="n">
-        <v>295.0601806640625</v>
+        <v>285.6462097167969</v>
       </c>
       <c r="EZ2" t="n">
-        <v>295.1770324707031</v>
+        <v>285.7833557128906</v>
       </c>
       <c r="FA2" t="n">
-        <v>295.4563598632812</v>
+        <v>285.730712890625</v>
       </c>
       <c r="FB2" t="n">
-        <v>295.6655883789062</v>
+        <v>285.4533996582031</v>
       </c>
       <c r="FC2" t="n">
-        <v>295.7802124023438</v>
+        <v>285.4493713378906</v>
       </c>
       <c r="FD2" t="n">
-        <v>295.7611389160156</v>
+        <v>285.5290222167969</v>
       </c>
       <c r="FE2" t="n">
-        <v>295.7438049316406</v>
+        <v>285.6886901855469</v>
       </c>
       <c r="FF2" t="n">
-        <v>295.7081909179688</v>
+        <v>285.7133178710938</v>
       </c>
       <c r="FG2" t="n">
-        <v>295.6214294433594</v>
+        <v>285.7359313964844</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5687255859375</v>
+        <v>285.7554321289062</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.4275207519531</v>
+        <v>285.7457580566406</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.3087463378906</v>
+        <v>285.7190246582031</v>
       </c>
       <c r="FK2" t="n">
-        <v>295.2562561035156</v>
+        <v>285.6541442871094</v>
       </c>
       <c r="FL2" t="n">
-        <v>295.1543884277344</v>
+        <v>285.6710205078125</v>
       </c>
       <c r="FM2" t="n">
-        <v>295.0873107910156</v>
+        <v>285.7467346191406</v>
       </c>
       <c r="FN2" t="n">
-        <v>295.0331420898438</v>
+        <v>285.8572082519531</v>
       </c>
       <c r="FO2" t="n">
-        <v>295.0598449707031</v>
+        <v>286.1052856445312</v>
       </c>
       <c r="FP2" t="n">
-        <v>295.0849304199219</v>
+        <v>285.919189453125</v>
       </c>
       <c r="FQ2" t="n">
-        <v>295.088134765625</v>
+        <v>285.9910583496094</v>
       </c>
       <c r="FR2" t="n">
-        <v>295.1704711914062</v>
+        <v>286.0142517089844</v>
       </c>
       <c r="FS2" t="n">
-        <v>295.2117919921875</v>
+        <v>285.73486328125</v>
       </c>
       <c r="FT2" t="n">
-        <v>295.2449951171875</v>
+        <v>285.7232055664062</v>
       </c>
       <c r="FU2" t="n">
-        <v>295.287841796875</v>
+        <v>285.6383361816406</v>
       </c>
       <c r="FV2" t="n">
-        <v>295.3099365234375</v>
+        <v>285.6388244628906</v>
       </c>
       <c r="FW2" t="n">
-        <v>295.3512268066406</v>
+        <v>285.8578186035156</v>
       </c>
       <c r="FX2" t="n">
-        <v>295.3861999511719</v>
+        <v>285.8966674804688</v>
       </c>
       <c r="FY2" t="n">
-        <v>295.1979370117188</v>
+        <v>285.8965759277344</v>
       </c>
       <c r="FZ2" t="n">
-        <v>294.9542846679688</v>
+        <v>285.8827819824219</v>
       </c>
       <c r="GA2" t="n">
-        <v>295.00634765625</v>
+        <v>285.9073181152344</v>
       </c>
       <c r="GB2" t="n">
-        <v>295.1566772460938</v>
+        <v>285.9884948730469</v>
       </c>
       <c r="GC2" t="n">
-        <v>295.5475769042969</v>
+        <v>286.0486145019531</v>
       </c>
       <c r="GD2" t="n">
-        <v>295.7532958984375</v>
+        <v>286.0711975097656</v>
       </c>
       <c r="GE2" t="n">
-        <v>295.8246765136719</v>
+        <v>286.0892639160156</v>
       </c>
       <c r="GF2" t="n">
-        <v>295.7232666015625</v>
+        <v>285.9258422851562</v>
       </c>
       <c r="GG2" t="n">
-        <v>295.3616638183594</v>
+        <v>285.6506958007812</v>
       </c>
       <c r="GH2" t="n">
-        <v>294.550537109375</v>
+        <v>285.4981384277344</v>
       </c>
       <c r="GI2" t="n">
-        <v>293.8473815917969</v>
+        <v>285.3844909667969</v>
       </c>
       <c r="GJ2" t="n">
-        <v>293.4384155273438</v>
+        <v>285.2841186523438</v>
       </c>
       <c r="GK2" t="n">
-        <v>293.4114685058594</v>
+        <v>285.2308349609375</v>
       </c>
       <c r="GL2" t="n">
-        <v>293.4757995605469</v>
+        <v>285.0712280273438</v>
       </c>
       <c r="GM2" t="n">
-        <v>293.7867126464844</v>
+        <v>285.0689697265625</v>
       </c>
       <c r="GN2" t="n">
-        <v>293.8822937011719</v>
+        <v>285.09423828125</v>
       </c>
       <c r="GO2" t="n">
-        <v>293.9182434082031</v>
+        <v>285.1036987304688</v>
       </c>
       <c r="GP2" t="n">
-        <v>293.89013671875</v>
+        <v>285.0869750976562</v>
       </c>
       <c r="GQ2" t="n">
-        <v>293.9176025390625</v>
+        <v>285.1554565429688</v>
       </c>
       <c r="GR2" t="n">
-        <v>293.9282836914062</v>
+        <v>285.2106628417969</v>
       </c>
       <c r="GS2" t="n">
-        <v>294.1527099609375</v>
+        <v>285.2957458496094</v>
       </c>
       <c r="GT2" t="n">
-        <v>294.1168212890625</v>
+        <v>285.3421325683594</v>
       </c>
       <c r="GU2" t="n">
-        <v>293.9880981445312</v>
+        <v>285.3870239257812</v>
       </c>
       <c r="GV2" t="n">
-        <v>293.8272705078125</v>
+        <v>285.4230651855469</v>
       </c>
       <c r="GW2" t="n">
-        <v>293.7162475585938</v>
+        <v>285.4825744628906</v>
       </c>
       <c r="GX2" t="n">
-        <v>293.5789489746094</v>
+        <v>285.5752563476562</v>
       </c>
       <c r="GY2" t="n">
-        <v>293.4275817871094</v>
+        <v>285.7279052734375</v>
       </c>
       <c r="GZ2" t="n">
-        <v>293.4102783203125</v>
+        <v>285.8580627441406</v>
       </c>
       <c r="HA2" t="n">
-        <v>293.4049682617188</v>
+        <v>286.1350402832031</v>
       </c>
       <c r="HB2" t="n">
-        <v>293.3217468261719</v>
+        <v>286.4028625488281</v>
       </c>
       <c r="HC2" t="n">
-        <v>293.1858215332031</v>
+        <v>286.4794006347656</v>
       </c>
       <c r="HD2" t="n">
-        <v>293.0777282714844</v>
+        <v>286.5223083496094</v>
       </c>
       <c r="HE2" t="n">
-        <v>293.0066833496094</v>
+        <v>286.5532531738281</v>
       </c>
       <c r="HF2" t="n">
-        <v>292.7254333496094</v>
+        <v>286.5562744140625</v>
       </c>
       <c r="HG2" t="n">
-        <v>291.9642028808594</v>
+        <v>286.5564270019531</v>
       </c>
       <c r="HH2" t="n">
-        <v>291.8151550292969</v>
+        <v>286.5403747558594</v>
       </c>
       <c r="HI2" t="n">
-        <v>292.2920837402344</v>
+        <v>286.5216064453125</v>
       </c>
       <c r="HJ2" t="n">
-        <v>292.6760864257812</v>
+        <v>286.4896545410156</v>
       </c>
       <c r="HK2" t="n">
-        <v>292.8190307617188</v>
+        <v>286.4325561523438</v>
       </c>
       <c r="HL2" t="n">
-        <v>292.8579406738281</v>
+        <v>286.37451171875</v>
       </c>
       <c r="HM2" t="n">
-        <v>292.8711853027344</v>
+        <v>286.3190612792969</v>
       </c>
       <c r="HN2" t="n">
-        <v>292.8414001464844</v>
+        <v>286.3223876953125</v>
       </c>
       <c r="HO2" t="n">
-        <v>292.9107971191406</v>
+        <v>286.3251342773438</v>
       </c>
       <c r="HP2" t="n">
-        <v>293.0736083984375</v>
+        <v>286.3316345214844</v>
       </c>
       <c r="HQ2" t="n">
-        <v>293.2425842285156</v>
+        <v>286.3108520507812</v>
       </c>
       <c r="HR2" t="n">
-        <v>293.1921691894531</v>
+        <v>286.2093811035156</v>
       </c>
       <c r="HS2" t="n">
-        <v>293.2678527832031</v>
+        <v>286.15380859375</v>
       </c>
       <c r="HT2" t="n">
-        <v>293.4879455566406</v>
+        <v>286.0445251464844</v>
       </c>
       <c r="HU2" t="n">
-        <v>293.6601867675781</v>
+        <v>285.9382629394531</v>
       </c>
       <c r="HV2" t="n">
-        <v>293.59912109375</v>
+        <v>285.6130981445312</v>
       </c>
       <c r="HW2" t="n">
-        <v>293.4223022460938</v>
+        <v>285.5727233886719</v>
       </c>
       <c r="HX2" t="n">
-        <v>293.3135375976562</v>
+        <v>285.6610717773438</v>
       </c>
       <c r="HY2" t="n">
-        <v>293.1951293945312</v>
+        <v>285.6857604980469</v>
       </c>
       <c r="HZ2" t="n">
-        <v>293.0624389648438</v>
+        <v>285.6728820800781</v>
       </c>
       <c r="IA2" t="n">
-        <v>292.8328857421875</v>
+        <v>285.6901245117188</v>
       </c>
       <c r="IB2" t="n">
-        <v>292.7531433105469</v>
+        <v>285.7371520996094</v>
       </c>
       <c r="IC2" t="n">
-        <v>292.6487731933594</v>
+        <v>285.7464294433594</v>
       </c>
       <c r="ID2" t="n">
-        <v>292.6323547363281</v>
+        <v>286.1119384765625</v>
       </c>
       <c r="IE2" t="n">
-        <v>292.5916748046875</v>
+        <v>286.0689392089844</v>
       </c>
       <c r="IF2" t="n">
-        <v>292.5455017089844</v>
+        <v>286.2576293945312</v>
       </c>
       <c r="IG2" t="n">
-        <v>292.5109558105469</v>
+        <v>286.3568725585938</v>
       </c>
       <c r="IH2" t="n">
-        <v>292.491943359375</v>
+        <v>286.4207153320312</v>
       </c>
       <c r="II2" t="n">
-        <v>292.4730529785156</v>
+        <v>286.3785095214844</v>
       </c>
       <c r="IJ2" t="n">
-        <v>292.4466552734375</v>
+        <v>286.3330993652344</v>
       </c>
       <c r="IK2" t="n">
-        <v>292.4329833984375</v>
+        <v>286.1549377441406</v>
       </c>
       <c r="IL2" t="n">
-        <v>292.3977661132812</v>
+        <v>286.0122680664062</v>
       </c>
       <c r="IM2" t="n">
-        <v>292.2798767089844</v>
+        <v>285.8267822265625</v>
       </c>
       <c r="IN2" t="n">
-        <v>292.1198120117188</v>
+        <v>285.6048889160156</v>
       </c>
       <c r="IO2" t="n">
-        <v>291.8234252929688</v>
+        <v>285.4536437988281</v>
       </c>
       <c r="IP2" t="n">
-        <v>291.7490539550781</v>
+        <v>285.5798034667969</v>
       </c>
       <c r="IQ2" t="n">
-        <v>291.8119201660156</v>
+        <v>285.2124633789062</v>
       </c>
       <c r="IR2" t="n">
-        <v>291.8826904296875</v>
+        <v>285.27099609375</v>
       </c>
       <c r="IS2" t="n">
-        <v>292.0049743652344</v>
+        <v>285.2782897949219</v>
       </c>
       <c r="IT2" t="n">
-        <v>292.0594787597656</v>
+        <v>285.2687683105469</v>
       </c>
       <c r="IU2" t="n">
-        <v>292.0868225097656</v>
+        <v>285.2691345214844</v>
       </c>
       <c r="IV2" t="n">
-        <v>292.4109191894531</v>
+        <v>285.2877807617188</v>
       </c>
       <c r="IW2" t="n">
-        <v>292.5238952636719</v>
+        <v>285.3114013671875</v>
       </c>
       <c r="IX2" t="n">
-        <v>292.51513671875</v>
+        <v>285.3334045410156</v>
       </c>
       <c r="IY2" t="n">
-        <v>293.0351257324219</v>
+        <v>285.3263854980469</v>
       </c>
       <c r="IZ2" t="n">
-        <v>293.31640625</v>
+        <v>285.2613830566406</v>
       </c>
       <c r="JA2" t="n">
-        <v>293.43310546875</v>
+        <v>285.3167724609375</v>
       </c>
       <c r="JB2" t="n">
-        <v>293.5321044921875</v>
+        <v>285.4575805664062</v>
       </c>
       <c r="JC2" t="n">
-        <v>293.6216735839844</v>
+        <v>285.4919738769531</v>
       </c>
       <c r="JD2" t="n">
-        <v>293.6933288574219</v>
+        <v>285.3558654785156</v>
       </c>
       <c r="JE2" t="n">
-        <v>293.7162475585938</v>
+        <v>284.7247009277344</v>
       </c>
       <c r="JF2" t="n">
-        <v>293.6319580078125</v>
+        <v>284.7348022460938</v>
       </c>
       <c r="JG2" t="n">
-        <v>293.5312805175781</v>
+        <v>284.2075805664062</v>
       </c>
       <c r="JH2" t="n">
-        <v>293.3751220703125</v>
+        <v>284.7706604003906</v>
       </c>
       <c r="JI2" t="n">
-        <v>293.1614074707031</v>
+        <v>284.9759521484375</v>
       </c>
       <c r="JJ2" t="n">
-        <v>292.8791809082031</v>
+        <v>285.2300109863281</v>
       </c>
       <c r="JK2" t="n">
-        <v>292.5473022460938</v>
+        <v>285.4934692382812</v>
       </c>
       <c r="JL2" t="n">
-        <v>292.2563781738281</v>
+        <v>285.6841430664062</v>
       </c>
       <c r="JM2" t="n">
-        <v>291.9743957519531</v>
+        <v>285.723388671875</v>
       </c>
       <c r="JN2" t="n">
-        <v>291.6904296875</v>
+        <v>285.7437744140625</v>
       </c>
       <c r="JO2" t="n">
-        <v>291.4818115234375</v>
+        <v>285.6676025390625</v>
       </c>
       <c r="JP2" t="n">
-        <v>291.276611328125</v>
+        <v>285.6936950683594</v>
       </c>
       <c r="JQ2" t="n">
-        <v>291.1958618164062</v>
+        <v>285.8438720703125</v>
       </c>
       <c r="JR2" t="n">
-        <v>291.0115661621094</v>
+        <v>286.0347595214844</v>
       </c>
       <c r="JS2" t="n">
-        <v>290.6735534667969</v>
+        <v>285.9889831542969</v>
       </c>
       <c r="JT2" t="n">
-        <v>290.2613830566406</v>
+        <v>285.9886779785156</v>
       </c>
       <c r="JU2" t="n">
-        <v>290.4738159179688</v>
+        <v>285.8138122558594</v>
       </c>
       <c r="JV2" t="n">
-        <v>290.6410827636719</v>
+        <v>285.605224609375</v>
       </c>
       <c r="JW2" t="n">
-        <v>290.6799011230469</v>
+        <v>285.5182800292969</v>
       </c>
       <c r="JX2" t="n">
-        <v>290.3632202148438</v>
+        <v>285.447998046875</v>
       </c>
       <c r="JY2" t="n">
-        <v>290.3354187011719</v>
+        <v>285.3522338867188</v>
       </c>
       <c r="JZ2" t="n">
-        <v>290.4165649414062</v>
+        <v>285.2891235351562</v>
       </c>
       <c r="KA2" t="n">
-        <v>289.0009765625</v>
+        <v>285.2918395996094</v>
       </c>
       <c r="KB2" t="n">
-        <v>287.8799438476562</v>
+        <v>286.2890319824219</v>
       </c>
       <c r="KC2" t="n">
-        <v>287.4122924804688</v>
+        <v>289.6588439941406</v>
       </c>
       <c r="KD2" t="n">
-        <v>287.1276245117188</v>
+        <v>290.5286254882812</v>
       </c>
       <c r="KE2" t="n">
-        <v>287.0723571777344</v>
+        <v>290.6677551269531</v>
       </c>
       <c r="KF2" t="n">
-        <v>285.5875549316406</v>
+        <v>290.6910095214844</v>
       </c>
       <c r="KG2" t="n">
-        <v>279.3463745117188</v>
+        <v>290.7343139648438</v>
       </c>
       <c r="KH2" t="n">
-        <v>278.6513061523438</v>
+        <v>290.9195251464844</v>
       </c>
       <c r="KI2" t="n">
-        <v>278.8137817382812</v>
+        <v>291.1562194824219</v>
       </c>
       <c r="KJ2" t="n">
-        <v>281.5957641601562</v>
+        <v>291.3982238769531</v>
       </c>
       <c r="KK2" t="n">
-        <v>281.5464782714844</v>
+        <v>291.3201599121094</v>
       </c>
       <c r="KL2" t="n">
-        <v>282.4081726074219</v>
+        <v>291.2809143066406</v>
       </c>
       <c r="KM2" t="n">
-        <v>281.7797546386719</v>
+        <v>291.2810974121094</v>
       </c>
       <c r="KN2" t="n">
-        <v>282.055908203125</v>
+        <v>291.2127380371094</v>
       </c>
       <c r="KO2" t="n">
-        <v>288.4223937988281</v>
+        <v>291.418701171875</v>
       </c>
       <c r="KP2" t="n">
-        <v>288.8306274414062</v>
+        <v>294.52880859375</v>
       </c>
       <c r="KQ2" t="n">
-        <v>287.8971862792969</v>
+        <v>295.5172119140625</v>
       </c>
       <c r="KR2" t="n">
-        <v>286.7327880859375</v>
+        <v>295.8411254882812</v>
       </c>
       <c r="KS2" t="n">
-        <v>286.074951171875</v>
+        <v>296.6962280273438</v>
       </c>
       <c r="KT2" t="n">
-        <v>284.6455688476562</v>
+        <v>296.8157043457031</v>
       </c>
       <c r="KU2" t="n">
-        <v>282.724853515625</v>
+        <v>295.3876647949219</v>
       </c>
       <c r="KV2" t="n">
-        <v>279.9765625</v>
+        <v>293.2138366699219</v>
       </c>
       <c r="KW2" t="n">
-        <v>275.7536315917969</v>
+        <v>284.5237426757812</v>
       </c>
       <c r="KX2" t="n">
-        <v>264.0252380371094</v>
+        <v>279.8784790039062</v>
       </c>
       <c r="KY2" t="n">
-        <v>260.5419006347656</v>
+        <v>277.8855895996094</v>
       </c>
       <c r="KZ2" t="n">
-        <v>259.0625305175781</v>
+        <v>277.62060546875</v>
       </c>
       <c r="LA2" t="n">
-        <v>256.6521606445312</v>
+        <v>273.947265625</v>
       </c>
       <c r="LB2" t="n">
-        <v>255.2221374511719</v>
+        <v>274.2880859375</v>
       </c>
       <c r="LC2" t="n">
-        <v>252.1347961425781</v>
+        <v>272.6255493164062</v>
       </c>
       <c r="LD2" t="n">
-        <v>250.7671966552734</v>
+        <v>270.7858581542969</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>268.2514038085938</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>266.3863220214844</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>260.1981201171875</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>244.3577728271484</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>230.1541137695312</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>222.2039184570312</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>221.0135650634766</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>228.6642150878906</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>162.7739562988281</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>292.5065307617188</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>332.2750854492188</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>338.7296752929688</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>260.7614440917969</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>266.6966247558594</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>377.5238342285156</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>366.758056640625</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>207.21923828125</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>208.2052001953125</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>215.3511352539062</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>222.6365356445312</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>225.5694885253906</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>226.9483642578125</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>230.8370666503906</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>235.3043823242188</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>246.2904357910156</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>248.121337890625</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>264.7243347167969</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>253.1590270996094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>452.8317565917969</v>
+        <v>412.7398071289062</v>
       </c>
       <c r="B3" t="n">
-        <v>390.67529296875</v>
+        <v>394.3519287109375</v>
       </c>
       <c r="C3" t="n">
-        <v>381.3238220214844</v>
+        <v>389.9529418945312</v>
       </c>
       <c r="D3" t="n">
-        <v>383.8865661621094</v>
+        <v>386.0917053222656</v>
       </c>
       <c r="E3" t="n">
-        <v>386.0821228027344</v>
+        <v>381.3358154296875</v>
       </c>
       <c r="F3" t="n">
-        <v>385.2073364257812</v>
+        <v>377.367919921875</v>
       </c>
       <c r="G3" t="n">
-        <v>390.1441650390625</v>
+        <v>375.5635986328125</v>
       </c>
       <c r="H3" t="n">
-        <v>392.196533203125</v>
+        <v>376.2885131835938</v>
       </c>
       <c r="I3" t="n">
-        <v>396.8871765136719</v>
+        <v>373.0760803222656</v>
       </c>
       <c r="J3" t="n">
-        <v>389.1491394042969</v>
+        <v>369.0531005859375</v>
       </c>
       <c r="K3" t="n">
-        <v>384.8861999511719</v>
+        <v>365.3325805664062</v>
       </c>
       <c r="L3" t="n">
-        <v>382.9533996582031</v>
+        <v>362.2536010742188</v>
       </c>
       <c r="M3" t="n">
-        <v>385.3002624511719</v>
+        <v>358.882080078125</v>
       </c>
       <c r="N3" t="n">
-        <v>382.6386108398438</v>
+        <v>355.4854736328125</v>
       </c>
       <c r="O3" t="n">
-        <v>381.5186157226562</v>
+        <v>353.5154418945312</v>
       </c>
       <c r="P3" t="n">
-        <v>380.2329711914062</v>
+        <v>351.3368225097656</v>
       </c>
       <c r="Q3" t="n">
-        <v>375.4827880859375</v>
+        <v>349.9364013671875</v>
       </c>
       <c r="R3" t="n">
-        <v>369.4612731933594</v>
+        <v>349.5173645019531</v>
       </c>
       <c r="S3" t="n">
-        <v>365.1817321777344</v>
+        <v>348.9649047851562</v>
       </c>
       <c r="T3" t="n">
-        <v>362.9678955078125</v>
+        <v>350.8638305664062</v>
       </c>
       <c r="U3" t="n">
-        <v>361.8207092285156</v>
+        <v>351.8751220703125</v>
       </c>
       <c r="V3" t="n">
-        <v>362.1061401367188</v>
+        <v>350.1764221191406</v>
       </c>
       <c r="W3" t="n">
-        <v>366.4015808105469</v>
+        <v>350.0509643554688</v>
       </c>
       <c r="X3" t="n">
-        <v>368.0589294433594</v>
+        <v>350.7965698242188</v>
       </c>
       <c r="Y3" t="n">
-        <v>367.0712585449219</v>
+        <v>352.4618530273438</v>
       </c>
       <c r="Z3" t="n">
-        <v>369.1605529785156</v>
+        <v>352.3556823730469</v>
       </c>
       <c r="AA3" t="n">
-        <v>371.3559875488281</v>
+        <v>349.4135131835938</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.4161071777344</v>
+        <v>346.2526245117188</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.3744201660156</v>
+        <v>342.7847900390625</v>
       </c>
       <c r="AD3" t="n">
-        <v>369.4945678710938</v>
+        <v>340.5687561035156</v>
       </c>
       <c r="AE3" t="n">
-        <v>368.7088928222656</v>
+        <v>336.9783020019531</v>
       </c>
       <c r="AF3" t="n">
-        <v>369.3431701660156</v>
+        <v>332.3309326171875</v>
       </c>
       <c r="AG3" t="n">
-        <v>369.3789367675781</v>
+        <v>327.2246704101562</v>
       </c>
       <c r="AH3" t="n">
-        <v>371.8685913085938</v>
+        <v>324.849853515625</v>
       </c>
       <c r="AI3" t="n">
-        <v>370.2575988769531</v>
+        <v>322.6796875</v>
       </c>
       <c r="AJ3" t="n">
-        <v>368.6573791503906</v>
+        <v>321.6649780273438</v>
       </c>
       <c r="AK3" t="n">
-        <v>367.8565063476562</v>
+        <v>321.1677856445312</v>
       </c>
       <c r="AL3" t="n">
-        <v>367.1769409179688</v>
+        <v>320.0615234375</v>
       </c>
       <c r="AM3" t="n">
-        <v>366.8110046386719</v>
+        <v>319.2767028808594</v>
       </c>
       <c r="AN3" t="n">
-        <v>366.4276123046875</v>
+        <v>318.6913757324219</v>
       </c>
       <c r="AO3" t="n">
-        <v>366.5031127929688</v>
+        <v>317.991943359375</v>
       </c>
       <c r="AP3" t="n">
-        <v>367.6979064941406</v>
+        <v>317.8760986328125</v>
       </c>
       <c r="AQ3" t="n">
-        <v>369.7218017578125</v>
+        <v>319.0360412597656</v>
       </c>
       <c r="AR3" t="n">
-        <v>371.1887817382812</v>
+        <v>321.4027709960938</v>
       </c>
       <c r="AS3" t="n">
-        <v>370.9328002929688</v>
+        <v>321.9318237304688</v>
       </c>
       <c r="AT3" t="n">
-        <v>370.4649353027344</v>
+        <v>322.8069763183594</v>
       </c>
       <c r="AU3" t="n">
-        <v>369.981201171875</v>
+        <v>323.5674438476562</v>
       </c>
       <c r="AV3" t="n">
-        <v>369.4697265625</v>
+        <v>321.9982604980469</v>
       </c>
       <c r="AW3" t="n">
-        <v>369.0775756835938</v>
+        <v>321.9104919433594</v>
       </c>
       <c r="AX3" t="n">
-        <v>369.1176147460938</v>
+        <v>321.3007202148438</v>
       </c>
       <c r="AY3" t="n">
-        <v>369.2516479492188</v>
+        <v>320.6370544433594</v>
       </c>
       <c r="AZ3" t="n">
-        <v>369.0914001464844</v>
+        <v>319.6399841308594</v>
       </c>
       <c r="BA3" t="n">
-        <v>369.4225463867188</v>
+        <v>318.7760009765625</v>
       </c>
       <c r="BB3" t="n">
-        <v>370.1456298828125</v>
+        <v>318.428955078125</v>
       </c>
       <c r="BC3" t="n">
-        <v>368.6253967285156</v>
+        <v>318.1141052246094</v>
       </c>
       <c r="BD3" t="n">
-        <v>369.1477966308594</v>
+        <v>317.51513671875</v>
       </c>
       <c r="BE3" t="n">
-        <v>369.0299377441406</v>
+        <v>317.0591735839844</v>
       </c>
       <c r="BF3" t="n">
-        <v>368.8874816894531</v>
+        <v>317.0656127929688</v>
       </c>
       <c r="BG3" t="n">
-        <v>368.8592529296875</v>
+        <v>316.6396484375</v>
       </c>
       <c r="BH3" t="n">
-        <v>368.8202514648438</v>
+        <v>315.6525268554688</v>
       </c>
       <c r="BI3" t="n">
-        <v>369.4055786132812</v>
+        <v>314.1714172363281</v>
       </c>
       <c r="BJ3" t="n">
-        <v>369.8360900878906</v>
+        <v>313.3640441894531</v>
       </c>
       <c r="BK3" t="n">
-        <v>369.808349609375</v>
+        <v>312.5077819824219</v>
       </c>
       <c r="BL3" t="n">
-        <v>370.1841430664062</v>
+        <v>312.2960510253906</v>
       </c>
       <c r="BM3" t="n">
-        <v>370.3821105957031</v>
+        <v>312.7128295898438</v>
       </c>
       <c r="BN3" t="n">
-        <v>370.6640014648438</v>
+        <v>312.9532470703125</v>
       </c>
       <c r="BO3" t="n">
-        <v>370.6886901855469</v>
+        <v>312.7119445800781</v>
       </c>
       <c r="BP3" t="n">
-        <v>370.5118713378906</v>
+        <v>312.2859191894531</v>
       </c>
       <c r="BQ3" t="n">
-        <v>370.75634765625</v>
+        <v>311.1596374511719</v>
       </c>
       <c r="BR3" t="n">
-        <v>370.785888671875</v>
+        <v>307.8082885742188</v>
       </c>
       <c r="BS3" t="n">
-        <v>370.90283203125</v>
+        <v>306.8635864257812</v>
       </c>
       <c r="BT3" t="n">
-        <v>370.8252868652344</v>
+        <v>307.1488952636719</v>
       </c>
       <c r="BU3" t="n">
-        <v>370.8128051757812</v>
+        <v>307.8974609375</v>
       </c>
       <c r="BV3" t="n">
-        <v>370.9519653320312</v>
+        <v>308.1406860351562</v>
       </c>
       <c r="BW3" t="n">
-        <v>371.19287109375</v>
+        <v>308.6517944335938</v>
       </c>
       <c r="BX3" t="n">
-        <v>371.5248107910156</v>
+        <v>310.1079711914062</v>
       </c>
       <c r="BY3" t="n">
-        <v>371.94775390625</v>
+        <v>312.6214599609375</v>
       </c>
       <c r="BZ3" t="n">
-        <v>372.3717041015625</v>
+        <v>314.4061584472656</v>
       </c>
       <c r="CA3" t="n">
-        <v>372.9856567382812</v>
+        <v>314.1829528808594</v>
       </c>
       <c r="CB3" t="n">
-        <v>373.0010070800781</v>
+        <v>315.016357421875</v>
       </c>
       <c r="CC3" t="n">
-        <v>373.0653076171875</v>
+        <v>315.2340698242188</v>
       </c>
       <c r="CD3" t="n">
-        <v>373.1218872070312</v>
+        <v>315.0332641601562</v>
       </c>
       <c r="CE3" t="n">
-        <v>373.1596984863281</v>
+        <v>314.54833984375</v>
       </c>
       <c r="CF3" t="n">
-        <v>373.1904907226562</v>
+        <v>313.9830017089844</v>
       </c>
       <c r="CG3" t="n">
-        <v>373.19580078125</v>
+        <v>314.3641662597656</v>
       </c>
       <c r="CH3" t="n">
-        <v>373.1860046386719</v>
+        <v>314.3248901367188</v>
       </c>
       <c r="CI3" t="n">
-        <v>373.1592102050781</v>
+        <v>314.3921813964844</v>
       </c>
       <c r="CJ3" t="n">
-        <v>373.0444641113281</v>
+        <v>314.4717102050781</v>
       </c>
       <c r="CK3" t="n">
-        <v>373.0153503417969</v>
+        <v>314.61474609375</v>
       </c>
       <c r="CL3" t="n">
-        <v>372.9811096191406</v>
+        <v>314.6659240722656</v>
       </c>
       <c r="CM3" t="n">
-        <v>372.5324401855469</v>
+        <v>314.6434936523438</v>
       </c>
       <c r="CN3" t="n">
-        <v>372.1651916503906</v>
+        <v>314.589599609375</v>
       </c>
       <c r="CO3" t="n">
-        <v>371.8601379394531</v>
+        <v>314.5102844238281</v>
       </c>
       <c r="CP3" t="n">
-        <v>372.1103210449219</v>
+        <v>314.2135925292969</v>
       </c>
       <c r="CQ3" t="n">
-        <v>371.9903259277344</v>
+        <v>314.2004699707031</v>
       </c>
       <c r="CR3" t="n">
-        <v>371.9819946289062</v>
+        <v>314.1666870117188</v>
       </c>
       <c r="CS3" t="n">
-        <v>372.0043334960938</v>
+        <v>313.8768615722656</v>
       </c>
       <c r="CT3" t="n">
-        <v>372.0433349609375</v>
+        <v>314.0067749023438</v>
       </c>
       <c r="CU3" t="n">
-        <v>372.0859069824219</v>
+        <v>313.9902648925781</v>
       </c>
       <c r="CV3" t="n">
-        <v>372.196533203125</v>
+        <v>313.9969787597656</v>
       </c>
       <c r="CW3" t="n">
-        <v>372.3128051757812</v>
+        <v>313.904541015625</v>
       </c>
       <c r="CX3" t="n">
-        <v>372.4267272949219</v>
+        <v>313.8379516601562</v>
       </c>
       <c r="CY3" t="n">
-        <v>372.4070129394531</v>
+        <v>313.8682250976562</v>
       </c>
       <c r="CZ3" t="n">
-        <v>372.5091247558594</v>
+        <v>313.9517822265625</v>
       </c>
       <c r="DA3" t="n">
-        <v>372.5784301757812</v>
+        <v>313.990234375</v>
       </c>
       <c r="DB3" t="n">
-        <v>372.4759521484375</v>
+        <v>313.6690063476562</v>
       </c>
       <c r="DC3" t="n">
-        <v>372.4411926269531</v>
+        <v>313.6754760742188</v>
       </c>
       <c r="DD3" t="n">
-        <v>372.5555725097656</v>
+        <v>313.6967468261719</v>
       </c>
       <c r="DE3" t="n">
-        <v>372.648681640625</v>
+        <v>313.8949890136719</v>
       </c>
       <c r="DF3" t="n">
-        <v>372.7241516113281</v>
+        <v>313.8872680664062</v>
       </c>
       <c r="DG3" t="n">
-        <v>372.6134643554688</v>
+        <v>313.9181213378906</v>
       </c>
       <c r="DH3" t="n">
-        <v>372.5299682617188</v>
+        <v>313.9506225585938</v>
       </c>
       <c r="DI3" t="n">
-        <v>372.4738159179688</v>
+        <v>314.0821838378906</v>
       </c>
       <c r="DJ3" t="n">
-        <v>372.4851989746094</v>
+        <v>314.0625610351562</v>
       </c>
       <c r="DK3" t="n">
-        <v>372.6509094238281</v>
+        <v>314.119384765625</v>
       </c>
       <c r="DL3" t="n">
-        <v>372.9676208496094</v>
+        <v>314.1547241210938</v>
       </c>
       <c r="DM3" t="n">
-        <v>373.1747741699219</v>
+        <v>314.1815185546875</v>
       </c>
       <c r="DN3" t="n">
-        <v>373.5317993164062</v>
+        <v>314.1976318359375</v>
       </c>
       <c r="DO3" t="n">
-        <v>373.5707092285156</v>
+        <v>314.2009887695312</v>
       </c>
       <c r="DP3" t="n">
-        <v>373.3327026367188</v>
+        <v>314.2037658691406</v>
       </c>
       <c r="DQ3" t="n">
-        <v>373.2489013671875</v>
+        <v>314.1900329589844</v>
       </c>
       <c r="DR3" t="n">
-        <v>373.1465759277344</v>
+        <v>314.1733703613281</v>
       </c>
       <c r="DS3" t="n">
-        <v>373.380126953125</v>
+        <v>314.2142944335938</v>
       </c>
       <c r="DT3" t="n">
-        <v>373.8325500488281</v>
+        <v>314.2767639160156</v>
       </c>
       <c r="DU3" t="n">
-        <v>374.040771484375</v>
+        <v>314.3384094238281</v>
       </c>
       <c r="DV3" t="n">
-        <v>373.9628601074219</v>
+        <v>314.3202209472656</v>
       </c>
       <c r="DW3" t="n">
-        <v>373.9847412109375</v>
+        <v>314.3717346191406</v>
       </c>
       <c r="DX3" t="n">
-        <v>374.0429077148438</v>
+        <v>314.3955078125</v>
       </c>
       <c r="DY3" t="n">
-        <v>373.9505004882812</v>
+        <v>314.4234619140625</v>
       </c>
       <c r="DZ3" t="n">
-        <v>373.9125366210938</v>
+        <v>314.4691162109375</v>
       </c>
       <c r="EA3" t="n">
-        <v>373.8490295410156</v>
+        <v>314.5610046386719</v>
       </c>
       <c r="EB3" t="n">
-        <v>373.9085998535156</v>
+        <v>314.7846069335938</v>
       </c>
       <c r="EC3" t="n">
-        <v>373.9224243164062</v>
+        <v>314.7162780761719</v>
       </c>
       <c r="ED3" t="n">
-        <v>373.8932495117188</v>
+        <v>314.6076354980469</v>
       </c>
       <c r="EE3" t="n">
-        <v>373.8882141113281</v>
+        <v>314.4910278320312</v>
       </c>
       <c r="EF3" t="n">
-        <v>373.9052429199219</v>
+        <v>314.413330078125</v>
       </c>
       <c r="EG3" t="n">
-        <v>373.9130554199219</v>
+        <v>314.2087097167969</v>
       </c>
       <c r="EH3" t="n">
-        <v>373.9255676269531</v>
+        <v>314.087646484375</v>
       </c>
       <c r="EI3" t="n">
-        <v>374.0291442871094</v>
+        <v>314.2113647460938</v>
       </c>
       <c r="EJ3" t="n">
-        <v>374.1008605957031</v>
+        <v>314.2407531738281</v>
       </c>
       <c r="EK3" t="n">
-        <v>373.6696166992188</v>
+        <v>314.2339172363281</v>
       </c>
       <c r="EL3" t="n">
-        <v>373.8481750488281</v>
+        <v>314.2440795898438</v>
       </c>
       <c r="EM3" t="n">
-        <v>373.7222900390625</v>
+        <v>314.2752990722656</v>
       </c>
       <c r="EN3" t="n">
-        <v>373.7974243164062</v>
+        <v>314.2835998535156</v>
       </c>
       <c r="EO3" t="n">
-        <v>373.8407897949219</v>
+        <v>314.3316345214844</v>
       </c>
       <c r="EP3" t="n">
-        <v>374.0194702148438</v>
+        <v>314.3701477050781</v>
       </c>
       <c r="EQ3" t="n">
-        <v>374.3385009765625</v>
+        <v>314.4341125488281</v>
       </c>
       <c r="ER3" t="n">
-        <v>374.4805908203125</v>
+        <v>314.4341735839844</v>
       </c>
       <c r="ES3" t="n">
-        <v>374.4307250976562</v>
+        <v>314.4404602050781</v>
       </c>
       <c r="ET3" t="n">
-        <v>374.4424133300781</v>
+        <v>314.4431457519531</v>
       </c>
       <c r="EU3" t="n">
-        <v>374.4835815429688</v>
+        <v>314.4352416992188</v>
       </c>
       <c r="EV3" t="n">
-        <v>374.5201721191406</v>
+        <v>314.4132690429688</v>
       </c>
       <c r="EW3" t="n">
-        <v>374.7363891601562</v>
+        <v>314.4050598144531</v>
       </c>
       <c r="EX3" t="n">
-        <v>375.0332641601562</v>
+        <v>314.4418334960938</v>
       </c>
       <c r="EY3" t="n">
-        <v>374.9579772949219</v>
+        <v>314.6307983398438</v>
       </c>
       <c r="EZ3" t="n">
-        <v>374.7958984375</v>
+        <v>314.9024047851562</v>
       </c>
       <c r="FA3" t="n">
-        <v>374.60791015625</v>
+        <v>314.8538513183594</v>
       </c>
       <c r="FB3" t="n">
-        <v>374.3851318359375</v>
+        <v>314.3067321777344</v>
       </c>
       <c r="FC3" t="n">
-        <v>374.3229675292969</v>
+        <v>314.1965637207031</v>
       </c>
       <c r="FD3" t="n">
-        <v>374.3464050292969</v>
+        <v>314.3039855957031</v>
       </c>
       <c r="FE3" t="n">
-        <v>374.3615417480469</v>
+        <v>314.5275573730469</v>
       </c>
       <c r="FF3" t="n">
-        <v>374.3883361816406</v>
+        <v>314.4983825683594</v>
       </c>
       <c r="FG3" t="n">
-        <v>374.4331665039062</v>
+        <v>314.5044250488281</v>
       </c>
       <c r="FH3" t="n">
-        <v>374.4488220214844</v>
+        <v>314.5322265625</v>
       </c>
       <c r="FI3" t="n">
-        <v>374.403076171875</v>
+        <v>314.505859375</v>
       </c>
       <c r="FJ3" t="n">
-        <v>374.3777465820312</v>
+        <v>314.4500732421875</v>
       </c>
       <c r="FK3" t="n">
-        <v>374.3373718261719</v>
+        <v>314.3309631347656</v>
       </c>
       <c r="FL3" t="n">
-        <v>374.1777954101562</v>
+        <v>314.3569641113281</v>
       </c>
       <c r="FM3" t="n">
-        <v>374.0250244140625</v>
+        <v>314.5325927734375</v>
       </c>
       <c r="FN3" t="n">
-        <v>373.8125</v>
+        <v>314.76513671875</v>
       </c>
       <c r="FO3" t="n">
-        <v>373.7994995117188</v>
+        <v>315.2198486328125</v>
       </c>
       <c r="FP3" t="n">
-        <v>373.7415771484375</v>
+        <v>314.9024047851562</v>
       </c>
       <c r="FQ3" t="n">
-        <v>373.6878967285156</v>
+        <v>315.1028442382812</v>
       </c>
       <c r="FR3" t="n">
-        <v>373.7145690917969</v>
+        <v>315.2767639160156</v>
       </c>
       <c r="FS3" t="n">
-        <v>373.7499694824219</v>
+        <v>314.9141540527344</v>
       </c>
       <c r="FT3" t="n">
-        <v>373.6846008300781</v>
+        <v>315.0306396484375</v>
       </c>
       <c r="FU3" t="n">
-        <v>373.5877685546875</v>
+        <v>315.1348266601562</v>
       </c>
       <c r="FV3" t="n">
-        <v>373.5486755371094</v>
+        <v>315.1354370117188</v>
       </c>
       <c r="FW3" t="n">
-        <v>373.4740600585938</v>
+        <v>314.9603271484375</v>
       </c>
       <c r="FX3" t="n">
-        <v>373.4915161132812</v>
+        <v>314.9481811523438</v>
       </c>
       <c r="FY3" t="n">
-        <v>374.3488159179688</v>
+        <v>314.9515075683594</v>
       </c>
       <c r="FZ3" t="n">
-        <v>374.5639343261719</v>
+        <v>314.8426513671875</v>
       </c>
       <c r="GA3" t="n">
-        <v>375.1112976074219</v>
+        <v>314.7777709960938</v>
       </c>
       <c r="GB3" t="n">
-        <v>374.866943359375</v>
+        <v>314.6944580078125</v>
       </c>
       <c r="GC3" t="n">
-        <v>374.2198486328125</v>
+        <v>314.668212890625</v>
       </c>
       <c r="GD3" t="n">
-        <v>373.7861938476562</v>
+        <v>314.6454467773438</v>
       </c>
       <c r="GE3" t="n">
-        <v>373.7430725097656</v>
+        <v>314.6443786621094</v>
       </c>
       <c r="GF3" t="n">
-        <v>373.7699584960938</v>
+        <v>314.7313232421875</v>
       </c>
       <c r="GG3" t="n">
-        <v>373.9642639160156</v>
+        <v>314.8368225097656</v>
       </c>
       <c r="GH3" t="n">
-        <v>374.4151306152344</v>
+        <v>314.921142578125</v>
       </c>
       <c r="GI3" t="n">
-        <v>374.8159790039062</v>
+        <v>314.9830322265625</v>
       </c>
       <c r="GJ3" t="n">
-        <v>375.1515502929688</v>
+        <v>315.0406188964844</v>
       </c>
       <c r="GK3" t="n">
-        <v>375.2307434082031</v>
+        <v>314.9599609375</v>
       </c>
       <c r="GL3" t="n">
-        <v>375.1713256835938</v>
+        <v>314.6129455566406</v>
       </c>
       <c r="GM3" t="n">
-        <v>374.9490051269531</v>
+        <v>314.5744018554688</v>
       </c>
       <c r="GN3" t="n">
-        <v>374.9013671875</v>
+        <v>314.4913635253906</v>
       </c>
       <c r="GO3" t="n">
-        <v>374.8690490722656</v>
+        <v>314.3898315429688</v>
       </c>
       <c r="GP3" t="n">
-        <v>374.8652954101562</v>
+        <v>314.2694702148438</v>
       </c>
       <c r="GQ3" t="n">
-        <v>374.8298034667969</v>
+        <v>314.2612915039062</v>
       </c>
       <c r="GR3" t="n">
-        <v>374.8198852539062</v>
+        <v>314.30810546875</v>
       </c>
       <c r="GS3" t="n">
-        <v>374.5686645507812</v>
+        <v>314.3802490234375</v>
       </c>
       <c r="GT3" t="n">
-        <v>374.5563049316406</v>
+        <v>314.3566589355469</v>
       </c>
       <c r="GU3" t="n">
-        <v>374.5313110351562</v>
+        <v>314.3570556640625</v>
       </c>
       <c r="GV3" t="n">
-        <v>374.4014892578125</v>
+        <v>314.3831481933594</v>
       </c>
       <c r="GW3" t="n">
-        <v>374.478759765625</v>
+        <v>314.3283386230469</v>
       </c>
       <c r="GX3" t="n">
-        <v>374.4927978515625</v>
+        <v>314.2064514160156</v>
       </c>
       <c r="GY3" t="n">
-        <v>374.4680480957031</v>
+        <v>314.0218811035156</v>
       </c>
       <c r="GZ3" t="n">
-        <v>374.6865234375</v>
+        <v>313.6358032226562</v>
       </c>
       <c r="HA3" t="n">
-        <v>374.9406127929688</v>
+        <v>313.5209350585938</v>
       </c>
       <c r="HB3" t="n">
-        <v>374.9200744628906</v>
+        <v>313.3988647460938</v>
       </c>
       <c r="HC3" t="n">
-        <v>374.9100646972656</v>
+        <v>313.3700561523438</v>
       </c>
       <c r="HD3" t="n">
-        <v>374.8939514160156</v>
+        <v>313.3485717773438</v>
       </c>
       <c r="HE3" t="n">
-        <v>374.9747314453125</v>
+        <v>313.3512268066406</v>
       </c>
       <c r="HF3" t="n">
-        <v>375.2687377929688</v>
+        <v>313.2630615234375</v>
       </c>
       <c r="HG3" t="n">
-        <v>375.7331848144531</v>
+        <v>313.2644653320312</v>
       </c>
       <c r="HH3" t="n">
-        <v>375.9467163085938</v>
+        <v>313.3786926269531</v>
       </c>
       <c r="HI3" t="n">
-        <v>375.6998901367188</v>
+        <v>313.510986328125</v>
       </c>
       <c r="HJ3" t="n">
-        <v>375.465087890625</v>
+        <v>313.5782470703125</v>
       </c>
       <c r="HK3" t="n">
-        <v>375.4065246582031</v>
+        <v>313.6108703613281</v>
       </c>
       <c r="HL3" t="n">
-        <v>375.3770141601562</v>
+        <v>313.6522216796875</v>
       </c>
       <c r="HM3" t="n">
-        <v>375.3857116699219</v>
+        <v>313.6849060058594</v>
       </c>
       <c r="HN3" t="n">
-        <v>375.2326354980469</v>
+        <v>313.7872314453125</v>
       </c>
       <c r="HO3" t="n">
-        <v>375.2872619628906</v>
+        <v>313.8864135742188</v>
       </c>
       <c r="HP3" t="n">
-        <v>375.5543212890625</v>
+        <v>313.8807678222656</v>
       </c>
       <c r="HQ3" t="n">
-        <v>375.8564758300781</v>
+        <v>313.9135437011719</v>
       </c>
       <c r="HR3" t="n">
-        <v>375.68896484375</v>
+        <v>313.9196166992188</v>
       </c>
       <c r="HS3" t="n">
-        <v>375.5622253417969</v>
+        <v>313.9186096191406</v>
       </c>
       <c r="HT3" t="n">
-        <v>375.3683776855469</v>
+        <v>313.9783630371094</v>
       </c>
       <c r="HU3" t="n">
-        <v>375.2303466796875</v>
+        <v>314.0461120605469</v>
       </c>
       <c r="HV3" t="n">
-        <v>375.2196350097656</v>
+        <v>314.2634887695312</v>
       </c>
       <c r="HW3" t="n">
-        <v>375.0208435058594</v>
+        <v>314.1941833496094</v>
       </c>
       <c r="HX3" t="n">
-        <v>374.9401550292969</v>
+        <v>314.3253784179688</v>
       </c>
       <c r="HY3" t="n">
-        <v>374.7263488769531</v>
+        <v>314.3254089355469</v>
       </c>
       <c r="HZ3" t="n">
-        <v>374.789306640625</v>
+        <v>314.279296875</v>
       </c>
       <c r="IA3" t="n">
-        <v>374.794921875</v>
+        <v>314.2933044433594</v>
       </c>
       <c r="IB3" t="n">
-        <v>374.7910766601562</v>
+        <v>314.0042419433594</v>
       </c>
       <c r="IC3" t="n">
-        <v>374.8401794433594</v>
+        <v>313.7184143066406</v>
       </c>
       <c r="ID3" t="n">
-        <v>374.8113403320312</v>
+        <v>314.1701354980469</v>
       </c>
       <c r="IE3" t="n">
-        <v>374.7514953613281</v>
+        <v>313.326171875</v>
       </c>
       <c r="IF3" t="n">
-        <v>374.693115234375</v>
+        <v>313.2127380371094</v>
       </c>
       <c r="IG3" t="n">
-        <v>374.6777038574219</v>
+        <v>313.3170471191406</v>
       </c>
       <c r="IH3" t="n">
-        <v>374.6683349609375</v>
+        <v>313.3401794433594</v>
       </c>
       <c r="II3" t="n">
-        <v>374.6639404296875</v>
+        <v>313.3250427246094</v>
       </c>
       <c r="IJ3" t="n">
-        <v>374.6595764160156</v>
+        <v>313.3146362304688</v>
       </c>
       <c r="IK3" t="n">
-        <v>374.6721801757812</v>
+        <v>313.4907836914062</v>
       </c>
       <c r="IL3" t="n">
-        <v>374.6321105957031</v>
+        <v>313.5602416992188</v>
       </c>
       <c r="IM3" t="n">
-        <v>374.7464904785156</v>
+        <v>313.60791015625</v>
       </c>
       <c r="IN3" t="n">
-        <v>375.0177001953125</v>
+        <v>313.6762390136719</v>
       </c>
       <c r="IO3" t="n">
-        <v>374.9131164550781</v>
+        <v>313.7098083496094</v>
       </c>
       <c r="IP3" t="n">
-        <v>374.9871520996094</v>
+        <v>314.1753845214844</v>
       </c>
       <c r="IQ3" t="n">
-        <v>374.9913940429688</v>
+        <v>313.709228515625</v>
       </c>
       <c r="IR3" t="n">
-        <v>374.9487609863281</v>
+        <v>313.7864074707031</v>
       </c>
       <c r="IS3" t="n">
-        <v>375.1015625</v>
+        <v>313.82666015625</v>
       </c>
       <c r="IT3" t="n">
-        <v>375.0498657226562</v>
+        <v>313.861328125</v>
       </c>
       <c r="IU3" t="n">
-        <v>374.9732666015625</v>
+        <v>313.8639526367188</v>
       </c>
       <c r="IV3" t="n">
-        <v>375.3681030273438</v>
+        <v>313.8553771972656</v>
       </c>
       <c r="IW3" t="n">
-        <v>375.002197265625</v>
+        <v>313.8902893066406</v>
       </c>
       <c r="IX3" t="n">
-        <v>374.2705993652344</v>
+        <v>313.9337463378906</v>
       </c>
       <c r="IY3" t="n">
-        <v>374.3021240234375</v>
+        <v>313.9740295410156</v>
       </c>
       <c r="IZ3" t="n">
-        <v>374.4072265625</v>
+        <v>313.9508666992188</v>
       </c>
       <c r="JA3" t="n">
-        <v>374.3329772949219</v>
+        <v>313.9996643066406</v>
       </c>
       <c r="JB3" t="n">
-        <v>374.2882995605469</v>
+        <v>314.1824951171875</v>
       </c>
       <c r="JC3" t="n">
-        <v>374.2651672363281</v>
+        <v>314.1842041015625</v>
       </c>
       <c r="JD3" t="n">
-        <v>374.2440185546875</v>
+        <v>314.2521362304688</v>
       </c>
       <c r="JE3" t="n">
-        <v>374.2580261230469</v>
+        <v>314.7666625976562</v>
       </c>
       <c r="JF3" t="n">
-        <v>374.2610778808594</v>
+        <v>314.9098510742188</v>
       </c>
       <c r="JG3" t="n">
-        <v>374.2521362304688</v>
+        <v>315.1709594726562</v>
       </c>
       <c r="JH3" t="n">
-        <v>374.2133483886719</v>
+        <v>315.4876403808594</v>
       </c>
       <c r="JI3" t="n">
-        <v>374.1838684082031</v>
+        <v>314.9047241210938</v>
       </c>
       <c r="JJ3" t="n">
-        <v>374.1718444824219</v>
+        <v>314.6290893554688</v>
       </c>
       <c r="JK3" t="n">
-        <v>374.1483764648438</v>
+        <v>314.5317077636719</v>
       </c>
       <c r="JL3" t="n">
-        <v>374.2078247070312</v>
+        <v>314.5061645507812</v>
       </c>
       <c r="JM3" t="n">
-        <v>374.2538452148438</v>
+        <v>314.4896545410156</v>
       </c>
       <c r="JN3" t="n">
-        <v>374.27001953125</v>
+        <v>314.5176696777344</v>
       </c>
       <c r="JO3" t="n">
-        <v>374.4166870117188</v>
+        <v>314.3416442871094</v>
       </c>
       <c r="JP3" t="n">
-        <v>374.5652465820312</v>
+        <v>314.3031005859375</v>
       </c>
       <c r="JQ3" t="n">
-        <v>374.7286682128906</v>
+        <v>314.2847900390625</v>
       </c>
       <c r="JR3" t="n">
-        <v>375.2492370605469</v>
+        <v>314.1514282226562</v>
       </c>
       <c r="JS3" t="n">
-        <v>375.6848449707031</v>
+        <v>313.9574279785156</v>
       </c>
       <c r="JT3" t="n">
-        <v>375.9416198730469</v>
+        <v>314.0982055664062</v>
       </c>
       <c r="JU3" t="n">
-        <v>375.642578125</v>
+        <v>314.3130187988281</v>
       </c>
       <c r="JV3" t="n">
-        <v>375.68017578125</v>
+        <v>314.3454895019531</v>
       </c>
       <c r="JW3" t="n">
-        <v>375.5361022949219</v>
+        <v>314.4119262695312</v>
       </c>
       <c r="JX3" t="n">
-        <v>374.9066467285156</v>
+        <v>314.47607421875</v>
       </c>
       <c r="JY3" t="n">
-        <v>373.52783203125</v>
+        <v>314.5286254882812</v>
       </c>
       <c r="JZ3" t="n">
-        <v>374.5195617675781</v>
+        <v>314.5022583007812</v>
       </c>
       <c r="KA3" t="n">
-        <v>375.4514770507812</v>
+        <v>314.5219421386719</v>
       </c>
       <c r="KB3" t="n">
-        <v>376.0530090332031</v>
+        <v>314.0302429199219</v>
       </c>
       <c r="KC3" t="n">
-        <v>375.9150390625</v>
+        <v>313.8973083496094</v>
       </c>
       <c r="KD3" t="n">
-        <v>375.1270751953125</v>
+        <v>313.9150085449219</v>
       </c>
       <c r="KE3" t="n">
-        <v>374.3279724121094</v>
+        <v>313.7801818847656</v>
       </c>
       <c r="KF3" t="n">
-        <v>372.7924499511719</v>
+        <v>313.7437438964844</v>
       </c>
       <c r="KG3" t="n">
-        <v>372.6173400878906</v>
+        <v>313.7201843261719</v>
       </c>
       <c r="KH3" t="n">
-        <v>372.0176696777344</v>
+        <v>313.6768798828125</v>
       </c>
       <c r="KI3" t="n">
-        <v>372.8526000976562</v>
+        <v>313.6270751953125</v>
       </c>
       <c r="KJ3" t="n">
-        <v>371.7327270507812</v>
+        <v>313.6815185546875</v>
       </c>
       <c r="KK3" t="n">
-        <v>369.4551086425781</v>
+        <v>313.8368225097656</v>
       </c>
       <c r="KL3" t="n">
-        <v>373.5631713867188</v>
+        <v>313.735595703125</v>
       </c>
       <c r="KM3" t="n">
-        <v>377.4891662597656</v>
+        <v>313.6375427246094</v>
       </c>
       <c r="KN3" t="n">
-        <v>379.67041015625</v>
+        <v>313.4925537109375</v>
       </c>
       <c r="KO3" t="n">
-        <v>378.3692016601562</v>
+        <v>312.5075073242188</v>
       </c>
       <c r="KP3" t="n">
-        <v>374.3525390625</v>
+        <v>312.539794921875</v>
       </c>
       <c r="KQ3" t="n">
-        <v>373.4867248535156</v>
+        <v>314.4612121582031</v>
       </c>
       <c r="KR3" t="n">
-        <v>370.2842712402344</v>
+        <v>318.2790222167969</v>
       </c>
       <c r="KS3" t="n">
-        <v>366.1957397460938</v>
+        <v>318.9772644042969</v>
       </c>
       <c r="KT3" t="n">
-        <v>370.0058288574219</v>
+        <v>319.62939453125</v>
       </c>
       <c r="KU3" t="n">
-        <v>378.3469543457031</v>
+        <v>323.8191833496094</v>
       </c>
       <c r="KV3" t="n">
-        <v>384.9522705078125</v>
+        <v>337.7591247558594</v>
       </c>
       <c r="KW3" t="n">
-        <v>392.1821594238281</v>
+        <v>340.2226867675781</v>
       </c>
       <c r="KX3" t="n">
-        <v>405.6301879882812</v>
+        <v>347.2298583984375</v>
       </c>
       <c r="KY3" t="n">
-        <v>405.9707336425781</v>
+        <v>350.0576477050781</v>
       </c>
       <c r="KZ3" t="n">
-        <v>407.176025390625</v>
+        <v>348.0276794433594</v>
       </c>
       <c r="LA3" t="n">
-        <v>410.8465576171875</v>
+        <v>355.0009155273438</v>
       </c>
       <c r="LB3" t="n">
-        <v>412.343017578125</v>
+        <v>364.1715087890625</v>
       </c>
       <c r="LC3" t="n">
-        <v>413.2907104492188</v>
+        <v>375.1867065429688</v>
       </c>
       <c r="LD3" t="n">
-        <v>414.3946228027344</v>
+        <v>388.3782653808594</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>398.6449584960938</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>414.2303771972656</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>426.1394958496094</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>462.6946716308594</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>484.1126708984375</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>532.9267578125</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>520.9973754882812</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>597.0015258789062</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>556.5958862304688</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>583.8233032226562</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>613.7185668945312</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>626.056640625</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>655.0526733398438</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>650.4498901367188</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>723.26171875</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>672.623291015625</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>639.832275390625</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>653.7406005859375</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>657.0670776367188</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>654.8034057617188</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>642.81494140625</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>653.1202392578125</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>652.9219360351562</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>653.2608642578125</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>711.7222900390625</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>712.569580078125</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>722.6176147460938</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>713.0084838867188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>871.674560546875</v>
+        <v>792.2411499023438</v>
       </c>
       <c r="B4" t="n">
-        <v>940.9132690429688</v>
+        <v>819.3224487304688</v>
       </c>
       <c r="C4" t="n">
-        <v>969.0177001953125</v>
+        <v>843.3475952148438</v>
       </c>
       <c r="D4" t="n">
-        <v>1004.855285644531</v>
+        <v>867.8015747070312</v>
       </c>
       <c r="E4" t="n">
-        <v>1029.936889648438</v>
+        <v>901.576171875</v>
       </c>
       <c r="F4" t="n">
-        <v>1056.289184570312</v>
+        <v>936.994873046875</v>
       </c>
       <c r="G4" t="n">
-        <v>1066.0546875</v>
+        <v>968.8895263671875</v>
       </c>
       <c r="H4" t="n">
-        <v>1089.650268554688</v>
+        <v>1011.419738769531</v>
       </c>
       <c r="I4" t="n">
-        <v>1117.8818359375</v>
+        <v>1049.9541015625</v>
       </c>
       <c r="J4" t="n">
-        <v>1145.07861328125</v>
+        <v>1083.1201171875</v>
       </c>
       <c r="K4" t="n">
-        <v>1183.6416015625</v>
+        <v>1115.055541992188</v>
       </c>
       <c r="L4" t="n">
-        <v>1213.175537109375</v>
+        <v>1145.858764648438</v>
       </c>
       <c r="M4" t="n">
-        <v>1244.601440429688</v>
+        <v>1175.162353515625</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.817260742188</v>
+        <v>1206.841430664062</v>
       </c>
       <c r="O4" t="n">
-        <v>1309.19873046875</v>
+        <v>1230.533935546875</v>
       </c>
       <c r="P4" t="n">
-        <v>1335.474975585938</v>
+        <v>1259.718994140625</v>
       </c>
       <c r="Q4" t="n">
-        <v>1360.213012695312</v>
+        <v>1284.033813476562</v>
       </c>
       <c r="R4" t="n">
-        <v>1387.16845703125</v>
+        <v>1303.879638671875</v>
       </c>
       <c r="S4" t="n">
-        <v>1420.667724609375</v>
+        <v>1333.175903320312</v>
       </c>
       <c r="T4" t="n">
-        <v>1444.585327148438</v>
+        <v>1359.25146484375</v>
       </c>
       <c r="U4" t="n">
-        <v>1471.259887695312</v>
+        <v>1387.609252929688</v>
       </c>
       <c r="V4" t="n">
-        <v>1497.60888671875</v>
+        <v>1417.31298828125</v>
       </c>
       <c r="W4" t="n">
-        <v>1525.967163085938</v>
+        <v>1442.372314453125</v>
       </c>
       <c r="X4" t="n">
-        <v>1556.013061523438</v>
+        <v>1468.878540039062</v>
       </c>
       <c r="Y4" t="n">
-        <v>1587.954956054688</v>
+        <v>1509.27685546875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1617.484497070312</v>
+        <v>1546.514404296875</v>
       </c>
       <c r="AA4" t="n">
-        <v>1654.842529296875</v>
+        <v>1591.591918945312</v>
       </c>
       <c r="AB4" t="n">
-        <v>1683.541259765625</v>
+        <v>1627.341186523438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1706.646606445312</v>
+        <v>1668.0927734375</v>
       </c>
       <c r="AD4" t="n">
-        <v>1747.598754882812</v>
+        <v>1702.146362304688</v>
       </c>
       <c r="AE4" t="n">
-        <v>1779.59423828125</v>
+        <v>1728.160522460938</v>
       </c>
       <c r="AF4" t="n">
-        <v>1796.276611328125</v>
+        <v>1760.8193359375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1813.505737304688</v>
+        <v>1785.51611328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1831.178955078125</v>
+        <v>1808.367919921875</v>
       </c>
       <c r="AI4" t="n">
-        <v>1847.82080078125</v>
+        <v>1826.447143554688</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1876.956665039062</v>
+        <v>1847.941040039062</v>
       </c>
       <c r="AK4" t="n">
-        <v>1889.697143554688</v>
+        <v>1868.032470703125</v>
       </c>
       <c r="AL4" t="n">
-        <v>1901.971435546875</v>
+        <v>1901.058715820312</v>
       </c>
       <c r="AM4" t="n">
-        <v>1911.241455078125</v>
+        <v>1920.790893554688</v>
       </c>
       <c r="AN4" t="n">
-        <v>1921.217529296875</v>
+        <v>1937.103149414062</v>
       </c>
       <c r="AO4" t="n">
-        <v>1930.529174804688</v>
+        <v>1956.598388671875</v>
       </c>
       <c r="AP4" t="n">
-        <v>1932.893310546875</v>
+        <v>1976.778198242188</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1935.433349609375</v>
+        <v>1997.33544921875</v>
       </c>
       <c r="AR4" t="n">
-        <v>1937.488403320312</v>
+        <v>2022.613403320312</v>
       </c>
       <c r="AS4" t="n">
-        <v>1941.267456054688</v>
+        <v>2045.959228515625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1944.747680664062</v>
+        <v>2069.775390625</v>
       </c>
       <c r="AU4" t="n">
-        <v>1949.2333984375</v>
+        <v>2096.851806640625</v>
       </c>
       <c r="AV4" t="n">
-        <v>1955.480834960938</v>
+        <v>2110.525634765625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1961.4306640625</v>
+        <v>2127.969970703125</v>
       </c>
       <c r="AX4" t="n">
-        <v>1962.1787109375</v>
+        <v>2147.012451171875</v>
       </c>
       <c r="AY4" t="n">
-        <v>1964.444458007812</v>
+        <v>2158.190185546875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1968.501831054688</v>
+        <v>2176.8056640625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1973.334838867188</v>
+        <v>2185.15673828125</v>
       </c>
       <c r="BB4" t="n">
-        <v>1980.300659179688</v>
+        <v>2202.451416015625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1987.583251953125</v>
+        <v>2214.149658203125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1988.235717773438</v>
+        <v>2228.98046875</v>
       </c>
       <c r="BE4" t="n">
-        <v>1989.109375</v>
+        <v>2238.3427734375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1990.380493164062</v>
+        <v>2239.623046875</v>
       </c>
       <c r="BG4" t="n">
-        <v>1991.881713867188</v>
+        <v>2244.607666015625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1993.139770507812</v>
+        <v>2248.90576171875</v>
       </c>
       <c r="BI4" t="n">
-        <v>1994.360595703125</v>
+        <v>2255.38134765625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1995.958740234375</v>
+        <v>2262.253173828125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1997.363037109375</v>
+        <v>2262.085693359375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1996.7294921875</v>
+        <v>2263.623291015625</v>
       </c>
       <c r="BM4" t="n">
-        <v>1995.951293945312</v>
+        <v>2265.796875</v>
       </c>
       <c r="BN4" t="n">
-        <v>1994.634887695312</v>
+        <v>2268.314208984375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1994.193725585938</v>
+        <v>2273.093017578125</v>
       </c>
       <c r="BP4" t="n">
-        <v>1993.646118164062</v>
+        <v>2278.486328125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1992.935180664062</v>
+        <v>2284.17529296875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1992.196655273438</v>
+        <v>2286.837646484375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1991.503784179688</v>
+        <v>2286.7177734375</v>
       </c>
       <c r="BT4" t="n">
-        <v>1990.625366210938</v>
+        <v>2285.763916015625</v>
       </c>
       <c r="BU4" t="n">
-        <v>1989.267456054688</v>
+        <v>2285.047119140625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1987.609497070312</v>
+        <v>2284.59423828125</v>
       </c>
       <c r="BW4" t="n">
-        <v>1985.578247070312</v>
+        <v>2285.361083984375</v>
       </c>
       <c r="BX4" t="n">
-        <v>1983.193725585938</v>
+        <v>2287.525146484375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1980.194091796875</v>
+        <v>2292.462890625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1976.94873046875</v>
+        <v>2300.17529296875</v>
       </c>
       <c r="CA4" t="n">
-        <v>1974.580444335938</v>
+        <v>2301.880126953125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1974.597290039062</v>
+        <v>2301.54638671875</v>
       </c>
       <c r="CC4" t="n">
-        <v>1974.4150390625</v>
+        <v>2300.63671875</v>
       </c>
       <c r="CD4" t="n">
-        <v>1974.181030273438</v>
+        <v>2299.6181640625</v>
       </c>
       <c r="CE4" t="n">
-        <v>1973.990234375</v>
+        <v>2298.228271484375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1973.761352539062</v>
+        <v>2296.260009765625</v>
       </c>
       <c r="CG4" t="n">
-        <v>1973.512573242188</v>
+        <v>2294.989990234375</v>
       </c>
       <c r="CH4" t="n">
-        <v>1973.313110351562</v>
+        <v>2293.262939453125</v>
       </c>
       <c r="CI4" t="n">
-        <v>1973.294799804688</v>
+        <v>2292.166015625</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1973.215698242188</v>
+        <v>2290.85693359375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1973.2021484375</v>
+        <v>2289.88916015625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1973.197021484375</v>
+        <v>2290.221435546875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1972.991455078125</v>
+        <v>2290.423828125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1972.86181640625</v>
+        <v>2290.790283203125</v>
       </c>
       <c r="CO4" t="n">
-        <v>1972.812133789062</v>
+        <v>2290.28173828125</v>
       </c>
       <c r="CP4" t="n">
-        <v>1972.970947265625</v>
+        <v>2289.642333984375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1972.95068359375</v>
+        <v>2289.6259765625</v>
       </c>
       <c r="CR4" t="n">
-        <v>1972.975830078125</v>
+        <v>2289.65576171875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1972.81494140625</v>
+        <v>2289.974609375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1972.639892578125</v>
+        <v>2290.05322265625</v>
       </c>
       <c r="CU4" t="n">
-        <v>1972.635864257812</v>
+        <v>2290.09130859375</v>
       </c>
       <c r="CV4" t="n">
-        <v>1972.583862304688</v>
+        <v>2290.125244140625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1972.55859375</v>
+        <v>2290.2626953125</v>
       </c>
       <c r="CX4" t="n">
-        <v>1972.540649414062</v>
+        <v>2290.35107421875</v>
       </c>
       <c r="CY4" t="n">
-        <v>1972.542724609375</v>
+        <v>2290.398681640625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1972.529663085938</v>
+        <v>2290.966064453125</v>
       </c>
       <c r="DA4" t="n">
-        <v>1972.565063476562</v>
+        <v>2291.255126953125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1972.842895507812</v>
+        <v>2291.509033203125</v>
       </c>
       <c r="DC4" t="n">
-        <v>1973.005615234375</v>
+        <v>2291.497314453125</v>
       </c>
       <c r="DD4" t="n">
-        <v>1973.162353515625</v>
+        <v>2291.52685546875</v>
       </c>
       <c r="DE4" t="n">
-        <v>1973.312133789062</v>
+        <v>2291.566650390625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1973.443969726562</v>
+        <v>2291.796875</v>
       </c>
       <c r="DG4" t="n">
-        <v>1973.613891601562</v>
+        <v>2291.95263671875</v>
       </c>
       <c r="DH4" t="n">
-        <v>1973.818603515625</v>
+        <v>2292.243896484375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1973.972412109375</v>
+        <v>2292.9482421875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1973.998291015625</v>
+        <v>2293.41943359375</v>
       </c>
       <c r="DK4" t="n">
-        <v>1973.91552734375</v>
+        <v>2294.404541015625</v>
       </c>
       <c r="DL4" t="n">
-        <v>1973.853637695312</v>
+        <v>2294.8583984375</v>
       </c>
       <c r="DM4" t="n">
-        <v>1973.765625</v>
+        <v>2295.53369140625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1973.441162109375</v>
+        <v>2295.595458984375</v>
       </c>
       <c r="DO4" t="n">
-        <v>1973.291625976562</v>
+        <v>2295.626708984375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1973.316772460938</v>
+        <v>2295.682373046875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1973.430297851562</v>
+        <v>2295.777587890625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1973.527465820312</v>
+        <v>2295.77490234375</v>
       </c>
       <c r="DS4" t="n">
-        <v>1973.3486328125</v>
+        <v>2296.345458984375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1972.99853515625</v>
+        <v>2296.733642578125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1972.771728515625</v>
+        <v>2297.17626953125</v>
       </c>
       <c r="DV4" t="n">
-        <v>1972.458740234375</v>
+        <v>2297.577392578125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1972.480590820312</v>
+        <v>2297.679443359375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1972.508544921875</v>
+        <v>2297.75537109375</v>
       </c>
       <c r="DY4" t="n">
-        <v>1972.584106445312</v>
+        <v>2297.799072265625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1972.646728515625</v>
+        <v>2297.8857421875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1972.766235351562</v>
+        <v>2298.03271484375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1972.666015625</v>
+        <v>2298.2626953125</v>
       </c>
       <c r="EC4" t="n">
-        <v>1972.6396484375</v>
+        <v>2298.26025390625</v>
       </c>
       <c r="ED4" t="n">
-        <v>1972.727783203125</v>
+        <v>2298.1796875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1972.762573242188</v>
+        <v>2298.047607421875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1972.797607421875</v>
+        <v>2297.974853515625</v>
       </c>
       <c r="EG4" t="n">
-        <v>1972.8271484375</v>
+        <v>2297.88330078125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1972.85791015625</v>
+        <v>2297.802490234375</v>
       </c>
       <c r="EI4" t="n">
-        <v>1972.876342773438</v>
+        <v>2297.565185546875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1972.903198242188</v>
+        <v>2297.3115234375</v>
       </c>
       <c r="EK4" t="n">
-        <v>1972.785766601562</v>
+        <v>2297.3896484375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1972.905029296875</v>
+        <v>2297.34765625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1972.939453125</v>
+        <v>2297.34716796875</v>
       </c>
       <c r="EN4" t="n">
-        <v>1972.879638671875</v>
+        <v>2297.4052734375</v>
       </c>
       <c r="EO4" t="n">
-        <v>1972.848876953125</v>
+        <v>2297.463623046875</v>
       </c>
       <c r="EP4" t="n">
-        <v>1972.649169921875</v>
+        <v>2297.457275390625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1972.224731445312</v>
+        <v>2297.567626953125</v>
       </c>
       <c r="ER4" t="n">
-        <v>1972.244506835938</v>
+        <v>2297.822998046875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1972.263793945312</v>
+        <v>2297.78759765625</v>
       </c>
       <c r="ET4" t="n">
-        <v>1972.045288085938</v>
+        <v>2297.76953125</v>
       </c>
       <c r="EU4" t="n">
-        <v>1971.673828125</v>
+        <v>2297.57177734375</v>
       </c>
       <c r="EV4" t="n">
-        <v>1971.302490234375</v>
+        <v>2297.14453125</v>
       </c>
       <c r="EW4" t="n">
-        <v>1970.10400390625</v>
+        <v>2296.92041015625</v>
       </c>
       <c r="EX4" t="n">
-        <v>1968.726318359375</v>
+        <v>2296.841552734375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1967.849853515625</v>
+        <v>2296.72802734375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1967.666381835938</v>
+        <v>2296.5625</v>
       </c>
       <c r="FA4" t="n">
-        <v>1967.111328125</v>
+        <v>2296.623779296875</v>
       </c>
       <c r="FB4" t="n">
-        <v>1968.2216796875</v>
+        <v>2296.997802734375</v>
       </c>
       <c r="FC4" t="n">
-        <v>1968.305053710938</v>
+        <v>2297.095703125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1968.338256835938</v>
+        <v>2297.060546875</v>
       </c>
       <c r="FE4" t="n">
-        <v>1968.352416992188</v>
+        <v>2297.065185546875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1968.33349609375</v>
+        <v>2297.2802734375</v>
       </c>
       <c r="FG4" t="n">
-        <v>1968.310180664062</v>
+        <v>2297.42822265625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1968.285888671875</v>
+        <v>2297.517333984375</v>
       </c>
       <c r="FI4" t="n">
-        <v>1968.263549804688</v>
+        <v>2297.53564453125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1968.302612304688</v>
+        <v>2297.600341796875</v>
       </c>
       <c r="FK4" t="n">
-        <v>1968.351928710938</v>
+        <v>2297.666259765625</v>
       </c>
       <c r="FL4" t="n">
-        <v>1968.455444335938</v>
+        <v>2297.669189453125</v>
       </c>
       <c r="FM4" t="n">
-        <v>1968.474853515625</v>
+        <v>2297.669189453125</v>
       </c>
       <c r="FN4" t="n">
-        <v>1968.660522460938</v>
+        <v>2297.642822265625</v>
       </c>
       <c r="FO4" t="n">
-        <v>1968.82666015625</v>
+        <v>2297.6015625</v>
       </c>
       <c r="FP4" t="n">
-        <v>1969.06103515625</v>
+        <v>2298.259033203125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1969.169067382812</v>
+        <v>2298.199951171875</v>
       </c>
       <c r="FR4" t="n">
-        <v>1969.173461914062</v>
+        <v>2298.282958984375</v>
       </c>
       <c r="FS4" t="n">
-        <v>1969.13232421875</v>
+        <v>2298.64599609375</v>
       </c>
       <c r="FT4" t="n">
-        <v>1969.458374023438</v>
+        <v>2298.7685546875</v>
       </c>
       <c r="FU4" t="n">
-        <v>1970.408447265625</v>
+        <v>2298.954833984375</v>
       </c>
       <c r="FV4" t="n">
-        <v>1970.811279296875</v>
+        <v>2298.946533203125</v>
       </c>
       <c r="FW4" t="n">
-        <v>1971.508666992188</v>
+        <v>2298.618896484375</v>
       </c>
       <c r="FX4" t="n">
-        <v>1971.154541015625</v>
+        <v>2298.43115234375</v>
       </c>
       <c r="FY4" t="n">
-        <v>1970.36328125</v>
+        <v>2298.264404296875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1970.263427734375</v>
+        <v>2298.578125</v>
       </c>
       <c r="GA4" t="n">
-        <v>1970.418212890625</v>
+        <v>2298.77392578125</v>
       </c>
       <c r="GB4" t="n">
-        <v>1970.564208984375</v>
+        <v>2298.7158203125</v>
       </c>
       <c r="GC4" t="n">
-        <v>1970.907836914062</v>
+        <v>2298.6494140625</v>
       </c>
       <c r="GD4" t="n">
-        <v>1971.087036132812</v>
+        <v>2298.648193359375</v>
       </c>
       <c r="GE4" t="n">
-        <v>1970.841186523438</v>
+        <v>2298.65283203125</v>
       </c>
       <c r="GF4" t="n">
-        <v>1970.373657226562</v>
+        <v>2298.978759765625</v>
       </c>
       <c r="GG4" t="n">
-        <v>1969.747314453125</v>
+        <v>2299.549560546875</v>
       </c>
       <c r="GH4" t="n">
-        <v>1968.392944335938</v>
+        <v>2300.100341796875</v>
       </c>
       <c r="GI4" t="n">
-        <v>1967.24951171875</v>
+        <v>2300.636474609375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1966.22998046875</v>
+        <v>2301.28271484375</v>
       </c>
       <c r="GK4" t="n">
-        <v>1965.2802734375</v>
+        <v>2302.161376953125</v>
       </c>
       <c r="GL4" t="n">
-        <v>1965.626098632812</v>
+        <v>2302.792236328125</v>
       </c>
       <c r="GM4" t="n">
-        <v>1966.557373046875</v>
+        <v>2302.669921875</v>
       </c>
       <c r="GN4" t="n">
-        <v>1966.690551757812</v>
+        <v>2302.39501953125</v>
       </c>
       <c r="GO4" t="n">
-        <v>1966.837768554688</v>
+        <v>2302.59716796875</v>
       </c>
       <c r="GP4" t="n">
-        <v>1966.9501953125</v>
+        <v>2302.419921875</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1967.076293945312</v>
+        <v>2302.41162109375</v>
       </c>
       <c r="GR4" t="n">
-        <v>1967.0966796875</v>
+        <v>2302.369384765625</v>
       </c>
       <c r="GS4" t="n">
-        <v>1967.369262695312</v>
+        <v>2302.32421875</v>
       </c>
       <c r="GT4" t="n">
-        <v>1967.265625</v>
+        <v>2302.37939453125</v>
       </c>
       <c r="GU4" t="n">
-        <v>1967.0810546875</v>
+        <v>2302.66015625</v>
       </c>
       <c r="GV4" t="n">
-        <v>1966.8505859375</v>
+        <v>2302.8701171875</v>
       </c>
       <c r="GW4" t="n">
-        <v>1966.784790039062</v>
+        <v>2303.330810546875</v>
       </c>
       <c r="GX4" t="n">
-        <v>1966.762084960938</v>
+        <v>2303.857177734375</v>
       </c>
       <c r="GY4" t="n">
-        <v>1966.674072265625</v>
+        <v>2304.33251953125</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1966.76806640625</v>
+        <v>2304.156982421875</v>
       </c>
       <c r="HA4" t="n">
-        <v>1966.816162109375</v>
+        <v>2303.859130859375</v>
       </c>
       <c r="HB4" t="n">
-        <v>1966.793701171875</v>
+        <v>2303.59619140625</v>
       </c>
       <c r="HC4" t="n">
-        <v>1966.879150390625</v>
+        <v>2303.55126953125</v>
       </c>
       <c r="HD4" t="n">
-        <v>1966.89453125</v>
+        <v>2303.545654296875</v>
       </c>
       <c r="HE4" t="n">
-        <v>1966.792236328125</v>
+        <v>2303.696533203125</v>
       </c>
       <c r="HF4" t="n">
-        <v>1966.504638671875</v>
+        <v>2303.539794921875</v>
       </c>
       <c r="HG4" t="n">
-        <v>1965.8154296875</v>
+        <v>2303.454345703125</v>
       </c>
       <c r="HH4" t="n">
-        <v>1965.671630859375</v>
+        <v>2303.668212890625</v>
       </c>
       <c r="HI4" t="n">
-        <v>1966.079345703125</v>
+        <v>2303.67529296875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1966.265380859375</v>
+        <v>2303.7119140625</v>
       </c>
       <c r="HK4" t="n">
-        <v>1966.185791015625</v>
+        <v>2303.80126953125</v>
       </c>
       <c r="HL4" t="n">
-        <v>1965.881103515625</v>
+        <v>2303.875</v>
       </c>
       <c r="HM4" t="n">
-        <v>1965.706787109375</v>
+        <v>2303.9775390625</v>
       </c>
       <c r="HN4" t="n">
-        <v>1965.2119140625</v>
+        <v>2304.175048828125</v>
       </c>
       <c r="HO4" t="n">
-        <v>1964.66357421875</v>
+        <v>2304.478271484375</v>
       </c>
       <c r="HP4" t="n">
-        <v>1964.345703125</v>
+        <v>2304.885009765625</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1963.653930664062</v>
+        <v>2305.274658203125</v>
       </c>
       <c r="HR4" t="n">
-        <v>1963.76025390625</v>
+        <v>2305.355224609375</v>
       </c>
       <c r="HS4" t="n">
-        <v>1964.161499023438</v>
+        <v>2305.364501953125</v>
       </c>
       <c r="HT4" t="n">
-        <v>1964.985473632812</v>
+        <v>2305.532958984375</v>
       </c>
       <c r="HU4" t="n">
-        <v>1965.819702148438</v>
+        <v>2305.726806640625</v>
       </c>
       <c r="HV4" t="n">
-        <v>1966.3251953125</v>
+        <v>2306.45703125</v>
       </c>
       <c r="HW4" t="n">
-        <v>1966.755981445312</v>
+        <v>2307.32958984375</v>
       </c>
       <c r="HX4" t="n">
-        <v>1966.596801757812</v>
+        <v>2307.4140625</v>
       </c>
       <c r="HY4" t="n">
-        <v>1966.4462890625</v>
+        <v>2307.81591796875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>1966.268188476562</v>
+        <v>2307.8759765625</v>
       </c>
       <c r="IA4" t="n">
-        <v>1966.014404296875</v>
+        <v>2307.8642578125</v>
       </c>
       <c r="IB4" t="n">
-        <v>1965.948852539062</v>
+        <v>2308.0634765625</v>
       </c>
       <c r="IC4" t="n">
-        <v>1965.837890625</v>
+        <v>2308.052734375</v>
       </c>
       <c r="ID4" t="n">
-        <v>1965.868774414062</v>
+        <v>2307.6787109375</v>
       </c>
       <c r="IE4" t="n">
-        <v>1965.93896484375</v>
+        <v>2307.6806640625</v>
       </c>
       <c r="IF4" t="n">
-        <v>1965.986572265625</v>
+        <v>2307.37939453125</v>
       </c>
       <c r="IG4" t="n">
-        <v>1965.997680664062</v>
+        <v>2307.288330078125</v>
       </c>
       <c r="IH4" t="n">
-        <v>1965.988647460938</v>
+        <v>2307.33447265625</v>
       </c>
       <c r="II4" t="n">
-        <v>1965.9775390625</v>
+        <v>2306.29541015625</v>
       </c>
       <c r="IJ4" t="n">
-        <v>1965.925903320312</v>
+        <v>2305.2080078125</v>
       </c>
       <c r="IK4" t="n">
-        <v>1965.86279296875</v>
+        <v>2302.59326171875</v>
       </c>
       <c r="IL4" t="n">
-        <v>1965.6953125</v>
+        <v>2302.362060546875</v>
       </c>
       <c r="IM4" t="n">
-        <v>1965.159301757812</v>
+        <v>2302.8232421875</v>
       </c>
       <c r="IN4" t="n">
-        <v>1964.721557617188</v>
+        <v>2302.80859375</v>
       </c>
       <c r="IO4" t="n">
-        <v>1964.344970703125</v>
+        <v>2302.646484375</v>
       </c>
       <c r="IP4" t="n">
-        <v>1964.406982421875</v>
+        <v>2302.15380859375</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1964.330444335938</v>
+        <v>2302.049072265625</v>
       </c>
       <c r="IR4" t="n">
-        <v>1964.345336914062</v>
+        <v>2301.688720703125</v>
       </c>
       <c r="IS4" t="n">
-        <v>1964.4267578125</v>
+        <v>2301.665771484375</v>
       </c>
       <c r="IT4" t="n">
-        <v>1964.480102539062</v>
+        <v>2301.75439453125</v>
       </c>
       <c r="IU4" t="n">
-        <v>1964.332641601562</v>
+        <v>2301.786865234375</v>
       </c>
       <c r="IV4" t="n">
-        <v>1964.393920898438</v>
+        <v>2301.7666015625</v>
       </c>
       <c r="IW4" t="n">
-        <v>1964.408325195312</v>
+        <v>2301.733642578125</v>
       </c>
       <c r="IX4" t="n">
-        <v>1964.387451171875</v>
+        <v>2301.71337890625</v>
       </c>
       <c r="IY4" t="n">
-        <v>1964.540649414062</v>
+        <v>2301.666748046875</v>
       </c>
       <c r="IZ4" t="n">
-        <v>1964.723510742188</v>
+        <v>2301.607666015625</v>
       </c>
       <c r="JA4" t="n">
-        <v>1964.568969726562</v>
+        <v>2301.24853515625</v>
       </c>
       <c r="JB4" t="n">
-        <v>1964.139282226562</v>
+        <v>2301.089599609375</v>
       </c>
       <c r="JC4" t="n">
-        <v>1963.453491210938</v>
+        <v>2300.969970703125</v>
       </c>
       <c r="JD4" t="n">
-        <v>1962.7734375</v>
+        <v>2301.002197265625</v>
       </c>
       <c r="JE4" t="n">
-        <v>1961.767211914062</v>
+        <v>2301.345703125</v>
       </c>
       <c r="JF4" t="n">
-        <v>1961.962036132812</v>
+        <v>2301.8798828125</v>
       </c>
       <c r="JG4" t="n">
-        <v>1961.948120117188</v>
+        <v>2302.17138671875</v>
       </c>
       <c r="JH4" t="n">
-        <v>1962.06591796875</v>
+        <v>2302.34814453125</v>
       </c>
       <c r="JI4" t="n">
-        <v>1962.227783203125</v>
+        <v>2299.669677734375</v>
       </c>
       <c r="JJ4" t="n">
-        <v>1962.46484375</v>
+        <v>2298.736328125</v>
       </c>
       <c r="JK4" t="n">
-        <v>1962.798950195312</v>
+        <v>2298.617431640625</v>
       </c>
       <c r="JL4" t="n">
-        <v>1963.257690429688</v>
+        <v>2298.546142578125</v>
       </c>
       <c r="JM4" t="n">
-        <v>1963.878173828125</v>
+        <v>2298.353759765625</v>
       </c>
       <c r="JN4" t="n">
-        <v>1963.891967773438</v>
+        <v>2298.329833984375</v>
       </c>
       <c r="JO4" t="n">
-        <v>1963.676391601562</v>
+        <v>2298.395263671875</v>
       </c>
       <c r="JP4" t="n">
-        <v>1963.419311523438</v>
+        <v>2298.380615234375</v>
       </c>
       <c r="JQ4" t="n">
-        <v>1963.234252929688</v>
+        <v>2298.155517578125</v>
       </c>
       <c r="JR4" t="n">
-        <v>1962.75830078125</v>
+        <v>2297.63232421875</v>
       </c>
       <c r="JS4" t="n">
-        <v>1962.4228515625</v>
+        <v>2296.75927734375</v>
       </c>
       <c r="JT4" t="n">
-        <v>1962.224243164062</v>
+        <v>2296.736328125</v>
       </c>
       <c r="JU4" t="n">
-        <v>1961.994506835938</v>
+        <v>2296.875</v>
       </c>
       <c r="JV4" t="n">
-        <v>1961.450439453125</v>
+        <v>2297.00146484375</v>
       </c>
       <c r="JW4" t="n">
-        <v>1960.59814453125</v>
+        <v>2297.150634765625</v>
       </c>
       <c r="JX4" t="n">
-        <v>1957.25732421875</v>
+        <v>2297.2841796875</v>
       </c>
       <c r="JY4" t="n">
-        <v>1948.262939453125</v>
+        <v>2297.463134765625</v>
       </c>
       <c r="JZ4" t="n">
-        <v>1935.7255859375</v>
+        <v>2297.603271484375</v>
       </c>
       <c r="KA4" t="n">
-        <v>1929.090209960938</v>
+        <v>2297.5146484375</v>
       </c>
       <c r="KB4" t="n">
-        <v>1924.891723632812</v>
+        <v>2296.394287109375</v>
       </c>
       <c r="KC4" t="n">
-        <v>1919.550415039062</v>
+        <v>2295.65478515625</v>
       </c>
       <c r="KD4" t="n">
-        <v>1906.980224609375</v>
+        <v>2296.116455078125</v>
       </c>
       <c r="KE4" t="n">
-        <v>1908.397216796875</v>
+        <v>2295.94775390625</v>
       </c>
       <c r="KF4" t="n">
-        <v>1913.263549804688</v>
+        <v>2295.914794921875</v>
       </c>
       <c r="KG4" t="n">
-        <v>1914.934326171875</v>
+        <v>2295.780029296875</v>
       </c>
       <c r="KH4" t="n">
-        <v>1907.691528320312</v>
+        <v>2295.466064453125</v>
       </c>
       <c r="KI4" t="n">
-        <v>1864.500854492188</v>
+        <v>2294.634521484375</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1834.99658203125</v>
+        <v>2293.1943359375</v>
       </c>
       <c r="KK4" t="n">
-        <v>1802.226440429688</v>
+        <v>2291.14208984375</v>
       </c>
       <c r="KL4" t="n">
-        <v>1756.13818359375</v>
+        <v>2290.806640625</v>
       </c>
       <c r="KM4" t="n">
-        <v>1702.890014648438</v>
+        <v>2290.930908203125</v>
       </c>
       <c r="KN4" t="n">
-        <v>1652.849731445312</v>
+        <v>2290.88525390625</v>
       </c>
       <c r="KO4" t="n">
-        <v>1547.316650390625</v>
+        <v>2289.912353515625</v>
       </c>
       <c r="KP4" t="n">
-        <v>1480.156982421875</v>
+        <v>2286.952392578125</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1426.308349609375</v>
+        <v>2282.107177734375</v>
       </c>
       <c r="KR4" t="n">
-        <v>1374.71826171875</v>
+        <v>2199.2900390625</v>
       </c>
       <c r="KS4" t="n">
-        <v>1312.780639648438</v>
+        <v>2143.227783203125</v>
       </c>
       <c r="KT4" t="n">
-        <v>1268.422485351562</v>
+        <v>2093.935791015625</v>
       </c>
       <c r="KU4" t="n">
-        <v>1193.815307617188</v>
+        <v>2020.677734375</v>
       </c>
       <c r="KV4" t="n">
-        <v>1142.239379882812</v>
+        <v>1915.105224609375</v>
       </c>
       <c r="KW4" t="n">
-        <v>1090.921630859375</v>
+        <v>1837.706176757812</v>
       </c>
       <c r="KX4" t="n">
-        <v>1039.281982421875</v>
+        <v>1708.520385742188</v>
       </c>
       <c r="KY4" t="n">
-        <v>1018.265563964844</v>
+        <v>1638.8037109375</v>
       </c>
       <c r="KZ4" t="n">
-        <v>997.4293823242188</v>
+        <v>1552.060546875</v>
       </c>
       <c r="LA4" t="n">
-        <v>958.8837890625</v>
+        <v>1454.914184570312</v>
       </c>
       <c r="LB4" t="n">
-        <v>952.72509765625</v>
+        <v>1341.557739257812</v>
       </c>
       <c r="LC4" t="n">
-        <v>939.7288818359375</v>
+        <v>1204.363403320312</v>
       </c>
       <c r="LD4" t="n">
-        <v>933.9094848632812</v>
+        <v>1065.078369140625</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>945.8081665039062</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>859.0719604492188</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>803.833740234375</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>687.3653564453125</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>623.5728149414062</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>547.7150268554688</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>544.7577514648438</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>495.3782348632812</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>436.3316345214844</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>473.7127685546875</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>441.9719848632812</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>427.8745727539062</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>402.0061340332031</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>396.004150390625</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>362.4971313476562</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>395.1162109375</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>344.2810974121094</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>337.0745849609375</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>334.1162414550781</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>334.0834045410156</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>338.8637084960938</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>333.2217407226562</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>332.5824279785156</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>331.8407287597656</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>317.4123229980469</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>317.357666015625</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>325.6343688964844</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>318.0657348632812</v>
       </c>
     </row>
   </sheetData>
